--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -423,7 +423,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -453,764 +455,1267 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A5:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5">
+      <c r="C5" t="n" s="1">
+        <v>44753.0</v>
+      </c>
+      <c r="D5" t="n" s="2">
+        <v>44754.0</v>
+      </c>
+      <c r="E5" t="n" s="3">
+        <v>44755.0</v>
+      </c>
+      <c r="F5" t="n" s="4">
+        <v>44756.0</v>
+      </c>
+      <c r="G5" t="n" s="5">
+        <v>44757.0</v>
+      </c>
+      <c r="H5" t="n" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="I5" t="n" s="7">
+        <v>44761.0</v>
+      </c>
+      <c r="J5" t="n" s="8">
+        <v>44762.0</v>
+      </c>
+      <c r="K5" t="n" s="9">
+        <v>44763.0</v>
+      </c>
+      <c r="L5" t="n" s="10">
+        <v>44764.0</v>
+      </c>
+      <c r="M5" t="n" s="11">
+        <v>44753.0</v>
+      </c>
+      <c r="N5" t="n" s="12">
+        <v>44754.0</v>
+      </c>
+      <c r="O5" t="n" s="13">
+        <v>44755.0</v>
+      </c>
+      <c r="P5" t="n" s="14">
+        <v>44753.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s">
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s">
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s">
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B54" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s">
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s">
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
+    <row r="66">
+      <c r="A66" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s">
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s">
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
+    <row r="72">
+      <c r="A72" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
+    <row r="73">
+      <c r="A73" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
+    <row r="74">
+      <c r="A74" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s">
+    <row r="75">
+      <c r="A75" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s">
+    <row r="76">
+      <c r="A76" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
+    <row r="77">
+      <c r="A77" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
+    <row r="78">
+      <c r="A78" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s">
+    <row r="79">
+      <c r="A79" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
+    <row r="80">
+      <c r="A80" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
+    <row r="81">
+      <c r="A81" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s">
+    <row r="82">
+      <c r="A82" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s">
+    <row r="83">
+      <c r="A83" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
+    <row r="84">
+      <c r="A84" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
+    <row r="85">
+      <c r="A85" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B85" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
+    <row r="86">
+      <c r="A86" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s">
+    <row r="87">
+      <c r="A87" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s">
+    <row r="88">
+      <c r="A88" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B88" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
+    <row r="89">
+      <c r="A89" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B89" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s">
+    <row r="90">
+      <c r="A90" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B90" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
+    <row r="91">
+      <c r="A91" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B91" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s">
+    <row r="92">
+      <c r="A92" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s">
+    <row r="93">
+      <c r="A93" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s">
+    <row r="94">
+      <c r="A94" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B94" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
+    <row r="95">
+      <c r="A95" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B95" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s">
+    <row r="96">
+      <c r="A96" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B96" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s">
+    <row r="97">
+      <c r="A97" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B97" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s">
+    <row r="98">
+      <c r="A98" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s">
+    <row r="99">
+      <c r="A99" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s">
+    <row r="100">
+      <c r="A100" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B100" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s">
+    <row r="101">
+      <c r="A101" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s">
+    <row r="102">
+      <c r="A102" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s">
+    <row r="103">
+      <c r="A103" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B103" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="s">
+    <row r="104">
+      <c r="A104" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B104" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s">
+    <row r="105">
+      <c r="A105" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B105" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="s">
+    <row r="106">
+      <c r="A106" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
+    <row r="107">
+      <c r="A107" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B107" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s">
+    <row r="108">
+      <c r="A108" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
+    <row r="109">
+      <c r="A109" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B109" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s">
+    <row r="110">
+      <c r="A110" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s">
+    <row r="111">
+      <c r="A111" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s">
+    <row r="112">
+      <c r="A112" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B112" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s">
+    <row r="113">
+      <c r="A113" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B113" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="s">
+    <row r="114">
+      <c r="A114" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B114" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="s">
+    <row r="115">
+      <c r="A115" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B115" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s">
+    <row r="116">
+      <c r="A116" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B116" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s">
+    <row r="117">
+      <c r="A117" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B117" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="s">
+    <row r="118">
+      <c r="A118" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="s">
+    <row r="119">
+      <c r="A119" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B119" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="s">
+    <row r="120">
+      <c r="A120" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="s">
+    <row r="121">
+      <c r="A121" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B121" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="s">
+    <row r="122">
+      <c r="A122" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B122" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="s">
+    <row r="123">
+      <c r="A123" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="s">
+    <row r="124">
+      <c r="A124" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="s">
+    <row r="125">
+      <c r="A125" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="s">
+    <row r="126">
+      <c r="A126" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B126" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s">
+    <row r="127">
+      <c r="A127" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B127" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s">
+    <row r="128">
+      <c r="A128" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B128" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s">
+    <row r="129">
+      <c r="A129" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B129" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s">
+    <row r="130">
+      <c r="A130" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B130" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="s">
+    <row r="131">
+      <c r="A131" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B131" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="s">
+    <row r="132">
+      <c r="A132" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B132" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="s">
+    <row r="133">
+      <c r="A133" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B133" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s">
+    <row r="134">
+      <c r="A134" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B134" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="s">
+    <row r="135">
+      <c r="A135" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B135" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="s">
+    <row r="136">
+      <c r="A136" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B136" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="s">
+    <row r="137">
+      <c r="A137" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="s">
+    <row r="138">
+      <c r="A138" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B138" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="s">
+    <row r="139">
+      <c r="A139" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B139" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="s">
+    <row r="140">
+      <c r="A140" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="s">
+    <row r="141">
+      <c r="A141" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B141" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="s">
+    <row r="142">
+      <c r="A142" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B142" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="s">
+    <row r="143">
+      <c r="A143" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B143" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="s">
+    <row r="144">
+      <c r="A144" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B144" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="s">
+    <row r="145">
+      <c r="A145" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B145" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="s">
+    <row r="146">
+      <c r="A146" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B146" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="s">
+    <row r="147">
+      <c r="A147" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B147" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="s">
+    <row r="148">
+      <c r="A148" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B148" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="s">
+    <row r="149">
+      <c r="A149" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B149" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="s">
+    <row r="150">
+      <c r="A150" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B150" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="s">
+    <row r="151">
+      <c r="A151" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B151" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="s">
+    <row r="152">
+      <c r="A152" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B152" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="s">
+    <row r="153">
+      <c r="A153" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B153" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="s">
+    <row r="154">
+      <c r="A154" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B154" t="s">
         <v>134</v>
       </c>
     </row>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+  <si>
+    <t>SGSITS, INDORE</t>
+  </si>
   <si>
     <t>Dr. R.K. Shrivastava</t>
   </si>
@@ -455,8 +458,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -477,53 +483,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A5:P154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="C5" t="n" s="1">
+      <c r="C5" t="n" s="2">
         <v>44753.0</v>
       </c>
-      <c r="D5" t="n" s="2">
+      <c r="D5" t="n" s="3">
         <v>44754.0</v>
       </c>
-      <c r="E5" t="n" s="3">
+      <c r="E5" t="n" s="4">
         <v>44755.0</v>
       </c>
-      <c r="F5" t="n" s="4">
+      <c r="F5" t="n" s="5">
         <v>44756.0</v>
       </c>
-      <c r="G5" t="n" s="5">
+      <c r="G5" t="n" s="6">
         <v>44757.0</v>
       </c>
-      <c r="H5" t="n" s="6">
+      <c r="H5" t="n" s="7">
         <v>44760.0</v>
       </c>
-      <c r="I5" t="n" s="7">
+      <c r="I5" t="n" s="8">
         <v>44761.0</v>
       </c>
-      <c r="J5" t="n" s="8">
+      <c r="J5" t="n" s="9">
         <v>44762.0</v>
       </c>
-      <c r="K5" t="n" s="9">
+      <c r="K5" t="n" s="10">
         <v>44763.0</v>
       </c>
-      <c r="L5" t="n" s="10">
+      <c r="L5" t="n" s="11">
         <v>44764.0</v>
       </c>
-      <c r="M5" t="n" s="11">
+      <c r="M5" t="n" s="12">
         <v>44753.0</v>
       </c>
-      <c r="N5" t="n" s="12">
+      <c r="N5" t="n" s="13">
         <v>44754.0</v>
       </c>
-      <c r="O5" t="n" s="13">
+      <c r="O5" t="n" s="14">
         <v>44755.0</v>
       </c>
-      <c r="P5" t="n" s="14">
+      <c r="P5" t="n" s="15">
         <v>44753.0</v>
       </c>
     </row>
@@ -532,7 +543,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +551,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -548,7 +559,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -556,7 +567,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +575,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +583,7 @@
         <v>6.0</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +591,7 @@
         <v>7.0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -588,7 +599,7 @@
         <v>8.0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +607,7 @@
         <v>9.0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +615,7 @@
         <v>10.0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +623,7 @@
         <v>11.0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -620,7 +631,7 @@
         <v>12.0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +639,7 @@
         <v>13.0</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +647,7 @@
         <v>14.0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -644,7 +655,7 @@
         <v>15.0</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +663,7 @@
         <v>16.0</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -660,7 +671,7 @@
         <v>17.0</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -668,7 +679,7 @@
         <v>18.0</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -676,7 +687,7 @@
         <v>19.0</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -684,7 +695,7 @@
         <v>20.0</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +703,7 @@
         <v>21.0</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -700,7 +711,7 @@
         <v>22.0</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -708,7 +719,7 @@
         <v>23.0</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +727,7 @@
         <v>24.0</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -724,7 +735,7 @@
         <v>25.0</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -732,7 +743,7 @@
         <v>26.0</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +751,7 @@
         <v>27.0</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +759,7 @@
         <v>28.0</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -756,7 +767,7 @@
         <v>29.0</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -764,7 +775,7 @@
         <v>30.0</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -772,7 +783,7 @@
         <v>31.0</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -780,7 +791,7 @@
         <v>32.0</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -788,7 +799,7 @@
         <v>33.0</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -796,7 +807,7 @@
         <v>34.0</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +815,7 @@
         <v>35.0</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -812,7 +823,7 @@
         <v>36.0</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -820,7 +831,7 @@
         <v>37.0</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -828,7 +839,7 @@
         <v>38.0</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -836,7 +847,7 @@
         <v>39.0</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -844,7 +855,7 @@
         <v>40.0</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +863,7 @@
         <v>41.0</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -860,7 +871,7 @@
         <v>42.0</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
@@ -868,7 +879,7 @@
         <v>43.0</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -876,7 +887,7 @@
         <v>44.0</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -884,7 +895,7 @@
         <v>45.0</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -892,7 +903,7 @@
         <v>46.0</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
@@ -900,7 +911,7 @@
         <v>47.0</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -908,7 +919,7 @@
         <v>48.0</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -916,7 +927,7 @@
         <v>49.0</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -924,7 +935,7 @@
         <v>50.0</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -932,7 +943,7 @@
         <v>51.0</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
@@ -940,7 +951,7 @@
         <v>52.0</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
@@ -948,7 +959,7 @@
         <v>53.0</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59">
@@ -956,7 +967,7 @@
         <v>54.0</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
@@ -964,7 +975,7 @@
         <v>55.0</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -972,7 +983,7 @@
         <v>56.0</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
@@ -980,7 +991,7 @@
         <v>57.0</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -988,7 +999,7 @@
         <v>58.0</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +1007,7 @@
         <v>59.0</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -1004,7 +1015,7 @@
         <v>60.0</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
@@ -1012,7 +1023,7 @@
         <v>61.0</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67">
@@ -1020,7 +1031,7 @@
         <v>62.0</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1039,7 @@
         <v>63.0</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69">
@@ -1036,7 +1047,7 @@
         <v>64.0</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -1044,7 +1055,7 @@
         <v>65.0</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
@@ -1052,7 +1063,7 @@
         <v>66.0</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
@@ -1060,7 +1071,7 @@
         <v>67.0</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
@@ -1068,7 +1079,7 @@
         <v>68.0</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -1076,7 +1087,7 @@
         <v>69.0</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
@@ -1084,7 +1095,7 @@
         <v>70.0</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -1092,7 +1103,7 @@
         <v>71.0</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77">
@@ -1100,7 +1111,7 @@
         <v>72.0</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
@@ -1108,7 +1119,7 @@
         <v>73.0</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
@@ -1116,7 +1127,7 @@
         <v>74.0</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
@@ -1124,7 +1135,7 @@
         <v>75.0</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
@@ -1132,7 +1143,7 @@
         <v>76.0</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82">
@@ -1140,7 +1151,7 @@
         <v>77.0</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
@@ -1148,7 +1159,7 @@
         <v>78.0</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
@@ -1156,7 +1167,7 @@
         <v>79.0</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85">
@@ -1164,7 +1175,7 @@
         <v>80.0</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -1172,7 +1183,7 @@
         <v>81.0</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
@@ -1180,7 +1191,7 @@
         <v>82.0</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
@@ -1188,7 +1199,7 @@
         <v>83.0</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -1196,7 +1207,7 @@
         <v>84.0</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
@@ -1204,7 +1215,7 @@
         <v>85.0</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -1212,7 +1223,7 @@
         <v>86.0</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
@@ -1220,7 +1231,7 @@
         <v>87.0</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
@@ -1228,7 +1239,7 @@
         <v>88.0</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
@@ -1236,7 +1247,7 @@
         <v>89.0</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
@@ -1244,7 +1255,7 @@
         <v>90.0</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
@@ -1252,7 +1263,7 @@
         <v>91.0</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -1260,7 +1271,7 @@
         <v>92.0</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
@@ -1268,7 +1279,7 @@
         <v>93.0</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99">
@@ -1276,7 +1287,7 @@
         <v>94.0</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100">
@@ -1284,7 +1295,7 @@
         <v>95.0</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
@@ -1292,7 +1303,7 @@
         <v>96.0</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102">
@@ -1300,7 +1311,7 @@
         <v>97.0</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -1308,7 +1319,7 @@
         <v>98.0</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104">
@@ -1316,7 +1327,7 @@
         <v>99.0</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105">
@@ -1324,7 +1335,7 @@
         <v>100.0</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
@@ -1332,7 +1343,7 @@
         <v>101.0</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
@@ -1340,7 +1351,7 @@
         <v>102.0</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
@@ -1348,7 +1359,7 @@
         <v>103.0</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
@@ -1356,7 +1367,7 @@
         <v>104.0</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
@@ -1364,7 +1375,7 @@
         <v>105.0</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
@@ -1372,7 +1383,7 @@
         <v>106.0</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112">
@@ -1380,7 +1391,7 @@
         <v>107.0</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113">
@@ -1388,7 +1399,7 @@
         <v>108.0</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
@@ -1396,7 +1407,7 @@
         <v>109.0</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -1404,7 +1415,7 @@
         <v>110.0</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
@@ -1412,7 +1423,7 @@
         <v>111.0</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
@@ -1420,7 +1431,7 @@
         <v>112.0</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
@@ -1428,7 +1439,7 @@
         <v>113.0</v>
       </c>
       <c r="B118" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
@@ -1436,7 +1447,7 @@
         <v>114.0</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
@@ -1444,7 +1455,7 @@
         <v>115.0</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
@@ -1452,7 +1463,7 @@
         <v>116.0</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122">
@@ -1460,7 +1471,7 @@
         <v>117.0</v>
       </c>
       <c r="B122" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123">
@@ -1468,7 +1479,7 @@
         <v>118.0</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124">
@@ -1476,7 +1487,7 @@
         <v>119.0</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
@@ -1484,7 +1495,7 @@
         <v>120.0</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126">
@@ -1492,7 +1503,7 @@
         <v>121.0</v>
       </c>
       <c r="B126" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
@@ -1500,7 +1511,7 @@
         <v>122.0</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
@@ -1508,7 +1519,7 @@
         <v>123.0</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129">
@@ -1516,7 +1527,7 @@
         <v>124.0</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
@@ -1524,7 +1535,7 @@
         <v>125.0</v>
       </c>
       <c r="B130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131">
@@ -1532,7 +1543,7 @@
         <v>126.0</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
@@ -1540,7 +1551,7 @@
         <v>127.0</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
@@ -1548,7 +1559,7 @@
         <v>128.0</v>
       </c>
       <c r="B133" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134">
@@ -1556,7 +1567,7 @@
         <v>129.0</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
@@ -1564,7 +1575,7 @@
         <v>130.0</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -1572,7 +1583,7 @@
         <v>131.0</v>
       </c>
       <c r="B136" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
@@ -1580,7 +1591,7 @@
         <v>132.0</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
@@ -1588,7 +1599,7 @@
         <v>133.0</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
@@ -1596,7 +1607,7 @@
         <v>134.0</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
@@ -1604,7 +1615,7 @@
         <v>135.0</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
@@ -1612,7 +1623,7 @@
         <v>136.0</v>
       </c>
       <c r="B141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
@@ -1620,7 +1631,7 @@
         <v>137.0</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -1628,7 +1639,7 @@
         <v>138.0</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
@@ -1636,7 +1647,7 @@
         <v>139.0</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145">
@@ -1644,7 +1655,7 @@
         <v>140.0</v>
       </c>
       <c r="B145" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
@@ -1652,7 +1663,7 @@
         <v>141.0</v>
       </c>
       <c r="B146" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
@@ -1660,7 +1671,7 @@
         <v>142.0</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
@@ -1668,7 +1679,7 @@
         <v>143.0</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -1676,7 +1687,7 @@
         <v>144.0</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
@@ -1684,7 +1695,7 @@
         <v>145.0</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151">
@@ -1692,7 +1703,7 @@
         <v>146.0</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152">
@@ -1700,7 +1711,7 @@
         <v>147.0</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -1708,7 +1719,7 @@
         <v>148.0</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
@@ -1716,10 +1727,13 @@
         <v>149.0</v>
       </c>
       <c r="B154" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q4"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
-    <t>SGSITS, INDORE</t>
+    <t>Shri G. S. Institute of Technology &amp; Science Indore -452003</t>
   </si>
   <si>
     <t>Dr. R.K. Shrivastava</t>
@@ -461,7 +461,7 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="137">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>Mrs.Sarika Tiwari</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -458,11 +461,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -483,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P154"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -511,31 +515,34 @@
         <v>44757.0</v>
       </c>
       <c r="H5" t="n" s="7">
+        <v>44758.0</v>
+      </c>
+      <c r="I5" t="n" s="8">
+        <v>44759.0</v>
+      </c>
+      <c r="J5" t="n" s="9">
         <v>44760.0</v>
       </c>
-      <c r="I5" t="n" s="8">
+      <c r="K5" t="n" s="10">
         <v>44761.0</v>
       </c>
-      <c r="J5" t="n" s="9">
+      <c r="L5" t="n" s="11">
         <v>44762.0</v>
       </c>
-      <c r="K5" t="n" s="10">
+      <c r="M5" t="n" s="12">
         <v>44763.0</v>
       </c>
-      <c r="L5" t="n" s="11">
+      <c r="N5" t="n" s="13">
         <v>44764.0</v>
       </c>
-      <c r="M5" t="n" s="12">
-        <v>44753.0</v>
-      </c>
-      <c r="N5" t="n" s="13">
-        <v>44754.0</v>
-      </c>
       <c r="O5" t="n" s="14">
-        <v>44755.0</v>
+        <v>44765.0</v>
       </c>
       <c r="P5" t="n" s="15">
-        <v>44753.0</v>
+        <v>44766.0</v>
+      </c>
+      <c r="Q5" t="n" s="16">
+        <v>44767.0</v>
       </c>
     </row>
     <row r="6">
@@ -545,6 +552,12 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -553,6 +566,9 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -561,6 +577,9 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -577,6 +596,9 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="M10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -593,6 +615,9 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -617,6 +642,9 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -633,6 +661,15 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -641,6 +678,9 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -657,6 +697,9 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -665,6 +708,12 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
+      <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -673,6 +722,9 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -689,6 +741,12 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -697,6 +755,15 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -705,6 +772,9 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -713,6 +783,15 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -729,6 +808,9 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -737,6 +819,12 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
+      <c r="O30" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -753,6 +841,9 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
+      <c r="H32" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -761,6 +852,15 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -769,6 +869,9 @@
       <c r="B34" t="s">
         <v>28</v>
       </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -777,6 +880,12 @@
       <c r="B35" t="s">
         <v>29</v>
       </c>
+      <c r="I35" t="s">
+        <v>136</v>
+      </c>
+      <c r="N35" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -785,6 +894,9 @@
       <c r="B36" t="s">
         <v>30</v>
       </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -793,6 +905,9 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -801,6 +916,9 @@
       <c r="B38" t="s">
         <v>32</v>
       </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -809,6 +927,15 @@
       <c r="B39" t="s">
         <v>33</v>
       </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="M39" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -817,6 +944,9 @@
       <c r="B40" t="s">
         <v>34</v>
       </c>
+      <c r="L40" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -825,6 +955,9 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
+      <c r="L41" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -841,6 +974,12 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -849,6 +988,12 @@
       <c r="B44" t="s">
         <v>37</v>
       </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -865,6 +1010,9 @@
       <c r="B46" t="s">
         <v>38</v>
       </c>
+      <c r="L46" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -897,6 +1045,15 @@
       <c r="B50" t="s">
         <v>42</v>
       </c>
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -937,6 +1094,9 @@
       <c r="B55" t="s">
         <v>46</v>
       </c>
+      <c r="Q55" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -945,6 +1105,9 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
+      <c r="Q56" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -969,6 +1132,9 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
+      <c r="L59" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -977,6 +1143,9 @@
       <c r="B60" t="s">
         <v>51</v>
       </c>
+      <c r="E60" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -985,6 +1154,9 @@
       <c r="B61" t="s">
         <v>52</v>
       </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -993,6 +1165,12 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="O62" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1033,6 +1211,9 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
+      <c r="I67" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1041,6 +1222,9 @@
       <c r="B68" t="s">
         <v>59</v>
       </c>
+      <c r="K68" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1049,6 +1233,9 @@
       <c r="B69" t="s">
         <v>17</v>
       </c>
+      <c r="M69" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1073,6 +1260,9 @@
       <c r="B72" t="s">
         <v>62</v>
       </c>
+      <c r="I72" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1097,6 +1287,12 @@
       <c r="B75" t="s">
         <v>65</v>
       </c>
+      <c r="F75" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1113,6 +1309,9 @@
       <c r="B77" t="s">
         <v>67</v>
       </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1145,6 +1344,12 @@
       <c r="B81" t="s">
         <v>71</v>
       </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1153,6 +1358,9 @@
       <c r="B82" t="s">
         <v>72</v>
       </c>
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1161,6 +1369,9 @@
       <c r="B83" t="s">
         <v>73</v>
       </c>
+      <c r="L83" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1185,6 +1396,9 @@
       <c r="B86" t="s">
         <v>76</v>
       </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1225,6 +1439,15 @@
       <c r="B91" t="s">
         <v>80</v>
       </c>
+      <c r="H91" t="s">
+        <v>136</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+      <c r="P91" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1241,6 +1464,12 @@
       <c r="B93" t="s">
         <v>82</v>
       </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1273,6 +1502,12 @@
       <c r="B97" t="s">
         <v>85</v>
       </c>
+      <c r="C97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1281,6 +1516,15 @@
       <c r="B98" t="s">
         <v>86</v>
       </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+      <c r="K98" t="s">
+        <v>136</v>
+      </c>
+      <c r="L98" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1289,6 +1533,9 @@
       <c r="B99" t="s">
         <v>87</v>
       </c>
+      <c r="M99" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1297,6 +1544,9 @@
       <c r="B100" t="s">
         <v>88</v>
       </c>
+      <c r="O100" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1305,6 +1555,12 @@
       <c r="B101" t="s">
         <v>89</v>
       </c>
+      <c r="C101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1313,6 +1569,9 @@
       <c r="B102" t="s">
         <v>90</v>
       </c>
+      <c r="Q102" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1345,6 +1604,9 @@
       <c r="B106" t="s">
         <v>94</v>
       </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1361,6 +1623,12 @@
       <c r="B108" t="s">
         <v>17</v>
       </c>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1385,6 +1653,12 @@
       <c r="B111" t="s">
         <v>98</v>
       </c>
+      <c r="F111" t="s">
+        <v>136</v>
+      </c>
+      <c r="M111" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1393,6 +1667,9 @@
       <c r="B112" t="s">
         <v>99</v>
       </c>
+      <c r="O112" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1401,6 +1678,9 @@
       <c r="B113" t="s">
         <v>100</v>
       </c>
+      <c r="F113" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1417,6 +1697,9 @@
       <c r="B115" t="s">
         <v>101</v>
       </c>
+      <c r="Q115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1425,6 +1708,9 @@
       <c r="B116" t="s">
         <v>102</v>
       </c>
+      <c r="P116" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1433,6 +1719,12 @@
       <c r="B117" t="s">
         <v>103</v>
       </c>
+      <c r="O117" t="s">
+        <v>136</v>
+      </c>
+      <c r="P117" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1441,6 +1733,9 @@
       <c r="B118" t="s">
         <v>104</v>
       </c>
+      <c r="Q118" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1465,6 +1760,9 @@
       <c r="B121" t="s">
         <v>107</v>
       </c>
+      <c r="F121" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1489,6 +1787,15 @@
       <c r="B124" t="s">
         <v>110</v>
       </c>
+      <c r="E124" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1497,6 +1804,12 @@
       <c r="B125" t="s">
         <v>111</v>
       </c>
+      <c r="G125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I125" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1505,6 +1818,9 @@
       <c r="B126" t="s">
         <v>112</v>
       </c>
+      <c r="O126" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1513,6 +1829,15 @@
       <c r="B127" t="s">
         <v>113</v>
       </c>
+      <c r="L127" t="s">
+        <v>136</v>
+      </c>
+      <c r="M127" t="s">
+        <v>136</v>
+      </c>
+      <c r="O127" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1537,6 +1862,12 @@
       <c r="B130" t="s">
         <v>115</v>
       </c>
+      <c r="F130" t="s">
+        <v>136</v>
+      </c>
+      <c r="K130" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1545,6 +1876,9 @@
       <c r="B131" t="s">
         <v>116</v>
       </c>
+      <c r="P131" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1553,6 +1887,9 @@
       <c r="B132" t="s">
         <v>117</v>
       </c>
+      <c r="L132" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1561,6 +1898,12 @@
       <c r="B133" t="s">
         <v>118</v>
       </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1569,6 +1912,9 @@
       <c r="B134" t="s">
         <v>119</v>
       </c>
+      <c r="H134" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1577,6 +1923,9 @@
       <c r="B135" t="s">
         <v>17</v>
       </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1585,6 +1934,9 @@
       <c r="B136" t="s">
         <v>120</v>
       </c>
+      <c r="D136" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1609,6 +1961,15 @@
       <c r="B139" t="s">
         <v>123</v>
       </c>
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" t="s">
+        <v>136</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1625,6 +1986,9 @@
       <c r="B141" t="s">
         <v>125</v>
       </c>
+      <c r="E141" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1633,6 +1997,9 @@
       <c r="B142" t="s">
         <v>17</v>
       </c>
+      <c r="I142" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1649,6 +2016,9 @@
       <c r="B144" t="s">
         <v>127</v>
       </c>
+      <c r="F144" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1673,6 +2043,9 @@
       <c r="B147" t="s">
         <v>130</v>
       </c>
+      <c r="L147" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1681,6 +2054,9 @@
       <c r="B148" t="s">
         <v>17</v>
       </c>
+      <c r="C148" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1689,6 +2065,12 @@
       <c r="B149" t="s">
         <v>131</v>
       </c>
+      <c r="K149" t="s">
+        <v>136</v>
+      </c>
+      <c r="O149" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1697,6 +2079,12 @@
       <c r="B150" t="s">
         <v>132</v>
       </c>
+      <c r="C150" t="s">
+        <v>136</v>
+      </c>
+      <c r="F150" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1721,6 +2109,9 @@
       <c r="B153" t="s">
         <v>134</v>
       </c>
+      <c r="L153" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1732,7 +2123,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q4"/>
+    <mergeCell ref="A1:R4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003</t>
   </si>
@@ -552,10 +552,7 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -566,7 +563,13 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -577,7 +580,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" t="s">
         <v>136</v>
       </c>
     </row>
@@ -588,6 +594,12 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -596,9 +608,6 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -615,7 +624,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -634,6 +643,9 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -642,7 +654,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="L15" t="s">
+      <c r="H15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -653,6 +665,12 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -661,15 +679,6 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="I17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" t="s">
-        <v>136</v>
-      </c>
-      <c r="P17" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -678,9 +687,6 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -697,9 +703,6 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -708,10 +711,7 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>136</v>
       </c>
     </row>
@@ -722,9 +722,6 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -741,12 +738,6 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -755,13 +746,7 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>136</v>
       </c>
     </row>
@@ -772,7 +757,7 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="M26" t="s">
         <v>136</v>
       </c>
     </row>
@@ -783,15 +768,6 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" t="s">
-        <v>136</v>
-      </c>
-      <c r="P27" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -808,9 +784,6 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -819,9 +792,6 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="O30" t="s">
-        <v>136</v>
-      </c>
       <c r="P30" t="s">
         <v>136</v>
       </c>
@@ -841,7 +811,10 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="H32" t="s">
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" t="s">
         <v>136</v>
       </c>
     </row>
@@ -852,15 +825,6 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -869,7 +833,7 @@
       <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="N34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -880,10 +844,7 @@
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="I35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="L35" t="s">
         <v>136</v>
       </c>
     </row>
@@ -894,7 +855,10 @@
       <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="H36" t="s">
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -905,7 +869,7 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -916,7 +880,7 @@
       <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -930,10 +894,7 @@
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="I39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -944,7 +905,7 @@
       <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="L40" t="s">
+      <c r="G40" t="s">
         <v>136</v>
       </c>
     </row>
@@ -955,7 +916,7 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -974,12 +935,6 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" t="s">
-        <v>136</v>
-      </c>
-      <c r="O43" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -988,12 +943,6 @@
       <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="G44" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1010,9 +959,6 @@
       <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="L46" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1021,6 +967,9 @@
       <c r="B47" t="s">
         <v>39</v>
       </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1037,6 +986,9 @@
       <c r="B49" t="s">
         <v>41</v>
       </c>
+      <c r="H49" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1045,13 +997,7 @@
       <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="F50" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="C50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1078,6 +1024,12 @@
       <c r="B53" t="s">
         <v>45</v>
       </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="L53" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1105,9 +1057,6 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="Q56" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1124,6 +1073,9 @@
       <c r="B58" t="s">
         <v>49</v>
       </c>
+      <c r="E58" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1132,9 +1084,6 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="L59" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1143,9 +1092,6 @@
       <c r="B60" t="s">
         <v>51</v>
       </c>
-      <c r="E60" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1154,7 +1100,7 @@
       <c r="B61" t="s">
         <v>52</v>
       </c>
-      <c r="G61" t="s">
+      <c r="E61" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1165,10 +1111,10 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" t="s">
-        <v>136</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="M62" t="s">
+        <v>136</v>
+      </c>
+      <c r="P62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1179,6 +1125,9 @@
       <c r="B63" t="s">
         <v>54</v>
       </c>
+      <c r="O63" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1187,6 +1136,9 @@
       <c r="B64" t="s">
         <v>55</v>
       </c>
+      <c r="M64" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1195,6 +1147,9 @@
       <c r="B65" t="s">
         <v>56</v>
       </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1203,6 +1158,9 @@
       <c r="B66" t="s">
         <v>57</v>
       </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1211,7 +1169,7 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1222,9 +1180,6 @@
       <c r="B68" t="s">
         <v>59</v>
       </c>
-      <c r="K68" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1233,9 +1188,6 @@
       <c r="B69" t="s">
         <v>17</v>
       </c>
-      <c r="M69" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1244,6 +1196,12 @@
       <c r="B70" t="s">
         <v>60</v>
       </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1260,9 +1218,6 @@
       <c r="B72" t="s">
         <v>62</v>
       </c>
-      <c r="I72" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1279,6 +1234,9 @@
       <c r="B74" t="s">
         <v>64</v>
       </c>
+      <c r="P74" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1290,9 +1248,6 @@
       <c r="F75" t="s">
         <v>136</v>
       </c>
-      <c r="G75" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1301,6 +1256,12 @@
       <c r="B76" t="s">
         <v>66</v>
       </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1312,6 +1273,12 @@
       <c r="C77" t="s">
         <v>136</v>
       </c>
+      <c r="M77" t="s">
+        <v>136</v>
+      </c>
+      <c r="O77" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1336,6 +1303,12 @@
       <c r="B80" t="s">
         <v>70</v>
       </c>
+      <c r="G80" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1344,9 +1317,6 @@
       <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="E81" t="s">
-        <v>136</v>
-      </c>
       <c r="G81" t="s">
         <v>136</v>
       </c>
@@ -1358,7 +1328,7 @@
       <c r="B82" t="s">
         <v>72</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1369,9 +1339,6 @@
       <c r="B83" t="s">
         <v>73</v>
       </c>
-      <c r="L83" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1396,9 +1363,6 @@
       <c r="B86" t="s">
         <v>76</v>
       </c>
-      <c r="D86" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1407,6 +1371,9 @@
       <c r="B87" t="s">
         <v>77</v>
       </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1431,6 +1398,9 @@
       <c r="B90" t="s">
         <v>79</v>
       </c>
+      <c r="E90" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1439,13 +1409,7 @@
       <c r="B91" t="s">
         <v>80</v>
       </c>
-      <c r="H91" t="s">
-        <v>136</v>
-      </c>
-      <c r="I91" t="s">
-        <v>136</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1464,10 +1428,10 @@
       <c r="B93" t="s">
         <v>82</v>
       </c>
-      <c r="D93" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q93" t="s">
+      <c r="M93" t="s">
+        <v>136</v>
+      </c>
+      <c r="O93" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1478,6 +1442,12 @@
       <c r="B94" t="s">
         <v>83</v>
       </c>
+      <c r="L94" t="s">
+        <v>136</v>
+      </c>
+      <c r="M94" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1486,6 +1456,9 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
+      <c r="O95" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1502,12 +1475,6 @@
       <c r="B97" t="s">
         <v>85</v>
       </c>
-      <c r="C97" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1516,15 +1483,6 @@
       <c r="B98" t="s">
         <v>86</v>
       </c>
-      <c r="I98" t="s">
-        <v>136</v>
-      </c>
-      <c r="K98" t="s">
-        <v>136</v>
-      </c>
-      <c r="L98" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1533,7 +1491,7 @@
       <c r="B99" t="s">
         <v>87</v>
       </c>
-      <c r="M99" t="s">
+      <c r="Q99" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1544,9 +1502,6 @@
       <c r="B100" t="s">
         <v>88</v>
       </c>
-      <c r="O100" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1555,10 +1510,7 @@
       <c r="B101" t="s">
         <v>89</v>
       </c>
-      <c r="C101" t="s">
-        <v>136</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1569,7 +1521,10 @@
       <c r="B102" t="s">
         <v>90</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1580,6 +1535,9 @@
       <c r="B103" t="s">
         <v>91</v>
       </c>
+      <c r="H103" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1588,6 +1546,9 @@
       <c r="B104" t="s">
         <v>92</v>
       </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1596,6 +1557,12 @@
       <c r="B105" t="s">
         <v>93</v>
       </c>
+      <c r="F105" t="s">
+        <v>136</v>
+      </c>
+      <c r="O105" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1604,9 +1571,6 @@
       <c r="B106" t="s">
         <v>94</v>
       </c>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1615,6 +1579,12 @@
       <c r="B107" t="s">
         <v>95</v>
       </c>
+      <c r="K107" t="s">
+        <v>136</v>
+      </c>
+      <c r="O107" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1623,12 +1593,6 @@
       <c r="B108" t="s">
         <v>17</v>
       </c>
-      <c r="J108" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1645,6 +1609,9 @@
       <c r="B110" t="s">
         <v>97</v>
       </c>
+      <c r="L110" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1653,10 +1620,7 @@
       <c r="B111" t="s">
         <v>98</v>
       </c>
-      <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="M111" t="s">
+      <c r="L111" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1667,9 +1631,6 @@
       <c r="B112" t="s">
         <v>99</v>
       </c>
-      <c r="O112" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1678,9 +1639,6 @@
       <c r="B113" t="s">
         <v>100</v>
       </c>
-      <c r="F113" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1697,7 +1655,7 @@
       <c r="B115" t="s">
         <v>101</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="I115" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1708,7 +1666,7 @@
       <c r="B116" t="s">
         <v>102</v>
       </c>
-      <c r="P116" t="s">
+      <c r="I116" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1719,12 +1677,6 @@
       <c r="B117" t="s">
         <v>103</v>
       </c>
-      <c r="O117" t="s">
-        <v>136</v>
-      </c>
-      <c r="P117" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1733,6 +1685,9 @@
       <c r="B118" t="s">
         <v>104</v>
       </c>
+      <c r="K118" t="s">
+        <v>136</v>
+      </c>
       <c r="Q118" t="s">
         <v>136</v>
       </c>
@@ -1744,6 +1699,9 @@
       <c r="B119" t="s">
         <v>105</v>
       </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1752,6 +1710,9 @@
       <c r="B120" t="s">
         <v>106</v>
       </c>
+      <c r="E120" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1760,7 +1721,7 @@
       <c r="B121" t="s">
         <v>107</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1771,6 +1732,12 @@
       <c r="B122" t="s">
         <v>108</v>
       </c>
+      <c r="H122" t="s">
+        <v>136</v>
+      </c>
+      <c r="K122" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1779,6 +1746,9 @@
       <c r="B123" t="s">
         <v>109</v>
       </c>
+      <c r="H123" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1787,13 +1757,7 @@
       <c r="B124" t="s">
         <v>110</v>
       </c>
-      <c r="E124" t="s">
-        <v>136</v>
-      </c>
-      <c r="K124" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q124" t="s">
+      <c r="D124" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1804,10 +1768,7 @@
       <c r="B125" t="s">
         <v>111</v>
       </c>
-      <c r="G125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="E125" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1818,9 +1779,6 @@
       <c r="B126" t="s">
         <v>112</v>
       </c>
-      <c r="O126" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1832,12 +1790,6 @@
       <c r="L127" t="s">
         <v>136</v>
       </c>
-      <c r="M127" t="s">
-        <v>136</v>
-      </c>
-      <c r="O127" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1846,6 +1798,9 @@
       <c r="B128" t="s">
         <v>114</v>
       </c>
+      <c r="H128" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1862,10 +1817,7 @@
       <c r="B130" t="s">
         <v>115</v>
       </c>
-      <c r="F130" t="s">
-        <v>136</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="P130" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1876,7 +1828,7 @@
       <c r="B131" t="s">
         <v>116</v>
       </c>
-      <c r="P131" t="s">
+      <c r="M131" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1887,9 +1839,6 @@
       <c r="B132" t="s">
         <v>117</v>
       </c>
-      <c r="L132" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1898,12 +1847,6 @@
       <c r="B133" t="s">
         <v>118</v>
       </c>
-      <c r="E133" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1923,9 +1866,6 @@
       <c r="B135" t="s">
         <v>17</v>
       </c>
-      <c r="C135" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1934,7 +1874,10 @@
       <c r="B136" t="s">
         <v>120</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>136</v>
+      </c>
+      <c r="F136" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1945,6 +1888,9 @@
       <c r="B137" t="s">
         <v>121</v>
       </c>
+      <c r="I137" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1961,15 +1907,6 @@
       <c r="B139" t="s">
         <v>123</v>
       </c>
-      <c r="C139" t="s">
-        <v>136</v>
-      </c>
-      <c r="E139" t="s">
-        <v>136</v>
-      </c>
-      <c r="G139" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1986,9 +1923,6 @@
       <c r="B141" t="s">
         <v>125</v>
       </c>
-      <c r="E141" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1997,9 +1931,6 @@
       <c r="B142" t="s">
         <v>17</v>
       </c>
-      <c r="I142" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2016,7 +1947,7 @@
       <c r="B144" t="s">
         <v>127</v>
       </c>
-      <c r="F144" t="s">
+      <c r="D144" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2027,6 +1958,12 @@
       <c r="B145" t="s">
         <v>128</v>
       </c>
+      <c r="K145" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2035,6 +1972,15 @@
       <c r="B146" t="s">
         <v>129</v>
       </c>
+      <c r="C146" t="s">
+        <v>136</v>
+      </c>
+      <c r="G146" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2043,9 +1989,6 @@
       <c r="B147" t="s">
         <v>130</v>
       </c>
-      <c r="L147" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2054,9 +1997,6 @@
       <c r="B148" t="s">
         <v>17</v>
       </c>
-      <c r="C148" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2065,10 +2005,16 @@
       <c r="B149" t="s">
         <v>131</v>
       </c>
-      <c r="K149" t="s">
-        <v>136</v>
-      </c>
-      <c r="O149" t="s">
+      <c r="H149" t="s">
+        <v>136</v>
+      </c>
+      <c r="L149" t="s">
+        <v>136</v>
+      </c>
+      <c r="P149" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q149" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2079,10 +2025,7 @@
       <c r="B150" t="s">
         <v>132</v>
       </c>
-      <c r="C150" t="s">
-        <v>136</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="D150" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2109,7 +2052,10 @@
       <c r="B153" t="s">
         <v>134</v>
       </c>
-      <c r="L153" t="s">
+      <c r="H153" t="s">
+        <v>136</v>
+      </c>
+      <c r="K153" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2119,6 +2065,12 @@
       </c>
       <c r="B154" t="s">
         <v>135</v>
+      </c>
+      <c r="G154" t="s">
+        <v>136</v>
+      </c>
+      <c r="H154" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003</t>
   </si>
@@ -487,11 +487,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q154"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="28.50390625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -552,9 +555,6 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -563,14 +563,11 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" t="s">
-        <v>136</v>
-      </c>
       <c r="M7" t="s">
         <v>136</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -580,11 +577,11 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" t="s">
-        <v>136</v>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -594,11 +591,11 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" t="s">
-        <v>136</v>
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -608,6 +605,12 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="L10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -616,6 +619,12 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -624,9 +633,6 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -635,6 +641,12 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -643,9 +655,6 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -654,8 +663,11 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
-        <v>136</v>
+      <c r="M15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -665,11 +677,11 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s">
-        <v>136</v>
+      <c r="P16" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -679,6 +691,12 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -687,6 +705,12 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -695,6 +719,15 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
+      <c r="E19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -703,6 +736,12 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -711,9 +750,6 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -746,8 +782,11 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="P25" t="s">
-        <v>136</v>
+      <c r="Q25" t="s">
+        <v>136</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -760,6 +799,9 @@
       <c r="M26" t="s">
         <v>136</v>
       </c>
+      <c r="R26" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -784,6 +826,12 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -795,6 +843,9 @@
       <c r="P30" t="s">
         <v>136</v>
       </c>
+      <c r="R30" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -811,11 +862,11 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="P32" t="s">
-        <v>136</v>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -825,6 +876,12 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
+      <c r="M33" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -833,8 +890,11 @@
       <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="N34" t="s">
-        <v>136</v>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -844,8 +904,11 @@
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="L35" t="s">
-        <v>136</v>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -855,11 +918,11 @@
       <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" t="s">
-        <v>136</v>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -869,8 +932,11 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="s">
-        <v>136</v>
+      <c r="O37" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -880,9 +946,6 @@
       <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -891,11 +954,17 @@
       <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" t="s">
-        <v>136</v>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
@@ -905,9 +974,6 @@
       <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="G40" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -916,9 +982,6 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="O41" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -959,6 +1022,12 @@
       <c r="B46" t="s">
         <v>38</v>
       </c>
+      <c r="O46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -967,9 +1036,6 @@
       <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="G47" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -986,9 +1052,6 @@
       <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="H49" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -997,8 +1060,14 @@
       <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="C50" t="s">
-        <v>136</v>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1024,11 +1093,11 @@
       <c r="B53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" t="s">
-        <v>136</v>
-      </c>
-      <c r="L53" t="s">
-        <v>136</v>
+      <c r="K53" t="s">
+        <v>136</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1046,8 +1115,11 @@
       <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="Q55" t="s">
-        <v>136</v>
+      <c r="F55" t="s">
+        <v>136</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -1057,6 +1129,12 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1065,6 +1143,12 @@
       <c r="B57" t="s">
         <v>48</v>
       </c>
+      <c r="M57" t="s">
+        <v>136</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1073,9 +1157,6 @@
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="E58" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1084,6 +1165,12 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
+      <c r="Q59" t="s">
+        <v>136</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1100,9 +1187,6 @@
       <c r="B61" t="s">
         <v>52</v>
       </c>
-      <c r="E61" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1114,8 +1198,11 @@
       <c r="M62" t="s">
         <v>136</v>
       </c>
-      <c r="P62" t="s">
-        <v>136</v>
+      <c r="O62" t="s">
+        <v>136</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1125,9 +1212,6 @@
       <c r="B63" t="s">
         <v>54</v>
       </c>
-      <c r="O63" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1136,8 +1220,11 @@
       <c r="B64" t="s">
         <v>55</v>
       </c>
-      <c r="M64" t="s">
-        <v>136</v>
+      <c r="L64" t="s">
+        <v>136</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1147,9 +1234,6 @@
       <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="D65" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1158,9 +1242,6 @@
       <c r="B66" t="s">
         <v>57</v>
       </c>
-      <c r="O66" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1169,9 +1250,6 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="L67" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1180,6 +1258,12 @@
       <c r="B68" t="s">
         <v>59</v>
       </c>
+      <c r="E68" t="s">
+        <v>136</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1196,11 +1280,11 @@
       <c r="B70" t="s">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
-        <v>136</v>
-      </c>
-      <c r="O70" t="s">
-        <v>136</v>
+      <c r="P70" t="s">
+        <v>136</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -1210,6 +1294,12 @@
       <c r="B71" t="s">
         <v>61</v>
       </c>
+      <c r="P71" t="s">
+        <v>136</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1234,9 +1324,6 @@
       <c r="B74" t="s">
         <v>64</v>
       </c>
-      <c r="P74" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1245,8 +1332,11 @@
       <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="F75" t="s">
-        <v>136</v>
+      <c r="H75" t="s">
+        <v>136</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1256,11 +1346,11 @@
       <c r="B76" t="s">
         <v>66</v>
       </c>
-      <c r="D76" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" t="s">
-        <v>136</v>
+      <c r="H76" t="s">
+        <v>136</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -1270,15 +1360,6 @@
       <c r="B77" t="s">
         <v>67</v>
       </c>
-      <c r="C77" t="s">
-        <v>136</v>
-      </c>
-      <c r="M77" t="s">
-        <v>136</v>
-      </c>
-      <c r="O77" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1295,6 +1376,15 @@
       <c r="B79" t="s">
         <v>69</v>
       </c>
+      <c r="E79" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" t="s">
+        <v>136</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1303,11 +1393,14 @@
       <c r="B80" t="s">
         <v>70</v>
       </c>
-      <c r="G80" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>136</v>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="L80" t="s">
+        <v>136</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -1317,8 +1410,11 @@
       <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="G81" t="s">
-        <v>136</v>
+      <c r="F81" t="s">
+        <v>136</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -1328,8 +1424,11 @@
       <c r="B82" t="s">
         <v>72</v>
       </c>
-      <c r="H82" t="s">
-        <v>136</v>
+      <c r="O82" t="s">
+        <v>136</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1339,6 +1438,12 @@
       <c r="B83" t="s">
         <v>73</v>
       </c>
+      <c r="L83" t="s">
+        <v>136</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1347,6 +1452,15 @@
       <c r="B84" t="s">
         <v>74</v>
       </c>
+      <c r="D84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" t="s">
+        <v>136</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1355,6 +1469,12 @@
       <c r="B85" t="s">
         <v>75</v>
       </c>
+      <c r="M85" t="s">
+        <v>136</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1371,8 +1491,11 @@
       <c r="B87" t="s">
         <v>77</v>
       </c>
-      <c r="I87" t="s">
-        <v>136</v>
+      <c r="O87" t="s">
+        <v>136</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -1390,6 +1513,12 @@
       <c r="B89" t="s">
         <v>78</v>
       </c>
+      <c r="Q89" t="s">
+        <v>136</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1398,9 +1527,6 @@
       <c r="B90" t="s">
         <v>79</v>
       </c>
-      <c r="E90" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1409,9 +1535,6 @@
       <c r="B91" t="s">
         <v>80</v>
       </c>
-      <c r="Q91" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1428,12 +1551,6 @@
       <c r="B93" t="s">
         <v>82</v>
       </c>
-      <c r="M93" t="s">
-        <v>136</v>
-      </c>
-      <c r="O93" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1442,12 +1559,6 @@
       <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="L94" t="s">
-        <v>136</v>
-      </c>
-      <c r="M94" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1456,8 +1567,17 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
       <c r="O95" t="s">
         <v>136</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -1491,8 +1611,14 @@
       <c r="B99" t="s">
         <v>87</v>
       </c>
-      <c r="Q99" t="s">
-        <v>136</v>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -1510,8 +1636,17 @@
       <c r="B101" t="s">
         <v>89</v>
       </c>
-      <c r="F101" t="s">
-        <v>136</v>
+      <c r="H101" t="s">
+        <v>136</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M101" t="s">
+        <v>136</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="102">
@@ -1521,11 +1656,14 @@
       <c r="B102" t="s">
         <v>90</v>
       </c>
-      <c r="D102" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" t="s">
-        <v>136</v>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>136</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
@@ -1535,9 +1673,6 @@
       <c r="B103" t="s">
         <v>91</v>
       </c>
-      <c r="H103" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1546,8 +1681,11 @@
       <c r="B104" t="s">
         <v>92</v>
       </c>
-      <c r="J104" t="s">
-        <v>136</v>
+      <c r="H104" t="s">
+        <v>136</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="105">
@@ -1557,11 +1695,14 @@
       <c r="B105" t="s">
         <v>93</v>
       </c>
-      <c r="F105" t="s">
-        <v>136</v>
-      </c>
-      <c r="O105" t="s">
-        <v>136</v>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="P105" t="s">
+        <v>136</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
@@ -1579,11 +1720,14 @@
       <c r="B107" t="s">
         <v>95</v>
       </c>
-      <c r="K107" t="s">
-        <v>136</v>
-      </c>
-      <c r="O107" t="s">
-        <v>136</v>
+      <c r="G107" t="s">
+        <v>136</v>
+      </c>
+      <c r="M107" t="s">
+        <v>136</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
@@ -1609,9 +1753,6 @@
       <c r="B110" t="s">
         <v>97</v>
       </c>
-      <c r="L110" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1620,8 +1761,11 @@
       <c r="B111" t="s">
         <v>98</v>
       </c>
-      <c r="L111" t="s">
-        <v>136</v>
+      <c r="M111" t="s">
+        <v>136</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="112">
@@ -1631,6 +1775,18 @@
       <c r="B112" t="s">
         <v>99</v>
       </c>
+      <c r="E112" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" t="s">
+        <v>136</v>
+      </c>
+      <c r="N112" t="s">
+        <v>136</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1639,6 +1795,12 @@
       <c r="B113" t="s">
         <v>100</v>
       </c>
+      <c r="L113" t="s">
+        <v>136</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1655,8 +1817,11 @@
       <c r="B115" t="s">
         <v>101</v>
       </c>
-      <c r="I115" t="s">
-        <v>136</v>
+      <c r="M115" t="s">
+        <v>136</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -1666,8 +1831,11 @@
       <c r="B116" t="s">
         <v>102</v>
       </c>
-      <c r="I116" t="s">
-        <v>136</v>
+      <c r="M116" t="s">
+        <v>136</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
@@ -1677,6 +1845,12 @@
       <c r="B117" t="s">
         <v>103</v>
       </c>
+      <c r="E117" t="s">
+        <v>136</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1685,11 +1859,11 @@
       <c r="B118" t="s">
         <v>104</v>
       </c>
-      <c r="K118" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>136</v>
+      <c r="M118" t="s">
+        <v>136</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
@@ -1699,9 +1873,6 @@
       <c r="B119" t="s">
         <v>105</v>
       </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1710,9 +1881,6 @@
       <c r="B120" t="s">
         <v>106</v>
       </c>
-      <c r="E120" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1721,8 +1889,11 @@
       <c r="B121" t="s">
         <v>107</v>
       </c>
-      <c r="G121" t="s">
-        <v>136</v>
+      <c r="P121" t="s">
+        <v>136</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
@@ -1732,12 +1903,6 @@
       <c r="B122" t="s">
         <v>108</v>
       </c>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-      <c r="K122" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1746,8 +1911,11 @@
       <c r="B123" t="s">
         <v>109</v>
       </c>
-      <c r="H123" t="s">
-        <v>136</v>
+      <c r="K123" t="s">
+        <v>136</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -1757,8 +1925,11 @@
       <c r="B124" t="s">
         <v>110</v>
       </c>
-      <c r="D124" t="s">
-        <v>136</v>
+      <c r="P124" t="s">
+        <v>136</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -1768,8 +1939,14 @@
       <c r="B125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" t="s">
-        <v>136</v>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+      <c r="I125" t="s">
+        <v>136</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
@@ -1779,6 +1956,12 @@
       <c r="B126" t="s">
         <v>112</v>
       </c>
+      <c r="E126" t="s">
+        <v>136</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1787,9 +1970,6 @@
       <c r="B127" t="s">
         <v>113</v>
       </c>
-      <c r="L127" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1798,9 +1978,6 @@
       <c r="B128" t="s">
         <v>114</v>
       </c>
-      <c r="H128" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1817,8 +1994,11 @@
       <c r="B130" t="s">
         <v>115</v>
       </c>
-      <c r="P130" t="s">
-        <v>136</v>
+      <c r="F130" t="s">
+        <v>136</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -1828,8 +2008,11 @@
       <c r="B131" t="s">
         <v>116</v>
       </c>
-      <c r="M131" t="s">
-        <v>136</v>
+      <c r="P131" t="s">
+        <v>136</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -1855,8 +2038,11 @@
       <c r="B134" t="s">
         <v>119</v>
       </c>
-      <c r="H134" t="s">
-        <v>136</v>
+      <c r="F134" t="s">
+        <v>136</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
@@ -1877,8 +2063,8 @@
       <c r="E136" t="s">
         <v>136</v>
       </c>
-      <c r="F136" t="s">
-        <v>136</v>
+      <c r="R136" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
@@ -1888,8 +2074,11 @@
       <c r="B137" t="s">
         <v>121</v>
       </c>
-      <c r="I137" t="s">
-        <v>136</v>
+      <c r="F137" t="s">
+        <v>136</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -1899,6 +2088,12 @@
       <c r="B138" t="s">
         <v>122</v>
       </c>
+      <c r="G138" t="s">
+        <v>136</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1907,6 +2102,15 @@
       <c r="B139" t="s">
         <v>123</v>
       </c>
+      <c r="F139" t="s">
+        <v>136</v>
+      </c>
+      <c r="L139" t="s">
+        <v>136</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1939,6 +2143,12 @@
       <c r="B143" t="s">
         <v>126</v>
       </c>
+      <c r="F143" t="s">
+        <v>136</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1947,9 +2157,6 @@
       <c r="B144" t="s">
         <v>127</v>
       </c>
-      <c r="D144" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1958,12 +2165,6 @@
       <c r="B145" t="s">
         <v>128</v>
       </c>
-      <c r="K145" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1972,15 +2173,6 @@
       <c r="B146" t="s">
         <v>129</v>
       </c>
-      <c r="C146" t="s">
-        <v>136</v>
-      </c>
-      <c r="G146" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1989,6 +2181,15 @@
       <c r="B147" t="s">
         <v>130</v>
       </c>
+      <c r="D147" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147" t="s">
+        <v>136</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2005,17 +2206,14 @@
       <c r="B149" t="s">
         <v>131</v>
       </c>
-      <c r="H149" t="s">
-        <v>136</v>
-      </c>
-      <c r="L149" t="s">
-        <v>136</v>
-      </c>
-      <c r="P149" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>136</v>
+      <c r="D149" t="s">
+        <v>136</v>
+      </c>
+      <c r="G149" t="s">
+        <v>136</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
@@ -2025,9 +2223,6 @@
       <c r="B150" t="s">
         <v>132</v>
       </c>
-      <c r="D150" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2036,6 +2231,12 @@
       <c r="B151" t="s">
         <v>133</v>
       </c>
+      <c r="P151" t="s">
+        <v>136</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2052,12 +2253,6 @@
       <c r="B153" t="s">
         <v>134</v>
       </c>
-      <c r="H153" t="s">
-        <v>136</v>
-      </c>
-      <c r="K153" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2066,11 +2261,61 @@
       <c r="B154" t="s">
         <v>135</v>
       </c>
-      <c r="G154" t="s">
-        <v>136</v>
-      </c>
-      <c r="H154" t="s">
-        <v>136</v>
+      <c r="F154" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>136</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,9 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
-  <si>
-    <t>Shri G. S. Institute of Technology &amp; Science Indore -452003</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="136">
+  <si>
+    <t>Shri G. S. Institute of Technology &amp; Science Indore -452003
+UG/PG Examination April 2022
+ Invigilation Duty Chart
+(Exam Time is 11:00 AM TO 02:00 PM)
+Reporting Time for Invigilators is 10:30 AM Sharp in ATC-308
+(II FLOOR ATC BUILDING)</t>
   </si>
   <si>
     <t>Dr. R.K. Shrivastava</t>
@@ -63,9 +68,6 @@
   </si>
   <si>
     <t>Shri Tarun Kr. Narnaure</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Dr. R. K. Saxena</t>
@@ -432,13 +434,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -463,8 +470,8 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -487,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -555,6 +562,12 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -563,8 +576,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
-        <v>136</v>
+      <c r="F7" t="s">
+        <v>135</v>
       </c>
       <c r="R7" t="n">
         <v>1.0</v>
@@ -577,8 +590,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>136</v>
+      <c r="L8" t="s">
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>1.0</v>
@@ -591,8 +604,8 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
+      <c r="H9" t="s">
+        <v>135</v>
       </c>
       <c r="R9" t="n">
         <v>1.0</v>
@@ -605,8 +618,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
-        <v>136</v>
+      <c r="G10" t="s">
+        <v>135</v>
       </c>
       <c r="R10" t="n">
         <v>1.0</v>
@@ -619,8 +632,8 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" t="s">
-        <v>136</v>
+      <c r="I11" t="s">
+        <v>135</v>
       </c>
       <c r="R11" t="n">
         <v>1.0</v>
@@ -633,6 +646,12 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -641,12 +660,6 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -655,6 +668,12 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -663,12 +682,6 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -677,11 +690,14 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="P16" t="s">
-        <v>136</v>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>135</v>
       </c>
       <c r="R16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -691,8 +707,8 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>136</v>
+      <c r="O17" t="s">
+        <v>135</v>
       </c>
       <c r="R17" t="n">
         <v>1.0</v>
@@ -705,11 +721,14 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>136</v>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>135</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -720,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="P19" t="s">
+        <v>135</v>
       </c>
       <c r="R19" t="n">
         <v>2.0</v>
@@ -736,11 +755,17 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="K20" t="s">
-        <v>136</v>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -750,6 +775,15 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -766,6 +800,12 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
+      <c r="Q23" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -774,6 +814,15 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -782,11 +831,14 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" t="s">
-        <v>136</v>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>135</v>
       </c>
       <c r="R25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -796,11 +848,14 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="M26" t="s">
-        <v>136</v>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>135</v>
       </c>
       <c r="R26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -810,6 +865,12 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -818,6 +879,12 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -826,11 +893,14 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
       <c r="K29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -841,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R30" t="n">
         <v>1.0</v>
@@ -852,7 +922,13 @@
         <v>26.0</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>135</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,10 +936,10 @@
         <v>27.0</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
       </c>
       <c r="R32" t="n">
         <v>1.0</v>
@@ -874,13 +950,7 @@
         <v>28.0</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" t="s">
-        <v>136</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -888,13 +958,16 @@
         <v>29.0</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>136</v>
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" t="s">
+        <v>135</v>
       </c>
       <c r="R34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,10 +975,10 @@
         <v>30.0</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>135</v>
       </c>
       <c r="R35" t="n">
         <v>1.0</v>
@@ -916,13 +989,13 @@
         <v>31.0</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>136</v>
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
       </c>
       <c r="R36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,10 +1003,10 @@
         <v>32.0</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" t="s">
-        <v>136</v>
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>135</v>
       </c>
       <c r="R37" t="n">
         <v>1.0</v>
@@ -944,7 +1017,16 @@
         <v>33.0</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" t="s">
+        <v>135</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -952,16 +1034,13 @@
         <v>34.0</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" t="s">
-        <v>136</v>
-      </c>
-      <c r="P39" t="s">
-        <v>136</v>
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>135</v>
       </c>
       <c r="R39" t="n">
         <v>3.0</v>
@@ -972,7 +1051,16 @@
         <v>35.0</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -980,7 +1068,16 @@
         <v>36.0</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -988,7 +1085,13 @@
         <v>37.0</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +1099,13 @@
         <v>38.0</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1113,16 @@
         <v>39.0</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" t="s">
+        <v>135</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1012,7 +1130,16 @@
         <v>40.0</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="K45" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>135</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1020,10 +1147,10 @@
         <v>41.0</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="O46" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
       </c>
       <c r="R46" t="n">
         <v>1.0</v>
@@ -1034,7 +1161,16 @@
         <v>42.0</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>135</v>
+      </c>
+      <c r="O47" t="s">
+        <v>135</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1042,7 +1178,19 @@
         <v>43.0</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" t="s">
+        <v>135</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -1050,7 +1198,13 @@
         <v>44.0</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>135</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1058,16 +1212,13 @@
         <v>45.0</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" t="s">
-        <v>136</v>
+        <v>45</v>
+      </c>
+      <c r="K50" t="s">
+        <v>135</v>
       </c>
       <c r="R50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1075,7 +1226,13 @@
         <v>46.0</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -1083,7 +1240,13 @@
         <v>47.0</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="O52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -1091,13 +1254,13 @@
         <v>48.0</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" t="s">
-        <v>136</v>
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>135</v>
       </c>
       <c r="R53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -1105,7 +1268,13 @@
         <v>49.0</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1113,10 +1282,10 @@
         <v>50.0</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" t="s">
-        <v>136</v>
+        <v>50</v>
+      </c>
+      <c r="K55" t="s">
+        <v>135</v>
       </c>
       <c r="R55" t="n">
         <v>1.0</v>
@@ -1127,13 +1296,16 @@
         <v>51.0</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="O56" t="s">
+        <v>135</v>
       </c>
       <c r="R56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -1141,13 +1313,16 @@
         <v>52.0</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="M57" t="s">
-        <v>136</v>
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
       </c>
       <c r="R57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -1155,7 +1330,16 @@
         <v>53.0</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" t="s">
+        <v>135</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1163,13 +1347,16 @@
         <v>54.0</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+      <c r="M59" t="s">
+        <v>135</v>
       </c>
       <c r="R59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1177,7 +1364,13 @@
         <v>55.0</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="K60" t="s">
+        <v>135</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1185,7 +1378,16 @@
         <v>56.0</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -1193,13 +1395,13 @@
         <v>57.0</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" t="s">
-        <v>136</v>
-      </c>
-      <c r="O62" t="s">
-        <v>136</v>
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="L62" t="s">
+        <v>135</v>
       </c>
       <c r="R62" t="n">
         <v>2.0</v>
@@ -1210,7 +1412,16 @@
         <v>58.0</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" t="s">
+        <v>135</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -1218,10 +1429,10 @@
         <v>59.0</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
       </c>
       <c r="R64" t="n">
         <v>1.0</v>
@@ -1232,7 +1443,13 @@
         <v>60.0</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="K65" t="s">
+        <v>135</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -1240,7 +1457,13 @@
         <v>61.0</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M66" t="s">
+        <v>135</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -1248,7 +1471,13 @@
         <v>62.0</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>135</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -1256,10 +1485,10 @@
         <v>63.0</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="M68" t="s">
+        <v>135</v>
       </c>
       <c r="R68" t="n">
         <v>1.0</v>
@@ -1270,7 +1499,7 @@
         <v>64.0</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -1278,10 +1507,10 @@
         <v>65.0</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="P70" t="s">
-        <v>136</v>
+        <v>65</v>
+      </c>
+      <c r="O70" t="s">
+        <v>135</v>
       </c>
       <c r="R70" t="n">
         <v>1.0</v>
@@ -1292,10 +1521,10 @@
         <v>66.0</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="P71" t="s">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="L71" t="s">
+        <v>135</v>
       </c>
       <c r="R71" t="n">
         <v>1.0</v>
@@ -1306,7 +1535,7 @@
         <v>67.0</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
@@ -1314,7 +1543,16 @@
         <v>68.0</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="L73" t="s">
+        <v>135</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -1322,7 +1560,16 @@
         <v>69.0</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="F74" t="s">
+        <v>135</v>
+      </c>
+      <c r="I74" t="s">
+        <v>135</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -1330,13 +1577,19 @@
         <v>70.0</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" t="s">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="K75" t="s">
+        <v>135</v>
+      </c>
+      <c r="L75" t="s">
+        <v>135</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
       </c>
       <c r="R75" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1344,10 +1597,10 @@
         <v>71.0</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" t="s">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="J76" t="s">
+        <v>135</v>
       </c>
       <c r="R76" t="n">
         <v>1.0</v>
@@ -1358,7 +1611,13 @@
         <v>72.0</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>135</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -1366,7 +1625,16 @@
         <v>73.0</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="J78" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>135</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -1374,13 +1642,13 @@
         <v>74.0</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
-      </c>
-      <c r="K79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R79" t="n">
         <v>2.0</v>
@@ -1391,16 +1659,19 @@
         <v>75.0</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" t="s">
-        <v>136</v>
-      </c>
-      <c r="L80" t="s">
-        <v>136</v>
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>135</v>
       </c>
       <c r="R80" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
@@ -1408,13 +1679,13 @@
         <v>76.0</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" t="s">
-        <v>136</v>
+        <v>76</v>
+      </c>
+      <c r="E81" t="s">
+        <v>135</v>
       </c>
       <c r="R81" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -1422,10 +1693,10 @@
         <v>77.0</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="O82" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="L82" t="s">
+        <v>135</v>
       </c>
       <c r="R82" t="n">
         <v>1.0</v>
@@ -1436,10 +1707,10 @@
         <v>78.0</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="L83" t="s">
-        <v>136</v>
+        <v>78</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>135</v>
       </c>
       <c r="R83" t="n">
         <v>1.0</v>
@@ -1450,16 +1721,13 @@
         <v>79.0</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" t="s">
-        <v>136</v>
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
       </c>
       <c r="R84" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -1467,10 +1735,10 @@
         <v>80.0</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" t="s">
-        <v>136</v>
+        <v>80</v>
+      </c>
+      <c r="H85" t="s">
+        <v>135</v>
       </c>
       <c r="R85" t="n">
         <v>1.0</v>
@@ -1481,7 +1749,16 @@
         <v>81.0</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" t="s">
+        <v>135</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -1489,13 +1766,16 @@
         <v>82.0</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
       </c>
       <c r="O87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -1503,7 +1783,16 @@
         <v>83.0</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" t="s">
+        <v>135</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
@@ -1511,10 +1800,10 @@
         <v>84.0</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>136</v>
+        <v>84</v>
+      </c>
+      <c r="O89" t="s">
+        <v>135</v>
       </c>
       <c r="R89" t="n">
         <v>1.0</v>
@@ -1525,7 +1814,13 @@
         <v>85.0</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -1533,7 +1828,16 @@
         <v>86.0</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="G91" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" t="s">
+        <v>135</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
@@ -1541,7 +1845,16 @@
         <v>87.0</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+      <c r="M92" t="s">
+        <v>135</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="93">
@@ -1549,7 +1862,19 @@
         <v>88.0</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="H93" t="s">
+        <v>135</v>
+      </c>
+      <c r="P93" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>135</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -1557,7 +1882,16 @@
         <v>89.0</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="M94" t="s">
+        <v>135</v>
+      </c>
+      <c r="P94" t="s">
+        <v>135</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="95">
@@ -1565,16 +1899,16 @@
         <v>90.0</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" t="s">
-        <v>136</v>
-      </c>
-      <c r="I95" t="s">
-        <v>136</v>
-      </c>
-      <c r="O95" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" t="s">
+        <v>135</v>
       </c>
       <c r="R95" t="n">
         <v>3.0</v>
@@ -1585,7 +1919,19 @@
         <v>91.0</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+      <c r="O96" t="s">
+        <v>135</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
@@ -1593,7 +1939,19 @@
         <v>92.0</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="F97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H97" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>135</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="98">
@@ -1601,7 +1959,16 @@
         <v>93.0</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="F98" t="s">
+        <v>135</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="99">
@@ -1609,16 +1976,19 @@
         <v>94.0</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="L99" t="s">
+        <v>135</v>
       </c>
       <c r="R99" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -1626,7 +1996,13 @@
         <v>95.0</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="P100" t="s">
+        <v>135</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
@@ -1634,16 +2010,16 @@
         <v>96.0</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="H101" t="s">
-        <v>136</v>
-      </c>
-      <c r="J101" t="s">
-        <v>136</v>
-      </c>
-      <c r="M101" t="s">
-        <v>136</v>
+        <v>96</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+      <c r="O101" t="s">
+        <v>135</v>
+      </c>
+      <c r="P101" t="s">
+        <v>135</v>
       </c>
       <c r="R101" t="n">
         <v>3.0</v>
@@ -1654,13 +2030,13 @@
         <v>97.0</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
-      </c>
-      <c r="I102" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>136</v>
+        <v>97</v>
+      </c>
+      <c r="K102" t="s">
+        <v>135</v>
+      </c>
+      <c r="M102" t="s">
+        <v>135</v>
       </c>
       <c r="R102" t="n">
         <v>2.0</v>
@@ -1671,7 +2047,7 @@
         <v>98.0</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
@@ -1679,13 +2055,19 @@
         <v>99.0</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="O104" t="s">
+        <v>135</v>
+      </c>
+      <c r="P104" t="s">
+        <v>135</v>
       </c>
       <c r="R104" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="105">
@@ -1693,16 +2075,13 @@
         <v>100.0</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
-      <c r="P105" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="N105" t="s">
+        <v>135</v>
       </c>
       <c r="R105" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -1710,7 +2089,13 @@
         <v>101.0</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
@@ -1718,16 +2103,13 @@
         <v>102.0</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>136</v>
-      </c>
-      <c r="M107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R107" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
@@ -1735,7 +2117,13 @@
         <v>103.0</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="P108" t="s">
+        <v>135</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
@@ -1743,7 +2131,19 @@
         <v>104.0</v>
       </c>
       <c r="B109" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" t="s">
+        <v>135</v>
+      </c>
+      <c r="H109" t="s">
+        <v>135</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
@@ -1751,7 +2151,13 @@
         <v>105.0</v>
       </c>
       <c r="B110" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -1759,13 +2165,19 @@
         <v>106.0</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
-      </c>
-      <c r="M111" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>135</v>
+      </c>
+      <c r="H111" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>135</v>
       </c>
       <c r="R111" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -1773,19 +2185,16 @@
         <v>107.0</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
-      </c>
-      <c r="H112" t="s">
-        <v>136</v>
-      </c>
-      <c r="N112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R112" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
@@ -1793,13 +2202,7 @@
         <v>108.0</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
-      </c>
-      <c r="L113" t="s">
-        <v>136</v>
-      </c>
-      <c r="R113" t="n">
-        <v>1.0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
@@ -1807,7 +2210,16 @@
         <v>109.0</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>135</v>
+      </c>
+      <c r="M114" t="s">
+        <v>135</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
@@ -1815,13 +2227,16 @@
         <v>110.0</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
-      </c>
-      <c r="M115" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+      <c r="L115" t="s">
+        <v>135</v>
       </c>
       <c r="R115" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -1829,13 +2244,7 @@
         <v>111.0</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
-      </c>
-      <c r="M116" t="s">
-        <v>136</v>
-      </c>
-      <c r="R116" t="n">
-        <v>1.0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117">
@@ -1843,13 +2252,19 @@
         <v>112.0</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" t="s">
-        <v>136</v>
+        <v>112</v>
+      </c>
+      <c r="F117" t="s">
+        <v>135</v>
+      </c>
+      <c r="L117" t="s">
+        <v>135</v>
+      </c>
+      <c r="O117" t="s">
+        <v>135</v>
       </c>
       <c r="R117" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="118">
@@ -1857,13 +2272,19 @@
         <v>113.0</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
-      </c>
-      <c r="M118" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="D118" t="s">
+        <v>135</v>
+      </c>
+      <c r="H118" t="s">
+        <v>135</v>
+      </c>
+      <c r="O118" t="s">
+        <v>135</v>
       </c>
       <c r="R118" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
@@ -1871,7 +2292,7 @@
         <v>114.0</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
@@ -1879,7 +2300,13 @@
         <v>115.0</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
@@ -1887,13 +2314,16 @@
         <v>116.0</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
-      </c>
-      <c r="P121" t="s">
-        <v>136</v>
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" t="s">
+        <v>135</v>
       </c>
       <c r="R121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
@@ -1901,7 +2331,16 @@
         <v>117.0</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>117</v>
+      </c>
+      <c r="K122" t="s">
+        <v>135</v>
+      </c>
+      <c r="O122" t="s">
+        <v>135</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="123">
@@ -1909,13 +2348,19 @@
         <v>118.0</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
-      </c>
-      <c r="K123" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="D123" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" t="s">
+        <v>135</v>
+      </c>
+      <c r="P123" t="s">
+        <v>135</v>
       </c>
       <c r="R123" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
@@ -1923,13 +2368,7 @@
         <v>119.0</v>
       </c>
       <c r="B124" t="s">
-        <v>110</v>
-      </c>
-      <c r="P124" t="s">
-        <v>136</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
@@ -1937,16 +2376,13 @@
         <v>120.0</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" t="s">
-        <v>136</v>
-      </c>
-      <c r="I125" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="L125" t="s">
+        <v>135</v>
       </c>
       <c r="R125" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
@@ -1954,10 +2390,10 @@
         <v>121.0</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" t="s">
-        <v>136</v>
+        <v>121</v>
+      </c>
+      <c r="G126" t="s">
+        <v>135</v>
       </c>
       <c r="R126" t="n">
         <v>1.0</v>
@@ -1968,7 +2404,13 @@
         <v>122.0</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="L127" t="s">
+        <v>135</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -1976,7 +2418,16 @@
         <v>123.0</v>
       </c>
       <c r="B128" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="F128" t="s">
+        <v>135</v>
+      </c>
+      <c r="L128" t="s">
+        <v>135</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
@@ -1984,7 +2435,16 @@
         <v>124.0</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>124</v>
+      </c>
+      <c r="K129" t="s">
+        <v>135</v>
+      </c>
+      <c r="O129" t="s">
+        <v>135</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="130">
@@ -1992,10 +2452,10 @@
         <v>125.0</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
-      </c>
-      <c r="F130" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="P130" t="s">
+        <v>135</v>
       </c>
       <c r="R130" t="n">
         <v>1.0</v>
@@ -2006,10 +2466,10 @@
         <v>126.0</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
-      </c>
-      <c r="P131" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
       </c>
       <c r="R131" t="n">
         <v>1.0</v>
@@ -2020,7 +2480,7 @@
         <v>127.0</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133">
@@ -2028,7 +2488,19 @@
         <v>128.0</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>128</v>
+      </c>
+      <c r="F133" t="s">
+        <v>135</v>
+      </c>
+      <c r="M133" t="s">
+        <v>135</v>
+      </c>
+      <c r="O133" t="s">
+        <v>135</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
@@ -2036,13 +2508,16 @@
         <v>129.0</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
-      </c>
-      <c r="F134" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="L134" t="s">
+        <v>135</v>
+      </c>
+      <c r="M134" t="s">
+        <v>135</v>
       </c>
       <c r="R134" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="135">
@@ -2050,7 +2525,16 @@
         <v>130.0</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>130</v>
+      </c>
+      <c r="F135" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" t="s">
+        <v>135</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="136">
@@ -2058,10 +2542,10 @@
         <v>131.0</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>135</v>
       </c>
       <c r="R136" t="n">
         <v>1.0</v>
@@ -2072,13 +2556,19 @@
         <v>132.0</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
-      </c>
-      <c r="F137" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="C137" t="s">
+        <v>135</v>
+      </c>
+      <c r="G137" t="s">
+        <v>135</v>
+      </c>
+      <c r="O137" t="s">
+        <v>135</v>
       </c>
       <c r="R137" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
@@ -2086,13 +2576,16 @@
         <v>133.0</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
-      </c>
-      <c r="G138" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" t="s">
+        <v>135</v>
       </c>
       <c r="R138" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="139">
@@ -2100,222 +2593,63 @@
         <v>134.0</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" t="s">
-        <v>136</v>
-      </c>
-      <c r="L139" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>135</v>
       </c>
       <c r="R139" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>126</v>
-      </c>
-      <c r="F143" t="s">
-        <v>136</v>
-      </c>
-      <c r="R143" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="B146" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="B147" t="s">
-        <v>130</v>
-      </c>
-      <c r="D147" t="s">
-        <v>136</v>
-      </c>
-      <c r="E147" t="s">
-        <v>136</v>
-      </c>
-      <c r="R147" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" t="s">
-        <v>136</v>
-      </c>
-      <c r="G149" t="s">
-        <v>136</v>
-      </c>
-      <c r="R149" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="B150" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="B151" t="s">
-        <v>133</v>
-      </c>
-      <c r="P151" t="s">
-        <v>136</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>135</v>
-      </c>
-      <c r="F154" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>136</v>
-      </c>
-      <c r="R154" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="C155" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E155" t="n">
+      <c r="C140" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P140" t="n">
         <v>11.0</v>
       </c>
-      <c r="F155" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O155" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>6.0</v>
+      <c r="Q140" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="161">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -70,6 +70,54 @@
     <t>Shri Tarun Kr. Narnaure</t>
   </si>
   <si>
+    <t>ABHISHEK SHRIVASTAVA</t>
+  </si>
+  <si>
+    <t>RISHABH  BAJPAI</t>
+  </si>
+  <si>
+    <t>SHRUTI BAJPAI</t>
+  </si>
+  <si>
+    <t>NIKITA VERMA</t>
+  </si>
+  <si>
+    <t>MAHESH CHANDRA</t>
+  </si>
+  <si>
+    <t>RAKESH PURVIYA</t>
+  </si>
+  <si>
+    <t>NIKUNJ BINNANI</t>
+  </si>
+  <si>
+    <t>SHUBHAM SAHU</t>
+  </si>
+  <si>
+    <t>SUNINDA PARMAR</t>
+  </si>
+  <si>
+    <t>DEVESH TOMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAY RAJAURIYA </t>
+  </si>
+  <si>
+    <t>ASHISH GIRI</t>
+  </si>
+  <si>
+    <t>PRANAV  THEPE</t>
+  </si>
+  <si>
+    <t>KRISHNA PRATAP VERMA</t>
+  </si>
+  <si>
+    <t>MEGHA CHOUREY</t>
+  </si>
+  <si>
+    <t>ABHISHEK AGRAWAL</t>
+  </si>
+  <si>
     <t>Dr. R. K. Saxena</t>
   </si>
   <si>
@@ -94,34 +142,58 @@
     <t>Shri R.S.Mandloi</t>
   </si>
   <si>
-    <t>Dr. R.C. Gupta</t>
-  </si>
-  <si>
-    <t>Dr. Girish Thakar</t>
-  </si>
-  <si>
-    <t>Dr.Milind Dandekar*</t>
-  </si>
-  <si>
-    <t>Dr. Avadhesh Dalpati</t>
-  </si>
-  <si>
-    <t>Shri. M.D. Mahajan</t>
-  </si>
-  <si>
-    <t>Shri F. Ujjainwala</t>
-  </si>
-  <si>
-    <t>Shri Sachin Balsara</t>
-  </si>
-  <si>
-    <t>Shri Atul Modi</t>
-  </si>
-  <si>
-    <t>Mrs. Neha Patkar</t>
-  </si>
-  <si>
-    <t>Dr. Krishnakant Dhakar</t>
+    <t>RICHA SHARMA</t>
+  </si>
+  <si>
+    <t>HIMANSHI KOLI</t>
+  </si>
+  <si>
+    <t>RINKI RAJPAL</t>
+  </si>
+  <si>
+    <t>HARSHIT  CHOUBEY</t>
+  </si>
+  <si>
+    <t>ABHISHEK DUBEY</t>
+  </si>
+  <si>
+    <t>VINEET KUMAR MISHRA</t>
+  </si>
+  <si>
+    <t>LOKESH GURJER</t>
+  </si>
+  <si>
+    <t>ANKIT SINGH</t>
+  </si>
+  <si>
+    <t>SHEELA SINGH SAINI</t>
+  </si>
+  <si>
+    <t>UJJWALA RAI</t>
+  </si>
+  <si>
+    <t>SHREYA NAMDEV</t>
+  </si>
+  <si>
+    <t>Dr. CHESHTA KHARE</t>
+  </si>
+  <si>
+    <t>SUMIT DWIVEDI</t>
+  </si>
+  <si>
+    <t>Dr. KUMAR ROHIT</t>
+  </si>
+  <si>
+    <t>AKHIL VERMA</t>
+  </si>
+  <si>
+    <t>ANGUR BALA JAYANT</t>
+  </si>
+  <si>
+    <t>PRACHI SHUKLA</t>
+  </si>
+  <si>
+    <t>PRAVEEN MIMROT</t>
   </si>
   <si>
     <t>Shri S. Purohit</t>
@@ -130,70 +202,31 @@
     <t>Shri Sukhlal Mujalda</t>
   </si>
   <si>
-    <t>Shri D.A.Mehta</t>
-  </si>
-  <si>
-    <t>Dr. (Mrs.) Urjita Thakar*</t>
-  </si>
-  <si>
-    <t>Shri Surendra Gupta</t>
-  </si>
-  <si>
-    <t>Shri Rajesh Dhakad</t>
-  </si>
-  <si>
-    <t>Dr. (Mrs.) Vandan Tiwari</t>
-  </si>
-  <si>
-    <t>Dr. (Mrs.) Anuradha Purohit</t>
-  </si>
-  <si>
-    <t>Ms. Priyanka Bamne</t>
-  </si>
-  <si>
-    <t>Ms. Neha Mehra</t>
-  </si>
-  <si>
-    <t>Mrs. S.V. Charhate</t>
-  </si>
-  <si>
-    <t>Dr. (Mrs.) Anjana Jain</t>
-  </si>
-  <si>
-    <t>Dr. Shekhar Sharma*</t>
-  </si>
-  <si>
-    <t>Ms. Anjulata Yadav</t>
-  </si>
-  <si>
-    <t>Dr. S.K. Jain</t>
-  </si>
-  <si>
-    <t>Dr. L.D. Malviya</t>
-  </si>
-  <si>
-    <t>Smt. Preeti Trivedi</t>
-  </si>
-  <si>
-    <t>Shri Anurag Shrivastava</t>
-  </si>
-  <si>
-    <t>Shri Amit Naik</t>
-  </si>
-  <si>
-    <t>Shri Manish Panchal</t>
-  </si>
-  <si>
-    <t>Smt. Rekha Jain</t>
-  </si>
-  <si>
-    <t>Ms. Jaya Dipti Lal</t>
-  </si>
-  <si>
-    <t>Shri Ashwin Shrivastava</t>
-  </si>
-  <si>
-    <t>Shri Ajay Parmar</t>
+    <t>Dr. VAISHALI NAIK NAIK</t>
+  </si>
+  <si>
+    <t>DEEPALI KOTHARI</t>
+  </si>
+  <si>
+    <t>SHUBHAM SRIVASTAVA</t>
+  </si>
+  <si>
+    <t>NISHA  CHANDRAN</t>
+  </si>
+  <si>
+    <t>NEERAJ MALVIYA</t>
+  </si>
+  <si>
+    <t>MOHIT KHAMELE</t>
+  </si>
+  <si>
+    <t>SUNIL CHOUHAN</t>
+  </si>
+  <si>
+    <t>SHRUCHI JAIN</t>
+  </si>
+  <si>
+    <t>RITIKA NAIR</t>
   </si>
   <si>
     <t>Shri S.B.Purohit</t>
@@ -250,73 +283,67 @@
     <t>Shri Anil Mulewa</t>
   </si>
   <si>
-    <t>Dr. D.K. Mishra</t>
-  </si>
-  <si>
-    <t>Dr. P.P. Bansod</t>
-  </si>
-  <si>
-    <t>Dr. R.S. Gamad*</t>
-  </si>
-  <si>
-    <t>Shri Pramod Jain</t>
-  </si>
-  <si>
-    <t>Shri D.S. Ajnar</t>
-  </si>
-  <si>
-    <t>Shri Rajesh Khatri</t>
-  </si>
-  <si>
-    <t>Shri Ram.C.Gurjar</t>
-  </si>
-  <si>
-    <t>Shri K.K. Sharma</t>
-  </si>
-  <si>
-    <t>Dr. (Ms.) Sunita Varma*</t>
-  </si>
-  <si>
-    <t>Shri Mukul Shukla</t>
-  </si>
-  <si>
-    <t>Shri Lalit Purohit</t>
-  </si>
-  <si>
-    <t>Ms. Sonu Airen</t>
-  </si>
-  <si>
-    <t>Shri Manjeet K.Soni</t>
-  </si>
-  <si>
-    <t>Ms.Megha Kuliha (Zodpe)</t>
-  </si>
-  <si>
-    <t>Mrs. Jyoti Gautam Tiwari</t>
-  </si>
-  <si>
-    <t>Dr. Neeraj Kumar Rathore</t>
-  </si>
-  <si>
-    <t>Shri Chandra Prakash Singar</t>
-  </si>
-  <si>
-    <t>Shri Mukesh Sakle</t>
-  </si>
-  <si>
-    <t>Dr. P.P. Bansod*</t>
-  </si>
-  <si>
-    <t>Smt. Vibha Bhatnagar</t>
-  </si>
-  <si>
-    <t>Ms. Gouri Gupta</t>
-  </si>
-  <si>
-    <t>Mrs. Avni Majawadiya</t>
-  </si>
-  <si>
-    <t>Shri Sunny Ganavdiya</t>
+    <t>ASHISH MISHRA</t>
+  </si>
+  <si>
+    <t>RAKESH SINGH  THAKUR</t>
+  </si>
+  <si>
+    <t>SHASHIKANT  PANDIT</t>
+  </si>
+  <si>
+    <t>SUMER SINGH PATEL</t>
+  </si>
+  <si>
+    <t>PUNIT MISHRA</t>
+  </si>
+  <si>
+    <t>DIPIKA SIMARIYA</t>
+  </si>
+  <si>
+    <t>NEHA PANDE</t>
+  </si>
+  <si>
+    <t>RASHMI RANJAN MAHARANA</t>
+  </si>
+  <si>
+    <t>PRAKASH NAMDEV</t>
+  </si>
+  <si>
+    <t>ANUJ RAWAT</t>
+  </si>
+  <si>
+    <t>TARNI JOSHI</t>
+  </si>
+  <si>
+    <t>SHIVANI SHUKLA</t>
+  </si>
+  <si>
+    <t>PUJA GUPTA</t>
+  </si>
+  <si>
+    <t>UPENDRA  SINGH</t>
+  </si>
+  <si>
+    <t>VIVEK MENON</t>
+  </si>
+  <si>
+    <t>JASMEET KAUR</t>
+  </si>
+  <si>
+    <t>ROHIT  JAIN</t>
+  </si>
+  <si>
+    <t>KAVITA LODHI</t>
+  </si>
+  <si>
+    <t>NEHA AGRAWAL</t>
+  </si>
+  <si>
+    <t>MAYA MAKWANA</t>
+  </si>
+  <si>
+    <t>VINAY MANURKAR</t>
   </si>
   <si>
     <t>Dr.T.R.Saini</t>
@@ -361,6 +388,12 @@
     <t>Dr. Omprakash Tanwar</t>
   </si>
   <si>
+    <t>Dr. SHWETA CHOUDHARY</t>
+  </si>
+  <si>
+    <t>Dr. NAVITA GURBANI</t>
+  </si>
+  <si>
     <t>Dr. A.Dalpati*</t>
   </si>
   <si>
@@ -394,6 +427,12 @@
     <t>Dr. Vipin Koushik</t>
   </si>
   <si>
+    <t>RUDRAKSHI PANDEY</t>
+  </si>
+  <si>
+    <t>DEEPTI PAWAR</t>
+  </si>
+  <si>
     <t>Dr. Nitin Sapre*</t>
   </si>
   <si>
@@ -409,6 +448,15 @@
     <t>Shri Jagat Singh Kirar</t>
   </si>
   <si>
+    <t>ROOPAL VAISHNAV</t>
+  </si>
+  <si>
+    <t>DEEPAL AGRAWAL</t>
+  </si>
+  <si>
+    <t>Dr. SHAILY GUPTA</t>
+  </si>
+  <si>
     <t>Dr. (Ms.) Smita Verma*</t>
   </si>
   <si>
@@ -418,10 +466,37 @@
     <t>Dr. (Mrs.) Sarla Chouhan</t>
   </si>
   <si>
+    <t>PREETI SANGER</t>
+  </si>
+  <si>
+    <t>DEEPTI MOKATI</t>
+  </si>
+  <si>
+    <t>RANU SHARMA</t>
+  </si>
+  <si>
+    <t>PRASANDEEP SINGH MUCHHAL</t>
+  </si>
+  <si>
+    <t>MONICA JOSHI</t>
+  </si>
+  <si>
     <t>Dr.Neeraj Ku. Jain</t>
   </si>
   <si>
     <t>Mrs.Sarika Tiwari</t>
+  </si>
+  <si>
+    <t>SOMKANT PARWAR</t>
+  </si>
+  <si>
+    <t>SHWETA SUDELE</t>
+  </si>
+  <si>
+    <t>NEHA MOTWANI</t>
+  </si>
+  <si>
+    <t>ARZOO CHOUBEY</t>
   </si>
   <si>
     <t>D</t>
@@ -494,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="28.50390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,8 +637,8 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
-        <v>135</v>
+      <c r="F6" t="s">
+        <v>160</v>
       </c>
       <c r="R6" t="n">
         <v>1.0</v>
@@ -577,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R7" t="n">
         <v>1.0</v>
@@ -590,8 +665,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
-        <v>135</v>
+      <c r="M8" t="s">
+        <v>160</v>
       </c>
       <c r="R8" t="n">
         <v>1.0</v>
@@ -604,8 +679,8 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>135</v>
+      <c r="P9" t="s">
+        <v>160</v>
       </c>
       <c r="R9" t="n">
         <v>1.0</v>
@@ -618,8 +693,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>135</v>
+      <c r="I10" t="s">
+        <v>160</v>
       </c>
       <c r="R10" t="n">
         <v>1.0</v>
@@ -632,8 +707,8 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>135</v>
+      <c r="O11" t="s">
+        <v>160</v>
       </c>
       <c r="R11" t="n">
         <v>1.0</v>
@@ -646,8 +721,8 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
-        <v>135</v>
+      <c r="M12" t="s">
+        <v>160</v>
       </c>
       <c r="R12" t="n">
         <v>1.0</v>
@@ -660,6 +735,12 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -668,8 +749,8 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" t="s">
-        <v>135</v>
+      <c r="C14" t="s">
+        <v>160</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
@@ -682,6 +763,12 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="P15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -690,11 +777,11 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" t="s">
-        <v>135</v>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
       </c>
       <c r="R16" t="n">
         <v>2.0</v>
@@ -707,11 +794,14 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="O17" t="s">
-        <v>135</v>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +812,10 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
       </c>
       <c r="R18" t="n">
         <v>2.0</v>
@@ -738,11 +828,11 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>135</v>
+      <c r="H19" t="s">
+        <v>160</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R19" t="n">
         <v>2.0</v>
@@ -755,17 +845,11 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>135</v>
-      </c>
       <c r="G20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -776,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
       </c>
       <c r="R21" t="n">
         <v>2.0</v>
@@ -792,6 +876,12 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -800,11 +890,14 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" t="s">
-        <v>135</v>
+      <c r="G23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -814,14 +907,11 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -831,14 +921,17 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" t="s">
-        <v>135</v>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>160</v>
       </c>
       <c r="R25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -848,14 +941,17 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" t="s">
-        <v>135</v>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" t="s">
+        <v>160</v>
       </c>
       <c r="R26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -865,8 +961,8 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="D27" t="s">
-        <v>135</v>
+      <c r="K27" t="s">
+        <v>160</v>
       </c>
       <c r="R27" t="n">
         <v>2.0</v>
@@ -879,8 +975,8 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="I28" t="s">
-        <v>135</v>
+      <c r="G28" t="s">
+        <v>160</v>
       </c>
       <c r="R28" t="n">
         <v>1.0</v>
@@ -894,13 +990,19 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" t="s">
+        <v>160</v>
       </c>
       <c r="R29" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -910,8 +1012,8 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="P30" t="s">
-        <v>135</v>
+      <c r="L30" t="s">
+        <v>160</v>
       </c>
       <c r="R30" t="n">
         <v>1.0</v>
@@ -924,11 +1026,17 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="K31" t="s">
-        <v>135</v>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" t="s">
+        <v>160</v>
+      </c>
+      <c r="P31" t="s">
+        <v>160</v>
       </c>
       <c r="R31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -938,8 +1046,8 @@
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" t="s">
-        <v>135</v>
+      <c r="F32" t="s">
+        <v>160</v>
       </c>
       <c r="R32" t="n">
         <v>1.0</v>
@@ -952,6 +1060,18 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" t="s">
+        <v>160</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -960,14 +1080,17 @@
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s">
-        <v>135</v>
-      </c>
-      <c r="M34" t="s">
-        <v>135</v>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>160</v>
       </c>
       <c r="R34" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -977,11 +1100,17 @@
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="O35" t="s">
-        <v>135</v>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" t="s">
+        <v>160</v>
       </c>
       <c r="R35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
@@ -991,11 +1120,17 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="I36" t="s">
-        <v>135</v>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="P36" t="s">
+        <v>160</v>
       </c>
       <c r="R36" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -1005,12 +1140,6 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1019,15 +1148,6 @@
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K38" t="s">
-        <v>135</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1036,14 +1156,11 @@
       <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="F39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" t="s">
-        <v>135</v>
+      <c r="M39" t="s">
+        <v>160</v>
       </c>
       <c r="R39" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -1053,11 +1170,11 @@
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="O40" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>135</v>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" t="s">
+        <v>160</v>
       </c>
       <c r="R40" t="n">
         <v>2.0</v>
@@ -1070,11 +1187,11 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="H41" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" t="s">
-        <v>135</v>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
       </c>
       <c r="R41" t="n">
         <v>2.0</v>
@@ -1087,11 +1204,14 @@
       <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="K42" t="s">
-        <v>135</v>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>160</v>
       </c>
       <c r="R42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -1101,11 +1221,14 @@
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="H43" t="s">
-        <v>135</v>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" t="s">
+        <v>160</v>
       </c>
       <c r="R43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1115,14 +1238,17 @@
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="H44" t="s">
-        <v>135</v>
-      </c>
-      <c r="M44" t="s">
-        <v>135</v>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" t="s">
+        <v>160</v>
       </c>
       <c r="R44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1132,14 +1258,17 @@
       <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="K45" t="s">
-        <v>135</v>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" t="s">
+        <v>160</v>
       </c>
       <c r="Q45" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1149,11 +1278,20 @@
       <c r="B46" t="s">
         <v>41</v>
       </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>160</v>
+      </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O46" t="s">
+        <v>160</v>
       </c>
       <c r="R46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -1163,14 +1301,17 @@
       <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="H47" t="s">
-        <v>135</v>
-      </c>
       <c r="O47" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="P47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>160</v>
       </c>
       <c r="R47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1180,18 +1321,6 @@
       <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="G48" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" t="s">
-        <v>135</v>
-      </c>
-      <c r="L48" t="s">
-        <v>135</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1200,12 +1329,6 @@
       <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
-        <v>135</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1214,8 +1337,8 @@
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="K50" t="s">
-        <v>135</v>
+      <c r="D50" t="s">
+        <v>160</v>
       </c>
       <c r="R50" t="n">
         <v>1.0</v>
@@ -1229,10 +1352,13 @@
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O51" t="s">
+        <v>160</v>
       </c>
       <c r="R51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -1242,11 +1368,14 @@
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="O52" t="s">
-        <v>135</v>
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+      <c r="M52" t="s">
+        <v>160</v>
       </c>
       <c r="R52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1256,11 +1385,20 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="L53" t="s">
-        <v>135</v>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" t="s">
+        <v>160</v>
+      </c>
+      <c r="O53" t="s">
+        <v>160</v>
       </c>
       <c r="R53" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
@@ -1270,11 +1408,17 @@
       <c r="B54" t="s">
         <v>49</v>
       </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="F54" t="s">
+        <v>160</v>
       </c>
       <c r="R54" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -1284,8 +1428,8 @@
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="K55" t="s">
-        <v>135</v>
+      <c r="F55" t="s">
+        <v>160</v>
       </c>
       <c r="R55" t="n">
         <v>1.0</v>
@@ -1298,14 +1442,17 @@
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="F56" t="s">
-        <v>135</v>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>160</v>
       </c>
       <c r="O56" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R56" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -1315,14 +1462,14 @@
       <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="D57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" t="s">
-        <v>135</v>
+      <c r="G57" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" t="s">
+        <v>160</v>
       </c>
       <c r="R57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -1332,14 +1479,11 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="D58" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" t="s">
-        <v>135</v>
+      <c r="E58" t="s">
+        <v>160</v>
       </c>
       <c r="R58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -1349,14 +1493,17 @@
       <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="I59" t="s">
-        <v>135</v>
-      </c>
-      <c r="M59" t="s">
-        <v>135</v>
+      <c r="L59" t="s">
+        <v>160</v>
+      </c>
+      <c r="O59" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>160</v>
       </c>
       <c r="R59" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -1366,11 +1513,17 @@
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="K60" t="s">
-        <v>135</v>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="O60" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>160</v>
       </c>
       <c r="R60" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -1380,14 +1533,11 @@
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C61" t="s">
-        <v>135</v>
-      </c>
-      <c r="H61" t="s">
-        <v>135</v>
+      <c r="G61" t="s">
+        <v>160</v>
       </c>
       <c r="R61" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -1398,13 +1548,16 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
-      </c>
-      <c r="L62" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="I62" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>160</v>
       </c>
       <c r="R62" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -1414,14 +1567,14 @@
       <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="F63" t="s">
-        <v>135</v>
-      </c>
-      <c r="I63" t="s">
-        <v>135</v>
+      <c r="L63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>160</v>
       </c>
       <c r="R63" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
@@ -1431,8 +1584,8 @@
       <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="E64" t="s">
-        <v>135</v>
+      <c r="L64" t="s">
+        <v>160</v>
       </c>
       <c r="R64" t="n">
         <v>1.0</v>
@@ -1445,8 +1598,8 @@
       <c r="B65" t="s">
         <v>60</v>
       </c>
-      <c r="K65" t="s">
-        <v>135</v>
+      <c r="E65" t="s">
+        <v>160</v>
       </c>
       <c r="R65" t="n">
         <v>1.0</v>
@@ -1459,11 +1612,17 @@
       <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="M66" t="s">
-        <v>135</v>
+      <c r="G66" t="s">
+        <v>160</v>
+      </c>
+      <c r="K66" t="s">
+        <v>160</v>
+      </c>
+      <c r="L66" t="s">
+        <v>160</v>
       </c>
       <c r="R66" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -1473,11 +1632,20 @@
       <c r="B67" t="s">
         <v>62</v>
       </c>
-      <c r="Q67" t="s">
-        <v>135</v>
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" t="s">
+        <v>160</v>
       </c>
       <c r="R67" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -1487,8 +1655,8 @@
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="M68" t="s">
-        <v>135</v>
+      <c r="G68" t="s">
+        <v>160</v>
       </c>
       <c r="R68" t="n">
         <v>1.0</v>
@@ -1501,6 +1669,18 @@
       <c r="B69" t="s">
         <v>64</v>
       </c>
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" t="s">
+        <v>160</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1509,11 +1689,14 @@
       <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="O70" t="s">
-        <v>135</v>
+      <c r="K70" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>160</v>
       </c>
       <c r="R70" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -1523,11 +1706,20 @@
       <c r="B71" t="s">
         <v>66</v>
       </c>
+      <c r="F71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71" t="s">
+        <v>160</v>
+      </c>
       <c r="L71" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R71" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -1537,6 +1729,12 @@
       <c r="B72" t="s">
         <v>67</v>
       </c>
+      <c r="O72" t="s">
+        <v>160</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1545,14 +1743,20 @@
       <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="D73" t="s">
-        <v>135</v>
-      </c>
-      <c r="L73" t="s">
-        <v>135</v>
+      <c r="G73" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" t="s">
+        <v>160</v>
+      </c>
+      <c r="O73" t="s">
+        <v>160</v>
+      </c>
+      <c r="P73" t="s">
+        <v>160</v>
       </c>
       <c r="R73" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
@@ -1563,13 +1767,16 @@
         <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="L74" t="s">
+        <v>160</v>
+      </c>
+      <c r="P74" t="s">
+        <v>160</v>
       </c>
       <c r="R74" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -1579,17 +1786,11 @@
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="K75" t="s">
-        <v>135</v>
-      </c>
-      <c r="L75" t="s">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s">
-        <v>135</v>
+      <c r="F75" t="s">
+        <v>160</v>
       </c>
       <c r="R75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1599,8 +1800,8 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="J76" t="s">
-        <v>135</v>
+      <c r="F76" t="s">
+        <v>160</v>
       </c>
       <c r="R76" t="n">
         <v>1.0</v>
@@ -1613,8 +1814,8 @@
       <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="Q77" t="s">
-        <v>135</v>
+      <c r="P77" t="s">
+        <v>160</v>
       </c>
       <c r="R77" t="n">
         <v>1.0</v>
@@ -1627,14 +1828,11 @@
       <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="J78" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>135</v>
+      <c r="O78" t="s">
+        <v>160</v>
       </c>
       <c r="R78" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -1644,14 +1842,11 @@
       <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="C79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" t="s">
-        <v>135</v>
+      <c r="I79" t="s">
+        <v>160</v>
       </c>
       <c r="R79" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -1661,17 +1856,11 @@
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
-      <c r="I80" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>135</v>
+      <c r="M80" t="s">
+        <v>160</v>
       </c>
       <c r="R80" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -1682,10 +1871,10 @@
         <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R81" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -1695,11 +1884,14 @@
       <c r="B82" t="s">
         <v>77</v>
       </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
       <c r="L82" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -1709,11 +1901,14 @@
       <c r="B83" t="s">
         <v>78</v>
       </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
       <c r="Q83" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R83" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -1724,10 +1919,13 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
+        <v>160</v>
       </c>
       <c r="R84" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -1737,11 +1935,14 @@
       <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="H85" t="s">
-        <v>135</v>
+      <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="O85" t="s">
+        <v>160</v>
       </c>
       <c r="R85" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -1751,11 +1952,11 @@
       <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="D86" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" t="s">
-        <v>135</v>
+      <c r="G86" t="s">
+        <v>160</v>
+      </c>
+      <c r="N86" t="s">
+        <v>160</v>
       </c>
       <c r="R86" t="n">
         <v>2.0</v>
@@ -1768,11 +1969,11 @@
       <c r="B87" t="s">
         <v>82</v>
       </c>
-      <c r="C87" t="s">
-        <v>135</v>
+      <c r="F87" t="s">
+        <v>160</v>
       </c>
       <c r="O87" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R87" t="n">
         <v>2.0</v>
@@ -1785,11 +1986,14 @@
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="C88" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" t="s">
-        <v>135</v>
+      <c r="L88" t="s">
+        <v>160</v>
+      </c>
+      <c r="P88" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>160</v>
       </c>
       <c r="R88" t="n">
         <v>3.0</v>
@@ -1802,11 +2006,17 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="O89" t="s">
-        <v>135</v>
+      <c r="G89" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89" t="s">
+        <v>160</v>
+      </c>
+      <c r="M89" t="s">
+        <v>160</v>
       </c>
       <c r="R89" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -1816,8 +2026,8 @@
       <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="C90" t="s">
-        <v>135</v>
+      <c r="K90" t="s">
+        <v>160</v>
       </c>
       <c r="R90" t="n">
         <v>1.0</v>
@@ -1830,14 +2040,14 @@
       <c r="B91" t="s">
         <v>86</v>
       </c>
-      <c r="G91" t="s">
-        <v>135</v>
-      </c>
-      <c r="K91" t="s">
-        <v>135</v>
+      <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>160</v>
       </c>
       <c r="R91" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="92">
@@ -1847,14 +2057,11 @@
       <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="D92" t="s">
-        <v>135</v>
-      </c>
-      <c r="M92" t="s">
-        <v>135</v>
+      <c r="K92" t="s">
+        <v>160</v>
       </c>
       <c r="R92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -1865,13 +2072,13 @@
         <v>88</v>
       </c>
       <c r="H93" t="s">
-        <v>135</v>
-      </c>
-      <c r="P93" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="I93" t="s">
+        <v>160</v>
+      </c>
+      <c r="M93" t="s">
+        <v>160</v>
       </c>
       <c r="R93" t="n">
         <v>3.0</v>
@@ -1884,14 +2091,14 @@
       <c r="B94" t="s">
         <v>89</v>
       </c>
-      <c r="M94" t="s">
-        <v>135</v>
-      </c>
-      <c r="P94" t="s">
-        <v>135</v>
+      <c r="E94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94" t="s">
+        <v>160</v>
       </c>
       <c r="R94" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="95">
@@ -1901,17 +2108,14 @@
       <c r="B95" t="s">
         <v>90</v>
       </c>
-      <c r="F95" t="s">
-        <v>135</v>
-      </c>
-      <c r="K95" t="s">
-        <v>135</v>
-      </c>
-      <c r="M95" t="s">
-        <v>135</v>
+      <c r="D95" t="s">
+        <v>160</v>
+      </c>
+      <c r="I95" t="s">
+        <v>160</v>
       </c>
       <c r="R95" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
@@ -1921,17 +2125,14 @@
       <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="E96" t="s">
-        <v>135</v>
-      </c>
-      <c r="I96" t="s">
-        <v>135</v>
-      </c>
-      <c r="O96" t="s">
-        <v>135</v>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" t="s">
+        <v>160</v>
       </c>
       <c r="R96" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
@@ -1942,16 +2143,13 @@
         <v>92</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
-      </c>
-      <c r="H97" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O97" t="s">
+        <v>160</v>
       </c>
       <c r="R97" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="98">
@@ -1961,11 +2159,14 @@
       <c r="B98" t="s">
         <v>93</v>
       </c>
-      <c r="F98" t="s">
-        <v>135</v>
-      </c>
-      <c r="I98" t="s">
-        <v>135</v>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="L98" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>160</v>
       </c>
       <c r="R98" t="n">
         <v>3.0</v>
@@ -1978,17 +2179,11 @@
       <c r="B99" t="s">
         <v>94</v>
       </c>
-      <c r="C99" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" t="s">
-        <v>135</v>
-      </c>
-      <c r="L99" t="s">
-        <v>135</v>
+      <c r="F99" t="s">
+        <v>160</v>
       </c>
       <c r="R99" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -1998,11 +2193,17 @@
       <c r="B100" t="s">
         <v>95</v>
       </c>
-      <c r="P100" t="s">
-        <v>135</v>
+      <c r="E100" t="s">
+        <v>160</v>
+      </c>
+      <c r="K100" t="s">
+        <v>160</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
       </c>
       <c r="R100" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
@@ -2012,17 +2213,20 @@
       <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="I101" t="s">
-        <v>135</v>
+      <c r="C101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" t="s">
+        <v>160</v>
       </c>
       <c r="O101" t="s">
-        <v>135</v>
-      </c>
-      <c r="P101" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>160</v>
       </c>
       <c r="R101" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
@@ -2032,11 +2236,11 @@
       <c r="B102" t="s">
         <v>97</v>
       </c>
-      <c r="K102" t="s">
-        <v>135</v>
-      </c>
-      <c r="M102" t="s">
-        <v>135</v>
+      <c r="F102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102" t="s">
+        <v>160</v>
       </c>
       <c r="R102" t="n">
         <v>2.0</v>
@@ -2049,6 +2253,12 @@
       <c r="B103" t="s">
         <v>98</v>
       </c>
+      <c r="K103" t="s">
+        <v>160</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2057,18 +2267,6 @@
       <c r="B104" t="s">
         <v>99</v>
       </c>
-      <c r="H104" t="s">
-        <v>135</v>
-      </c>
-      <c r="O104" t="s">
-        <v>135</v>
-      </c>
-      <c r="P104" t="s">
-        <v>135</v>
-      </c>
-      <c r="R104" t="n">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2077,8 +2275,8 @@
       <c r="B105" t="s">
         <v>100</v>
       </c>
-      <c r="N105" t="s">
-        <v>135</v>
+      <c r="G105" t="s">
+        <v>160</v>
       </c>
       <c r="R105" t="n">
         <v>1.0</v>
@@ -2091,8 +2289,8 @@
       <c r="B106" t="s">
         <v>101</v>
       </c>
-      <c r="I106" t="s">
-        <v>135</v>
+      <c r="Q106" t="s">
+        <v>160</v>
       </c>
       <c r="R106" t="n">
         <v>1.0</v>
@@ -2105,11 +2303,14 @@
       <c r="B107" t="s">
         <v>102</v>
       </c>
-      <c r="G107" t="s">
-        <v>135</v>
+      <c r="I107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K107" t="s">
+        <v>160</v>
       </c>
       <c r="R107" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
@@ -2119,11 +2320,17 @@
       <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="P108" t="s">
-        <v>135</v>
+      <c r="F108" t="s">
+        <v>160</v>
+      </c>
+      <c r="L108" t="s">
+        <v>160</v>
+      </c>
+      <c r="O108" t="s">
+        <v>160</v>
       </c>
       <c r="R108" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
@@ -2133,17 +2340,14 @@
       <c r="B109" t="s">
         <v>104</v>
       </c>
-      <c r="C109" t="s">
-        <v>135</v>
+      <c r="D109" t="s">
+        <v>160</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="H109" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R109" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
@@ -2153,11 +2357,17 @@
       <c r="B110" t="s">
         <v>105</v>
       </c>
-      <c r="C110" t="s">
-        <v>135</v>
+      <c r="F110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H110" t="s">
+        <v>160</v>
+      </c>
+      <c r="O110" t="s">
+        <v>160</v>
       </c>
       <c r="R110" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
@@ -2168,16 +2378,22 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+      <c r="P111" t="s">
+        <v>160</v>
       </c>
       <c r="Q111" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R111" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="112">
@@ -2187,14 +2403,11 @@
       <c r="B112" t="s">
         <v>107</v>
       </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" t="s">
-        <v>135</v>
+      <c r="Q112" t="s">
+        <v>160</v>
       </c>
       <c r="R112" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
@@ -2204,6 +2417,15 @@
       <c r="B113" t="s">
         <v>108</v>
       </c>
+      <c r="I113" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>160</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2212,14 +2434,11 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="E114" t="s">
-        <v>135</v>
-      </c>
-      <c r="M114" t="s">
-        <v>135</v>
+      <c r="I114" t="s">
+        <v>160</v>
       </c>
       <c r="R114" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -2229,15 +2448,6 @@
       <c r="B115" t="s">
         <v>110</v>
       </c>
-      <c r="C115" t="s">
-        <v>135</v>
-      </c>
-      <c r="L115" t="s">
-        <v>135</v>
-      </c>
-      <c r="R115" t="n">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2246,6 +2456,12 @@
       <c r="B116" t="s">
         <v>111</v>
       </c>
+      <c r="O116" t="s">
+        <v>160</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2254,17 +2470,11 @@
       <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="L117" t="s">
-        <v>135</v>
-      </c>
-      <c r="O117" t="s">
-        <v>135</v>
+      <c r="C117" t="s">
+        <v>160</v>
       </c>
       <c r="R117" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
@@ -2274,14 +2484,14 @@
       <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="D118" t="s">
-        <v>135</v>
-      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-      <c r="O118" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="L118" t="s">
+        <v>160</v>
+      </c>
+      <c r="P118" t="s">
+        <v>160</v>
       </c>
       <c r="R118" t="n">
         <v>3.0</v>
@@ -2302,8 +2512,11 @@
       <c r="B120" t="s">
         <v>115</v>
       </c>
-      <c r="C120" t="s">
-        <v>135</v>
+      <c r="G120" t="s">
+        <v>160</v>
+      </c>
+      <c r="O120" t="s">
+        <v>160</v>
       </c>
       <c r="R120" t="n">
         <v>2.0</v>
@@ -2316,14 +2529,17 @@
       <c r="B121" t="s">
         <v>116</v>
       </c>
-      <c r="D121" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" t="s">
-        <v>135</v>
+      <c r="C121" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121" t="s">
+        <v>160</v>
+      </c>
+      <c r="L121" t="s">
+        <v>160</v>
       </c>
       <c r="R121" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="122">
@@ -2333,11 +2549,11 @@
       <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="K122" t="s">
-        <v>135</v>
-      </c>
-      <c r="O122" t="s">
-        <v>135</v>
+      <c r="G122" t="s">
+        <v>160</v>
+      </c>
+      <c r="P122" t="s">
+        <v>160</v>
       </c>
       <c r="R122" t="n">
         <v>2.0</v>
@@ -2350,17 +2566,14 @@
       <c r="B123" t="s">
         <v>118</v>
       </c>
-      <c r="D123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s">
-        <v>135</v>
-      </c>
-      <c r="P123" t="s">
-        <v>135</v>
+      <c r="F123" t="s">
+        <v>160</v>
+      </c>
+      <c r="K123" t="s">
+        <v>160</v>
       </c>
       <c r="R123" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="124">
@@ -2370,6 +2583,18 @@
       <c r="B124" t="s">
         <v>119</v>
       </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="H124" t="s">
+        <v>160</v>
+      </c>
+      <c r="M124" t="s">
+        <v>160</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2378,11 +2603,14 @@
       <c r="B125" t="s">
         <v>120</v>
       </c>
-      <c r="L125" t="s">
-        <v>135</v>
+      <c r="E125" t="s">
+        <v>160</v>
+      </c>
+      <c r="H125" t="s">
+        <v>160</v>
       </c>
       <c r="R125" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="126">
@@ -2392,11 +2620,17 @@
       <c r="B126" t="s">
         <v>121</v>
       </c>
+      <c r="F126" t="s">
+        <v>160</v>
+      </c>
       <c r="G126" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O126" t="s">
+        <v>160</v>
       </c>
       <c r="R126" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
@@ -2406,11 +2640,17 @@
       <c r="B127" t="s">
         <v>122</v>
       </c>
+      <c r="E127" t="s">
+        <v>160</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
       <c r="L127" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R127" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="128">
@@ -2420,14 +2660,26 @@
       <c r="B128" t="s">
         <v>123</v>
       </c>
-      <c r="F128" t="s">
-        <v>135</v>
+      <c r="C128" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" t="s">
+        <v>160</v>
       </c>
       <c r="L128" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O128" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>160</v>
       </c>
       <c r="R128" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="129">
@@ -2437,14 +2689,20 @@
       <c r="B129" t="s">
         <v>124</v>
       </c>
+      <c r="F129" t="s">
+        <v>160</v>
+      </c>
       <c r="K129" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="O129" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="P129" t="s">
+        <v>160</v>
       </c>
       <c r="R129" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="130">
@@ -2454,8 +2712,8 @@
       <c r="B130" t="s">
         <v>125</v>
       </c>
-      <c r="P130" t="s">
-        <v>135</v>
+      <c r="O130" t="s">
+        <v>160</v>
       </c>
       <c r="R130" t="n">
         <v>1.0</v>
@@ -2468,11 +2726,17 @@
       <c r="B131" t="s">
         <v>126</v>
       </c>
-      <c r="C131" t="s">
-        <v>135</v>
+      <c r="H131" t="s">
+        <v>160</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>160</v>
       </c>
       <c r="R131" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
@@ -2482,6 +2746,12 @@
       <c r="B132" t="s">
         <v>127</v>
       </c>
+      <c r="L132" t="s">
+        <v>160</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2491,16 +2761,10 @@
         <v>128</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
-      </c>
-      <c r="M133" t="s">
-        <v>135</v>
-      </c>
-      <c r="O133" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="R133" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="134">
@@ -2510,14 +2774,17 @@
       <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="L134" t="s">
-        <v>135</v>
-      </c>
       <c r="M134" t="s">
-        <v>135</v>
+        <v>160</v>
+      </c>
+      <c r="O134" t="s">
+        <v>160</v>
+      </c>
+      <c r="P134" t="s">
+        <v>160</v>
       </c>
       <c r="R134" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
@@ -2525,16 +2792,28 @@
         <v>130.0</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
-      </c>
-      <c r="F135" t="s">
-        <v>135</v>
-      </c>
-      <c r="G135" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" t="s">
+        <v>160</v>
+      </c>
+      <c r="L135" t="s">
+        <v>160</v>
+      </c>
+      <c r="O135" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>160</v>
       </c>
       <c r="R135" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="136">
@@ -2542,13 +2821,22 @@
         <v>131.0</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+      <c r="F136" t="s">
+        <v>160</v>
+      </c>
+      <c r="K136" t="s">
+        <v>160</v>
+      </c>
+      <c r="O136" t="s">
+        <v>160</v>
+      </c>
+      <c r="P136" t="s">
+        <v>160</v>
       </c>
       <c r="R136" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="137">
@@ -2556,19 +2844,13 @@
         <v>132.0</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
-      </c>
-      <c r="C137" t="s">
-        <v>135</v>
-      </c>
-      <c r="G137" t="s">
-        <v>135</v>
-      </c>
-      <c r="O137" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="F137" t="s">
+        <v>160</v>
       </c>
       <c r="R137" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -2576,16 +2858,13 @@
         <v>133.0</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" t="s">
-        <v>135</v>
-      </c>
-      <c r="D138" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="P138" t="s">
+        <v>160</v>
       </c>
       <c r="R138" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
@@ -2593,63 +2872,498 @@
         <v>134.0</v>
       </c>
       <c r="B139" t="s">
+        <v>132</v>
+      </c>
+      <c r="L139" t="s">
+        <v>160</v>
+      </c>
+      <c r="O139" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>160</v>
+      </c>
+      <c r="R139" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+      <c r="I140" t="s">
+        <v>160</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B141" t="s">
         <v>134</v>
       </c>
-      <c r="E139" t="s">
+      <c r="O141" t="s">
+        <v>160</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B142" t="s">
         <v>135</v>
       </c>
-      <c r="Q139" t="s">
-        <v>135</v>
-      </c>
-      <c r="R139" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="C140" t="n">
+      <c r="D142" t="s">
+        <v>160</v>
+      </c>
+      <c r="H142" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>160</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="F143" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>160</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>137</v>
+      </c>
+      <c r="K144" t="s">
+        <v>160</v>
+      </c>
+      <c r="L144" t="s">
+        <v>160</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>138</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+      <c r="K146" t="s">
+        <v>160</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>160</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148" t="s">
+        <v>160</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" t="s">
+        <v>160</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>143</v>
+      </c>
+      <c r="P150" t="s">
+        <v>160</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" t="s">
+        <v>160</v>
+      </c>
+      <c r="M151" t="s">
+        <v>160</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+      <c r="K152" t="s">
+        <v>160</v>
+      </c>
+      <c r="O152" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>160</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>146</v>
+      </c>
+      <c r="G153" t="s">
+        <v>160</v>
+      </c>
+      <c r="I153" t="s">
+        <v>160</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>148</v>
+      </c>
+      <c r="P155" t="s">
+        <v>160</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>149</v>
+      </c>
+      <c r="O156" t="s">
+        <v>160</v>
+      </c>
+      <c r="P156" t="s">
+        <v>160</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>150</v>
+      </c>
+      <c r="K157" t="s">
+        <v>160</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+      <c r="G158" t="s">
+        <v>160</v>
+      </c>
+      <c r="I158" t="s">
+        <v>160</v>
+      </c>
+      <c r="P158" t="s">
+        <v>160</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" t="s">
+        <v>160</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>153</v>
+      </c>
+      <c r="H160" t="s">
+        <v>160</v>
+      </c>
+      <c r="M160" t="s">
+        <v>160</v>
+      </c>
+      <c r="P160" t="s">
+        <v>160</v>
+      </c>
+      <c r="R160" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E161" t="s">
+        <v>160</v>
+      </c>
+      <c r="G161" t="s">
+        <v>160</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>155</v>
+      </c>
+      <c r="K162" t="s">
+        <v>160</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>156</v>
+      </c>
+      <c r="O163" t="s">
+        <v>160</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" t="s">
+        <v>160</v>
+      </c>
+      <c r="K164" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>160</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>158</v>
+      </c>
+      <c r="G165" t="s">
+        <v>160</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>159</v>
+      </c>
+      <c r="I166" t="s">
+        <v>160</v>
+      </c>
+      <c r="K166" t="s">
+        <v>160</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H167" t="n">
         <v>19.0</v>
       </c>
-      <c r="D140" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G140" t="n">
+      <c r="I167" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="M167" t="n">
         <v>13.0</v>
       </c>
-      <c r="H140" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>16.0</v>
+      <c r="N167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="161">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -519,7 +519,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10.0"/>
+      <sz val="7.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -637,7 +637,7 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>160</v>
       </c>
       <c r="R6" t="n">
@@ -651,7 +651,7 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>160</v>
       </c>
       <c r="R7" t="n">
@@ -665,7 +665,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>160</v>
       </c>
       <c r="R8" t="n">
@@ -679,7 +679,7 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M9" t="s">
         <v>160</v>
       </c>
       <c r="R9" t="n">
@@ -693,7 +693,7 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>160</v>
       </c>
       <c r="R10" t="n">
@@ -707,7 +707,7 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="O11" t="s">
+      <c r="F11" t="s">
         <v>160</v>
       </c>
       <c r="R11" t="n">
@@ -721,7 +721,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>160</v>
       </c>
       <c r="R12" t="n">
@@ -735,7 +735,7 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="K13" t="s">
         <v>160</v>
       </c>
       <c r="R13" t="n">
@@ -777,10 +777,7 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="P16" t="s">
         <v>160</v>
       </c>
       <c r="R16" t="n">
@@ -794,10 +791,10 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="G17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" t="s">
         <v>160</v>
       </c>
       <c r="R17" t="n">
@@ -811,14 +808,17 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
         <v>160</v>
       </c>
       <c r="R18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -828,14 +828,14 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
+      <c r="E19" t="s">
         <v>160</v>
       </c>
       <c r="P19" t="s">
         <v>160</v>
       </c>
       <c r="R19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -845,12 +845,6 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" t="s">
-        <v>160</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -859,14 +853,17 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
         <v>160</v>
       </c>
       <c r="R21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -876,7 +873,7 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
+      <c r="L22" t="s">
         <v>160</v>
       </c>
       <c r="R22" t="n">
@@ -890,14 +887,26 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" t="s">
         <v>160</v>
       </c>
       <c r="R23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -907,11 +916,23 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" t="s">
         <v>160</v>
       </c>
       <c r="R24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -921,17 +942,11 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="F25" t="s">
         <v>160</v>
       </c>
       <c r="R25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -944,10 +959,10 @@
       <c r="D26" t="s">
         <v>160</v>
       </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
       <c r="G26" t="s">
-        <v>160</v>
-      </c>
-      <c r="P26" t="s">
         <v>160</v>
       </c>
       <c r="R26" t="n">
@@ -961,11 +976,20 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="K27" t="s">
+      <c r="G27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" t="s">
         <v>160</v>
       </c>
       <c r="R27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -975,11 +999,23 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" t="s">
         <v>160</v>
       </c>
       <c r="R28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -989,20 +1025,26 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
       <c r="D29" t="s">
         <v>160</v>
       </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
       <c r="H29" t="s">
         <v>160</v>
       </c>
+      <c r="L29" t="s">
+        <v>160</v>
+      </c>
       <c r="O29" t="s">
         <v>160</v>
       </c>
+      <c r="Q29" t="s">
+        <v>160</v>
+      </c>
       <c r="R29" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1012,11 +1054,17 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="L30" t="s">
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" t="s">
         <v>160</v>
       </c>
       <c r="R30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -1026,13 +1074,13 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="M31" t="s">
-        <v>160</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" t="s">
         <v>160</v>
       </c>
       <c r="R31" t="n">
@@ -1049,8 +1097,17 @@
       <c r="F32" t="s">
         <v>160</v>
       </c>
+      <c r="G32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>160</v>
+      </c>
       <c r="R32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -1060,17 +1117,26 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
       <c r="D33" t="s">
         <v>160</v>
       </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
       <c r="F33" t="s">
         <v>160</v>
       </c>
-      <c r="L33" t="s">
+      <c r="G33" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" t="s">
         <v>160</v>
       </c>
       <c r="R33" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -1083,14 +1149,23 @@
       <c r="E34" t="s">
         <v>160</v>
       </c>
-      <c r="I34" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" t="s">
         <v>160</v>
       </c>
       <c r="R34" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -1100,17 +1175,23 @@
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" t="s">
         <v>160</v>
       </c>
       <c r="R35" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -1120,17 +1201,11 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="D36" t="s">
         <v>160</v>
       </c>
       <c r="R36" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1140,6 +1215,18 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" t="s">
+        <v>160</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1156,7 +1243,7 @@
       <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="M39" t="s">
+      <c r="F39" t="s">
         <v>160</v>
       </c>
       <c r="R39" t="n">
@@ -1170,10 +1257,10 @@
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" t="s">
         <v>160</v>
       </c>
       <c r="R40" t="n">
@@ -1187,10 +1274,10 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+      <c r="P41" t="s">
         <v>160</v>
       </c>
       <c r="R41" t="n">
@@ -1221,10 +1308,10 @@
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="G43" t="s">
-        <v>160</v>
-      </c>
       <c r="K43" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" t="s">
         <v>160</v>
       </c>
       <c r="R43" t="n">
@@ -1238,13 +1325,13 @@
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" t="s">
         <v>160</v>
       </c>
       <c r="R44" t="n">
@@ -1258,13 +1345,13 @@
       <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="H45" t="s">
-        <v>160</v>
-      </c>
-      <c r="L45" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" t="s">
         <v>160</v>
       </c>
       <c r="R45" t="n">
@@ -1281,17 +1368,23 @@
       <c r="C46" t="s">
         <v>160</v>
       </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
       <c r="E46" t="s">
         <v>160</v>
       </c>
-      <c r="G46" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="K46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" t="s">
+        <v>160</v>
+      </c>
+      <c r="P46" t="s">
         <v>160</v>
       </c>
       <c r="R46" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -1301,17 +1394,20 @@
       <c r="B47" t="s">
         <v>42</v>
       </c>
+      <c r="I47" t="s">
+        <v>160</v>
+      </c>
+      <c r="K47" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
       <c r="O47" t="s">
         <v>160</v>
       </c>
-      <c r="P47" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>160</v>
-      </c>
       <c r="R47" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -1321,6 +1417,27 @@
       <c r="B48" t="s">
         <v>43</v>
       </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" t="s">
+        <v>160</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1329,6 +1446,21 @@
       <c r="B49" t="s">
         <v>44</v>
       </c>
+      <c r="I49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" t="s">
+        <v>160</v>
+      </c>
+      <c r="P49" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>160</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1340,8 +1472,11 @@
       <c r="D50" t="s">
         <v>160</v>
       </c>
+      <c r="P50" t="s">
+        <v>160</v>
+      </c>
       <c r="R50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1354,11 +1489,23 @@
       <c r="D51" t="s">
         <v>160</v>
       </c>
-      <c r="O51" t="s">
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" t="s">
+        <v>160</v>
+      </c>
+      <c r="K51" t="s">
         <v>160</v>
       </c>
       <c r="R51" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1368,14 +1515,20 @@
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="I52" t="s">
-        <v>160</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
         <v>160</v>
       </c>
       <c r="R52" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
@@ -1385,20 +1538,17 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
         <v>160</v>
       </c>
       <c r="H53" t="s">
         <v>160</v>
       </c>
-      <c r="I53" t="s">
-        <v>160</v>
-      </c>
-      <c r="O53" t="s">
-        <v>160</v>
-      </c>
       <c r="R53" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -1408,17 +1558,26 @@
       <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
       <c r="D54" t="s">
         <v>160</v>
       </c>
       <c r="F54" t="s">
         <v>160</v>
       </c>
+      <c r="H54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" t="s">
+        <v>160</v>
+      </c>
+      <c r="M54" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" t="s">
+        <v>160</v>
+      </c>
       <c r="R54" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
@@ -1428,11 +1587,20 @@
       <c r="B55" t="s">
         <v>50</v>
       </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
       <c r="F55" t="s">
         <v>160</v>
       </c>
+      <c r="L55" t="s">
+        <v>160</v>
+      </c>
       <c r="R55" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -1442,17 +1610,26 @@
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" t="s">
-        <v>160</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" t="s">
         <v>160</v>
       </c>
       <c r="R56" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
@@ -1462,14 +1639,20 @@
       <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" t="s">
         <v>160</v>
       </c>
       <c r="I57" t="s">
         <v>160</v>
       </c>
+      <c r="Q57" t="s">
+        <v>160</v>
+      </c>
       <c r="R57" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -1479,11 +1662,23 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
       <c r="E58" t="s">
         <v>160</v>
       </c>
+      <c r="H58" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" t="s">
+        <v>160</v>
+      </c>
+      <c r="O58" t="s">
+        <v>160</v>
+      </c>
       <c r="R58" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
@@ -1493,13 +1688,13 @@
       <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="L59" t="s">
-        <v>160</v>
-      </c>
-      <c r="O59" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" t="s">
         <v>160</v>
       </c>
       <c r="R59" t="n">
@@ -1513,17 +1708,23 @@
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" t="s">
         <v>160</v>
       </c>
       <c r="O60" t="s">
         <v>160</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="P60" t="s">
         <v>160</v>
       </c>
       <c r="R60" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -1533,11 +1734,14 @@
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="G61" t="s">
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="K61" t="s">
         <v>160</v>
       </c>
       <c r="R61" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -1547,17 +1751,20 @@
       <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="D62" t="s">
+      <c r="H62" t="s">
         <v>160</v>
       </c>
       <c r="I62" t="s">
         <v>160</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="L62" t="s">
+        <v>160</v>
+      </c>
+      <c r="O62" t="s">
         <v>160</v>
       </c>
       <c r="R62" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="63">
@@ -1567,14 +1774,23 @@
       <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="L63" t="s">
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" t="s">
         <v>160</v>
       </c>
       <c r="Q63" t="s">
         <v>160</v>
       </c>
       <c r="R63" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -1584,11 +1800,17 @@
       <c r="B64" t="s">
         <v>59</v>
       </c>
+      <c r="F64" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" t="s">
+        <v>160</v>
+      </c>
       <c r="L64" t="s">
         <v>160</v>
       </c>
       <c r="R64" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -1601,8 +1823,14 @@
       <c r="E65" t="s">
         <v>160</v>
       </c>
+      <c r="I65" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" t="s">
+        <v>160</v>
+      </c>
       <c r="R65" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -1612,17 +1840,20 @@
       <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="G66" t="s">
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
         <v>160</v>
       </c>
       <c r="K66" t="s">
         <v>160</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>160</v>
       </c>
       <c r="R66" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
@@ -1632,16 +1863,16 @@
       <c r="B67" t="s">
         <v>62</v>
       </c>
-      <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>160</v>
-      </c>
-      <c r="K67" t="s">
-        <v>160</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" t="s">
+        <v>160</v>
+      </c>
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+      <c r="O67" t="s">
         <v>160</v>
       </c>
       <c r="R67" t="n">
@@ -1655,11 +1886,20 @@
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="G68" t="s">
+      <c r="C68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" t="s">
+        <v>160</v>
+      </c>
+      <c r="P68" t="s">
         <v>160</v>
       </c>
       <c r="R68" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="69">
@@ -1669,17 +1909,20 @@
       <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="D69" t="s">
-        <v>160</v>
-      </c>
       <c r="F69" t="s">
         <v>160</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" t="s">
         <v>160</v>
       </c>
       <c r="R69" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
@@ -1689,14 +1932,20 @@
       <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="K70" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q70" t="s">
+      <c r="E70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" t="s">
         <v>160</v>
       </c>
       <c r="R70" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
@@ -1709,17 +1958,20 @@
       <c r="F71" t="s">
         <v>160</v>
       </c>
-      <c r="H71" t="s">
-        <v>160</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="I71" t="s">
         <v>160</v>
       </c>
       <c r="L71" t="s">
         <v>160</v>
       </c>
+      <c r="M71" t="s">
+        <v>160</v>
+      </c>
+      <c r="O71" t="s">
+        <v>160</v>
+      </c>
       <c r="R71" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
@@ -1729,11 +1981,20 @@
       <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="O72" t="s">
+      <c r="G72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K72" t="s">
         <v>160</v>
       </c>
       <c r="R72" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
@@ -1743,20 +2004,23 @@
       <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
         <v>160</v>
       </c>
       <c r="H73" t="s">
         <v>160</v>
       </c>
+      <c r="K73" t="s">
+        <v>160</v>
+      </c>
       <c r="O73" t="s">
         <v>160</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>160</v>
       </c>
       <c r="R73" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="74">
@@ -1766,17 +2030,23 @@
       <c r="B74" t="s">
         <v>69</v>
       </c>
+      <c r="D74" t="s">
+        <v>160</v>
+      </c>
       <c r="F74" t="s">
         <v>160</v>
       </c>
-      <c r="L74" t="s">
-        <v>160</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="H74" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q74" t="s">
         <v>160</v>
       </c>
       <c r="R74" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
@@ -1786,7 +2056,7 @@
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>160</v>
       </c>
       <c r="R75" t="n">
@@ -1800,7 +2070,7 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="F76" t="s">
+      <c r="K76" t="s">
         <v>160</v>
       </c>
       <c r="R76" t="n">
@@ -1814,7 +2084,7 @@
       <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="P77" t="s">
+      <c r="C77" t="s">
         <v>160</v>
       </c>
       <c r="R77" t="n">
@@ -1828,7 +2098,7 @@
       <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="O78" t="s">
+      <c r="K78" t="s">
         <v>160</v>
       </c>
       <c r="R78" t="n">
@@ -1842,7 +2112,7 @@
       <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="I79" t="s">
+      <c r="G79" t="s">
         <v>160</v>
       </c>
       <c r="R79" t="n">
@@ -1856,7 +2126,7 @@
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="M80" t="s">
+      <c r="G80" t="s">
         <v>160</v>
       </c>
       <c r="R80" t="n">
@@ -1870,7 +2140,7 @@
       <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>160</v>
       </c>
       <c r="R81" t="n">
@@ -1884,10 +2154,10 @@
       <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="C82" t="s">
-        <v>160</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="G82" t="s">
+        <v>160</v>
+      </c>
+      <c r="O82" t="s">
         <v>160</v>
       </c>
       <c r="R82" t="n">
@@ -1901,10 +2171,10 @@
       <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C83" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q83" t="s">
+      <c r="K83" t="s">
+        <v>160</v>
+      </c>
+      <c r="O83" t="s">
         <v>160</v>
       </c>
       <c r="R83" t="n">
@@ -1918,10 +2188,10 @@
       <c r="B84" t="s">
         <v>79</v>
       </c>
-      <c r="C84" t="s">
-        <v>160</v>
-      </c>
       <c r="D84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84" t="s">
         <v>160</v>
       </c>
       <c r="R84" t="n">
@@ -1935,10 +2205,10 @@
       <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="E85" t="s">
-        <v>160</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="I85" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q85" t="s">
         <v>160</v>
       </c>
       <c r="R85" t="n">
@@ -1952,14 +2222,14 @@
       <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="G86" t="s">
-        <v>160</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="L86" t="s">
         <v>160</v>
       </c>
       <c r="R86" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -1969,14 +2239,17 @@
       <c r="B87" t="s">
         <v>82</v>
       </c>
-      <c r="F87" t="s">
+      <c r="L87" t="s">
         <v>160</v>
       </c>
       <c r="O87" t="s">
         <v>160</v>
       </c>
+      <c r="Q87" t="s">
+        <v>160</v>
+      </c>
       <c r="R87" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
@@ -1986,13 +2259,13 @@
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="L88" t="s">
-        <v>160</v>
-      </c>
-      <c r="P88" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="H88" t="s">
+        <v>160</v>
+      </c>
+      <c r="I88" t="s">
+        <v>160</v>
+      </c>
+      <c r="N88" t="s">
         <v>160</v>
       </c>
       <c r="R88" t="n">
@@ -2006,13 +2279,13 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
+      <c r="E89" t="s">
+        <v>160</v>
+      </c>
       <c r="G89" t="s">
         <v>160</v>
       </c>
-      <c r="I89" t="s">
-        <v>160</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="L89" t="s">
         <v>160</v>
       </c>
       <c r="R89" t="n">
@@ -2026,11 +2299,17 @@
       <c r="B90" t="s">
         <v>85</v>
       </c>
+      <c r="E90" t="s">
+        <v>160</v>
+      </c>
+      <c r="I90" t="s">
+        <v>160</v>
+      </c>
       <c r="K90" t="s">
         <v>160</v>
       </c>
       <c r="R90" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
@@ -2040,10 +2319,13 @@
       <c r="B91" t="s">
         <v>86</v>
       </c>
-      <c r="E91" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="D91" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" t="s">
+        <v>160</v>
+      </c>
+      <c r="M91" t="s">
         <v>160</v>
       </c>
       <c r="R91" t="n">
@@ -2057,11 +2339,17 @@
       <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="K92" t="s">
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" t="s">
+        <v>160</v>
+      </c>
+      <c r="I92" t="s">
         <v>160</v>
       </c>
       <c r="R92" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="93">
@@ -2071,17 +2359,23 @@
       <c r="B93" t="s">
         <v>88</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s">
         <v>160</v>
       </c>
       <c r="I93" t="s">
         <v>160</v>
       </c>
-      <c r="M93" t="s">
+      <c r="K93" t="s">
+        <v>160</v>
+      </c>
+      <c r="L93" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q93" t="s">
         <v>160</v>
       </c>
       <c r="R93" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="94">
@@ -2091,14 +2385,17 @@
       <c r="B94" t="s">
         <v>89</v>
       </c>
-      <c r="E94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>160</v>
+      </c>
+      <c r="K94" t="s">
+        <v>160</v>
+      </c>
+      <c r="O94" t="s">
         <v>160</v>
       </c>
       <c r="R94" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="95">
@@ -2111,11 +2408,20 @@
       <c r="D95" t="s">
         <v>160</v>
       </c>
+      <c r="F95" t="s">
+        <v>160</v>
+      </c>
+      <c r="H95" t="s">
+        <v>160</v>
+      </c>
       <c r="I95" t="s">
         <v>160</v>
       </c>
+      <c r="O95" t="s">
+        <v>160</v>
+      </c>
       <c r="R95" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="96">
@@ -2125,14 +2431,23 @@
       <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="C96" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" t="s">
+        <v>160</v>
+      </c>
+      <c r="I96" t="s">
+        <v>160</v>
+      </c>
+      <c r="L96" t="s">
+        <v>160</v>
+      </c>
+      <c r="P96" t="s">
         <v>160</v>
       </c>
       <c r="R96" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="97">
@@ -2142,14 +2457,26 @@
       <c r="B97" t="s">
         <v>92</v>
       </c>
-      <c r="F97" t="s">
-        <v>160</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="D97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G97" t="s">
+        <v>160</v>
+      </c>
+      <c r="H97" t="s">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s">
+        <v>160</v>
+      </c>
+      <c r="P97" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q97" t="s">
         <v>160</v>
       </c>
       <c r="R97" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="98">
@@ -2159,17 +2486,20 @@
       <c r="B98" t="s">
         <v>93</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="G98" t="s">
         <v>160</v>
       </c>
       <c r="L98" t="s">
         <v>160</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="M98" t="s">
         <v>160</v>
       </c>
       <c r="R98" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="99">
@@ -2179,11 +2509,26 @@
       <c r="B99" t="s">
         <v>94</v>
       </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
       <c r="F99" t="s">
         <v>160</v>
       </c>
+      <c r="G99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L99" t="s">
+        <v>160</v>
+      </c>
+      <c r="P99" t="s">
+        <v>160</v>
+      </c>
       <c r="R99" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="100">
@@ -2193,17 +2538,20 @@
       <c r="B100" t="s">
         <v>95</v>
       </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
       <c r="E100" t="s">
         <v>160</v>
       </c>
-      <c r="K100" t="s">
-        <v>160</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="I100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q100" t="s">
         <v>160</v>
       </c>
       <c r="R100" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="101">
@@ -2213,20 +2561,26 @@
       <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="C101" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101" t="s">
-        <v>160</v>
-      </c>
-      <c r="O101" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q101" t="s">
+      <c r="H101" t="s">
+        <v>160</v>
+      </c>
+      <c r="I101" t="s">
+        <v>160</v>
+      </c>
+      <c r="J101" t="s">
+        <v>160</v>
+      </c>
+      <c r="K101" t="s">
+        <v>160</v>
+      </c>
+      <c r="L101" t="s">
+        <v>160</v>
+      </c>
+      <c r="N101" t="s">
         <v>160</v>
       </c>
       <c r="R101" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="102">
@@ -2236,14 +2590,23 @@
       <c r="B102" t="s">
         <v>97</v>
       </c>
+      <c r="D102" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" t="s">
+        <v>160</v>
+      </c>
       <c r="F102" t="s">
         <v>160</v>
       </c>
-      <c r="I102" t="s">
+      <c r="G102" t="s">
+        <v>160</v>
+      </c>
+      <c r="K102" t="s">
         <v>160</v>
       </c>
       <c r="R102" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
@@ -2253,11 +2616,17 @@
       <c r="B103" t="s">
         <v>98</v>
       </c>
-      <c r="K103" t="s">
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" t="s">
+        <v>160</v>
+      </c>
+      <c r="P103" t="s">
         <v>160</v>
       </c>
       <c r="R103" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="104">
@@ -2267,6 +2636,21 @@
       <c r="B104" t="s">
         <v>99</v>
       </c>
+      <c r="C104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G104" t="s">
+        <v>160</v>
+      </c>
+      <c r="I104" t="s">
+        <v>160</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2275,11 +2659,17 @@
       <c r="B105" t="s">
         <v>100</v>
       </c>
-      <c r="G105" t="s">
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q105" t="s">
         <v>160</v>
       </c>
       <c r="R105" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
@@ -2289,11 +2679,17 @@
       <c r="B106" t="s">
         <v>101</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="F106" t="s">
+        <v>160</v>
+      </c>
+      <c r="G106" t="s">
+        <v>160</v>
+      </c>
+      <c r="H106" t="s">
         <v>160</v>
       </c>
       <c r="R106" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="107">
@@ -2303,14 +2699,23 @@
       <c r="B107" t="s">
         <v>102</v>
       </c>
-      <c r="I107" t="s">
-        <v>160</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="E107" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107" t="s">
+        <v>160</v>
+      </c>
+      <c r="L107" t="s">
         <v>160</v>
       </c>
       <c r="R107" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="108">
@@ -2320,17 +2725,23 @@
       <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="F108" t="s">
-        <v>160</v>
-      </c>
-      <c r="L108" t="s">
-        <v>160</v>
-      </c>
-      <c r="O108" t="s">
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108" t="s">
+        <v>160</v>
+      </c>
+      <c r="I108" t="s">
+        <v>160</v>
+      </c>
+      <c r="P108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q108" t="s">
         <v>160</v>
       </c>
       <c r="R108" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="109">
@@ -2346,8 +2757,14 @@
       <c r="F109" t="s">
         <v>160</v>
       </c>
+      <c r="H109" t="s">
+        <v>160</v>
+      </c>
+      <c r="K109" t="s">
+        <v>160</v>
+      </c>
       <c r="R109" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
@@ -2357,17 +2774,26 @@
       <c r="B110" t="s">
         <v>105</v>
       </c>
+      <c r="C110" t="s">
+        <v>160</v>
+      </c>
       <c r="F110" t="s">
         <v>160</v>
       </c>
-      <c r="H110" t="s">
-        <v>160</v>
-      </c>
-      <c r="O110" t="s">
+      <c r="G110" t="s">
+        <v>160</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+      <c r="K110" t="s">
+        <v>160</v>
+      </c>
+      <c r="L110" t="s">
         <v>160</v>
       </c>
       <c r="R110" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
@@ -2377,19 +2803,16 @@
       <c r="B111" t="s">
         <v>106</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
+        <v>160</v>
+      </c>
+      <c r="G111" t="s">
         <v>160</v>
       </c>
       <c r="H111" t="s">
         <v>160</v>
       </c>
       <c r="I111" t="s">
-        <v>160</v>
-      </c>
-      <c r="P111" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q111" t="s">
         <v>160</v>
       </c>
       <c r="R111" t="n">
@@ -2403,11 +2826,17 @@
       <c r="B112" t="s">
         <v>107</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="D112" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" t="s">
+        <v>160</v>
+      </c>
+      <c r="K112" t="s">
         <v>160</v>
       </c>
       <c r="R112" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="113">
@@ -2417,14 +2846,23 @@
       <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="I113" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q113" t="s">
+      <c r="D113" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113" t="s">
+        <v>160</v>
+      </c>
+      <c r="K113" t="s">
+        <v>160</v>
+      </c>
+      <c r="O113" t="s">
         <v>160</v>
       </c>
       <c r="R113" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
@@ -2434,7 +2872,7 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="I114" t="s">
+      <c r="Q114" t="s">
         <v>160</v>
       </c>
       <c r="R114" t="n">
@@ -2448,6 +2886,12 @@
       <c r="B115" t="s">
         <v>110</v>
       </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2456,7 +2900,7 @@
       <c r="B116" t="s">
         <v>111</v>
       </c>
-      <c r="O116" t="s">
+      <c r="H116" t="s">
         <v>160</v>
       </c>
       <c r="R116" t="n">
@@ -2484,7 +2928,7 @@
       <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>160</v>
       </c>
       <c r="L118" t="s">
@@ -2504,6 +2948,18 @@
       <c r="B119" t="s">
         <v>114</v>
       </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
+      <c r="H119" t="s">
+        <v>160</v>
+      </c>
+      <c r="O119" t="s">
+        <v>160</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2512,14 +2968,17 @@
       <c r="B120" t="s">
         <v>115</v>
       </c>
-      <c r="G120" t="s">
-        <v>160</v>
-      </c>
-      <c r="O120" t="s">
+      <c r="I120" t="s">
+        <v>160</v>
+      </c>
+      <c r="M120" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q120" t="s">
         <v>160</v>
       </c>
       <c r="R120" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
@@ -2529,13 +2988,13 @@
       <c r="B121" t="s">
         <v>116</v>
       </c>
-      <c r="C121" t="s">
-        <v>160</v>
-      </c>
       <c r="H121" t="s">
         <v>160</v>
       </c>
-      <c r="L121" t="s">
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+      <c r="M121" t="s">
         <v>160</v>
       </c>
       <c r="R121" t="n">
@@ -2549,14 +3008,17 @@
       <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="G122" t="s">
-        <v>160</v>
-      </c>
-      <c r="P122" t="s">
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+      <c r="H122" t="s">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
         <v>160</v>
       </c>
       <c r="R122" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
@@ -2569,11 +3031,14 @@
       <c r="F123" t="s">
         <v>160</v>
       </c>
-      <c r="K123" t="s">
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" t="s">
         <v>160</v>
       </c>
       <c r="R123" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
@@ -2583,13 +3048,13 @@
       <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="C124" t="s">
-        <v>160</v>
-      </c>
-      <c r="H124" t="s">
-        <v>160</v>
-      </c>
-      <c r="M124" t="s">
+      <c r="D124" t="s">
+        <v>160</v>
+      </c>
+      <c r="O124" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q124" t="s">
         <v>160</v>
       </c>
       <c r="R124" t="n">
@@ -2603,7 +3068,10 @@
       <c r="B125" t="s">
         <v>120</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" t="s">
+        <v>160</v>
+      </c>
+      <c r="G125" t="s">
         <v>160</v>
       </c>
       <c r="H125" t="s">
@@ -2620,7 +3088,7 @@
       <c r="B126" t="s">
         <v>121</v>
       </c>
-      <c r="F126" t="s">
+      <c r="E126" t="s">
         <v>160</v>
       </c>
       <c r="G126" t="s">
@@ -2640,13 +3108,13 @@
       <c r="B127" t="s">
         <v>122</v>
       </c>
-      <c r="E127" t="s">
-        <v>160</v>
-      </c>
-      <c r="G127" t="s">
-        <v>160</v>
-      </c>
-      <c r="L127" t="s">
+      <c r="F127" t="s">
+        <v>160</v>
+      </c>
+      <c r="O127" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q127" t="s">
         <v>160</v>
       </c>
       <c r="R127" t="n">
@@ -2660,22 +3128,16 @@
       <c r="B128" t="s">
         <v>123</v>
       </c>
-      <c r="C128" t="s">
-        <v>160</v>
-      </c>
-      <c r="D128" t="s">
-        <v>160</v>
-      </c>
-      <c r="E128" t="s">
-        <v>160</v>
-      </c>
-      <c r="L128" t="s">
+      <c r="H128" t="s">
+        <v>160</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+      <c r="K128" t="s">
         <v>160</v>
       </c>
       <c r="O128" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q128" t="s">
         <v>160</v>
       </c>
       <c r="R128" t="n">
@@ -2689,16 +3151,16 @@
       <c r="B129" t="s">
         <v>124</v>
       </c>
-      <c r="F129" t="s">
-        <v>160</v>
-      </c>
-      <c r="K129" t="s">
+      <c r="D129" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" t="s">
+        <v>160</v>
+      </c>
+      <c r="I129" t="s">
         <v>160</v>
       </c>
       <c r="O129" t="s">
-        <v>160</v>
-      </c>
-      <c r="P129" t="s">
         <v>160</v>
       </c>
       <c r="R129" t="n">
@@ -2712,7 +3174,7 @@
       <c r="B130" t="s">
         <v>125</v>
       </c>
-      <c r="O130" t="s">
+      <c r="G130" t="s">
         <v>160</v>
       </c>
       <c r="R130" t="n">
@@ -2726,13 +3188,13 @@
       <c r="B131" t="s">
         <v>126</v>
       </c>
-      <c r="H131" t="s">
-        <v>160</v>
-      </c>
-      <c r="I131" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q131" t="s">
+      <c r="K131" t="s">
+        <v>160</v>
+      </c>
+      <c r="L131" t="s">
+        <v>160</v>
+      </c>
+      <c r="P131" t="s">
         <v>160</v>
       </c>
       <c r="R131" t="n">
@@ -2746,11 +3208,17 @@
       <c r="B132" t="s">
         <v>127</v>
       </c>
+      <c r="H132" t="s">
+        <v>160</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
       <c r="L132" t="s">
         <v>160</v>
       </c>
       <c r="R132" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
@@ -2760,11 +3228,17 @@
       <c r="B133" t="s">
         <v>128</v>
       </c>
-      <c r="F133" t="s">
+      <c r="C133" t="s">
+        <v>160</v>
+      </c>
+      <c r="P133" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q133" t="s">
         <v>160</v>
       </c>
       <c r="R133" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
@@ -2774,13 +3248,13 @@
       <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="M134" t="s">
-        <v>160</v>
-      </c>
-      <c r="O134" t="s">
-        <v>160</v>
-      </c>
-      <c r="P134" t="s">
+      <c r="F134" t="s">
+        <v>160</v>
+      </c>
+      <c r="G134" t="s">
+        <v>160</v>
+      </c>
+      <c r="I134" t="s">
         <v>160</v>
       </c>
       <c r="R134" t="n">
@@ -2794,22 +3268,16 @@
       <c r="B135" t="s">
         <v>123</v>
       </c>
-      <c r="C135" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" t="s">
-        <v>160</v>
-      </c>
-      <c r="E135" t="s">
-        <v>160</v>
-      </c>
-      <c r="L135" t="s">
+      <c r="H135" t="s">
+        <v>160</v>
+      </c>
+      <c r="I135" t="s">
+        <v>160</v>
+      </c>
+      <c r="K135" t="s">
         <v>160</v>
       </c>
       <c r="O135" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q135" t="s">
         <v>160</v>
       </c>
       <c r="R135" t="n">
@@ -2823,16 +3291,16 @@
       <c r="B136" t="s">
         <v>124</v>
       </c>
-      <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="D136" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" t="s">
+        <v>160</v>
+      </c>
+      <c r="I136" t="s">
         <v>160</v>
       </c>
       <c r="O136" t="s">
-        <v>160</v>
-      </c>
-      <c r="P136" t="s">
         <v>160</v>
       </c>
       <c r="R136" t="n">
@@ -2846,7 +3314,7 @@
       <c r="B137" t="s">
         <v>130</v>
       </c>
-      <c r="F137" t="s">
+      <c r="M137" t="s">
         <v>160</v>
       </c>
       <c r="R137" t="n">
@@ -2860,7 +3328,7 @@
       <c r="B138" t="s">
         <v>131</v>
       </c>
-      <c r="P138" t="s">
+      <c r="O138" t="s">
         <v>160</v>
       </c>
       <c r="R138" t="n">
@@ -2874,13 +3342,10 @@
       <c r="B139" t="s">
         <v>132</v>
       </c>
-      <c r="L139" t="s">
-        <v>160</v>
-      </c>
-      <c r="O139" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q139" t="s">
+      <c r="E139" t="s">
+        <v>160</v>
+      </c>
+      <c r="G139" t="s">
         <v>160</v>
       </c>
       <c r="R139" t="n">
@@ -2894,11 +3359,17 @@
       <c r="B140" t="s">
         <v>133</v>
       </c>
+      <c r="E140" t="s">
+        <v>160</v>
+      </c>
       <c r="I140" t="s">
         <v>160</v>
       </c>
+      <c r="P140" t="s">
+        <v>160</v>
+      </c>
       <c r="R140" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
@@ -2908,11 +3379,17 @@
       <c r="B141" t="s">
         <v>134</v>
       </c>
+      <c r="C141" t="s">
+        <v>160</v>
+      </c>
+      <c r="H141" t="s">
+        <v>160</v>
+      </c>
       <c r="O141" t="s">
         <v>160</v>
       </c>
       <c r="R141" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="142">
@@ -2922,10 +3399,10 @@
       <c r="B142" t="s">
         <v>135</v>
       </c>
-      <c r="D142" t="s">
-        <v>160</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="G142" t="s">
+        <v>160</v>
+      </c>
+      <c r="O142" t="s">
         <v>160</v>
       </c>
       <c r="Q142" t="s">
@@ -2942,6 +3419,9 @@
       <c r="B143" t="s">
         <v>136</v>
       </c>
+      <c r="D143" t="s">
+        <v>160</v>
+      </c>
       <c r="F143" t="s">
         <v>160</v>
       </c>
@@ -2949,7 +3429,7 @@
         <v>160</v>
       </c>
       <c r="R143" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
@@ -2959,14 +3439,26 @@
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="K144" t="s">
+      <c r="C144" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" t="s">
+        <v>160</v>
+      </c>
+      <c r="G144" t="s">
+        <v>160</v>
+      </c>
+      <c r="I144" t="s">
         <v>160</v>
       </c>
       <c r="L144" t="s">
         <v>160</v>
       </c>
+      <c r="N144" t="s">
+        <v>160</v>
+      </c>
       <c r="R144" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="145">
@@ -2976,7 +3468,7 @@
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="G145" t="s">
+      <c r="J145" t="s">
         <v>160</v>
       </c>
       <c r="R145" t="n">
@@ -2990,7 +3482,7 @@
       <c r="B146" t="s">
         <v>139</v>
       </c>
-      <c r="K146" t="s">
+      <c r="P146" t="s">
         <v>160</v>
       </c>
       <c r="R146" t="n">
@@ -3004,11 +3496,14 @@
       <c r="B147" t="s">
         <v>140</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="G147" t="s">
         <v>160</v>
       </c>
       <c r="R147" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="148">
@@ -3018,11 +3513,17 @@
       <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="D148" t="s">
+      <c r="I148" t="s">
+        <v>160</v>
+      </c>
+      <c r="L148" t="s">
+        <v>160</v>
+      </c>
+      <c r="O148" t="s">
         <v>160</v>
       </c>
       <c r="R148" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="149">
@@ -3032,11 +3533,17 @@
       <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
+        <v>160</v>
+      </c>
+      <c r="G149" t="s">
+        <v>160</v>
+      </c>
+      <c r="I149" t="s">
         <v>160</v>
       </c>
       <c r="R149" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
@@ -3046,11 +3553,23 @@
       <c r="B150" t="s">
         <v>143</v>
       </c>
-      <c r="P150" t="s">
+      <c r="D150" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" t="s">
+        <v>160</v>
+      </c>
+      <c r="F150" t="s">
+        <v>160</v>
+      </c>
+      <c r="K150" t="s">
+        <v>160</v>
+      </c>
+      <c r="L150" t="s">
         <v>160</v>
       </c>
       <c r="R150" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="151">
@@ -3060,14 +3579,17 @@
       <c r="B151" t="s">
         <v>144</v>
       </c>
-      <c r="D151" t="s">
-        <v>160</v>
-      </c>
-      <c r="M151" t="s">
+      <c r="C151" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" t="s">
+        <v>160</v>
+      </c>
+      <c r="G151" t="s">
         <v>160</v>
       </c>
       <c r="R151" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="152">
@@ -3077,20 +3599,23 @@
       <c r="B152" t="s">
         <v>145</v>
       </c>
-      <c r="D152" t="s">
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152" t="s">
         <v>160</v>
       </c>
       <c r="K152" t="s">
         <v>160</v>
       </c>
-      <c r="O152" t="s">
+      <c r="L152" t="s">
         <v>160</v>
       </c>
       <c r="Q152" t="s">
         <v>160</v>
       </c>
       <c r="R152" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="153">
@@ -3100,10 +3625,10 @@
       <c r="B153" t="s">
         <v>146</v>
       </c>
-      <c r="G153" t="s">
-        <v>160</v>
-      </c>
       <c r="I153" t="s">
+        <v>160</v>
+      </c>
+      <c r="O153" t="s">
         <v>160</v>
       </c>
       <c r="R153" t="n">
@@ -3117,6 +3642,18 @@
       <c r="B154" t="s">
         <v>147</v>
       </c>
+      <c r="F154" t="s">
+        <v>160</v>
+      </c>
+      <c r="L154" t="s">
+        <v>160</v>
+      </c>
+      <c r="P154" t="s">
+        <v>160</v>
+      </c>
+      <c r="R154" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3125,11 +3662,17 @@
       <c r="B155" t="s">
         <v>148</v>
       </c>
-      <c r="P155" t="s">
+      <c r="K155" t="s">
+        <v>160</v>
+      </c>
+      <c r="L155" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q155" t="s">
         <v>160</v>
       </c>
       <c r="R155" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
@@ -3139,14 +3682,20 @@
       <c r="B156" t="s">
         <v>149</v>
       </c>
-      <c r="O156" t="s">
-        <v>160</v>
-      </c>
-      <c r="P156" t="s">
+      <c r="C156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E156" t="s">
+        <v>160</v>
+      </c>
+      <c r="H156" t="s">
+        <v>160</v>
+      </c>
+      <c r="K156" t="s">
         <v>160</v>
       </c>
       <c r="R156" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="157">
@@ -3156,11 +3705,23 @@
       <c r="B157" t="s">
         <v>150</v>
       </c>
-      <c r="K157" t="s">
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" t="s">
+        <v>160</v>
+      </c>
+      <c r="F157" t="s">
+        <v>160</v>
+      </c>
+      <c r="L157" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q157" t="s">
         <v>160</v>
       </c>
       <c r="R157" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="158">
@@ -3170,20 +3731,20 @@
       <c r="B158" t="s">
         <v>151</v>
       </c>
-      <c r="C158" t="s">
-        <v>160</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="E158" t="s">
+        <v>160</v>
+      </c>
+      <c r="F158" t="s">
         <v>160</v>
       </c>
       <c r="I158" t="s">
         <v>160</v>
       </c>
-      <c r="P158" t="s">
+      <c r="L158" t="s">
         <v>160</v>
       </c>
       <c r="R158" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="159">
@@ -3193,11 +3754,17 @@
       <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="F159" t="s">
+      <c r="E159" t="s">
+        <v>160</v>
+      </c>
+      <c r="H159" t="s">
+        <v>160</v>
+      </c>
+      <c r="L159" t="s">
         <v>160</v>
       </c>
       <c r="R159" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="160">
@@ -3207,17 +3774,20 @@
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="H160" t="s">
-        <v>160</v>
-      </c>
-      <c r="M160" t="s">
-        <v>160</v>
-      </c>
-      <c r="P160" t="s">
+      <c r="C160" t="s">
+        <v>160</v>
+      </c>
+      <c r="D160" t="s">
+        <v>160</v>
+      </c>
+      <c r="E160" t="s">
+        <v>160</v>
+      </c>
+      <c r="I160" t="s">
         <v>160</v>
       </c>
       <c r="R160" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="161">
@@ -3227,10 +3797,10 @@
       <c r="B161" t="s">
         <v>154</v>
       </c>
-      <c r="E161" t="s">
-        <v>160</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F161" t="s">
+        <v>160</v>
+      </c>
+      <c r="K161" t="s">
         <v>160</v>
       </c>
       <c r="R161" t="n">
@@ -3244,11 +3814,17 @@
       <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="K162" t="s">
+      <c r="C162" t="s">
+        <v>160</v>
+      </c>
+      <c r="D162" t="s">
+        <v>160</v>
+      </c>
+      <c r="I162" t="s">
         <v>160</v>
       </c>
       <c r="R162" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="163">
@@ -3258,11 +3834,26 @@
       <c r="B163" t="s">
         <v>156</v>
       </c>
+      <c r="E163" t="s">
+        <v>160</v>
+      </c>
+      <c r="H163" t="s">
+        <v>160</v>
+      </c>
+      <c r="M163" t="s">
+        <v>160</v>
+      </c>
       <c r="O163" t="s">
         <v>160</v>
       </c>
+      <c r="P163" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>160</v>
+      </c>
       <c r="R163" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="164">
@@ -3278,14 +3869,17 @@
       <c r="D164" t="s">
         <v>160</v>
       </c>
+      <c r="F164" t="s">
+        <v>160</v>
+      </c>
       <c r="K164" t="s">
         <v>160</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="O164" t="s">
         <v>160</v>
       </c>
       <c r="R164" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
@@ -3295,11 +3889,23 @@
       <c r="B165" t="s">
         <v>158</v>
       </c>
+      <c r="C165" t="s">
+        <v>160</v>
+      </c>
+      <c r="E165" t="s">
+        <v>160</v>
+      </c>
       <c r="G165" t="s">
         <v>160</v>
       </c>
+      <c r="I165" t="s">
+        <v>160</v>
+      </c>
+      <c r="L165" t="s">
+        <v>160</v>
+      </c>
       <c r="R165" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="166">
@@ -3309,61 +3915,70 @@
       <c r="B166" t="s">
         <v>159</v>
       </c>
-      <c r="I166" t="s">
-        <v>160</v>
-      </c>
-      <c r="K166" t="s">
+      <c r="C166" t="s">
+        <v>160</v>
+      </c>
+      <c r="D166" t="s">
+        <v>160</v>
+      </c>
+      <c r="G166" t="s">
+        <v>160</v>
+      </c>
+      <c r="H166" t="s">
+        <v>160</v>
+      </c>
+      <c r="M166" t="s">
         <v>160</v>
       </c>
       <c r="R166" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="167">
       <c r="C167" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="D167" t="n">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="E167" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="F167" t="n">
-        <v>31.0</v>
+        <v>49.0</v>
       </c>
       <c r="G167" t="n">
-        <v>25.0</v>
+        <v>49.0</v>
       </c>
       <c r="H167" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
       <c r="I167" t="n">
-        <v>22.0</v>
+        <v>50.0</v>
       </c>
       <c r="J167" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K167" t="n">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="L167" t="n">
-        <v>23.0</v>
+        <v>42.0</v>
       </c>
       <c r="M167" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="N167" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O167" t="n">
         <v>34.0</v>
       </c>
       <c r="P167" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q167" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t>Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -497,9 +497,6 @@
   </si>
   <si>
     <t>ARZOO CHOUBEY</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -637,8 +634,8 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>160</v>
+      <c r="O6" t="n">
+        <v>1.0</v>
       </c>
       <c r="R6" t="n">
         <v>1.0</v>
@@ -651,8 +648,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>160</v>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="R7" t="n">
         <v>1.0</v>
@@ -665,8 +662,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" t="s">
-        <v>160</v>
+      <c r="M8" t="n">
+        <v>1.0</v>
       </c>
       <c r="R8" t="n">
         <v>1.0</v>
@@ -679,8 +676,8 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" t="s">
-        <v>160</v>
+      <c r="H9" t="n">
+        <v>1.0</v>
       </c>
       <c r="R9" t="n">
         <v>1.0</v>
@@ -693,8 +690,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>160</v>
+      <c r="K10" t="n">
+        <v>1.0</v>
       </c>
       <c r="R10" t="n">
         <v>1.0</v>
@@ -707,8 +704,8 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>160</v>
+      <c r="O11" t="n">
+        <v>1.0</v>
       </c>
       <c r="R11" t="n">
         <v>1.0</v>
@@ -721,8 +718,8 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="O12" t="s">
-        <v>160</v>
+      <c r="D12" t="n">
+        <v>1.0</v>
       </c>
       <c r="R12" t="n">
         <v>1.0</v>
@@ -735,8 +732,8 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="K13" t="s">
-        <v>160</v>
+      <c r="K13" t="n">
+        <v>1.0</v>
       </c>
       <c r="R13" t="n">
         <v>1.0</v>
@@ -749,8 +746,8 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>160</v>
+      <c r="Q14" t="n">
+        <v>1.0</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
@@ -763,8 +760,8 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="P15" t="s">
-        <v>160</v>
+      <c r="G15" t="n">
+        <v>1.0</v>
       </c>
       <c r="R15" t="n">
         <v>1.0</v>
@@ -777,8 +774,11 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="P16" t="s">
-        <v>160</v>
+      <c r="D16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.0</v>
       </c>
       <c r="R16" t="n">
         <v>2.0</v>
@@ -791,11 +791,11 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" t="s">
-        <v>160</v>
+      <c r="F17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.0</v>
       </c>
       <c r="R17" t="n">
         <v>2.0</v>
@@ -808,14 +808,14 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" t="s">
-        <v>160</v>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0</v>
       </c>
       <c r="R18" t="n">
         <v>3.0</v>
@@ -828,11 +828,14 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" t="s">
-        <v>160</v>
+      <c r="D19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
       </c>
       <c r="R19" t="n">
         <v>3.0</v>
@@ -845,6 +848,18 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -853,14 +868,14 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" t="s">
-        <v>160</v>
+      <c r="E21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.0</v>
       </c>
       <c r="R21" t="n">
         <v>3.0</v>
@@ -873,11 +888,26 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" t="s">
-        <v>160</v>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -887,26 +917,23 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O23" t="s">
-        <v>160</v>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -916,23 +943,26 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" t="s">
-        <v>160</v>
-      </c>
-      <c r="P24" t="s">
-        <v>160</v>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -942,11 +972,26 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
-        <v>160</v>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -956,17 +1001,11 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" t="s">
-        <v>160</v>
+      <c r="D26" t="n">
+        <v>1.0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -976,20 +1015,26 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" t="s">
-        <v>160</v>
-      </c>
-      <c r="L27" t="s">
-        <v>160</v>
-      </c>
-      <c r="M27" t="s">
-        <v>160</v>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -999,23 +1044,20 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" t="s">
-        <v>160</v>
-      </c>
-      <c r="P28" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>160</v>
+      <c r="F28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -1025,26 +1067,14 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" t="s">
-        <v>160</v>
-      </c>
-      <c r="O29" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>160</v>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -1054,17 +1084,26 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I30" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" t="s">
-        <v>160</v>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -1074,17 +1113,26 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L31" t="s">
-        <v>160</v>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -1094,20 +1142,20 @@
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" t="s">
-        <v>160</v>
-      </c>
-      <c r="P32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>160</v>
+      <c r="F32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -1117,26 +1165,23 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>160</v>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1146,26 +1191,20 @@
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" t="s">
-        <v>160</v>
-      </c>
-      <c r="P34" t="s">
-        <v>160</v>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -1175,23 +1214,23 @@
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="E35" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" t="s">
-        <v>160</v>
-      </c>
-      <c r="L35" t="s">
-        <v>160</v>
-      </c>
-      <c r="O35" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>160</v>
+      <c r="D35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -1201,11 +1240,23 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
-        <v>160</v>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -1215,17 +1266,11 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L37" t="s">
-        <v>160</v>
+      <c r="F37" t="n">
+        <v>1.0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,8 +1288,8 @@
       <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="F39" t="s">
-        <v>160</v>
+      <c r="Q39" t="n">
+        <v>1.0</v>
       </c>
       <c r="R39" t="n">
         <v>1.0</v>
@@ -1257,11 +1302,11 @@
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="F40" t="s">
-        <v>160</v>
-      </c>
-      <c r="P40" t="s">
-        <v>160</v>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0</v>
       </c>
       <c r="R40" t="n">
         <v>2.0</v>
@@ -1274,11 +1319,11 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="H41" t="s">
-        <v>160</v>
-      </c>
-      <c r="P41" t="s">
-        <v>160</v>
+      <c r="H41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.0</v>
       </c>
       <c r="R41" t="n">
         <v>2.0</v>
@@ -1291,11 +1336,11 @@
       <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="E42" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>160</v>
+      <c r="L42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.0</v>
       </c>
       <c r="R42" t="n">
         <v>2.0</v>
@@ -1308,11 +1353,11 @@
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="K43" t="s">
-        <v>160</v>
-      </c>
-      <c r="L43" t="s">
-        <v>160</v>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.0</v>
       </c>
       <c r="R43" t="n">
         <v>2.0</v>
@@ -1325,14 +1370,14 @@
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>160</v>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.0</v>
       </c>
       <c r="R44" t="n">
         <v>3.0</v>
@@ -1345,14 +1390,14 @@
       <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" t="s">
-        <v>160</v>
-      </c>
-      <c r="P45" t="s">
-        <v>160</v>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.0</v>
       </c>
       <c r="R45" t="n">
         <v>3.0</v>
@@ -1365,26 +1410,20 @@
       <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
-      </c>
-      <c r="K46" t="s">
-        <v>160</v>
-      </c>
-      <c r="L46" t="s">
-        <v>160</v>
-      </c>
-      <c r="P46" t="s">
-        <v>160</v>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -1394,17 +1433,23 @@
       <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="I47" t="s">
-        <v>160</v>
-      </c>
-      <c r="K47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L47" t="s">
-        <v>160</v>
-      </c>
-      <c r="O47" t="s">
-        <v>160</v>
+      <c r="D47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.0</v>
       </c>
       <c r="R47" t="n">
         <v>6.0</v>
@@ -1417,26 +1462,11 @@
       <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="D48" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" t="s">
-        <v>160</v>
-      </c>
-      <c r="H48" t="s">
-        <v>160</v>
-      </c>
-      <c r="K48" t="s">
-        <v>160</v>
+      <c r="K48" t="n">
+        <v>1.0</v>
       </c>
       <c r="R48" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1446,17 +1476,23 @@
       <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L49" t="s">
-        <v>160</v>
-      </c>
-      <c r="P49" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>160</v>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.0</v>
       </c>
       <c r="R49" t="n">
         <v>6.0</v>
@@ -1469,14 +1505,26 @@
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" t="s">
-        <v>160</v>
-      </c>
-      <c r="P50" t="s">
-        <v>160</v>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.0</v>
       </c>
       <c r="R50" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1486,26 +1534,14 @@
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" t="s">
-        <v>160</v>
-      </c>
-      <c r="I51" t="s">
-        <v>160</v>
-      </c>
-      <c r="K51" t="s">
-        <v>160</v>
+      <c r="D51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
       </c>
       <c r="R51" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1515,20 +1551,23 @@
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" t="s">
-        <v>160</v>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0</v>
       </c>
       <c r="R52" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
@@ -1538,14 +1577,14 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="F53" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" t="s">
-        <v>160</v>
+      <c r="F53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.0</v>
       </c>
       <c r="R53" t="n">
         <v>3.0</v>
@@ -1558,23 +1597,23 @@
       <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L54" t="s">
-        <v>160</v>
-      </c>
-      <c r="M54" t="s">
-        <v>160</v>
-      </c>
-      <c r="O54" t="s">
-        <v>160</v>
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.0</v>
       </c>
       <c r="R54" t="n">
         <v>6.0</v>
@@ -1587,20 +1626,26 @@
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="D55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" t="s">
-        <v>160</v>
-      </c>
-      <c r="L55" t="s">
-        <v>160</v>
+      <c r="E55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.0</v>
       </c>
       <c r="R55" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -1610,23 +1655,23 @@
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="D56" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" t="s">
-        <v>160</v>
-      </c>
-      <c r="K56" t="s">
-        <v>160</v>
-      </c>
-      <c r="L56" t="s">
-        <v>160</v>
+      <c r="D56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.0</v>
       </c>
       <c r="R56" t="n">
         <v>6.0</v>
@@ -1639,17 +1684,23 @@
       <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="F57" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>160</v>
+      <c r="E57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.0</v>
       </c>
       <c r="R57" t="n">
         <v>6.0</v>
@@ -1662,23 +1713,23 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" t="s">
-        <v>160</v>
-      </c>
-      <c r="K58" t="s">
-        <v>160</v>
-      </c>
-      <c r="O58" t="s">
-        <v>160</v>
+      <c r="D58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.0</v>
       </c>
       <c r="R58" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
@@ -1688,17 +1739,26 @@
       <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="D59" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" t="s">
-        <v>160</v>
+      <c r="D59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.0</v>
       </c>
       <c r="R59" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -1708,20 +1768,23 @@
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="C60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" t="s">
-        <v>160</v>
-      </c>
-      <c r="O60" t="s">
-        <v>160</v>
-      </c>
-      <c r="P60" t="s">
-        <v>160</v>
+      <c r="F60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.0</v>
       </c>
       <c r="R60" t="n">
         <v>6.0</v>
@@ -1734,14 +1797,23 @@
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="D61" t="s">
-        <v>160</v>
-      </c>
-      <c r="K61" t="s">
-        <v>160</v>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.0</v>
       </c>
       <c r="R61" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -1751,20 +1823,20 @@
       <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="H62" t="s">
-        <v>160</v>
-      </c>
-      <c r="I62" t="s">
-        <v>160</v>
-      </c>
-      <c r="L62" t="s">
-        <v>160</v>
-      </c>
-      <c r="O62" t="s">
-        <v>160</v>
+      <c r="C62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.0</v>
       </c>
       <c r="R62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -1774,20 +1846,23 @@
       <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" t="s">
-        <v>160</v>
-      </c>
-      <c r="H63" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>160</v>
+      <c r="D63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.0</v>
       </c>
       <c r="R63" t="n">
         <v>6.0</v>
@@ -1800,14 +1875,14 @@
       <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="F64" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" t="s">
-        <v>160</v>
-      </c>
-      <c r="L64" t="s">
-        <v>160</v>
+      <c r="E64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.0</v>
       </c>
       <c r="R64" t="n">
         <v>3.0</v>
@@ -1820,14 +1895,14 @@
       <c r="B65" t="s">
         <v>60</v>
       </c>
-      <c r="E65" t="s">
-        <v>160</v>
-      </c>
-      <c r="I65" t="s">
-        <v>160</v>
-      </c>
-      <c r="M65" t="s">
-        <v>160</v>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.0</v>
       </c>
       <c r="R65" t="n">
         <v>3.0</v>
@@ -1840,20 +1915,23 @@
       <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" t="s">
-        <v>160</v>
-      </c>
-      <c r="K66" t="s">
-        <v>160</v>
-      </c>
-      <c r="O66" t="s">
-        <v>160</v>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.0</v>
       </c>
       <c r="R66" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -1863,20 +1941,26 @@
       <c r="B67" t="s">
         <v>62</v>
       </c>
-      <c r="F67" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" t="s">
-        <v>160</v>
-      </c>
-      <c r="I67" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" t="s">
-        <v>160</v>
+      <c r="D67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.0</v>
       </c>
       <c r="R67" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
@@ -1886,17 +1970,20 @@
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" t="s">
-        <v>160</v>
-      </c>
-      <c r="P68" t="s">
-        <v>160</v>
+      <c r="E68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.0</v>
       </c>
       <c r="R68" t="n">
         <v>5.0</v>
@@ -1909,20 +1996,20 @@
       <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="F69" t="s">
-        <v>160</v>
-      </c>
-      <c r="I69" t="s">
-        <v>160</v>
-      </c>
-      <c r="K69" t="s">
-        <v>160</v>
-      </c>
-      <c r="L69" t="s">
-        <v>160</v>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.0</v>
       </c>
       <c r="R69" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -1932,20 +2019,23 @@
       <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="E70" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I70" t="s">
-        <v>160</v>
-      </c>
-      <c r="M70" t="s">
-        <v>160</v>
+      <c r="E70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.0</v>
       </c>
       <c r="R70" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="71">
@@ -1955,20 +2045,23 @@
       <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="F71" t="s">
-        <v>160</v>
-      </c>
-      <c r="I71" t="s">
-        <v>160</v>
-      </c>
-      <c r="L71" t="s">
-        <v>160</v>
-      </c>
-      <c r="M71" t="s">
-        <v>160</v>
-      </c>
-      <c r="O71" t="s">
-        <v>160</v>
+      <c r="D71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.0</v>
       </c>
       <c r="R71" t="n">
         <v>6.0</v>
@@ -1981,20 +2074,14 @@
       <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="G72" t="s">
-        <v>160</v>
-      </c>
-      <c r="H72" t="s">
-        <v>160</v>
-      </c>
-      <c r="I72" t="s">
-        <v>160</v>
-      </c>
-      <c r="K72" t="s">
-        <v>160</v>
+      <c r="K72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.0</v>
       </c>
       <c r="R72" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2004,23 +2091,11 @@
       <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="F73" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" t="s">
-        <v>160</v>
-      </c>
-      <c r="K73" t="s">
-        <v>160</v>
-      </c>
-      <c r="O73" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>160</v>
+      <c r="O73" t="n">
+        <v>1.0</v>
       </c>
       <c r="R73" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -2030,20 +2105,23 @@
       <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="D74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" t="s">
-        <v>160</v>
-      </c>
-      <c r="H74" t="s">
-        <v>160</v>
-      </c>
-      <c r="M74" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>160</v>
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.0</v>
       </c>
       <c r="R74" t="n">
         <v>6.0</v>
@@ -2056,8 +2134,8 @@
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="G75" t="s">
-        <v>160</v>
+      <c r="L75" t="n">
+        <v>1.0</v>
       </c>
       <c r="R75" t="n">
         <v>1.0</v>
@@ -2070,8 +2148,8 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="K76" t="s">
-        <v>160</v>
+      <c r="H76" t="n">
+        <v>1.0</v>
       </c>
       <c r="R76" t="n">
         <v>1.0</v>
@@ -2084,8 +2162,8 @@
       <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="C77" t="s">
-        <v>160</v>
+      <c r="P77" t="n">
+        <v>1.0</v>
       </c>
       <c r="R77" t="n">
         <v>1.0</v>
@@ -2098,8 +2176,8 @@
       <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="K78" t="s">
-        <v>160</v>
+      <c r="E78" t="n">
+        <v>1.0</v>
       </c>
       <c r="R78" t="n">
         <v>1.0</v>
@@ -2112,8 +2190,8 @@
       <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="G79" t="s">
-        <v>160</v>
+      <c r="O79" t="n">
+        <v>1.0</v>
       </c>
       <c r="R79" t="n">
         <v>1.0</v>
@@ -2126,8 +2204,8 @@
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="G80" t="s">
-        <v>160</v>
+      <c r="P80" t="n">
+        <v>1.0</v>
       </c>
       <c r="R80" t="n">
         <v>1.0</v>
@@ -2140,8 +2218,8 @@
       <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="G81" t="s">
-        <v>160</v>
+      <c r="F81" t="n">
+        <v>1.0</v>
       </c>
       <c r="R81" t="n">
         <v>1.0</v>
@@ -2154,11 +2232,11 @@
       <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="G82" t="s">
-        <v>160</v>
-      </c>
-      <c r="O82" t="s">
-        <v>160</v>
+      <c r="C82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.0</v>
       </c>
       <c r="R82" t="n">
         <v>2.0</v>
@@ -2171,11 +2249,11 @@
       <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="K83" t="s">
-        <v>160</v>
-      </c>
-      <c r="O83" t="s">
-        <v>160</v>
+      <c r="H83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1.0</v>
       </c>
       <c r="R83" t="n">
         <v>2.0</v>
@@ -2188,11 +2266,11 @@
       <c r="B84" t="s">
         <v>79</v>
       </c>
-      <c r="D84" t="s">
-        <v>160</v>
-      </c>
-      <c r="K84" t="s">
-        <v>160</v>
+      <c r="E84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.0</v>
       </c>
       <c r="R84" t="n">
         <v>2.0</v>
@@ -2205,11 +2283,11 @@
       <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="I85" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>160</v>
+      <c r="O85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.0</v>
       </c>
       <c r="R85" t="n">
         <v>2.0</v>
@@ -2222,11 +2300,14 @@
       <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-      <c r="L86" t="s">
-        <v>160</v>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.0</v>
       </c>
       <c r="R86" t="n">
         <v>3.0</v>
@@ -2239,14 +2320,14 @@
       <c r="B87" t="s">
         <v>82</v>
       </c>
-      <c r="L87" t="s">
-        <v>160</v>
-      </c>
-      <c r="O87" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>160</v>
+      <c r="F87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.0</v>
       </c>
       <c r="R87" t="n">
         <v>3.0</v>
@@ -2259,14 +2340,14 @@
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="H88" t="s">
-        <v>160</v>
-      </c>
-      <c r="I88" t="s">
-        <v>160</v>
-      </c>
-      <c r="N88" t="s">
-        <v>160</v>
+      <c r="D88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.0</v>
       </c>
       <c r="R88" t="n">
         <v>3.0</v>
@@ -2279,14 +2360,14 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="E89" t="s">
-        <v>160</v>
-      </c>
-      <c r="G89" t="s">
-        <v>160</v>
-      </c>
-      <c r="L89" t="s">
-        <v>160</v>
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.0</v>
       </c>
       <c r="R89" t="n">
         <v>3.0</v>
@@ -2299,14 +2380,14 @@
       <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="E90" t="s">
-        <v>160</v>
-      </c>
-      <c r="I90" t="s">
-        <v>160</v>
-      </c>
-      <c r="K90" t="s">
-        <v>160</v>
+      <c r="F90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.0</v>
       </c>
       <c r="R90" t="n">
         <v>3.0</v>
@@ -2319,14 +2400,14 @@
       <c r="B91" t="s">
         <v>86</v>
       </c>
-      <c r="D91" t="s">
-        <v>160</v>
-      </c>
-      <c r="I91" t="s">
-        <v>160</v>
-      </c>
-      <c r="M91" t="s">
-        <v>160</v>
+      <c r="H91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.0</v>
       </c>
       <c r="R91" t="n">
         <v>3.0</v>
@@ -2339,14 +2420,14 @@
       <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="C92" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" t="s">
-        <v>160</v>
-      </c>
-      <c r="I92" t="s">
-        <v>160</v>
+      <c r="E92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.0</v>
       </c>
       <c r="R92" t="n">
         <v>3.0</v>
@@ -2359,23 +2440,20 @@
       <c r="B93" t="s">
         <v>88</v>
       </c>
-      <c r="G93" t="s">
-        <v>160</v>
-      </c>
-      <c r="I93" t="s">
-        <v>160</v>
-      </c>
-      <c r="K93" t="s">
-        <v>160</v>
-      </c>
-      <c r="L93" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>160</v>
+      <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.0</v>
       </c>
       <c r="R93" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
@@ -2385,17 +2463,26 @@
       <c r="B94" t="s">
         <v>89</v>
       </c>
-      <c r="I94" t="s">
-        <v>160</v>
-      </c>
-      <c r="K94" t="s">
-        <v>160</v>
-      </c>
-      <c r="O94" t="s">
-        <v>160</v>
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.0</v>
       </c>
       <c r="R94" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="95">
@@ -2405,20 +2492,23 @@
       <c r="B95" t="s">
         <v>90</v>
       </c>
-      <c r="D95" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" t="s">
-        <v>160</v>
-      </c>
-      <c r="H95" t="s">
-        <v>160</v>
-      </c>
-      <c r="I95" t="s">
-        <v>160</v>
-      </c>
-      <c r="O95" t="s">
-        <v>160</v>
+      <c r="C95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.0</v>
       </c>
       <c r="R95" t="n">
         <v>6.0</v>
@@ -2431,20 +2521,23 @@
       <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="E96" t="s">
-        <v>160</v>
-      </c>
-      <c r="G96" t="s">
-        <v>160</v>
-      </c>
-      <c r="I96" t="s">
-        <v>160</v>
-      </c>
-      <c r="L96" t="s">
-        <v>160</v>
-      </c>
-      <c r="P96" t="s">
-        <v>160</v>
+      <c r="D96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.0</v>
       </c>
       <c r="R96" t="n">
         <v>6.0</v>
@@ -2457,26 +2550,17 @@
       <c r="B97" t="s">
         <v>92</v>
       </c>
-      <c r="D97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G97" t="s">
-        <v>160</v>
-      </c>
-      <c r="H97" t="s">
-        <v>160</v>
-      </c>
-      <c r="K97" t="s">
-        <v>160</v>
-      </c>
-      <c r="P97" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>160</v>
+      <c r="F97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.0</v>
       </c>
       <c r="R97" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="98">
@@ -2486,20 +2570,26 @@
       <c r="B98" t="s">
         <v>93</v>
       </c>
-      <c r="C98" t="s">
-        <v>160</v>
-      </c>
-      <c r="G98" t="s">
-        <v>160</v>
-      </c>
-      <c r="L98" t="s">
-        <v>160</v>
-      </c>
-      <c r="M98" t="s">
-        <v>160</v>
+      <c r="C98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.0</v>
       </c>
       <c r="R98" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="99">
@@ -2509,23 +2599,23 @@
       <c r="B99" t="s">
         <v>94</v>
       </c>
-      <c r="C99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" t="s">
-        <v>160</v>
-      </c>
-      <c r="G99" t="s">
-        <v>160</v>
-      </c>
-      <c r="L99" t="s">
-        <v>160</v>
-      </c>
-      <c r="P99" t="s">
-        <v>160</v>
+      <c r="E99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.0</v>
       </c>
       <c r="R99" t="n">
         <v>6.0</v>
@@ -2538,17 +2628,23 @@
       <c r="B100" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" t="s">
-        <v>160</v>
-      </c>
-      <c r="I100" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>160</v>
+      <c r="C100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.0</v>
       </c>
       <c r="R100" t="n">
         <v>6.0</v>
@@ -2561,23 +2657,23 @@
       <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="H101" t="s">
-        <v>160</v>
-      </c>
-      <c r="I101" t="s">
-        <v>160</v>
-      </c>
-      <c r="J101" t="s">
-        <v>160</v>
-      </c>
-      <c r="K101" t="s">
-        <v>160</v>
-      </c>
-      <c r="L101" t="s">
-        <v>160</v>
-      </c>
-      <c r="N101" t="s">
-        <v>160</v>
+      <c r="D101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.0</v>
       </c>
       <c r="R101" t="n">
         <v>6.0</v>
@@ -2590,23 +2686,20 @@
       <c r="B102" t="s">
         <v>97</v>
       </c>
-      <c r="D102" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" t="s">
-        <v>160</v>
-      </c>
-      <c r="G102" t="s">
-        <v>160</v>
-      </c>
-      <c r="K102" t="s">
-        <v>160</v>
+      <c r="D102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.0</v>
       </c>
       <c r="R102" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
@@ -2616,17 +2709,26 @@
       <c r="B103" t="s">
         <v>98</v>
       </c>
-      <c r="C103" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" t="s">
-        <v>160</v>
-      </c>
-      <c r="P103" t="s">
-        <v>160</v>
+      <c r="E103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.0</v>
       </c>
       <c r="R103" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -2636,20 +2738,26 @@
       <c r="B104" t="s">
         <v>99</v>
       </c>
-      <c r="C104" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104" t="s">
-        <v>160</v>
-      </c>
-      <c r="G104" t="s">
-        <v>160</v>
-      </c>
-      <c r="I104" t="s">
-        <v>160</v>
+      <c r="C104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.0</v>
       </c>
       <c r="R104" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
@@ -2659,17 +2767,26 @@
       <c r="B105" t="s">
         <v>100</v>
       </c>
-      <c r="C105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>160</v>
+      <c r="D105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.0</v>
       </c>
       <c r="R105" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
@@ -2679,17 +2796,26 @@
       <c r="B106" t="s">
         <v>101</v>
       </c>
-      <c r="F106" t="s">
-        <v>160</v>
-      </c>
-      <c r="G106" t="s">
-        <v>160</v>
-      </c>
-      <c r="H106" t="s">
-        <v>160</v>
+      <c r="F106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.0</v>
       </c>
       <c r="R106" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="107">
@@ -2699,23 +2825,23 @@
       <c r="B107" t="s">
         <v>102</v>
       </c>
-      <c r="E107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F107" t="s">
-        <v>160</v>
-      </c>
-      <c r="G107" t="s">
-        <v>160</v>
-      </c>
-      <c r="H107" t="s">
-        <v>160</v>
-      </c>
-      <c r="L107" t="s">
-        <v>160</v>
+      <c r="E107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1.0</v>
       </c>
       <c r="R107" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
@@ -2725,20 +2851,23 @@
       <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="C108" t="s">
-        <v>160</v>
-      </c>
-      <c r="H108" t="s">
-        <v>160</v>
-      </c>
-      <c r="I108" t="s">
-        <v>160</v>
-      </c>
-      <c r="P108" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>160</v>
+      <c r="D108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.0</v>
       </c>
       <c r="R108" t="n">
         <v>6.0</v>
@@ -2751,20 +2880,20 @@
       <c r="B109" t="s">
         <v>104</v>
       </c>
-      <c r="D109" t="s">
-        <v>160</v>
-      </c>
-      <c r="F109" t="s">
-        <v>160</v>
-      </c>
-      <c r="H109" t="s">
-        <v>160</v>
-      </c>
-      <c r="K109" t="s">
-        <v>160</v>
+      <c r="C109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.0</v>
       </c>
       <c r="R109" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
@@ -2774,26 +2903,23 @@
       <c r="B110" t="s">
         <v>105</v>
       </c>
-      <c r="C110" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" t="s">
-        <v>160</v>
-      </c>
-      <c r="G110" t="s">
-        <v>160</v>
-      </c>
-      <c r="I110" t="s">
-        <v>160</v>
-      </c>
-      <c r="K110" t="s">
-        <v>160</v>
-      </c>
-      <c r="L110" t="s">
-        <v>160</v>
+      <c r="F110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1.0</v>
       </c>
       <c r="R110" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="111">
@@ -2803,17 +2929,23 @@
       <c r="B111" t="s">
         <v>106</v>
       </c>
-      <c r="D111" t="s">
-        <v>160</v>
-      </c>
-      <c r="G111" t="s">
-        <v>160</v>
-      </c>
-      <c r="H111" t="s">
-        <v>160</v>
-      </c>
-      <c r="I111" t="s">
-        <v>160</v>
+      <c r="E111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1.0</v>
       </c>
       <c r="R111" t="n">
         <v>6.0</v>
@@ -2826,17 +2958,26 @@
       <c r="B112" t="s">
         <v>107</v>
       </c>
-      <c r="D112" t="s">
-        <v>160</v>
-      </c>
-      <c r="G112" t="s">
-        <v>160</v>
-      </c>
-      <c r="K112" t="s">
-        <v>160</v>
+      <c r="D112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.0</v>
       </c>
       <c r="R112" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="113">
@@ -2846,20 +2987,23 @@
       <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="D113" t="s">
-        <v>160</v>
-      </c>
-      <c r="G113" t="s">
-        <v>160</v>
-      </c>
-      <c r="H113" t="s">
-        <v>160</v>
-      </c>
-      <c r="K113" t="s">
-        <v>160</v>
-      </c>
-      <c r="O113" t="s">
-        <v>160</v>
+      <c r="C113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.0</v>
       </c>
       <c r="R113" t="n">
         <v>6.0</v>
@@ -2872,8 +3016,8 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="Q114" t="s">
-        <v>160</v>
+      <c r="M114" t="n">
+        <v>1.0</v>
       </c>
       <c r="R114" t="n">
         <v>1.0</v>
@@ -2886,8 +3030,8 @@
       <c r="B115" t="s">
         <v>110</v>
       </c>
-      <c r="G115" t="s">
-        <v>160</v>
+      <c r="I115" t="n">
+        <v>1.0</v>
       </c>
       <c r="R115" t="n">
         <v>1.0</v>
@@ -2900,8 +3044,8 @@
       <c r="B116" t="s">
         <v>111</v>
       </c>
-      <c r="H116" t="s">
-        <v>160</v>
+      <c r="K116" t="n">
+        <v>1.0</v>
       </c>
       <c r="R116" t="n">
         <v>1.0</v>
@@ -2914,8 +3058,8 @@
       <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="C117" t="s">
-        <v>160</v>
+      <c r="H117" t="n">
+        <v>1.0</v>
       </c>
       <c r="R117" t="n">
         <v>1.0</v>
@@ -2928,14 +3072,14 @@
       <c r="B118" t="s">
         <v>113</v>
       </c>
-      <c r="I118" t="s">
-        <v>160</v>
-      </c>
-      <c r="L118" t="s">
-        <v>160</v>
-      </c>
-      <c r="P118" t="s">
-        <v>160</v>
+      <c r="E118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1.0</v>
       </c>
       <c r="R118" t="n">
         <v>3.0</v>
@@ -2948,14 +3092,14 @@
       <c r="B119" t="s">
         <v>114</v>
       </c>
-      <c r="G119" t="s">
-        <v>160</v>
-      </c>
-      <c r="H119" t="s">
-        <v>160</v>
-      </c>
-      <c r="O119" t="s">
-        <v>160</v>
+      <c r="I119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.0</v>
       </c>
       <c r="R119" t="n">
         <v>3.0</v>
@@ -2968,14 +3112,14 @@
       <c r="B120" t="s">
         <v>115</v>
       </c>
-      <c r="I120" t="s">
-        <v>160</v>
-      </c>
-      <c r="M120" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>160</v>
+      <c r="D120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1.0</v>
       </c>
       <c r="R120" t="n">
         <v>3.0</v>
@@ -2988,14 +3132,14 @@
       <c r="B121" t="s">
         <v>116</v>
       </c>
-      <c r="H121" t="s">
-        <v>160</v>
-      </c>
-      <c r="J121" t="s">
-        <v>160</v>
-      </c>
-      <c r="M121" t="s">
-        <v>160</v>
+      <c r="H121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1.0</v>
       </c>
       <c r="R121" t="n">
         <v>3.0</v>
@@ -3008,14 +3152,14 @@
       <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="D122" t="s">
-        <v>160</v>
-      </c>
-      <c r="H122" t="s">
-        <v>160</v>
-      </c>
-      <c r="I122" t="s">
-        <v>160</v>
+      <c r="C122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.0</v>
       </c>
       <c r="R122" t="n">
         <v>3.0</v>
@@ -3028,14 +3172,14 @@
       <c r="B123" t="s">
         <v>118</v>
       </c>
-      <c r="F123" t="s">
-        <v>160</v>
-      </c>
-      <c r="G123" t="s">
-        <v>160</v>
-      </c>
-      <c r="H123" t="s">
-        <v>160</v>
+      <c r="E123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.0</v>
       </c>
       <c r="R123" t="n">
         <v>3.0</v>
@@ -3048,14 +3192,14 @@
       <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="D124" t="s">
-        <v>160</v>
-      </c>
-      <c r="O124" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>160</v>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1.0</v>
       </c>
       <c r="R124" t="n">
         <v>3.0</v>
@@ -3068,14 +3212,14 @@
       <c r="B125" t="s">
         <v>120</v>
       </c>
-      <c r="D125" t="s">
-        <v>160</v>
-      </c>
-      <c r="G125" t="s">
-        <v>160</v>
-      </c>
-      <c r="H125" t="s">
-        <v>160</v>
+      <c r="C125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.0</v>
       </c>
       <c r="R125" t="n">
         <v>3.0</v>
@@ -3088,14 +3232,14 @@
       <c r="B126" t="s">
         <v>121</v>
       </c>
-      <c r="E126" t="s">
-        <v>160</v>
-      </c>
-      <c r="G126" t="s">
-        <v>160</v>
-      </c>
-      <c r="O126" t="s">
-        <v>160</v>
+      <c r="C126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.0</v>
       </c>
       <c r="R126" t="n">
         <v>3.0</v>
@@ -3108,14 +3252,14 @@
       <c r="B127" t="s">
         <v>122</v>
       </c>
-      <c r="F127" t="s">
-        <v>160</v>
-      </c>
-      <c r="O127" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>160</v>
+      <c r="K127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.0</v>
       </c>
       <c r="R127" t="n">
         <v>3.0</v>
@@ -3128,17 +3272,23 @@
       <c r="B128" t="s">
         <v>123</v>
       </c>
-      <c r="H128" t="s">
-        <v>160</v>
-      </c>
-      <c r="I128" t="s">
-        <v>160</v>
-      </c>
-      <c r="K128" t="s">
-        <v>160</v>
-      </c>
-      <c r="O128" t="s">
-        <v>160</v>
+      <c r="C128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1.0</v>
       </c>
       <c r="R128" t="n">
         <v>6.0</v>
@@ -3151,17 +3301,23 @@
       <c r="B129" t="s">
         <v>124</v>
       </c>
-      <c r="D129" t="s">
-        <v>160</v>
-      </c>
-      <c r="E129" t="s">
-        <v>160</v>
-      </c>
-      <c r="I129" t="s">
-        <v>160</v>
-      </c>
-      <c r="O129" t="s">
-        <v>160</v>
+      <c r="C129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.0</v>
       </c>
       <c r="R129" t="n">
         <v>6.0</v>
@@ -3174,8 +3330,8 @@
       <c r="B130" t="s">
         <v>125</v>
       </c>
-      <c r="G130" t="s">
-        <v>160</v>
+      <c r="L130" t="n">
+        <v>1.0</v>
       </c>
       <c r="R130" t="n">
         <v>1.0</v>
@@ -3188,14 +3344,14 @@
       <c r="B131" t="s">
         <v>126</v>
       </c>
-      <c r="K131" t="s">
-        <v>160</v>
-      </c>
-      <c r="L131" t="s">
-        <v>160</v>
-      </c>
-      <c r="P131" t="s">
-        <v>160</v>
+      <c r="F131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.0</v>
       </c>
       <c r="R131" t="n">
         <v>3.0</v>
@@ -3208,14 +3364,14 @@
       <c r="B132" t="s">
         <v>127</v>
       </c>
-      <c r="H132" t="s">
-        <v>160</v>
-      </c>
-      <c r="I132" t="s">
-        <v>160</v>
-      </c>
-      <c r="L132" t="s">
-        <v>160</v>
+      <c r="C132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1.0</v>
       </c>
       <c r="R132" t="n">
         <v>3.0</v>
@@ -3228,14 +3384,14 @@
       <c r="B133" t="s">
         <v>128</v>
       </c>
-      <c r="C133" t="s">
-        <v>160</v>
-      </c>
-      <c r="P133" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>160</v>
+      <c r="C133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.0</v>
       </c>
       <c r="R133" t="n">
         <v>3.0</v>
@@ -3248,14 +3404,14 @@
       <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s">
-        <v>160</v>
-      </c>
-      <c r="I134" t="s">
-        <v>160</v>
+      <c r="C134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1.0</v>
       </c>
       <c r="R134" t="n">
         <v>3.0</v>
@@ -3268,17 +3424,23 @@
       <c r="B135" t="s">
         <v>123</v>
       </c>
-      <c r="H135" t="s">
-        <v>160</v>
-      </c>
-      <c r="I135" t="s">
-        <v>160</v>
-      </c>
-      <c r="K135" t="s">
-        <v>160</v>
-      </c>
-      <c r="O135" t="s">
-        <v>160</v>
+      <c r="C135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1.0</v>
       </c>
       <c r="R135" t="n">
         <v>6.0</v>
@@ -3291,17 +3453,23 @@
       <c r="B136" t="s">
         <v>124</v>
       </c>
-      <c r="D136" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" t="s">
-        <v>160</v>
-      </c>
-      <c r="I136" t="s">
-        <v>160</v>
-      </c>
-      <c r="O136" t="s">
-        <v>160</v>
+      <c r="C136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1.0</v>
       </c>
       <c r="R136" t="n">
         <v>6.0</v>
@@ -3314,8 +3482,8 @@
       <c r="B137" t="s">
         <v>130</v>
       </c>
-      <c r="M137" t="s">
-        <v>160</v>
+      <c r="H137" t="n">
+        <v>1.0</v>
       </c>
       <c r="R137" t="n">
         <v>1.0</v>
@@ -3328,8 +3496,8 @@
       <c r="B138" t="s">
         <v>131</v>
       </c>
-      <c r="O138" t="s">
-        <v>160</v>
+      <c r="I138" t="n">
+        <v>1.0</v>
       </c>
       <c r="R138" t="n">
         <v>1.0</v>
@@ -3342,11 +3510,14 @@
       <c r="B139" t="s">
         <v>132</v>
       </c>
-      <c r="E139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s">
-        <v>160</v>
+      <c r="G139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1.0</v>
       </c>
       <c r="R139" t="n">
         <v>3.0</v>
@@ -3359,14 +3530,14 @@
       <c r="B140" t="s">
         <v>133</v>
       </c>
-      <c r="E140" t="s">
-        <v>160</v>
-      </c>
-      <c r="I140" t="s">
-        <v>160</v>
-      </c>
-      <c r="P140" t="s">
-        <v>160</v>
+      <c r="H140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.0</v>
       </c>
       <c r="R140" t="n">
         <v>3.0</v>
@@ -3379,14 +3550,14 @@
       <c r="B141" t="s">
         <v>134</v>
       </c>
-      <c r="C141" t="s">
-        <v>160</v>
-      </c>
-      <c r="H141" t="s">
-        <v>160</v>
-      </c>
-      <c r="O141" t="s">
-        <v>160</v>
+      <c r="C141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.0</v>
       </c>
       <c r="R141" t="n">
         <v>3.0</v>
@@ -3399,14 +3570,14 @@
       <c r="B142" t="s">
         <v>135</v>
       </c>
-      <c r="G142" t="s">
-        <v>160</v>
-      </c>
-      <c r="O142" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>160</v>
+      <c r="C142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>1.0</v>
       </c>
       <c r="R142" t="n">
         <v>3.0</v>
@@ -3419,17 +3590,26 @@
       <c r="B143" t="s">
         <v>136</v>
       </c>
-      <c r="D143" t="s">
-        <v>160</v>
-      </c>
-      <c r="F143" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>160</v>
+      <c r="D143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.0</v>
       </c>
       <c r="R143" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="144">
@@ -3439,26 +3619,23 @@
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="C144" t="s">
-        <v>160</v>
-      </c>
-      <c r="D144" t="s">
-        <v>160</v>
-      </c>
-      <c r="G144" t="s">
-        <v>160</v>
-      </c>
-      <c r="I144" t="s">
-        <v>160</v>
-      </c>
-      <c r="L144" t="s">
-        <v>160</v>
-      </c>
-      <c r="N144" t="s">
-        <v>160</v>
+      <c r="D144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.0</v>
       </c>
       <c r="R144" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="145">
@@ -3468,8 +3645,8 @@
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="J145" t="s">
-        <v>160</v>
+      <c r="C145" t="n">
+        <v>1.0</v>
       </c>
       <c r="R145" t="n">
         <v>1.0</v>
@@ -3482,8 +3659,8 @@
       <c r="B146" t="s">
         <v>139</v>
       </c>
-      <c r="P146" t="s">
-        <v>160</v>
+      <c r="I146" t="n">
+        <v>1.0</v>
       </c>
       <c r="R146" t="n">
         <v>1.0</v>
@@ -3496,11 +3673,11 @@
       <c r="B147" t="s">
         <v>140</v>
       </c>
-      <c r="C147" t="s">
-        <v>160</v>
-      </c>
-      <c r="G147" t="s">
-        <v>160</v>
+      <c r="C147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1.0</v>
       </c>
       <c r="R147" t="n">
         <v>2.0</v>
@@ -3513,14 +3690,14 @@
       <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="I148" t="s">
-        <v>160</v>
-      </c>
-      <c r="L148" t="s">
-        <v>160</v>
-      </c>
-      <c r="O148" t="s">
-        <v>160</v>
+      <c r="E148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.0</v>
       </c>
       <c r="R148" t="n">
         <v>3.0</v>
@@ -3533,14 +3710,14 @@
       <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="F149" t="s">
-        <v>160</v>
-      </c>
-      <c r="G149" t="s">
-        <v>160</v>
-      </c>
-      <c r="I149" t="s">
-        <v>160</v>
+      <c r="F149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.0</v>
       </c>
       <c r="R149" t="n">
         <v>3.0</v>
@@ -3553,20 +3730,23 @@
       <c r="B150" t="s">
         <v>143</v>
       </c>
-      <c r="D150" t="s">
-        <v>160</v>
-      </c>
-      <c r="E150" t="s">
-        <v>160</v>
-      </c>
-      <c r="F150" t="s">
-        <v>160</v>
-      </c>
-      <c r="K150" t="s">
-        <v>160</v>
-      </c>
-      <c r="L150" t="s">
-        <v>160</v>
+      <c r="C150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1.0</v>
       </c>
       <c r="R150" t="n">
         <v>6.0</v>
@@ -3579,17 +3759,26 @@
       <c r="B151" t="s">
         <v>144</v>
       </c>
-      <c r="C151" t="s">
-        <v>160</v>
-      </c>
-      <c r="E151" t="s">
-        <v>160</v>
-      </c>
-      <c r="G151" t="s">
-        <v>160</v>
+      <c r="G151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.0</v>
       </c>
       <c r="R151" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="152">
@@ -3599,20 +3788,23 @@
       <c r="B152" t="s">
         <v>145</v>
       </c>
-      <c r="C152" t="s">
-        <v>160</v>
-      </c>
-      <c r="E152" t="s">
-        <v>160</v>
-      </c>
-      <c r="K152" t="s">
-        <v>160</v>
-      </c>
-      <c r="L152" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>160</v>
+      <c r="E152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.0</v>
       </c>
       <c r="R152" t="n">
         <v>6.0</v>
@@ -3625,11 +3817,11 @@
       <c r="B153" t="s">
         <v>146</v>
       </c>
-      <c r="I153" t="s">
-        <v>160</v>
-      </c>
-      <c r="O153" t="s">
-        <v>160</v>
+      <c r="K153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1.0</v>
       </c>
       <c r="R153" t="n">
         <v>2.0</v>
@@ -3642,14 +3834,14 @@
       <c r="B154" t="s">
         <v>147</v>
       </c>
-      <c r="F154" t="s">
-        <v>160</v>
-      </c>
-      <c r="L154" t="s">
-        <v>160</v>
-      </c>
-      <c r="P154" t="s">
-        <v>160</v>
+      <c r="E154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.0</v>
       </c>
       <c r="R154" t="n">
         <v>3.0</v>
@@ -3662,14 +3854,14 @@
       <c r="B155" t="s">
         <v>148</v>
       </c>
-      <c r="K155" t="s">
-        <v>160</v>
-      </c>
-      <c r="L155" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>160</v>
+      <c r="E155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.0</v>
       </c>
       <c r="R155" t="n">
         <v>3.0</v>
@@ -3682,20 +3874,26 @@
       <c r="B156" t="s">
         <v>149</v>
       </c>
-      <c r="C156" t="s">
-        <v>160</v>
-      </c>
-      <c r="E156" t="s">
-        <v>160</v>
-      </c>
-      <c r="H156" t="s">
-        <v>160</v>
-      </c>
-      <c r="K156" t="s">
-        <v>160</v>
+      <c r="F156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.0</v>
       </c>
       <c r="R156" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="157">
@@ -3705,20 +3903,23 @@
       <c r="B157" t="s">
         <v>150</v>
       </c>
-      <c r="C157" t="s">
-        <v>160</v>
-      </c>
-      <c r="D157" t="s">
-        <v>160</v>
-      </c>
-      <c r="F157" t="s">
-        <v>160</v>
-      </c>
-      <c r="L157" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>160</v>
+      <c r="D157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.0</v>
       </c>
       <c r="R157" t="n">
         <v>6.0</v>
@@ -3731,20 +3932,23 @@
       <c r="B158" t="s">
         <v>151</v>
       </c>
-      <c r="E158" t="s">
-        <v>160</v>
-      </c>
-      <c r="F158" t="s">
-        <v>160</v>
-      </c>
-      <c r="I158" t="s">
-        <v>160</v>
-      </c>
-      <c r="L158" t="s">
-        <v>160</v>
+      <c r="G158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1.0</v>
       </c>
       <c r="R158" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="159">
@@ -3754,17 +3958,20 @@
       <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="E159" t="s">
-        <v>160</v>
-      </c>
-      <c r="H159" t="s">
-        <v>160</v>
-      </c>
-      <c r="L159" t="s">
-        <v>160</v>
+      <c r="E159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.0</v>
       </c>
       <c r="R159" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="160">
@@ -3774,17 +3981,23 @@
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="C160" t="s">
-        <v>160</v>
-      </c>
-      <c r="D160" t="s">
-        <v>160</v>
-      </c>
-      <c r="E160" t="s">
-        <v>160</v>
-      </c>
-      <c r="I160" t="s">
-        <v>160</v>
+      <c r="C160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.0</v>
       </c>
       <c r="R160" t="n">
         <v>6.0</v>
@@ -3797,11 +4010,11 @@
       <c r="B161" t="s">
         <v>154</v>
       </c>
-      <c r="F161" t="s">
-        <v>160</v>
-      </c>
-      <c r="K161" t="s">
-        <v>160</v>
+      <c r="H161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1.0</v>
       </c>
       <c r="R161" t="n">
         <v>2.0</v>
@@ -3814,14 +4027,14 @@
       <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="C162" t="s">
-        <v>160</v>
-      </c>
-      <c r="D162" t="s">
-        <v>160</v>
-      </c>
-      <c r="I162" t="s">
-        <v>160</v>
+      <c r="E162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1.0</v>
       </c>
       <c r="R162" t="n">
         <v>3.0</v>
@@ -3834,23 +4047,23 @@
       <c r="B163" t="s">
         <v>156</v>
       </c>
-      <c r="E163" t="s">
-        <v>160</v>
-      </c>
-      <c r="H163" t="s">
-        <v>160</v>
-      </c>
-      <c r="M163" t="s">
-        <v>160</v>
-      </c>
-      <c r="O163" t="s">
-        <v>160</v>
-      </c>
-      <c r="P163" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>160</v>
+      <c r="C163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.0</v>
       </c>
       <c r="R163" t="n">
         <v>6.0</v>
@@ -3863,23 +4076,26 @@
       <c r="B164" t="s">
         <v>157</v>
       </c>
-      <c r="C164" t="s">
-        <v>160</v>
-      </c>
-      <c r="D164" t="s">
-        <v>160</v>
-      </c>
-      <c r="F164" t="s">
-        <v>160</v>
-      </c>
-      <c r="K164" t="s">
-        <v>160</v>
-      </c>
-      <c r="O164" t="s">
-        <v>160</v>
+      <c r="D164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.0</v>
       </c>
       <c r="R164" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="165">
@@ -3889,20 +4105,23 @@
       <c r="B165" t="s">
         <v>158</v>
       </c>
-      <c r="C165" t="s">
-        <v>160</v>
-      </c>
-      <c r="E165" t="s">
-        <v>160</v>
-      </c>
-      <c r="G165" t="s">
-        <v>160</v>
-      </c>
-      <c r="I165" t="s">
-        <v>160</v>
-      </c>
-      <c r="L165" t="s">
-        <v>160</v>
+      <c r="D165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>1.0</v>
       </c>
       <c r="R165" t="n">
         <v>6.0</v>
@@ -3915,20 +4134,23 @@
       <c r="B166" t="s">
         <v>159</v>
       </c>
-      <c r="C166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D166" t="s">
-        <v>160</v>
-      </c>
-      <c r="G166" t="s">
-        <v>160</v>
-      </c>
-      <c r="H166" t="s">
-        <v>160</v>
-      </c>
-      <c r="M166" t="s">
-        <v>160</v>
+      <c r="C166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.0</v>
       </c>
       <c r="R166" t="n">
         <v>6.0</v>
@@ -3936,34 +4158,34 @@
     </row>
     <row r="167">
       <c r="C167" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="D167" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="E167" t="n">
-        <v>40.0</v>
+        <v>53.0</v>
       </c>
       <c r="F167" t="n">
-        <v>49.0</v>
+        <v>58.0</v>
       </c>
       <c r="G167" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="H167" t="n">
-        <v>48.0</v>
+        <v>54.0</v>
       </c>
       <c r="I167" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="J167" t="n">
         <v>4.0</v>
       </c>
       <c r="K167" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="L167" t="n">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="M167" t="n">
         <v>16.0</v>
@@ -3972,13 +4194,13 @@
         <v>3.0</v>
       </c>
       <c r="O167" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Q167" t="n">
         <v>34.0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>31.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,14 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
-  <si>
-    <t>Shri G. S. Institute of Technology &amp; Science Indore -452003
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="162">
+  <si>
+    <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
  Invigilation Duty Chart
 (Exam Time is 11:00 AM TO 02:00 PM)
 Reporting Time for Invigilators is 10:30 AM Sharp in ATC-308
-(II FLOOR ATC BUILDING)</t>
+(II FLOOR ATC BUILDING)
+</t>
   </si>
   <si>
     <t>Dr. R.K. Shrivastava</t>
@@ -497,6 +498,12 @@
   </si>
   <si>
     <t>ARZOO CHOUBEY</t>
+  </si>
+  <si>
+    <t>Duty Chart No.</t>
+  </si>
+  <si>
+    <t>Exam Dates</t>
   </si>
 </sst>
 </file>
@@ -566,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -581,6 +588,12 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
       <c r="C5" t="n" s="2">
         <v>44753.0</v>
       </c>
@@ -627,84 +640,14 @@
         <v>44767.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
       <c r="R11" t="n">
@@ -713,12 +656,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.0</v>
       </c>
       <c r="R12" t="n">
@@ -727,12 +670,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.0</v>
       </c>
       <c r="R13" t="n">
@@ -741,12 +684,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
       <c r="R14" t="n">
@@ -755,12 +698,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.0</v>
       </c>
       <c r="R15" t="n">
@@ -769,262 +712,205 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" t="n">
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I24" t="n">
         <v>1.0</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R24" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="H25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F27" t="n">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
         <v>1.0</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="H27" t="n">
         <v>1.0</v>
       </c>
       <c r="M27" t="n">
@@ -1039,12 +925,12 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="n">
+        <v>18</v>
+      </c>
+      <c r="E28" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" t="n">
@@ -1056,50 +942,65 @@
       <c r="M28" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
       </c>
-      <c r="L29" t="n">
+      <c r="F29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.0</v>
       </c>
       <c r="R30" t="n">
@@ -1108,13 +1009,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.0</v>
+        <v>21</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -1128,19 +1026,19 @@
       <c r="K31" t="n">
         <v>1.0</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R31" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
@@ -1151,19 +1049,19 @@
       <c r="H32" t="n">
         <v>1.0</v>
       </c>
-      <c r="I32" t="n">
+      <c r="M32" t="n">
         <v>1.0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
@@ -1177,30 +1075,33 @@
       <c r="K33" t="n">
         <v>1.0</v>
       </c>
-      <c r="P33" t="n">
+      <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.0</v>
       </c>
       <c r="R33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" t="n">
+        <v>24</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1.0</v>
       </c>
       <c r="R34" t="n">
@@ -1209,310 +1110,343 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="L35" t="n">
         <v>1.0</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n">
         <v>1.0</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H36" t="n">
         <v>1.0</v>
       </c>
-      <c r="I36" t="n">
+      <c r="L36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="n">
+        <v>27</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" t="n">
+        <v>29</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P39" t="n">
         <v>1.0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="n">
+        <v>31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L41" t="n">
         <v>1.0</v>
       </c>
       <c r="P41" t="n">
         <v>1.0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.0</v>
       </c>
       <c r="L42" t="n">
         <v>1.0</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>1.0</v>
       </c>
       <c r="R42" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P44" t="n">
+        <v>34</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" t="n">
+        <v>35</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.0</v>
       </c>
       <c r="H45" t="n">
         <v>1.0</v>
       </c>
-      <c r="L45" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O46" t="n">
+        <v>36</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n">
         <v>1.0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.0</v>
+        <v>37</v>
       </c>
       <c r="H47" t="n">
         <v>1.0</v>
       </c>
-      <c r="L47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="O47" t="n">
         <v>1.0</v>
       </c>
       <c r="R47" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" t="n">
+        <v>38</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O48" t="n">
         <v>1.0</v>
       </c>
       <c r="R48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.0</v>
+        <v>39</v>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N49" t="n">
+      <c r="H49" t="n">
         <v>1.0</v>
       </c>
       <c r="R49" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.0</v>
+        <v>40</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -1520,24 +1454,24 @@
       <c r="K50" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="O50" t="n">
         <v>1.0</v>
       </c>
       <c r="R50" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
+        <v>41</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.0</v>
       </c>
       <c r="R51" t="n">
@@ -1546,24 +1480,24 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.0</v>
+        <v>42</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>1.0</v>
       </c>
       <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M52" t="n">
         <v>1.0</v>
       </c>
       <c r="R52" t="n">
@@ -1572,47 +1506,56 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H53" t="n">
+        <v>43</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.0</v>
       </c>
       <c r="K53" t="n">
         <v>1.0</v>
       </c>
+      <c r="L53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R53" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.0</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
       </c>
-      <c r="E54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L54" t="n">
         <v>1.0</v>
       </c>
       <c r="O54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P54" t="n">
         <v>1.0</v>
       </c>
       <c r="R54" t="n">
@@ -1621,12 +1564,12 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" t="n">
+        <v>45</v>
+      </c>
+      <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="F55" t="n">
@@ -1635,13 +1578,13 @@
       <c r="G55" t="n">
         <v>1.0</v>
       </c>
+      <c r="I55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q55" t="n">
         <v>1.0</v>
       </c>
       <c r="R55" t="n">
@@ -1650,24 +1593,24 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F56" t="n">
         <v>1.0</v>
       </c>
-      <c r="H56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="n">
         <v>1.0</v>
       </c>
       <c r="O56" t="n">
@@ -1679,65 +1622,68 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L57" t="n">
+        <v>47</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N57" t="n">
         <v>1.0</v>
       </c>
       <c r="O57" t="n">
         <v>1.0</v>
       </c>
       <c r="R57" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1.0</v>
+        <v>48</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
       </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H58" t="n">
         <v>1.0</v>
       </c>
-      <c r="P58" t="n">
+      <c r="I58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q58" t="n">
         <v>1.0</v>
       </c>
       <c r="R58" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>54.0</v>
+        <v>49.0</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -1748,13 +1694,10 @@
       <c r="G59" t="n">
         <v>1.0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="H59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.0</v>
       </c>
       <c r="R59" t="n">
@@ -1763,27 +1706,27 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E60" t="n">
         <v>1.0</v>
       </c>
       <c r="K60" t="n">
         <v>1.0</v>
       </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
         <v>1.0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q60" t="n">
         <v>1.0</v>
       </c>
       <c r="R60" t="n">
@@ -1792,24 +1735,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56.0</v>
+        <v>51.0</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" t="n">
+        <v>51</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.0</v>
       </c>
       <c r="I61" t="n">
         <v>1.0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="O61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q61" t="n">
         <v>1.0</v>
       </c>
       <c r="R61" t="n">
@@ -1818,36 +1761,30 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K62" t="n">
+        <v>52</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O62" t="n">
         <v>1.0</v>
       </c>
       <c r="R62" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>58.0</v>
+        <v>53.0</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.0</v>
+        <v>53</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1855,13 +1792,16 @@
       <c r="F63" t="n">
         <v>1.0</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>1.0</v>
       </c>
       <c r="K63" t="n">
         <v>1.0</v>
       </c>
       <c r="L63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M63" t="n">
         <v>1.0</v>
       </c>
       <c r="R63" t="n">
@@ -1870,35 +1810,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>59.0</v>
+        <v>54.0</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
       </c>
-      <c r="L64" t="n">
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O64" t="n">
         <v>1.0</v>
       </c>
       <c r="P64" t="n">
         <v>1.0</v>
       </c>
       <c r="R64" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I65" t="n">
+        <v>55</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.0</v>
       </c>
       <c r="O65" t="n">
@@ -1910,42 +1856,39 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>61.0</v>
+        <v>56.0</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P66" t="n">
+        <v>56</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O66" t="n">
         <v>1.0</v>
       </c>
       <c r="Q66" t="n">
         <v>1.0</v>
       </c>
       <c r="R66" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62.0</v>
+        <v>57.0</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1.0</v>
+        <v>57</v>
       </c>
       <c r="G67" t="n">
         <v>1.0</v>
@@ -1956,94 +1899,79 @@
       <c r="I67" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="L67" t="n">
         <v>1.0</v>
       </c>
       <c r="R67" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>63.0</v>
+        <v>58.0</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K68" t="n">
+        <v>58</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.0</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
       </c>
-      <c r="P68" t="n">
+      <c r="O68" t="n">
         <v>1.0</v>
       </c>
       <c r="R68" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G69" t="n">
+        <v>59</v>
+      </c>
+      <c r="D69" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" t="n">
         <v>1.0</v>
       </c>
-      <c r="O69" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R69" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O70" t="n">
+        <v>60</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P70" t="n">
         <v>1.0</v>
       </c>
       <c r="R70" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
@@ -2054,13 +1982,13 @@
       <c r="F71" t="n">
         <v>1.0</v>
       </c>
-      <c r="G71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L71" t="n">
+      <c r="I71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>1.0</v>
       </c>
       <c r="R71" t="n">
@@ -2069,142 +1997,211 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>67.0</v>
+        <v>62.0</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="K72" t="n">
+        <v>62</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I72" t="n">
         <v>1.0</v>
       </c>
       <c r="L72" t="n">
         <v>1.0</v>
       </c>
       <c r="R72" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>68.0</v>
+        <v>63.0</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="O73" t="n">
+        <v>63</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P73" t="n">
         <v>1.0</v>
       </c>
       <c r="R73" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>69.0</v>
+        <v>64.0</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.0</v>
+        <v>64</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>1.0</v>
       </c>
       <c r="I74" t="n">
         <v>1.0</v>
       </c>
+      <c r="M74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R74" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="L75" t="n">
+        <v>65</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O75" t="n">
         <v>1.0</v>
       </c>
       <c r="R75" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>71.0</v>
+        <v>66.0</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
       </c>
       <c r="H76" t="n">
         <v>1.0</v>
       </c>
+      <c r="I76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R76" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>72.0</v>
+        <v>67.0</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="P77" t="n">
+        <v>67</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>1.0</v>
       </c>
       <c r="R77" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>73.0</v>
+        <v>68.0</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="E78" t="n">
+        <v>68</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L78" t="n">
         <v>1.0</v>
       </c>
       <c r="R78" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>74.0</v>
+        <v>69.0</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="O79" t="n">
+        <v>69</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I79" t="n">
         <v>1.0</v>
       </c>
       <c r="R79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="P80" t="n">
+        <v>70</v>
+      </c>
+      <c r="F80" t="n">
         <v>1.0</v>
       </c>
       <c r="R80" t="n">
@@ -2213,12 +2210,12 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>76.0</v>
+        <v>71.0</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="F81" t="n">
+        <v>71</v>
+      </c>
+      <c r="J81" t="n">
         <v>1.0</v>
       </c>
       <c r="R81" t="n">
@@ -2227,183 +2224,153 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>77.0</v>
+        <v>72.0</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L82" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q82" t="n">
         <v>1.0</v>
       </c>
       <c r="R82" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q83" t="n">
+        <v>73</v>
+      </c>
+      <c r="G83" t="n">
         <v>1.0</v>
       </c>
       <c r="R83" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
       </c>
-      <c r="H84" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R84" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P85" t="n">
+        <v>75</v>
+      </c>
+      <c r="K85" t="n">
         <v>1.0</v>
       </c>
       <c r="R85" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>81.0</v>
+        <v>76.0</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L86" t="n">
+        <v>76</v>
+      </c>
+      <c r="F86" t="n">
         <v>1.0</v>
       </c>
       <c r="R86" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>82.0</v>
+        <v>77.0</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q87" t="n">
+        <v>77</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I87" t="n">
         <v>1.0</v>
       </c>
       <c r="R87" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>83.0</v>
+        <v>78.0</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L88" t="n">
+        <v>78</v>
+      </c>
+      <c r="P88" t="n">
         <v>1.0</v>
       </c>
       <c r="Q88" t="n">
         <v>1.0</v>
       </c>
       <c r="R88" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E89" t="n">
+        <v>79</v>
+      </c>
+      <c r="G89" t="n">
         <v>1.0</v>
       </c>
       <c r="O89" t="n">
         <v>1.0</v>
       </c>
       <c r="R89" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H90" t="n">
+        <v>80</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L90" t="n">
         <v>1.0</v>
       </c>
       <c r="R90" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>86.0</v>
+        <v>81.0</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L91" t="n">
+        <v>81</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O91" t="n">
         <v>1.0</v>
       </c>
       <c r="Q91" t="n">
@@ -2415,18 +2382,18 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L92" t="n">
+        <v>82</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P92" t="n">
         <v>1.0</v>
       </c>
       <c r="R92" t="n">
@@ -2435,128 +2402,95 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>88.0</v>
+        <v>83.0</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F93" t="n">
+        <v>83</v>
+      </c>
+      <c r="E93" t="n">
         <v>1.0</v>
       </c>
       <c r="K93" t="n">
         <v>1.0</v>
       </c>
-      <c r="M93" t="n">
+      <c r="P93" t="n">
         <v>1.0</v>
       </c>
       <c r="R93" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>89.0</v>
+        <v>84.0</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O94" t="n">
+        <v>84</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K94" t="n">
         <v>1.0</v>
       </c>
       <c r="R94" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C95" t="n">
         <v>1.0</v>
       </c>
-      <c r="G95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L95" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R95" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>91.0</v>
+        <v>86.0</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O96" t="n">
+        <v>86</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P96" t="n">
         <v>1.0</v>
       </c>
       <c r="R96" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
-      </c>
-      <c r="F97" t="n">
+        <v>87</v>
+      </c>
+      <c r="D97" t="n">
         <v>1.0</v>
       </c>
       <c r="H97" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="L97" t="n">
         <v>1.0</v>
       </c>
       <c r="R97" t="n">
@@ -2565,76 +2499,58 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G98" t="n">
+        <v>88</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E98" t="n">
         <v>1.0</v>
       </c>
       <c r="H98" t="n">
         <v>1.0</v>
       </c>
+      <c r="K98" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L98" t="n">
         <v>1.0</v>
       </c>
-      <c r="O98" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R98" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.0</v>
+        <v>89</v>
       </c>
       <c r="G99" t="n">
         <v>1.0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q99" t="n">
+      <c r="I99" t="n">
         <v>1.0</v>
       </c>
       <c r="R99" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.0</v>
+        <v>90</v>
       </c>
       <c r="D100" t="n">
         <v>1.0</v>
       </c>
-      <c r="G100" t="n">
+      <c r="E100" t="n">
         <v>1.0</v>
       </c>
       <c r="H100" t="n">
@@ -2643,7 +2559,10 @@
       <c r="I100" t="n">
         <v>1.0</v>
       </c>
-      <c r="P100" t="n">
+      <c r="K100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L100" t="n">
         <v>1.0</v>
       </c>
       <c r="R100" t="n">
@@ -2652,79 +2571,82 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>96.0</v>
+        <v>91.0</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" t="n">
+        <v>91</v>
+      </c>
+      <c r="C101" t="n">
         <v>1.0</v>
       </c>
       <c r="F101" t="n">
         <v>1.0</v>
       </c>
-      <c r="G101" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H101" t="n">
         <v>1.0</v>
       </c>
-      <c r="K101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O101" t="n">
+      <c r="I101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M101" t="n">
         <v>1.0</v>
       </c>
       <c r="R101" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q102" t="n">
+        <v>92</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L102" t="n">
         <v>1.0</v>
       </c>
       <c r="R102" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>98.0</v>
+        <v>93.0</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
       </c>
-      <c r="H103" t="n">
+      <c r="F103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I103" t="n">
         <v>1.0</v>
       </c>
       <c r="L103" t="n">
         <v>1.0</v>
       </c>
-      <c r="O103" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q103" t="n">
         <v>1.0</v>
       </c>
       <c r="R103" t="n">
@@ -2733,10 +2655,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>99.0</v>
+        <v>94.0</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C104" t="n">
         <v>1.0</v>
@@ -2744,16 +2666,16 @@
       <c r="D104" t="n">
         <v>1.0</v>
       </c>
-      <c r="E104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P104" t="n">
+      <c r="F104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q104" t="n">
         <v>1.0</v>
       </c>
       <c r="R104" t="n">
@@ -2762,10 +2684,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D105" t="n">
         <v>1.0</v>
@@ -2773,16 +2695,16 @@
       <c r="E105" t="n">
         <v>1.0</v>
       </c>
-      <c r="F105" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G105" t="n">
         <v>1.0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q105" t="n">
+      <c r="K105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O105" t="n">
         <v>1.0</v>
       </c>
       <c r="R105" t="n">
@@ -2791,41 +2713,38 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>101.0</v>
+        <v>96.0</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.0</v>
       </c>
       <c r="F106" t="n">
         <v>1.0</v>
       </c>
-      <c r="H106" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I106" t="n">
         <v>1.0</v>
       </c>
-      <c r="N106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P106" t="n">
+      <c r="J106" t="n">
         <v>1.0</v>
       </c>
       <c r="R106" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>102.0</v>
+        <v>97.0</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" t="n">
+        <v>97</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D107" t="n">
         <v>1.0</v>
       </c>
       <c r="F107" t="n">
@@ -2834,39 +2753,39 @@
       <c r="I107" t="n">
         <v>1.0</v>
       </c>
+      <c r="K107" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L107" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q107" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R107" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>103.0</v>
+        <v>98.0</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" t="n">
+        <v>98</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F108" t="n">
         <v>1.0</v>
       </c>
       <c r="G108" t="n">
         <v>1.0</v>
       </c>
-      <c r="H108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q108" t="n">
         <v>1.0</v>
       </c>
       <c r="R108" t="n">
@@ -2875,15 +2794,18 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>104.0</v>
+        <v>99.0</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F109" t="n">
+        <v>99</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G109" t="n">
         <v>1.0</v>
       </c>
       <c r="H109" t="n">
@@ -2892,293 +2814,302 @@
       <c r="L109" t="n">
         <v>1.0</v>
       </c>
+      <c r="O109" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R109" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
-      </c>
-      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D110" t="n">
         <v>1.0</v>
       </c>
       <c r="G110" t="n">
         <v>1.0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q110" t="n">
+      <c r="H110" t="n">
         <v>1.0</v>
       </c>
       <c r="R110" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>106.0</v>
+        <v>101.0</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
-      </c>
-      <c r="E111" t="n">
+        <v>101</v>
+      </c>
+      <c r="D111" t="n">
         <v>1.0</v>
       </c>
       <c r="F111" t="n">
         <v>1.0</v>
       </c>
+      <c r="G111" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H111" t="n">
         <v>1.0</v>
       </c>
       <c r="I111" t="n">
         <v>1.0</v>
       </c>
-      <c r="K111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R111" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>107.0</v>
+        <v>102.0</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.0</v>
+        <v>102</v>
       </c>
       <c r="F112" t="n">
         <v>1.0</v>
       </c>
-      <c r="H112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L112" t="n">
+      <c r="G112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M112" t="n">
         <v>1.0</v>
       </c>
       <c r="R112" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>108.0</v>
+        <v>103.0</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C113" t="n">
         <v>1.0</v>
       </c>
-      <c r="D113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G113" t="n">
+      <c r="F113" t="n">
         <v>1.0</v>
       </c>
       <c r="H113" t="n">
         <v>1.0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L113" t="n">
+      <c r="K113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P113" t="n">
         <v>1.0</v>
       </c>
       <c r="R113" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>109.0</v>
+        <v>104.0</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
-      </c>
-      <c r="M114" t="n">
+        <v>104</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q114" t="n">
         <v>1.0</v>
       </c>
       <c r="R114" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>110.0</v>
+        <v>105.0</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
-      </c>
-      <c r="I115" t="n">
+        <v>105</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G115" t="n">
         <v>1.0</v>
       </c>
       <c r="R115" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111.0</v>
+        <v>106.0</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
-      </c>
-      <c r="K116" t="n">
+        <v>106</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N116" t="n">
         <v>1.0</v>
       </c>
       <c r="R116" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112.0</v>
+        <v>107.0</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
-      </c>
-      <c r="H117" t="n">
+        <v>107</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O117" t="n">
         <v>1.0</v>
       </c>
       <c r="R117" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>113.0</v>
+        <v>108.0</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
       </c>
-      <c r="O118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q118" t="n">
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K118" t="n">
         <v>1.0</v>
       </c>
       <c r="R118" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>114.0</v>
+        <v>109.0</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O119" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q119" t="n">
         <v>1.0</v>
       </c>
       <c r="R119" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>115.0</v>
+        <v>110.0</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P120" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q120" t="n">
         <v>1.0</v>
       </c>
       <c r="R120" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>116.0</v>
+        <v>111.0</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q121" t="n">
+        <v>111</v>
+      </c>
+      <c r="O121" t="n">
         <v>1.0</v>
       </c>
       <c r="R121" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>117.0</v>
+        <v>112.0</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C122" t="n">
         <v>1.0</v>
       </c>
-      <c r="D122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R122" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>118.0</v>
+        <v>113.0</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H123" t="n">
+        <v>113</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q123" t="n">
         <v>1.0</v>
       </c>
       <c r="R123" t="n">
@@ -3187,18 +3118,18 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>119.0</v>
+        <v>114.0</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q124" t="n">
+        <v>114</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I124" t="n">
         <v>1.0</v>
       </c>
       <c r="R124" t="n">
@@ -3207,15 +3138,15 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>120.0</v>
+        <v>115.0</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G125" t="n">
+        <v>115</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I125" t="n">
         <v>1.0</v>
       </c>
       <c r="L125" t="n">
@@ -3227,18 +3158,18 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>121.0</v>
+        <v>116.0</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I126" t="n">
+        <v>116</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M126" t="n">
         <v>1.0</v>
       </c>
       <c r="R126" t="n">
@@ -3247,18 +3178,18 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>122.0</v>
+        <v>117.0</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
-      </c>
-      <c r="K127" t="n">
+        <v>117</v>
+      </c>
+      <c r="C127" t="n">
         <v>1.0</v>
       </c>
       <c r="L127" t="n">
         <v>1.0</v>
       </c>
-      <c r="O127" t="n">
+      <c r="P127" t="n">
         <v>1.0</v>
       </c>
       <c r="R127" t="n">
@@ -3267,90 +3198,78 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>123.0</v>
+        <v>118.0</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q128" t="n">
+        <v>118</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M128" t="n">
         <v>1.0</v>
       </c>
       <c r="R128" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>124.0</v>
+        <v>119.0</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C129" t="n">
         <v>1.0</v>
       </c>
-      <c r="H129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1.0</v>
-      </c>
       <c r="O129" t="n">
         <v>1.0</v>
       </c>
       <c r="P129" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q129" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R129" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
-      </c>
-      <c r="L130" t="n">
+        <v>120</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K130" t="n">
         <v>1.0</v>
       </c>
       <c r="R130" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K131" t="n">
+        <v>121</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O131" t="n">
         <v>1.0</v>
       </c>
       <c r="R131" t="n">
@@ -3359,18 +3278,18 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>127.0</v>
+        <v>122.0</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P132" t="n">
+        <v>122</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I132" t="n">
         <v>1.0</v>
       </c>
       <c r="R132" t="n">
@@ -3379,144 +3298,150 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>128.0</v>
+        <v>123.0</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D133" t="n">
+        <v>123</v>
+      </c>
+      <c r="G133" t="n">
         <v>1.0</v>
       </c>
       <c r="I133" t="n">
         <v>1.0</v>
       </c>
+      <c r="K133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R133" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>129.0</v>
+        <v>124.0</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C134" t="n">
         <v>1.0</v>
       </c>
-      <c r="K134" t="n">
+      <c r="E134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I134" t="n">
         <v>1.0</v>
       </c>
       <c r="L134" t="n">
         <v>1.0</v>
       </c>
+      <c r="P134" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R134" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C135" t="n">
         <v>1.0</v>
       </c>
-      <c r="E135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R135" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>131.0</v>
+        <v>126.0</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C136" t="n">
         <v>1.0</v>
       </c>
-      <c r="H136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O136" t="n">
+      <c r="E136" t="n">
         <v>1.0</v>
       </c>
       <c r="P136" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q136" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R136" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>132.0</v>
+        <v>127.0</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
-      </c>
-      <c r="H137" t="n">
+        <v>127</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P137" t="n">
         <v>1.0</v>
       </c>
       <c r="R137" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>133.0</v>
+        <v>128.0</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
-      </c>
-      <c r="I138" t="n">
+        <v>128</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L138" t="n">
         <v>1.0</v>
       </c>
       <c r="R138" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>134.0</v>
+        <v>129.0</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q139" t="n">
+        <v>129</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J139" t="n">
         <v>1.0</v>
       </c>
       <c r="R139" t="n">
@@ -3525,12 +3450,15 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
-      </c>
-      <c r="H140" t="n">
+        <v>123</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I140" t="n">
         <v>1.0</v>
       </c>
       <c r="K140" t="n">
@@ -3539,16 +3467,22 @@
       <c r="M140" t="n">
         <v>1.0</v>
       </c>
+      <c r="O140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R140" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.0</v>
+        <v>131.0</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C141" t="n">
         <v>1.0</v>
@@ -3556,74 +3490,56 @@
       <c r="E141" t="n">
         <v>1.0</v>
       </c>
+      <c r="H141" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I141" t="n">
         <v>1.0</v>
       </c>
+      <c r="L141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R141" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>137.0</v>
+        <v>132.0</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P142" t="n">
+        <v>130</v>
+      </c>
+      <c r="N142" t="n">
         <v>1.0</v>
       </c>
       <c r="R142" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>138.0</v>
+        <v>133.0</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O143" t="n">
+        <v>131</v>
+      </c>
+      <c r="G143" t="n">
         <v>1.0</v>
       </c>
       <c r="R143" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>139.0</v>
+        <v>134.0</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1.0</v>
+        <v>132</v>
       </c>
       <c r="G144" t="n">
         <v>1.0</v>
@@ -3631,64 +3547,79 @@
       <c r="H144" t="n">
         <v>1.0</v>
       </c>
-      <c r="I144" t="n">
+      <c r="P144" t="n">
         <v>1.0</v>
       </c>
       <c r="R144" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>140.0</v>
+        <v>135.0</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C145" t="n">
         <v>1.0</v>
       </c>
+      <c r="H145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R145" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>141.0</v>
+        <v>136.0</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
-      </c>
-      <c r="I146" t="n">
+        <v>134</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q146" t="n">
         <v>1.0</v>
       </c>
       <c r="R146" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>142.0</v>
+        <v>137.0</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C147" t="n">
         <v>1.0</v>
       </c>
-      <c r="P147" t="n">
+      <c r="F147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L147" t="n">
         <v>1.0</v>
       </c>
       <c r="R147" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>143.0</v>
+        <v>138.0</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -3696,151 +3627,121 @@
       <c r="F148" t="n">
         <v>1.0</v>
       </c>
+      <c r="H148" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I148" t="n">
         <v>1.0</v>
       </c>
       <c r="R148" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>144.0</v>
+        <v>139.0</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K149" t="n">
+        <v>137</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q149" t="n">
         <v>1.0</v>
       </c>
       <c r="R149" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P150" t="n">
+        <v>138</v>
+      </c>
+      <c r="G150" t="n">
         <v>1.0</v>
       </c>
       <c r="R150" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>146.0</v>
+        <v>141.0</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O151" t="n">
+        <v>139</v>
+      </c>
+      <c r="E151" t="n">
         <v>1.0</v>
       </c>
       <c r="R151" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>147.0</v>
+        <v>142.0</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
       </c>
-      <c r="F152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K152" t="n">
         <v>1.0</v>
       </c>
-      <c r="L152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O152" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R152" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>148.0</v>
+        <v>143.0</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.0</v>
       </c>
       <c r="K153" t="n">
         <v>1.0</v>
       </c>
-      <c r="P153" t="n">
+      <c r="L153" t="n">
         <v>1.0</v>
       </c>
       <c r="R153" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>149.0</v>
+        <v>144.0</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P154" t="n">
+        <v>142</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I154" t="n">
         <v>1.0</v>
       </c>
       <c r="R154" t="n">
@@ -3849,10 +3750,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>150.0</v>
+        <v>145.0</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -3860,36 +3761,39 @@
       <c r="G155" t="n">
         <v>1.0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="H155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L155" t="n">
         <v>1.0</v>
       </c>
       <c r="R155" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>151.0</v>
+        <v>146.0</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.0</v>
       </c>
       <c r="F156" t="n">
         <v>1.0</v>
       </c>
-      <c r="G156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I156" t="n">
+      <c r="K156" t="n">
         <v>1.0</v>
       </c>
       <c r="L156" t="n">
         <v>1.0</v>
       </c>
-      <c r="O156" t="n">
+      <c r="P156" t="n">
         <v>1.0</v>
       </c>
       <c r="R156" t="n">
@@ -3898,19 +3802,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>152.0</v>
+        <v>147.0</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1.0</v>
+        <v>145</v>
       </c>
       <c r="G157" t="n">
         <v>1.0</v>
@@ -3918,114 +3813,105 @@
       <c r="H157" t="n">
         <v>1.0</v>
       </c>
-      <c r="I157" t="n">
+      <c r="P157" t="n">
         <v>1.0</v>
       </c>
       <c r="R157" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>153.0</v>
+        <v>148.0</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q158" t="n">
+        <v>146</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P158" t="n">
         <v>1.0</v>
       </c>
       <c r="R158" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>154.0</v>
+        <v>149.0</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
       </c>
-      <c r="F159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I159" t="n">
+      <c r="L159" t="n">
         <v>1.0</v>
       </c>
       <c r="R159" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>155.0</v>
+        <v>150.0</v>
       </c>
       <c r="B160" t="s">
-        <v>153</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P160" t="n">
+        <v>148</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.0</v>
       </c>
       <c r="R160" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>156.0</v>
+        <v>151.0</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P161" t="n">
+        <v>149</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q161" t="n">
         <v>1.0</v>
       </c>
       <c r="R161" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>157.0</v>
+        <v>152.0</v>
       </c>
       <c r="B162" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -4033,19 +3919,28 @@
       <c r="G162" t="n">
         <v>1.0</v>
       </c>
+      <c r="I162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P162" t="n">
         <v>1.0</v>
       </c>
       <c r="R162" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>158.0</v>
+        <v>153.0</v>
       </c>
       <c r="B163" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C163" t="n">
         <v>1.0</v>
@@ -4053,16 +3948,16 @@
       <c r="E163" t="n">
         <v>1.0</v>
       </c>
+      <c r="F163" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H163" t="n">
         <v>1.0</v>
       </c>
-      <c r="I163" t="n">
+      <c r="K163" t="n">
         <v>1.0</v>
       </c>
       <c r="L163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q163" t="n">
         <v>1.0</v>
       </c>
       <c r="R163" t="n">
@@ -4071,27 +3966,27 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>159.0</v>
+        <v>154.0</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D164" t="n">
         <v>1.0</v>
       </c>
-      <c r="E164" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F164" t="n">
         <v>1.0</v>
       </c>
-      <c r="G164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O164" t="n">
+      <c r="H164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q164" t="n">
         <v>1.0</v>
       </c>
       <c r="R164" t="n">
@@ -4100,27 +3995,27 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E165" t="n">
+        <v>153</v>
+      </c>
+      <c r="C165" t="n">
         <v>1.0</v>
       </c>
       <c r="F165" t="n">
         <v>1.0</v>
       </c>
-      <c r="G165" t="n">
+      <c r="I165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L165" t="n">
         <v>1.0</v>
       </c>
       <c r="O165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q165" t="n">
         <v>1.0</v>
       </c>
       <c r="R165" t="n">
@@ -4129,78 +4024,196 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>154</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>156</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
         <v>161.0</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>159</v>
       </c>
-      <c r="C166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R166" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="C167" t="n">
+      <c r="E171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K172" t="n">
         <v>43.0</v>
       </c>
-      <c r="D167" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="H167" t="n">
+      <c r="L172" t="n">
         <v>54.0</v>
       </c>
-      <c r="I167" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="M167" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N167" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O167" t="n">
+      <c r="M172" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O172" t="n">
         <v>38.0</v>
       </c>
-      <c r="P167" t="n">
+      <c r="P172" t="n">
         <v>31.0</v>
       </c>
-      <c r="Q167" t="n">
-        <v>34.0</v>
+      <c r="Q172" t="n">
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>Exam Dates</t>
+  </si>
+  <si>
+    <t>No. of students</t>
+  </si>
+  <si>
+    <t>No. of Invigilators</t>
+  </si>
+  <si>
+    <t>Name(Prof./Dr./Mr./Ms.)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -523,7 +532,12 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="7.0"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -547,33 +561,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -582,72 +629,194 @@
     <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="50.0" customHeight="true">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>44753.0</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" t="n" s="4">
         <v>44754.0</v>
       </c>
-      <c r="E5" t="n" s="4">
+      <c r="E5" t="n" s="5">
         <v>44755.0</v>
       </c>
-      <c r="F5" t="n" s="5">
+      <c r="F5" t="n" s="6">
         <v>44756.0</v>
       </c>
-      <c r="G5" t="n" s="6">
+      <c r="G5" t="n" s="7">
         <v>44757.0</v>
       </c>
-      <c r="H5" t="n" s="7">
+      <c r="H5" t="n" s="8">
         <v>44758.0</v>
       </c>
-      <c r="I5" t="n" s="8">
+      <c r="I5" t="n" s="9">
         <v>44759.0</v>
       </c>
-      <c r="J5" t="n" s="9">
+      <c r="J5" t="n" s="10">
         <v>44760.0</v>
       </c>
-      <c r="K5" t="n" s="10">
+      <c r="K5" t="n" s="11">
         <v>44761.0</v>
       </c>
-      <c r="L5" t="n" s="11">
+      <c r="L5" t="n" s="12">
         <v>44762.0</v>
       </c>
-      <c r="M5" t="n" s="12">
+      <c r="M5" t="n" s="13">
         <v>44763.0</v>
       </c>
-      <c r="N5" t="n" s="13">
+      <c r="N5" t="n" s="14">
         <v>44764.0</v>
       </c>
-      <c r="O5" t="n" s="14">
+      <c r="O5" t="n" s="15">
         <v>44765.0</v>
       </c>
-      <c r="P5" t="n" s="15">
+      <c r="P5" t="n" s="16">
         <v>44766.0</v>
       </c>
-      <c r="Q5" t="n" s="16">
+      <c r="Q5" t="n" s="17">
         <v>44767.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>730.0</v>
+      </c>
+      <c r="D6" t="n" s="2">
+        <v>846.0</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>920.0</v>
+      </c>
+      <c r="F6" t="n" s="2">
+        <v>1006.0</v>
+      </c>
+      <c r="G6" t="n" s="2">
+        <v>956.0</v>
+      </c>
+      <c r="H6" t="n" s="2">
+        <v>945.0</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>961.0</v>
+      </c>
+      <c r="J6" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="K6" t="n" s="2">
+        <v>750.0</v>
+      </c>
+      <c r="L6" t="n" s="2">
+        <v>952.0</v>
+      </c>
+      <c r="M6" t="n" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="N6" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="O6" t="n" s="2">
+        <v>640.0</v>
+      </c>
+      <c r="P6" t="n" s="2">
+        <v>520.0</v>
+      </c>
+      <c r="Q6" t="n" s="2">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="D7" t="n" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E7" t="n" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="F7" t="n" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="G7" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="H7" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="I7" t="n" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="J7" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="L7" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="M7" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="N7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="P7" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="Q7" t="n" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="R7" t="n" s="2">
+        <v>575.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.0</v>
       </c>
       <c r="R11" t="n">
@@ -656,12 +825,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="R12" t="n">
@@ -670,12 +839,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
       <c r="R13" t="n">
@@ -684,12 +853,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.0</v>
       </c>
       <c r="R14" t="n">
@@ -698,12 +867,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.0</v>
       </c>
       <c r="R15" t="n">
@@ -712,12 +881,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.0</v>
       </c>
       <c r="R16" t="n">
@@ -726,12 +895,12 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.0</v>
       </c>
       <c r="R17" t="n">
@@ -740,12 +909,12 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.0</v>
       </c>
       <c r="R18" t="n">
@@ -754,12 +923,12 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="R19" t="n">
@@ -768,29 +937,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.0</v>
       </c>
       <c r="R21" t="n">
@@ -799,35 +971,38 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.0</v>
       </c>
       <c r="R23" t="n">
@@ -836,18 +1011,18 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.0</v>
       </c>
       <c r="R24" t="n">
@@ -856,15 +1031,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H25" t="n">
+        <v>16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1.0</v>
       </c>
       <c r="L25" t="n">
@@ -876,85 +1051,88 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.0</v>
       </c>
       <c r="L26" t="n">
         <v>1.0</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="F27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q28" t="n">
+        <v>19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -962,16 +1140,10 @@
       <c r="F29" t="n">
         <v>1.0</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.0</v>
       </c>
       <c r="R29" t="n">
@@ -980,62 +1152,62 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G30" t="n">
+        <v>21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>1.0</v>
       </c>
       <c r="O30" t="n">
         <v>1.0</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R30" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
         <v>1.0</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="H31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1.0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
@@ -1046,36 +1218,30 @@
       <c r="G32" t="n">
         <v>1.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R32" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" t="n">
         <v>1.0</v>
       </c>
       <c r="F33" t="n">
         <v>1.0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="H33" t="n">
         <v>1.0</v>
       </c>
       <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N33" t="n">
         <v>1.0</v>
       </c>
       <c r="O33" t="n">
@@ -1087,18 +1253,18 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M34" t="n">
+        <v>25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.0</v>
       </c>
       <c r="Q34" t="n">
@@ -1110,13 +1276,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -1127,77 +1290,68 @@
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.0</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
       </c>
-      <c r="F36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="G36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="n">
+        <v>28</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="n">
         <v>1.0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
         <v>1.0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.0</v>
+        <v>29</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -1205,13 +1359,16 @@
       <c r="G38" t="n">
         <v>1.0</v>
       </c>
+      <c r="H38" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I38" t="n">
         <v>1.0</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>1.0</v>
       </c>
       <c r="R38" t="n">
@@ -1220,18 +1377,15 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.0</v>
       </c>
       <c r="L39" t="n">
@@ -1241,6 +1395,9 @@
         <v>1.0</v>
       </c>
       <c r="P39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.0</v>
       </c>
       <c r="R39" t="n">
@@ -1249,121 +1406,103 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
-      <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="H40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.0</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="F41" t="n">
         <v>1.0</v>
       </c>
       <c r="L41" t="n">
         <v>1.0</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R41" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>6.0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" t="n">
+        <v>35</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H45" t="n">
+        <v>36</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1.0</v>
       </c>
       <c r="R45" t="n">
@@ -1372,15 +1511,15 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E46" t="n">
+        <v>37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.0</v>
       </c>
       <c r="R46" t="n">
@@ -1389,10 +1528,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47" t="n">
         <v>1.0</v>
@@ -1406,35 +1545,38 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
       </c>
+      <c r="H48" t="n">
+        <v>1.0</v>
+      </c>
       <c r="O48" t="n">
         <v>1.0</v>
       </c>
       <c r="R48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" t="n">
+        <v>40</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="H49" t="n">
+      <c r="O49" t="n">
         <v>1.0</v>
       </c>
       <c r="R49" t="n">
@@ -1443,10 +1585,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.0</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -1454,36 +1602,48 @@
       <c r="K50" t="n">
         <v>1.0</v>
       </c>
-      <c r="O50" t="n">
+      <c r="L50" t="n">
         <v>1.0</v>
       </c>
       <c r="R50" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" t="n">
+        <v>42</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.0</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
       </c>
+      <c r="L51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R51" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -1491,25 +1651,28 @@
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
+      <c r="H52" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I52" t="n">
         <v>1.0</v>
       </c>
-      <c r="L52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>1.0</v>
       </c>
       <c r="R52" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" t="n">
         <v>1.0</v>
@@ -1520,13 +1683,13 @@
       <c r="G53" t="n">
         <v>1.0</v>
       </c>
-      <c r="K53" t="n">
+      <c r="H53" t="n">
         <v>1.0</v>
       </c>
       <c r="L53" t="n">
         <v>1.0</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>1.0</v>
       </c>
       <c r="R53" t="n">
@@ -1535,50 +1698,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0</v>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
       </c>
-      <c r="F54" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K54" t="n">
         <v>1.0</v>
       </c>
-      <c r="L54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R54" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I55" t="n">
+        <v>46</v>
+      </c>
+      <c r="E55" t="n">
         <v>1.0</v>
       </c>
       <c r="K55" t="n">
@@ -1587,33 +1732,36 @@
       <c r="L55" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R55" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F56" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G56" t="n">
         <v>1.0</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
       </c>
-      <c r="K56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O56" t="n">
+      <c r="M56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q56" t="n">
         <v>1.0</v>
       </c>
       <c r="R56" t="n">
@@ -1622,12 +1770,12 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" t="n">
+        <v>48</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.0</v>
       </c>
       <c r="H57" t="n">
@@ -1636,24 +1784,30 @@
       <c r="K57" t="n">
         <v>1.0</v>
       </c>
-      <c r="N57" t="n">
-        <v>1.0</v>
-      </c>
       <c r="O57" t="n">
         <v>1.0</v>
       </c>
+      <c r="P57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R57" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="n">
+        <v>49</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D58" t="n">
         <v>1.0</v>
       </c>
       <c r="G58" t="n">
@@ -1665,62 +1819,38 @@
       <c r="I58" t="n">
         <v>1.0</v>
       </c>
-      <c r="K58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R58" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.0</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
         <v>1.0</v>
       </c>
-      <c r="H59" t="n">
+      <c r="L59" t="n">
         <v>1.0</v>
       </c>
       <c r="O59" t="n">
         <v>1.0</v>
       </c>
       <c r="R59" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K60" t="n">
+        <v>51</v>
+      </c>
+      <c r="I60" t="n">
         <v>1.0</v>
       </c>
       <c r="L60" t="n">
@@ -1729,16 +1859,19 @@
       <c r="O60" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R60" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="n">
         <v>1.0</v>
@@ -1746,50 +1879,59 @@
       <c r="G61" t="n">
         <v>1.0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O61" t="n">
+      <c r="L61" t="n">
         <v>1.0</v>
       </c>
       <c r="Q61" t="n">
         <v>1.0</v>
       </c>
       <c r="R61" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
       </c>
+      <c r="E62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H62" t="n">
         <v>1.0</v>
       </c>
-      <c r="O62" t="n">
+      <c r="K62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P62" t="n">
         <v>1.0</v>
       </c>
       <c r="R62" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>1.0</v>
       </c>
       <c r="I63" t="n">
@@ -1798,10 +1940,7 @@
       <c r="K63" t="n">
         <v>1.0</v>
       </c>
-      <c r="L63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>1.0</v>
       </c>
       <c r="R63" t="n">
@@ -1810,24 +1949,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" t="n">
         <v>1.0</v>
       </c>
-      <c r="O64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P64" t="n">
+      <c r="K64" t="n">
         <v>1.0</v>
       </c>
       <c r="R64" t="n">
@@ -1836,30 +1975,39 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.0</v>
       </c>
       <c r="F65" t="n">
         <v>1.0</v>
       </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H65" t="n">
         <v>1.0</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>1.0</v>
       </c>
       <c r="R65" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="n">
         <v>1.0</v>
@@ -1867,117 +2015,123 @@
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
-      <c r="G66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="K66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P66" t="n">
         <v>1.0</v>
       </c>
       <c r="R66" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" t="n">
+        <v>58</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F67" t="n">
         <v>1.0</v>
       </c>
       <c r="H67" t="n">
         <v>1.0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L67" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R67" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O68" t="n">
+        <v>59</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.0</v>
       </c>
       <c r="R68" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I69" t="n">
+        <v>60</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>1.0</v>
       </c>
       <c r="R69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H70" t="n">
         <v>1.0</v>
       </c>
-      <c r="P70" t="n">
+      <c r="I70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O70" t="n">
         <v>1.0</v>
       </c>
       <c r="R70" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.0</v>
+        <v>62</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -1985,27 +2139,30 @@
       <c r="I71" t="n">
         <v>1.0</v>
       </c>
-      <c r="P71" t="n">
+      <c r="K71" t="n">
         <v>1.0</v>
       </c>
       <c r="Q71" t="n">
         <v>1.0</v>
       </c>
       <c r="R71" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F72" t="n">
+        <v>63</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
         <v>1.0</v>
       </c>
       <c r="H72" t="n">
@@ -2014,30 +2171,30 @@
       <c r="I72" t="n">
         <v>1.0</v>
       </c>
-      <c r="L72" t="n">
+      <c r="O72" t="n">
         <v>1.0</v>
       </c>
       <c r="R72" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P73" t="n">
+        <v>64</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O73" t="n">
         <v>1.0</v>
       </c>
       <c r="R73" t="n">
@@ -2046,10 +2203,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.0</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -2060,30 +2220,33 @@
       <c r="I74" t="n">
         <v>1.0</v>
       </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P74" t="n">
         <v>1.0</v>
       </c>
       <c r="R74" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.0</v>
       </c>
       <c r="F75" t="n">
         <v>1.0</v>
       </c>
-      <c r="G75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O75" t="n">
+      <c r="K75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L75" t="n">
         <v>1.0</v>
       </c>
       <c r="R75" t="n">
@@ -2092,42 +2255,27 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" t="n">
+        <v>67</v>
+      </c>
+      <c r="E76" t="n">
         <v>1.0</v>
       </c>
       <c r="F76" t="n">
         <v>1.0</v>
       </c>
-      <c r="H76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R76" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.0</v>
+        <v>68</v>
       </c>
       <c r="F77" t="n">
         <v>1.0</v>
@@ -2135,39 +2283,39 @@
       <c r="G77" t="n">
         <v>1.0</v>
       </c>
+      <c r="H77" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I77" t="n">
         <v>1.0</v>
       </c>
-      <c r="L77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q77" t="n">
+      <c r="K77" t="n">
         <v>1.0</v>
       </c>
       <c r="R77" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I78" t="n">
+        <v>69</v>
+      </c>
+      <c r="K78" t="n">
         <v>1.0</v>
       </c>
       <c r="L78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q78" t="n">
         <v>1.0</v>
       </c>
       <c r="R78" t="n">
@@ -2176,32 +2324,26 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I79" t="n">
+        <v>70</v>
+      </c>
+      <c r="E79" t="n">
         <v>1.0</v>
       </c>
       <c r="R79" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" t="n">
+        <v>71</v>
+      </c>
+      <c r="C80" t="n">
         <v>1.0</v>
       </c>
       <c r="R80" t="n">
@@ -2210,12 +2352,12 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
+        <v>72</v>
+      </c>
+      <c r="O81" t="n">
         <v>1.0</v>
       </c>
       <c r="R81" t="n">
@@ -2224,12 +2366,12 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q82" t="n">
+        <v>73</v>
+      </c>
+      <c r="F82" t="n">
         <v>1.0</v>
       </c>
       <c r="R82" t="n">
@@ -2238,12 +2380,12 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" t="n">
+        <v>74</v>
+      </c>
+      <c r="K83" t="n">
         <v>1.0</v>
       </c>
       <c r="R83" t="n">
@@ -2252,12 +2394,12 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" t="n">
+        <v>75</v>
+      </c>
+      <c r="L84" t="n">
         <v>1.0</v>
       </c>
       <c r="R84" t="n">
@@ -2266,12 +2408,12 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="K85" t="n">
+        <v>76</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.0</v>
       </c>
       <c r="R85" t="n">
@@ -2280,29 +2422,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
       </c>
       <c r="F86" t="n">
         <v>1.0</v>
       </c>
       <c r="R86" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I87" t="n">
+        <v>78</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K87" t="n">
         <v>1.0</v>
       </c>
       <c r="R87" t="n">
@@ -2311,15 +2456,15 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q88" t="n">
+        <v>79</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K88" t="n">
         <v>1.0</v>
       </c>
       <c r="R88" t="n">
@@ -2328,15 +2473,15 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O89" t="n">
+        <v>80</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M89" t="n">
         <v>1.0</v>
       </c>
       <c r="R89" t="n">
@@ -2345,52 +2490,52 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="I90" t="n">
+        <v>81</v>
+      </c>
+      <c r="J90" t="n">
         <v>1.0</v>
       </c>
       <c r="L90" t="n">
         <v>1.0</v>
       </c>
+      <c r="P90" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R90" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q91" t="n">
+        <v>82</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P91" t="n">
         <v>1.0</v>
       </c>
       <c r="R91" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K92" t="n">
+        <v>83</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L92" t="n">
         <v>1.0</v>
       </c>
       <c r="P92" t="n">
@@ -2402,18 +2547,18 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P93" t="n">
+        <v>84</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M93" t="n">
         <v>1.0</v>
       </c>
       <c r="R93" t="n">
@@ -2422,35 +2567,38 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.0</v>
       </c>
       <c r="F94" t="n">
         <v>1.0</v>
       </c>
-      <c r="K94" t="n">
+      <c r="O94" t="n">
         <v>1.0</v>
       </c>
       <c r="R94" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" t="n">
+        <v>86</v>
+      </c>
+      <c r="I95" t="n">
         <v>1.0</v>
       </c>
       <c r="L95" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="O95" t="n">
         <v>1.0</v>
       </c>
       <c r="R95" t="n">
@@ -2459,18 +2607,18 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="n">
+        <v>87</v>
+      </c>
+      <c r="D96" t="n">
         <v>1.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
       </c>
-      <c r="P96" t="n">
+      <c r="F96" t="n">
         <v>1.0</v>
       </c>
       <c r="R96" t="n">
@@ -2479,30 +2627,36 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" t="n">
+        <v>88</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G97" t="n">
         <v>1.0</v>
       </c>
       <c r="H97" t="n">
         <v>1.0</v>
       </c>
-      <c r="L97" t="n">
+      <c r="K97" t="n">
         <v>1.0</v>
       </c>
       <c r="R97" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D98" t="n">
         <v>1.0</v>
@@ -2510,7 +2664,10 @@
       <c r="E98" t="n">
         <v>1.0</v>
       </c>
-      <c r="H98" t="n">
+      <c r="F98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I98" t="n">
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
@@ -2520,37 +2677,43 @@
         <v>1.0</v>
       </c>
       <c r="R98" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I99" t="n">
+        <v>90</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O99" t="n">
         <v>1.0</v>
       </c>
       <c r="R99" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E100" t="n">
+        <v>91</v>
+      </c>
+      <c r="G100" t="n">
         <v>1.0</v>
       </c>
       <c r="H100" t="n">
@@ -2559,65 +2722,68 @@
       <c r="I100" t="n">
         <v>1.0</v>
       </c>
-      <c r="K100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L100" t="n">
+      <c r="P100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q100" t="n">
         <v>1.0</v>
       </c>
       <c r="R100" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M101" t="n">
+        <v>92</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q101" t="n">
         <v>1.0</v>
       </c>
       <c r="R101" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H102" t="n">
+        <v>93</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G102" t="n">
         <v>1.0</v>
       </c>
       <c r="I102" t="n">
         <v>1.0</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q102" t="n">
         <v>1.0</v>
       </c>
       <c r="R102" t="n">
@@ -2626,10 +2792,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -2640,10 +2809,7 @@
       <c r="G103" t="n">
         <v>1.0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L103" t="n">
+      <c r="H103" t="n">
         <v>1.0</v>
       </c>
       <c r="P103" t="n">
@@ -2655,10 +2821,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C104" t="n">
         <v>1.0</v>
@@ -2666,16 +2832,16 @@
       <c r="D104" t="n">
         <v>1.0</v>
       </c>
+      <c r="E104" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F104" t="n">
         <v>1.0</v>
       </c>
+      <c r="H104" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q104" t="n">
         <v>1.0</v>
       </c>
       <c r="R104" t="n">
@@ -2684,79 +2850,82 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" t="n">
+        <v>96</v>
+      </c>
+      <c r="C105" t="n">
         <v>1.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
       </c>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G105" t="n">
         <v>1.0</v>
       </c>
-      <c r="K105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O105" t="n">
+      <c r="H105" t="n">
         <v>1.0</v>
       </c>
       <c r="R105" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E106" t="n">
+        <v>97</v>
+      </c>
+      <c r="C106" t="n">
         <v>1.0</v>
       </c>
       <c r="F106" t="n">
         <v>1.0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J106" t="n">
+      <c r="G106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q106" t="n">
         <v>1.0</v>
       </c>
       <c r="R106" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C107" t="n">
         <v>1.0</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>1.0</v>
       </c>
       <c r="F107" t="n">
         <v>1.0</v>
       </c>
+      <c r="G107" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I107" t="n">
         <v>1.0</v>
       </c>
       <c r="K107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L107" t="n">
         <v>1.0</v>
       </c>
       <c r="R107" t="n">
@@ -2765,27 +2934,27 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F108" t="n">
+        <v>99</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E108" t="n">
         <v>1.0</v>
       </c>
       <c r="G108" t="n">
         <v>1.0</v>
       </c>
-      <c r="L108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q108" t="n">
+      <c r="I108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K108" t="n">
         <v>1.0</v>
       </c>
       <c r="R108" t="n">
@@ -2794,39 +2963,36 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.0</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
       </c>
-      <c r="G109" t="n">
+      <c r="F109" t="n">
         <v>1.0</v>
       </c>
       <c r="H109" t="n">
         <v>1.0</v>
       </c>
+      <c r="I109" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L109" t="n">
         <v>1.0</v>
       </c>
-      <c r="O109" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R109" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C110" t="n">
         <v>1.0</v>
@@ -2834,75 +3000,87 @@
       <c r="D110" t="n">
         <v>1.0</v>
       </c>
-      <c r="G110" t="n">
+      <c r="F110" t="n">
         <v>1.0</v>
       </c>
       <c r="H110" t="n">
         <v>1.0</v>
       </c>
+      <c r="K110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R110" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" t="n">
+        <v>102</v>
+      </c>
+      <c r="E111" t="n">
         <v>1.0</v>
       </c>
       <c r="F111" t="n">
         <v>1.0</v>
       </c>
-      <c r="G111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I111" t="n">
+      <c r="K111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L111" t="n">
         <v>1.0</v>
       </c>
       <c r="R111" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G112" t="n">
+        <v>103</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.0</v>
       </c>
       <c r="I112" t="n">
         <v>1.0</v>
       </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O112" t="n">
         <v>1.0</v>
       </c>
       <c r="R112" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" t="n">
         <v>1.0</v>
       </c>
+      <c r="D113" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F113" t="n">
         <v>1.0</v>
       </c>
@@ -2912,50 +3090,38 @@
       <c r="K113" t="n">
         <v>1.0</v>
       </c>
-      <c r="P113" t="n">
+      <c r="Q113" t="n">
         <v>1.0</v>
       </c>
       <c r="R113" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F114" t="n">
         <v>1.0</v>
       </c>
-      <c r="G114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L114" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q114" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R114" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" t="n">
+        <v>106</v>
+      </c>
+      <c r="C115" t="n">
         <v>1.0</v>
       </c>
       <c r="E115" t="n">
@@ -2964,16 +3130,25 @@
       <c r="G115" t="n">
         <v>1.0</v>
       </c>
+      <c r="H115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R115" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2981,36 +3156,45 @@
       <c r="F116" t="n">
         <v>1.0</v>
       </c>
-      <c r="N116" t="n">
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O116" t="n">
         <v>1.0</v>
       </c>
       <c r="R116" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E117" t="n">
+        <v>108</v>
+      </c>
+      <c r="D117" t="n">
         <v>1.0</v>
       </c>
       <c r="F117" t="n">
         <v>1.0</v>
       </c>
-      <c r="G117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O117" t="n">
+      <c r="H117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q117" t="n">
         <v>1.0</v>
       </c>
       <c r="R117" t="n">
@@ -3019,33 +3203,24 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.0</v>
+        <v>109</v>
       </c>
       <c r="G118" t="n">
         <v>1.0</v>
       </c>
-      <c r="K118" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R118" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q119" t="n">
         <v>1.0</v>
@@ -3056,12 +3231,12 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q120" t="n">
+        <v>111</v>
+      </c>
+      <c r="N120" t="n">
         <v>1.0</v>
       </c>
       <c r="R120" t="n">
@@ -3070,12 +3245,12 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
-      </c>
-      <c r="O121" t="n">
+        <v>112</v>
+      </c>
+      <c r="E121" t="n">
         <v>1.0</v>
       </c>
       <c r="R121" t="n">
@@ -3084,32 +3259,38 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" t="n">
+        <v>113</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L122" t="n">
         <v>1.0</v>
       </c>
       <c r="R122" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.0</v>
       </c>
       <c r="K123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q123" t="n">
         <v>1.0</v>
       </c>
       <c r="R123" t="n">
@@ -3118,18 +3299,18 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I124" t="n">
+        <v>115</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F124" t="n">
         <v>1.0</v>
       </c>
       <c r="R124" t="n">
@@ -3138,18 +3319,18 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L125" t="n">
+        <v>116</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q125" t="n">
         <v>1.0</v>
       </c>
       <c r="R125" t="n">
@@ -3158,18 +3339,18 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B126" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M126" t="n">
+        <v>117</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q126" t="n">
         <v>1.0</v>
       </c>
       <c r="R126" t="n">
@@ -3178,18 +3359,18 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" t="n">
+        <v>118</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G127" t="n">
         <v>1.0</v>
       </c>
       <c r="L127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P127" t="n">
         <v>1.0</v>
       </c>
       <c r="R127" t="n">
@@ -3198,18 +3379,18 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="B128" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M128" t="n">
+        <v>119</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F128" t="n">
         <v>1.0</v>
       </c>
       <c r="R128" t="n">
@@ -3218,18 +3399,18 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C129" t="n">
         <v>1.0</v>
       </c>
-      <c r="O129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P129" t="n">
+      <c r="G129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K129" t="n">
         <v>1.0</v>
       </c>
       <c r="R129" t="n">
@@ -3238,18 +3419,18 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G130" t="n">
         <v>1.0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K130" t="n">
+      <c r="H130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O130" t="n">
         <v>1.0</v>
       </c>
       <c r="R130" t="n">
@@ -3258,15 +3439,15 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.0</v>
+        <v>122</v>
       </c>
       <c r="D131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M131" t="n">
         <v>1.0</v>
       </c>
       <c r="O131" t="n">
@@ -3278,10 +3459,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.0</v>
       </c>
       <c r="D132" t="n">
         <v>1.0</v>
@@ -3292,16 +3476,25 @@
       <c r="I132" t="n">
         <v>1.0</v>
       </c>
+      <c r="O132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R132" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0</v>
       </c>
       <c r="G133" t="n">
         <v>1.0</v>
@@ -3309,79 +3502,64 @@
       <c r="I133" t="n">
         <v>1.0</v>
       </c>
-      <c r="K133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
         <v>1.0</v>
       </c>
       <c r="O133" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q133" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R133" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P134" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q134" t="n">
         <v>1.0</v>
       </c>
       <c r="R134" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
-      </c>
-      <c r="C135" t="n">
+        <v>126</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L135" t="n">
         <v>1.0</v>
       </c>
       <c r="R135" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P136" t="n">
+        <v>127</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L136" t="n">
         <v>1.0</v>
       </c>
       <c r="R136" t="n">
@@ -3390,18 +3568,18 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P137" t="n">
+        <v>128</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L137" t="n">
         <v>1.0</v>
       </c>
       <c r="R137" t="n">
@@ -3410,18 +3588,18 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C138" t="n">
         <v>1.0</v>
       </c>
-      <c r="E138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L138" t="n">
+      <c r="H138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M138" t="n">
         <v>1.0</v>
       </c>
       <c r="R138" t="n">
@@ -3430,30 +3608,42 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.0</v>
       </c>
       <c r="D139" t="n">
         <v>1.0</v>
       </c>
-      <c r="H139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J139" t="n">
+      <c r="E139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P139" t="n">
         <v>1.0</v>
       </c>
       <c r="R139" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.0</v>
       </c>
       <c r="G140" t="n">
         <v>1.0</v>
@@ -3461,59 +3651,38 @@
       <c r="I140" t="n">
         <v>1.0</v>
       </c>
-      <c r="K140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
         <v>1.0</v>
       </c>
       <c r="O140" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q140" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R140" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="B141" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P141" t="n">
+        <v>130</v>
+      </c>
+      <c r="K141" t="n">
         <v>1.0</v>
       </c>
       <c r="R141" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
-      </c>
-      <c r="N142" t="n">
+        <v>131</v>
+      </c>
+      <c r="I142" t="n">
         <v>1.0</v>
       </c>
       <c r="R142" t="n">
@@ -3522,24 +3691,30 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>1.0</v>
       </c>
+      <c r="M143" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R143" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G144" t="n">
         <v>1.0</v>
@@ -3547,7 +3722,7 @@
       <c r="H144" t="n">
         <v>1.0</v>
       </c>
-      <c r="P144" t="n">
+      <c r="K144" t="n">
         <v>1.0</v>
       </c>
       <c r="R144" t="n">
@@ -3556,18 +3731,18 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" t="n">
         <v>1.0</v>
       </c>
-      <c r="H145" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K145" t="n">
+      <c r="D145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M145" t="n">
         <v>1.0</v>
       </c>
       <c r="R145" t="n">
@@ -3576,18 +3751,18 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" t="n">
+        <v>135</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.0</v>
       </c>
       <c r="L146" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="M146" t="n">
         <v>1.0</v>
       </c>
       <c r="R146" t="n">
@@ -3596,35 +3771,41 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C147" t="n">
         <v>1.0</v>
       </c>
-      <c r="F147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L147" t="n">
+      <c r="D147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M147" t="n">
         <v>1.0</v>
       </c>
       <c r="R147" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F148" t="n">
+        <v>137</v>
+      </c>
+      <c r="C148" t="n">
         <v>1.0</v>
       </c>
       <c r="H148" t="n">
@@ -3633,44 +3814,41 @@
       <c r="I148" t="n">
         <v>1.0</v>
       </c>
+      <c r="J148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R148" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q149" t="n">
+        <v>138</v>
+      </c>
+      <c r="I149" t="n">
         <v>1.0</v>
       </c>
       <c r="R149" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="B150" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" t="n">
+        <v>139</v>
+      </c>
+      <c r="I150" t="n">
         <v>1.0</v>
       </c>
       <c r="R150" t="n">
@@ -3679,49 +3857,55 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R151" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
-      </c>
-      <c r="E152" t="n">
+        <v>141</v>
+      </c>
+      <c r="G152" t="n">
         <v>1.0</v>
       </c>
       <c r="K152" t="n">
         <v>1.0</v>
       </c>
+      <c r="P152" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R152" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="B153" t="s">
-        <v>141</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L153" t="n">
+        <v>142</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O153" t="n">
         <v>1.0</v>
       </c>
       <c r="R153" t="n">
@@ -3730,70 +3914,82 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H154" t="n">
+        <v>143</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G154" t="n">
         <v>1.0</v>
       </c>
       <c r="I154" t="n">
         <v>1.0</v>
       </c>
+      <c r="L154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R154" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="B155" t="s">
-        <v>143</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L155" t="n">
+        <v>144</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P155" t="n">
         <v>1.0</v>
       </c>
       <c r="R155" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.0</v>
+        <v>145</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
       </c>
-      <c r="F156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L156" t="n">
+      <c r="G156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O156" t="n">
         <v>1.0</v>
       </c>
       <c r="P156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q156" t="n">
         <v>1.0</v>
       </c>
       <c r="R156" t="n">
@@ -3802,55 +3998,55 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P157" t="n">
+        <v>146</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L157" t="n">
         <v>1.0</v>
       </c>
       <c r="R157" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P158" t="n">
+        <v>147</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I158" t="n">
         <v>1.0</v>
       </c>
       <c r="R158" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="B159" t="s">
-        <v>147</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L159" t="n">
+        <v>148</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q159" t="n">
         <v>1.0</v>
       </c>
       <c r="R159" t="n">
@@ -3859,30 +4055,39 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F160" t="n">
+        <v>149</v>
+      </c>
+      <c r="G160" t="n">
         <v>1.0</v>
       </c>
       <c r="H160" t="n">
         <v>1.0</v>
       </c>
+      <c r="I160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R160" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C161" t="n">
         <v>1.0</v>
@@ -3893,13 +4098,13 @@
       <c r="E161" t="n">
         <v>1.0</v>
       </c>
+      <c r="G161" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I161" t="n">
         <v>1.0</v>
       </c>
-      <c r="O161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q161" t="n">
+      <c r="L161" t="n">
         <v>1.0</v>
       </c>
       <c r="R161" t="n">
@@ -3908,10 +4113,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -3919,57 +4124,45 @@
       <c r="G162" t="n">
         <v>1.0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K162" t="n">
         <v>1.0</v>
       </c>
-      <c r="L162" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P162" t="n">
         <v>1.0</v>
       </c>
       <c r="R162" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C163" t="n">
         <v>1.0</v>
       </c>
-      <c r="E163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K163" t="n">
         <v>1.0</v>
       </c>
       <c r="L163" t="n">
         <v>1.0</v>
       </c>
+      <c r="P163" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R163" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D164" t="n">
         <v>1.0</v>
@@ -3977,10 +4170,10 @@
       <c r="F164" t="n">
         <v>1.0</v>
       </c>
-      <c r="H164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L164" t="n">
+      <c r="G164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O164" t="n">
         <v>1.0</v>
       </c>
       <c r="P164" t="n">
@@ -3995,39 +4188,30 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O165" t="n">
+        <v>154</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G165" t="n">
         <v>1.0</v>
       </c>
       <c r="R165" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.0</v>
       </c>
       <c r="I166" t="n">
         <v>1.0</v>
@@ -4036,23 +4220,23 @@
         <v>1.0</v>
       </c>
       <c r="R166" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D167" t="n">
         <v>1.0</v>
       </c>
-      <c r="K167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q167" t="n">
+      <c r="G167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L167" t="n">
         <v>1.0</v>
       </c>
       <c r="R167" t="n">
@@ -4061,53 +4245,50 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="B168" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
       </c>
-      <c r="G168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K168" t="n">
+      <c r="I168" t="n">
         <v>1.0</v>
       </c>
       <c r="M168" t="n">
         <v>1.0</v>
       </c>
-      <c r="P168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R168" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.0</v>
+        <v>158</v>
       </c>
       <c r="D169" t="n">
         <v>1.0</v>
       </c>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F169" t="n">
         <v>1.0</v>
       </c>
       <c r="H169" t="n">
         <v>1.0</v>
       </c>
-      <c r="I169" t="n">
+      <c r="K169" t="n">
         <v>1.0</v>
       </c>
       <c r="Q169" t="n">
@@ -4119,18 +4300,18 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="B170" t="s">
-        <v>158</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.0</v>
+        <v>159</v>
       </c>
       <c r="D170" t="n">
         <v>1.0</v>
       </c>
-      <c r="G170" t="n">
+      <c r="E170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F170" t="n">
         <v>1.0</v>
       </c>
       <c r="L170" t="n">
@@ -4141,79 +4322,50 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>159</v>
+      <c r="C171" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>49.0</v>
       </c>
       <c r="E171" t="n">
-        <v>1.0</v>
+        <v>53.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>58.0</v>
       </c>
       <c r="G171" t="n">
-        <v>1.0</v>
+        <v>54.0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4.0</v>
       </c>
       <c r="K171" t="n">
-        <v>1.0</v>
+        <v>42.0</v>
       </c>
       <c r="L171" t="n">
-        <v>1.0</v>
+        <v>54.0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>39.0</v>
       </c>
       <c r="P171" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R171" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="C172" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,14 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="166">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
  Invigilation Duty Chart
 (Exam Time is 11:00 AM TO 02:00 PM)
-Reporting Time for Invigilators is 10:30 AM Sharp in ATC-308
-(II FLOOR ATC BUILDING)
+Reporting Time for Invigilators is 10:30 AM Sharp in ATC-308  (II FLOOR ATC BUILDING)
 </t>
   </si>
   <si>
@@ -504,6 +503,9 @@
   </si>
   <si>
     <t>Exam Dates</t>
+  </si>
+  <si>
+    <t>Total Duties</t>
   </si>
   <si>
     <t>No. of students</t>
@@ -532,7 +534,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -686,10 +688,13 @@
       <c r="Q5" t="n" s="17">
         <v>44767.0</v>
       </c>
+      <c r="R5" t="s" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>730.0</v>
@@ -736,10 +741,13 @@
       <c r="Q6" t="n" s="2">
         <v>560.0</v>
       </c>
+      <c r="R6" t="n" s="2">
+        <v>10145.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>41.0</v>
@@ -790,9 +798,9 @@
         <v>575.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="s" s="2">
-        <v>164</v>
+    <row r="9">
+      <c r="B9" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +810,7 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="M10" t="n">
         <v>1.0</v>
       </c>
       <c r="R10" t="n">
@@ -816,7 +824,7 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="O11" t="n">
+      <c r="F11" t="n">
         <v>1.0</v>
       </c>
       <c r="R11" t="n">
@@ -830,7 +838,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="n">
+      <c r="D12" t="n">
         <v>1.0</v>
       </c>
       <c r="R12" t="n">
@@ -844,7 +852,7 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="H13" t="n">
         <v>1.0</v>
       </c>
       <c r="R13" t="n">
@@ -858,7 +866,7 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="H14" t="n">
         <v>1.0</v>
       </c>
       <c r="R14" t="n">
@@ -872,7 +880,7 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>1.0</v>
       </c>
       <c r="R15" t="n">
@@ -886,7 +894,7 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>1.0</v>
       </c>
       <c r="R16" t="n">
@@ -900,7 +908,7 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
         <v>1.0</v>
       </c>
       <c r="R17" t="n">
@@ -914,7 +922,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1.0</v>
       </c>
       <c r="R18" t="n">
@@ -928,7 +936,7 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="I19" t="n">
+      <c r="P19" t="n">
         <v>1.0</v>
       </c>
       <c r="R19" t="n">
@@ -942,10 +950,10 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.0</v>
       </c>
       <c r="R20" t="n">
@@ -962,7 +970,7 @@
       <c r="F21" t="n">
         <v>1.0</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="R21" t="n">
@@ -976,13 +984,13 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="R22" t="n">
@@ -996,13 +1004,13 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="D23" t="n">
         <v>1.0</v>
       </c>
       <c r="O23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.0</v>
       </c>
       <c r="R23" t="n">
@@ -1016,13 +1024,13 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
-      <c r="O24" t="n">
+      <c r="H24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.0</v>
       </c>
       <c r="R24" t="n">
@@ -1036,13 +1044,13 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.0</v>
       </c>
       <c r="R25" t="n">
@@ -1056,23 +1064,26 @@
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F26" t="n">
         <v>1.0</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.0</v>
       </c>
       <c r="L26" t="n">
         <v>1.0</v>
       </c>
+      <c r="O26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -1085,17 +1096,23 @@
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
       </c>
-      <c r="P27" t="n">
+      <c r="K27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -1105,16 +1122,16 @@
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>1.0</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
       </c>
-      <c r="H28" t="n">
+      <c r="G28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.0</v>
       </c>
       <c r="R28" t="n">
@@ -1134,20 +1151,17 @@
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
-      <c r="E29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="I29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
@@ -1157,7 +1171,10 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="n">
+      <c r="F30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.0</v>
       </c>
       <c r="H30" t="n">
@@ -1166,14 +1183,14 @@
       <c r="I30" t="n">
         <v>1.0</v>
       </c>
+      <c r="K30" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L30" t="n">
         <v>1.0</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -1183,23 +1200,26 @@
       <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F31" t="n">
         <v>1.0</v>
       </c>
-      <c r="H31" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I31" t="n">
         <v>1.0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="J31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1.0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -1212,14 +1232,23 @@
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
+      <c r="E32" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F32" t="n">
         <v>1.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -1229,26 +1258,23 @@
       <c r="B33" t="s">
         <v>24</v>
       </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E33" t="n">
         <v>1.0</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H33" t="n">
         <v>1.0</v>
       </c>
       <c r="L33" t="n">
         <v>1.0</v>
       </c>
-      <c r="N33" t="n">
-        <v>1.0</v>
-      </c>
       <c r="O33" t="n">
         <v>1.0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1258,20 +1284,26 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I34" t="n">
         <v>1.0</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>1.0</v>
       </c>
       <c r="O34" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R34" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -1281,20 +1313,26 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E35" t="n">
         <v>1.0</v>
       </c>
-      <c r="F35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1.0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -1304,13 +1342,13 @@
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="n">
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P36" t="n">
         <v>1.0</v>
       </c>
       <c r="R36" t="n">
@@ -1324,26 +1362,20 @@
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="n">
         <v>1.0</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="K37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -1356,19 +1388,19 @@
       <c r="F38" t="n">
         <v>1.0</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H38" t="n">
         <v>1.0</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
       </c>
+      <c r="J38" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K38" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="L38" t="n">
         <v>1.0</v>
       </c>
       <c r="R38" t="n">
@@ -1382,22 +1414,22 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H39" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q39" t="n">
         <v>1.0</v>
       </c>
       <c r="R39" t="n">
@@ -1411,22 +1443,22 @@
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
+      <c r="E40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H40" t="n">
         <v>1.0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O40" t="n">
         <v>1.0</v>
       </c>
       <c r="R40" t="n">
@@ -1440,17 +1472,26 @@
       <c r="B41" t="s">
         <v>32</v>
       </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E41" t="n">
         <v>1.0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.0</v>
       </c>
       <c r="L41" t="n">
         <v>1.0</v>
       </c>
+      <c r="O41" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R41" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -1468,7 +1509,7 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="n">
+      <c r="C43" t="n">
         <v>1.0</v>
       </c>
       <c r="R43" t="n">
@@ -1485,7 +1526,7 @@
       <c r="C44" t="n">
         <v>1.0</v>
       </c>
-      <c r="I44" t="n">
+      <c r="P44" t="n">
         <v>1.0</v>
       </c>
       <c r="R44" t="n">
@@ -1502,7 +1543,7 @@
       <c r="E45" t="n">
         <v>1.0</v>
       </c>
-      <c r="I45" t="n">
+      <c r="F45" t="n">
         <v>1.0</v>
       </c>
       <c r="R45" t="n">
@@ -1516,10 +1557,10 @@
       <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="F46" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L46" t="n">
         <v>1.0</v>
       </c>
       <c r="R46" t="n">
@@ -1533,10 +1574,10 @@
       <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="H47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="L47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P47" t="n">
         <v>1.0</v>
       </c>
       <c r="R47" t="n">
@@ -1550,13 +1591,13 @@
       <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="E48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.0</v>
       </c>
       <c r="R48" t="n">
@@ -1570,13 +1611,13 @@
       <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.0</v>
       </c>
       <c r="R49" t="n">
@@ -1590,23 +1631,26 @@
       <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E50" t="n">
         <v>1.0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="F50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O50" t="n">
         <v>1.0</v>
       </c>
       <c r="R50" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1619,23 +1663,20 @@
       <c r="C51" t="n">
         <v>1.0</v>
       </c>
-      <c r="D51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="E51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.0</v>
       </c>
       <c r="L51" t="n">
         <v>1.0</v>
       </c>
-      <c r="O51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R51" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
@@ -1645,26 +1686,23 @@
       <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="E52" t="n">
+      <c r="D52" t="n">
         <v>1.0</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
-      <c r="H52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="K52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O52" t="n">
         <v>1.0</v>
       </c>
       <c r="R52" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
@@ -1674,22 +1712,22 @@
       <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
       </c>
-      <c r="G53" t="n">
+      <c r="F53" t="n">
         <v>1.0</v>
       </c>
       <c r="H53" t="n">
         <v>1.0</v>
       </c>
-      <c r="L53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P53" t="n">
+      <c r="I53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O53" t="n">
         <v>1.0</v>
       </c>
       <c r="R53" t="n">
@@ -1706,14 +1744,23 @@
       <c r="C54" t="n">
         <v>1.0</v>
       </c>
-      <c r="D54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q54" t="n">
         <v>1.0</v>
       </c>
       <c r="R54" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
@@ -1723,20 +1770,26 @@
       <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="C55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1.0</v>
       </c>
       <c r="L55" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q55" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R55" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -1746,22 +1799,22 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F56" t="n">
         <v>1.0</v>
       </c>
       <c r="G56" t="n">
         <v>1.0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q56" t="n">
+      <c r="H56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="n">
         <v>1.0</v>
       </c>
       <c r="R56" t="n">
@@ -1781,20 +1834,17 @@
       <c r="H57" t="n">
         <v>1.0</v>
       </c>
-      <c r="K57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L57" t="n">
         <v>1.0</v>
       </c>
       <c r="P57" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R57" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
@@ -1804,23 +1854,14 @@
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="C58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I58" t="n">
         <v>1.0</v>
       </c>
+      <c r="L58" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R58" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1830,17 +1871,26 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="G59" t="n">
+      <c r="C59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="n">
         <v>1.0</v>
       </c>
       <c r="L59" t="n">
         <v>1.0</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>1.0</v>
       </c>
       <c r="R59" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -1850,20 +1900,23 @@
       <c r="B60" t="s">
         <v>51</v>
       </c>
+      <c r="E60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I60" t="n">
         <v>1.0</v>
       </c>
-      <c r="L60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q60" t="n">
         <v>1.0</v>
       </c>
       <c r="R60" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
@@ -1876,17 +1929,23 @@
       <c r="C61" t="n">
         <v>1.0</v>
       </c>
+      <c r="D61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G61" t="n">
         <v>1.0</v>
       </c>
-      <c r="L61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q61" t="n">
+      <c r="H61" t="n">
         <v>1.0</v>
       </c>
       <c r="R61" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -1896,9 +1955,6 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="D62" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E62" t="n">
         <v>1.0</v>
       </c>
@@ -1908,7 +1964,10 @@
       <c r="H62" t="n">
         <v>1.0</v>
       </c>
-      <c r="K62" t="n">
+      <c r="I62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L62" t="n">
         <v>1.0</v>
       </c>
       <c r="P62" t="n">
@@ -1931,20 +1990,17 @@
       <c r="E63" t="n">
         <v>1.0</v>
       </c>
-      <c r="H63" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I63" t="n">
         <v>1.0</v>
       </c>
-      <c r="K63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="L63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>1.0</v>
       </c>
       <c r="R63" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
@@ -1954,23 +2010,20 @@
       <c r="B64" t="s">
         <v>55</v>
       </c>
-      <c r="D64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="C64" t="n">
         <v>1.0</v>
       </c>
       <c r="K64" t="n">
         <v>1.0</v>
       </c>
+      <c r="L64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R64" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
@@ -1980,13 +2033,7 @@
       <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="C65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="D65" t="n">
         <v>1.0</v>
       </c>
       <c r="G65" t="n">
@@ -1995,11 +2042,14 @@
       <c r="H65" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="K65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O65" t="n">
         <v>1.0</v>
       </c>
       <c r="R65" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="66">
@@ -2009,23 +2059,20 @@
       <c r="B66" t="s">
         <v>57</v>
       </c>
-      <c r="C66" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K66" t="n">
         <v>1.0</v>
       </c>
-      <c r="L66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>1.0</v>
       </c>
       <c r="R66" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
@@ -2035,26 +2082,20 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="C67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H67" t="n">
         <v>1.0</v>
       </c>
-      <c r="L67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.0</v>
       </c>
       <c r="R67" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -2064,13 +2105,13 @@
       <c r="B68" t="s">
         <v>59</v>
       </c>
-      <c r="D68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="E68" t="n">
         <v>1.0</v>
       </c>
       <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O68" t="n">
         <v>1.0</v>
       </c>
       <c r="R68" t="n">
@@ -2084,13 +2125,13 @@
       <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="E69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="C69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F69" t="n">
         <v>1.0</v>
       </c>
       <c r="R69" t="n">
@@ -2104,26 +2145,11 @@
       <c r="B70" t="s">
         <v>61</v>
       </c>
-      <c r="D70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O70" t="n">
+      <c r="G70" t="n">
         <v>1.0</v>
       </c>
       <c r="R70" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2133,20 +2159,23 @@
       <c r="B71" t="s">
         <v>62</v>
       </c>
+      <c r="D71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F71" t="n">
         <v>1.0</v>
       </c>
       <c r="I71" t="n">
         <v>1.0</v>
       </c>
-      <c r="K71" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q71" t="n">
         <v>1.0</v>
       </c>
       <c r="R71" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
@@ -2156,10 +2185,7 @@
       <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="F72" t="n">
         <v>1.0</v>
       </c>
       <c r="G72" t="n">
@@ -2171,11 +2197,11 @@
       <c r="I72" t="n">
         <v>1.0</v>
       </c>
-      <c r="O72" t="n">
+      <c r="L72" t="n">
         <v>1.0</v>
       </c>
       <c r="R72" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="73">
@@ -2185,20 +2211,14 @@
       <c r="B73" t="s">
         <v>64</v>
       </c>
-      <c r="F73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O73" t="n">
+      <c r="D73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I73" t="n">
         <v>1.0</v>
       </c>
       <c r="R73" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2208,22 +2228,22 @@
       <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="C74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="D74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G74" t="n">
         <v>1.0</v>
       </c>
       <c r="H74" t="n">
         <v>1.0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P74" t="n">
+      <c r="O74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>1.0</v>
       </c>
       <c r="R74" t="n">
@@ -2237,20 +2257,14 @@
       <c r="B75" t="s">
         <v>66</v>
       </c>
-      <c r="E75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L75" t="n">
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P75" t="n">
         <v>1.0</v>
       </c>
       <c r="R75" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2260,14 +2274,26 @@
       <c r="B76" t="s">
         <v>67</v>
       </c>
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E76" t="n">
         <v>1.0</v>
       </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O76" t="n">
         <v>1.0</v>
       </c>
       <c r="R76" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -2277,15 +2303,12 @@
       <c r="B77" t="s">
         <v>68</v>
       </c>
+      <c r="D77" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F77" t="n">
         <v>1.0</v>
       </c>
-      <c r="G77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I77" t="n">
         <v>1.0</v>
       </c>
@@ -2293,7 +2316,7 @@
         <v>1.0</v>
       </c>
       <c r="R77" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
@@ -2303,13 +2326,16 @@
       <c r="B78" t="s">
         <v>69</v>
       </c>
-      <c r="K78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M78" t="n">
+      <c r="C78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I78" t="n">
         <v>1.0</v>
       </c>
       <c r="P78" t="n">
@@ -2319,7 +2345,7 @@
         <v>1.0</v>
       </c>
       <c r="R78" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2355,7 @@
       <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="E79" t="n">
+      <c r="J79" t="n">
         <v>1.0</v>
       </c>
       <c r="R79" t="n">
@@ -2343,7 +2369,7 @@
       <c r="B80" t="s">
         <v>71</v>
       </c>
-      <c r="C80" t="n">
+      <c r="O80" t="n">
         <v>1.0</v>
       </c>
       <c r="R80" t="n">
@@ -2357,7 +2383,7 @@
       <c r="B81" t="s">
         <v>72</v>
       </c>
-      <c r="O81" t="n">
+      <c r="L81" t="n">
         <v>1.0</v>
       </c>
       <c r="R81" t="n">
@@ -2371,7 +2397,7 @@
       <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>1.0</v>
       </c>
       <c r="R82" t="n">
@@ -2385,7 +2411,7 @@
       <c r="B83" t="s">
         <v>74</v>
       </c>
-      <c r="K83" t="n">
+      <c r="D83" t="n">
         <v>1.0</v>
       </c>
       <c r="R83" t="n">
@@ -2399,7 +2425,7 @@
       <c r="B84" t="s">
         <v>75</v>
       </c>
-      <c r="L84" t="n">
+      <c r="K84" t="n">
         <v>1.0</v>
       </c>
       <c r="R84" t="n">
@@ -2413,7 +2439,7 @@
       <c r="B85" t="s">
         <v>76</v>
       </c>
-      <c r="C85" t="n">
+      <c r="H85" t="n">
         <v>1.0</v>
       </c>
       <c r="R85" t="n">
@@ -2427,10 +2453,10 @@
       <c r="B86" t="s">
         <v>77</v>
       </c>
-      <c r="D86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="M86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N86" t="n">
         <v>1.0</v>
       </c>
       <c r="R86" t="n">
@@ -2444,10 +2470,10 @@
       <c r="B87" t="s">
         <v>78</v>
       </c>
-      <c r="H87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K87" t="n">
+      <c r="F87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I87" t="n">
         <v>1.0</v>
       </c>
       <c r="R87" t="n">
@@ -2461,10 +2487,10 @@
       <c r="B88" t="s">
         <v>79</v>
       </c>
-      <c r="C88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K88" t="n">
+      <c r="E88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F88" t="n">
         <v>1.0</v>
       </c>
       <c r="R88" t="n">
@@ -2478,10 +2504,10 @@
       <c r="B89" t="s">
         <v>80</v>
       </c>
-      <c r="I89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M89" t="n">
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" t="n">
         <v>1.0</v>
       </c>
       <c r="R89" t="n">
@@ -2495,13 +2521,13 @@
       <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="J90" t="n">
+      <c r="D90" t="n">
         <v>1.0</v>
       </c>
       <c r="L90" t="n">
         <v>1.0</v>
       </c>
-      <c r="P90" t="n">
+      <c r="O90" t="n">
         <v>1.0</v>
       </c>
       <c r="R90" t="n">
@@ -2515,14 +2541,17 @@
       <c r="B91" t="s">
         <v>82</v>
       </c>
-      <c r="H91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P91" t="n">
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M91" t="n">
         <v>1.0</v>
       </c>
       <c r="R91" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="92">
@@ -2532,13 +2561,13 @@
       <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="F92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P92" t="n">
+      <c r="C92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I92" t="n">
         <v>1.0</v>
       </c>
       <c r="R92" t="n">
@@ -2552,13 +2581,13 @@
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="D93" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F93" t="n">
         <v>1.0</v>
       </c>
-      <c r="M93" t="n">
+      <c r="I93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O93" t="n">
         <v>1.0</v>
       </c>
       <c r="R93" t="n">
@@ -2572,10 +2601,10 @@
       <c r="B94" t="s">
         <v>85</v>
       </c>
-      <c r="E94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M94" t="n">
         <v>1.0</v>
       </c>
       <c r="O94" t="n">
@@ -2592,13 +2621,13 @@
       <c r="B95" t="s">
         <v>86</v>
       </c>
-      <c r="I95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O95" t="n">
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q95" t="n">
         <v>1.0</v>
       </c>
       <c r="R95" t="n">
@@ -2612,13 +2641,13 @@
       <c r="B96" t="s">
         <v>87</v>
       </c>
+      <c r="C96" t="n">
+        <v>1.0</v>
+      </c>
       <c r="D96" t="n">
         <v>1.0</v>
       </c>
-      <c r="E96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>1.0</v>
       </c>
       <c r="R96" t="n">
@@ -2635,16 +2664,16 @@
       <c r="E97" t="n">
         <v>1.0</v>
       </c>
-      <c r="F97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H97" t="n">
         <v>1.0</v>
       </c>
-      <c r="K97" t="n">
+      <c r="I97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q97" t="n">
         <v>1.0</v>
       </c>
       <c r="R97" t="n">
@@ -2658,22 +2687,22 @@
       <c r="B98" t="s">
         <v>89</v>
       </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>1.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
       </c>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
         <v>1.0</v>
       </c>
       <c r="I98" t="n">
         <v>1.0</v>
       </c>
-      <c r="K98" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P98" t="n">
         <v>1.0</v>
       </c>
       <c r="R98" t="n">
@@ -2687,23 +2716,20 @@
       <c r="B99" t="s">
         <v>90</v>
       </c>
-      <c r="D99" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E99" t="n">
         <v>1.0</v>
       </c>
-      <c r="H99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O99" t="n">
+      <c r="G99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q99" t="n">
         <v>1.0</v>
       </c>
       <c r="R99" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="100">
@@ -2713,23 +2739,20 @@
       <c r="B100" t="s">
         <v>91</v>
       </c>
+      <c r="C100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G100" t="n">
         <v>1.0</v>
       </c>
-      <c r="H100" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I100" t="n">
         <v>1.0</v>
       </c>
-      <c r="P100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R100" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
@@ -2739,26 +2762,20 @@
       <c r="B101" t="s">
         <v>92</v>
       </c>
-      <c r="E101" t="n">
+      <c r="D101" t="n">
         <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>1.0</v>
       </c>
-      <c r="L101" t="n">
+      <c r="I101" t="n">
         <v>1.0</v>
       </c>
       <c r="O101" t="n">
         <v>1.0</v>
       </c>
-      <c r="P101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R101" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
@@ -2771,19 +2788,19 @@
       <c r="D102" t="n">
         <v>1.0</v>
       </c>
-      <c r="G102" t="n">
+      <c r="E102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F102" t="n">
         <v>1.0</v>
       </c>
       <c r="I102" t="n">
         <v>1.0</v>
       </c>
+      <c r="L102" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q102" t="n">
         <v>1.0</v>
       </c>
       <c r="R102" t="n">
@@ -2797,26 +2814,23 @@
       <c r="B103" t="s">
         <v>94</v>
       </c>
-      <c r="D103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G103" t="n">
         <v>1.0</v>
       </c>
       <c r="H103" t="n">
         <v>1.0</v>
       </c>
+      <c r="L103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P103" t="n">
         <v>1.0</v>
       </c>
       <c r="R103" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="104">
@@ -2826,22 +2840,22 @@
       <c r="B104" t="s">
         <v>95</v>
       </c>
-      <c r="C104" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D104" t="n">
         <v>1.0</v>
       </c>
-      <c r="E104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H104" t="n">
         <v>1.0</v>
       </c>
       <c r="I104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q104" t="n">
         <v>1.0</v>
       </c>
       <c r="R104" t="n">
@@ -2855,23 +2869,20 @@
       <c r="B105" t="s">
         <v>96</v>
       </c>
-      <c r="C105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H105" t="n">
         <v>1.0</v>
       </c>
+      <c r="I105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R105" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
@@ -2881,26 +2892,23 @@
       <c r="B106" t="s">
         <v>97</v>
       </c>
-      <c r="C106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="D106" t="n">
         <v>1.0</v>
       </c>
       <c r="G106" t="n">
         <v>1.0</v>
       </c>
-      <c r="M106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P106" t="n">
+      <c r="H106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O106" t="n">
         <v>1.0</v>
       </c>
       <c r="Q106" t="n">
         <v>1.0</v>
       </c>
       <c r="R106" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="107">
@@ -2913,7 +2921,7 @@
       <c r="C107" t="n">
         <v>1.0</v>
       </c>
-      <c r="E107" t="n">
+      <c r="D107" t="n">
         <v>1.0</v>
       </c>
       <c r="F107" t="n">
@@ -2922,10 +2930,10 @@
       <c r="G107" t="n">
         <v>1.0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K107" t="n">
+      <c r="O107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q107" t="n">
         <v>1.0</v>
       </c>
       <c r="R107" t="n">
@@ -2939,26 +2947,23 @@
       <c r="B108" t="s">
         <v>99</v>
       </c>
-      <c r="D108" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E108" t="n">
         <v>1.0</v>
       </c>
-      <c r="G108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K108" t="n">
+      <c r="F108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P108" t="n">
         <v>1.0</v>
       </c>
       <c r="R108" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="109">
@@ -2968,19 +2973,19 @@
       <c r="B109" t="s">
         <v>100</v>
       </c>
-      <c r="E109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>1.0</v>
       </c>
       <c r="H109" t="n">
         <v>1.0</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>1.0</v>
       </c>
       <c r="L109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P109" t="n">
         <v>1.0</v>
       </c>
       <c r="R109" t="n">
@@ -2997,23 +3002,14 @@
       <c r="C110" t="n">
         <v>1.0</v>
       </c>
-      <c r="D110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K110" t="n">
+      <c r="I110" t="n">
         <v>1.0</v>
       </c>
       <c r="L110" t="n">
         <v>1.0</v>
       </c>
       <c r="R110" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
@@ -3023,20 +3019,17 @@
       <c r="B111" t="s">
         <v>102</v>
       </c>
-      <c r="E111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K111" t="n">
+      <c r="I111" t="n">
         <v>1.0</v>
       </c>
       <c r="L111" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R111" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -3046,22 +3039,22 @@
       <c r="B112" t="s">
         <v>103</v>
       </c>
-      <c r="D112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H112" t="n">
+      <c r="F112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G112" t="n">
         <v>1.0</v>
       </c>
       <c r="I112" t="n">
         <v>1.0</v>
       </c>
-      <c r="L112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O112" t="n">
+      <c r="M112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q112" t="n">
         <v>1.0</v>
       </c>
       <c r="R112" t="n">
@@ -3078,19 +3071,19 @@
       <c r="C113" t="n">
         <v>1.0</v>
       </c>
-      <c r="D113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>1.0</v>
       </c>
       <c r="H113" t="n">
         <v>1.0</v>
       </c>
+      <c r="I113" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K113" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="L113" t="n">
         <v>1.0</v>
       </c>
       <c r="R113" t="n">
@@ -3104,14 +3097,23 @@
       <c r="B114" t="s">
         <v>105</v>
       </c>
-      <c r="F114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L114" t="n">
+      <c r="C114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P114" t="n">
         <v>1.0</v>
       </c>
       <c r="R114" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="115">
@@ -3130,17 +3132,11 @@
       <c r="G115" t="n">
         <v>1.0</v>
       </c>
-      <c r="H115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P115" t="n">
+      <c r="L115" t="n">
         <v>1.0</v>
       </c>
       <c r="R115" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
@@ -3150,26 +3146,23 @@
       <c r="B116" t="s">
         <v>107</v>
       </c>
-      <c r="E116" t="n">
+      <c r="D116" t="n">
         <v>1.0</v>
       </c>
       <c r="F116" t="n">
         <v>1.0</v>
       </c>
-      <c r="G116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K116" t="n">
         <v>1.0</v>
       </c>
       <c r="L116" t="n">
         <v>1.0</v>
       </c>
-      <c r="O116" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R116" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="117">
@@ -3182,19 +3175,19 @@
       <c r="D117" t="n">
         <v>1.0</v>
       </c>
-      <c r="F117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K117" t="n">
+      <c r="E117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O117" t="n">
         <v>1.0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q117" t="n">
         <v>1.0</v>
       </c>
       <c r="R117" t="n">
@@ -3208,7 +3201,7 @@
       <c r="B118" t="s">
         <v>109</v>
       </c>
-      <c r="G118" t="n">
+      <c r="M118" t="n">
         <v>1.0</v>
       </c>
       <c r="R118" t="n">
@@ -3236,7 +3229,7 @@
       <c r="B120" t="s">
         <v>111</v>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>1.0</v>
       </c>
       <c r="R120" t="n">
@@ -3250,7 +3243,7 @@
       <c r="B121" t="s">
         <v>112</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>1.0</v>
       </c>
       <c r="R121" t="n">
@@ -3267,10 +3260,10 @@
       <c r="E122" t="n">
         <v>1.0</v>
       </c>
-      <c r="F122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L122" t="n">
+      <c r="I122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P122" t="n">
         <v>1.0</v>
       </c>
       <c r="R122" t="n">
@@ -3284,7 +3277,7 @@
       <c r="B123" t="s">
         <v>114</v>
       </c>
-      <c r="F123" t="n">
+      <c r="E123" t="n">
         <v>1.0</v>
       </c>
       <c r="I123" t="n">
@@ -3304,13 +3297,13 @@
       <c r="B124" t="s">
         <v>115</v>
       </c>
-      <c r="D124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="K124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q124" t="n">
         <v>1.0</v>
       </c>
       <c r="R124" t="n">
@@ -3327,10 +3320,10 @@
       <c r="C125" t="n">
         <v>1.0</v>
       </c>
-      <c r="K125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q125" t="n">
+      <c r="D125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G125" t="n">
         <v>1.0</v>
       </c>
       <c r="R125" t="n">
@@ -3344,13 +3337,13 @@
       <c r="B126" t="s">
         <v>117</v>
       </c>
-      <c r="F126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q126" t="n">
+      <c r="G126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P126" t="n">
         <v>1.0</v>
       </c>
       <c r="R126" t="n">
@@ -3367,10 +3360,10 @@
       <c r="E127" t="n">
         <v>1.0</v>
       </c>
-      <c r="G127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L127" t="n">
+      <c r="H127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P127" t="n">
         <v>1.0</v>
       </c>
       <c r="R127" t="n">
@@ -3384,13 +3377,13 @@
       <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="D128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L128" t="n">
         <v>1.0</v>
       </c>
       <c r="R128" t="n">
@@ -3407,10 +3400,10 @@
       <c r="C129" t="n">
         <v>1.0</v>
       </c>
-      <c r="G129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K129" t="n">
+      <c r="H129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P129" t="n">
         <v>1.0</v>
       </c>
       <c r="R129" t="n">
@@ -3424,13 +3417,13 @@
       <c r="B130" t="s">
         <v>121</v>
       </c>
+      <c r="F130" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G130" t="n">
         <v>1.0</v>
       </c>
-      <c r="H130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O130" t="n">
+      <c r="I130" t="n">
         <v>1.0</v>
       </c>
       <c r="R130" t="n">
@@ -3444,13 +3437,13 @@
       <c r="B131" t="s">
         <v>122</v>
       </c>
-      <c r="D131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O131" t="n">
+      <c r="F131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K131" t="n">
         <v>1.0</v>
       </c>
       <c r="R131" t="n">
@@ -3464,22 +3457,22 @@
       <c r="B132" t="s">
         <v>123</v>
       </c>
-      <c r="C132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E132" t="n">
         <v>1.0</v>
       </c>
-      <c r="I132" t="n">
+      <c r="L132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M132" t="n">
         <v>1.0</v>
       </c>
       <c r="O132" t="n">
         <v>1.0</v>
       </c>
       <c r="P132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q132" t="n">
         <v>1.0</v>
       </c>
       <c r="R132" t="n">
@@ -3493,23 +3486,26 @@
       <c r="B133" t="s">
         <v>124</v>
       </c>
-      <c r="F133" t="n">
+      <c r="C133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D133" t="n">
         <v>1.0</v>
       </c>
       <c r="G133" t="n">
         <v>1.0</v>
       </c>
+      <c r="H133" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I133" t="n">
         <v>1.0</v>
       </c>
       <c r="L133" t="n">
         <v>1.0</v>
       </c>
-      <c r="O133" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R133" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="134">
@@ -3519,7 +3515,7 @@
       <c r="B134" t="s">
         <v>125</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="D134" t="n">
         <v>1.0</v>
       </c>
       <c r="R134" t="n">
@@ -3533,13 +3529,13 @@
       <c r="B135" t="s">
         <v>126</v>
       </c>
+      <c r="E135" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F135" t="n">
         <v>1.0</v>
       </c>
-      <c r="H135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L135" t="n">
+      <c r="G135" t="n">
         <v>1.0</v>
       </c>
       <c r="R135" t="n">
@@ -3553,13 +3549,13 @@
       <c r="B136" t="s">
         <v>127</v>
       </c>
-      <c r="F136" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H136" t="n">
         <v>1.0</v>
       </c>
-      <c r="L136" t="n">
+      <c r="K136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" t="n">
         <v>1.0</v>
       </c>
       <c r="R136" t="n">
@@ -3573,10 +3569,10 @@
       <c r="B137" t="s">
         <v>128</v>
       </c>
-      <c r="C137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F137" t="n">
         <v>1.0</v>
       </c>
       <c r="L137" t="n">
@@ -3593,17 +3589,14 @@
       <c r="B138" t="s">
         <v>129</v>
       </c>
-      <c r="C138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q138" t="n">
         <v>1.0</v>
       </c>
       <c r="R138" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="139">
@@ -3613,22 +3606,22 @@
       <c r="B139" t="s">
         <v>123</v>
       </c>
-      <c r="C139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E139" t="n">
         <v>1.0</v>
       </c>
-      <c r="I139" t="n">
+      <c r="L139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M139" t="n">
         <v>1.0</v>
       </c>
       <c r="O139" t="n">
         <v>1.0</v>
       </c>
       <c r="P139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q139" t="n">
         <v>1.0</v>
       </c>
       <c r="R139" t="n">
@@ -3642,23 +3635,26 @@
       <c r="B140" t="s">
         <v>124</v>
       </c>
-      <c r="F140" t="n">
+      <c r="C140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D140" t="n">
         <v>1.0</v>
       </c>
       <c r="G140" t="n">
         <v>1.0</v>
       </c>
+      <c r="H140" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I140" t="n">
         <v>1.0</v>
       </c>
       <c r="L140" t="n">
         <v>1.0</v>
       </c>
-      <c r="O140" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R140" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="141">
@@ -3668,7 +3664,7 @@
       <c r="B141" t="s">
         <v>130</v>
       </c>
-      <c r="K141" t="n">
+      <c r="L141" t="n">
         <v>1.0</v>
       </c>
       <c r="R141" t="n">
@@ -3682,7 +3678,7 @@
       <c r="B142" t="s">
         <v>131</v>
       </c>
-      <c r="I142" t="n">
+      <c r="F142" t="n">
         <v>1.0</v>
       </c>
       <c r="R142" t="n">
@@ -3696,13 +3692,13 @@
       <c r="B143" t="s">
         <v>132</v>
       </c>
-      <c r="E143" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G143" t="n">
         <v>1.0</v>
       </c>
-      <c r="M143" t="n">
+      <c r="H143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q143" t="n">
         <v>1.0</v>
       </c>
       <c r="R143" t="n">
@@ -3716,13 +3712,13 @@
       <c r="B144" t="s">
         <v>133</v>
       </c>
-      <c r="G144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="F144" t="n">
         <v>1.0</v>
       </c>
       <c r="K144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O144" t="n">
         <v>1.0</v>
       </c>
       <c r="R144" t="n">
@@ -3739,10 +3735,10 @@
       <c r="C145" t="n">
         <v>1.0</v>
       </c>
-      <c r="D145" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M145" t="n">
+      <c r="H145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K145" t="n">
         <v>1.0</v>
       </c>
       <c r="R145" t="n">
@@ -3756,13 +3752,13 @@
       <c r="B146" t="s">
         <v>135</v>
       </c>
-      <c r="H146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M146" t="n">
+      <c r="D146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F146" t="n">
         <v>1.0</v>
       </c>
       <c r="R146" t="n">
@@ -3788,14 +3784,11 @@
       <c r="H147" t="n">
         <v>1.0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M147" t="n">
+      <c r="Q147" t="n">
         <v>1.0</v>
       </c>
       <c r="R147" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="148">
@@ -3808,23 +3801,20 @@
       <c r="C148" t="n">
         <v>1.0</v>
       </c>
+      <c r="F148" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H148" t="n">
         <v>1.0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L148" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R148" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="149">
@@ -3834,7 +3824,7 @@
       <c r="B149" t="s">
         <v>138</v>
       </c>
-      <c r="I149" t="n">
+      <c r="O149" t="n">
         <v>1.0</v>
       </c>
       <c r="R149" t="n">
@@ -3848,7 +3838,7 @@
       <c r="B150" t="s">
         <v>139</v>
       </c>
-      <c r="I150" t="n">
+      <c r="O150" t="n">
         <v>1.0</v>
       </c>
       <c r="R150" t="n">
@@ -3862,10 +3852,10 @@
       <c r="B151" t="s">
         <v>140</v>
       </c>
-      <c r="E151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q151" t="n">
+      <c r="L151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O151" t="n">
         <v>1.0</v>
       </c>
       <c r="R151" t="n">
@@ -3879,13 +3869,13 @@
       <c r="B152" t="s">
         <v>141</v>
       </c>
+      <c r="E152" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G152" t="n">
         <v>1.0</v>
       </c>
-      <c r="K152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P152" t="n">
+      <c r="H152" t="n">
         <v>1.0</v>
       </c>
       <c r="R152" t="n">
@@ -3902,10 +3892,10 @@
       <c r="C153" t="n">
         <v>1.0</v>
       </c>
-      <c r="E153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O153" t="n">
+      <c r="D153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G153" t="n">
         <v>1.0</v>
       </c>
       <c r="R153" t="n">
@@ -3919,26 +3909,23 @@
       <c r="B154" t="s">
         <v>143</v>
       </c>
+      <c r="C154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F154" t="n">
         <v>1.0</v>
       </c>
       <c r="G154" t="n">
         <v>1.0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P154" t="n">
+      <c r="H154" t="n">
         <v>1.0</v>
       </c>
       <c r="R154" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="155">
@@ -3948,15 +3935,18 @@
       <c r="B155" t="s">
         <v>144</v>
       </c>
+      <c r="F155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.0</v>
+      </c>
       <c r="I155" t="n">
         <v>1.0</v>
       </c>
       <c r="K155" t="n">
         <v>1.0</v>
       </c>
-      <c r="M155" t="n">
-        <v>1.0</v>
-      </c>
       <c r="O155" t="n">
         <v>1.0</v>
       </c>
@@ -3964,7 +3954,7 @@
         <v>1.0</v>
       </c>
       <c r="R155" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="156">
@@ -3974,19 +3964,19 @@
       <c r="B156" t="s">
         <v>145</v>
       </c>
+      <c r="D156" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E156" t="n">
         <v>1.0</v>
       </c>
       <c r="G156" t="n">
         <v>1.0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P156" t="n">
+      <c r="K156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L156" t="n">
         <v>1.0</v>
       </c>
       <c r="Q156" t="n">
@@ -4020,10 +4010,10 @@
       <c r="B158" t="s">
         <v>147</v>
       </c>
-      <c r="D158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G158" t="n">
+      <c r="F158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.0</v>
       </c>
       <c r="I158" t="n">
@@ -4040,7 +4030,7 @@
       <c r="B159" t="s">
         <v>148</v>
       </c>
-      <c r="I159" t="n">
+      <c r="F159" t="n">
         <v>1.0</v>
       </c>
       <c r="P159" t="n">
@@ -4060,7 +4050,7 @@
       <c r="B160" t="s">
         <v>149</v>
       </c>
-      <c r="G160" t="n">
+      <c r="D160" t="n">
         <v>1.0</v>
       </c>
       <c r="H160" t="n">
@@ -4069,17 +4059,14 @@
       <c r="I160" t="n">
         <v>1.0</v>
       </c>
-      <c r="L160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P160" t="n">
+      <c r="K160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q160" t="n">
         <v>1.0</v>
       </c>
       <c r="R160" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="161">
@@ -4089,19 +4076,19 @@
       <c r="B161" t="s">
         <v>150</v>
       </c>
-      <c r="C161" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D161" t="n">
         <v>1.0</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>1.0</v>
       </c>
       <c r="G161" t="n">
         <v>1.0</v>
       </c>
       <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K161" t="n">
         <v>1.0</v>
       </c>
       <c r="L161" t="n">
@@ -4118,20 +4105,23 @@
       <c r="B162" t="s">
         <v>151</v>
       </c>
+      <c r="C162" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E162" t="n">
         <v>1.0</v>
       </c>
       <c r="G162" t="n">
         <v>1.0</v>
       </c>
-      <c r="K162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P162" t="n">
+      <c r="L162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M162" t="n">
         <v>1.0</v>
       </c>
       <c r="R162" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="163">
@@ -4144,17 +4134,23 @@
       <c r="C163" t="n">
         <v>1.0</v>
       </c>
+      <c r="D163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K163" t="n">
         <v>1.0</v>
       </c>
       <c r="L163" t="n">
         <v>1.0</v>
       </c>
-      <c r="P163" t="n">
+      <c r="O163" t="n">
         <v>1.0</v>
       </c>
       <c r="R163" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="164">
@@ -4164,19 +4160,19 @@
       <c r="B164" t="s">
         <v>153</v>
       </c>
-      <c r="D164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G164" t="n">
+      <c r="C164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K164" t="n">
         <v>1.0</v>
       </c>
       <c r="O164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P164" t="n">
         <v>1.0</v>
       </c>
       <c r="Q164" t="n">
@@ -4193,10 +4189,10 @@
       <c r="B165" t="s">
         <v>154</v>
       </c>
-      <c r="E165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G165" t="n">
+      <c r="H165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q165" t="n">
         <v>1.0</v>
       </c>
       <c r="R165" t="n">
@@ -4210,13 +4206,13 @@
       <c r="B166" t="s">
         <v>155</v>
       </c>
-      <c r="H166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L166" t="n">
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P166" t="n">
         <v>1.0</v>
       </c>
       <c r="R166" t="n">
@@ -4233,14 +4229,23 @@
       <c r="D167" t="n">
         <v>1.0</v>
       </c>
-      <c r="G167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L167" t="n">
+      <c r="E167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K167" t="n">
         <v>1.0</v>
       </c>
       <c r="R167" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="168">
@@ -4256,17 +4261,20 @@
       <c r="D168" t="n">
         <v>1.0</v>
       </c>
-      <c r="E168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M168" t="n">
+      <c r="F168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L168" t="n">
         <v>1.0</v>
       </c>
       <c r="R168" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="169">
@@ -4276,7 +4284,7 @@
       <c r="B169" t="s">
         <v>158</v>
       </c>
-      <c r="D169" t="n">
+      <c r="C169" t="n">
         <v>1.0</v>
       </c>
       <c r="E169" t="n">
@@ -4285,13 +4293,13 @@
       <c r="F169" t="n">
         <v>1.0</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>1.0</v>
       </c>
       <c r="K169" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="L169" t="n">
         <v>1.0</v>
       </c>
       <c r="R169" t="n">
@@ -4305,23 +4313,29 @@
       <c r="B170" t="s">
         <v>159</v>
       </c>
-      <c r="D170" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E170" t="n">
         <v>1.0</v>
       </c>
-      <c r="F170" t="n">
+      <c r="K170" t="n">
         <v>1.0</v>
       </c>
       <c r="L170" t="n">
         <v>1.0</v>
       </c>
+      <c r="O170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R170" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="171">
+      <c r="B171" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C171" t="n">
         <v>42.0</v>
       </c>
@@ -4332,16 +4346,16 @@
         <v>53.0</v>
       </c>
       <c r="F171" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="G171" t="n">
         <v>54.0</v>
       </c>
       <c r="H171" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="I171" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="J171" t="n">
         <v>4.0</v>
@@ -4350,22 +4364,25 @@
         <v>42.0</v>
       </c>
       <c r="L171" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="M171" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="N171" t="n">
         <v>3.0</v>
       </c>
       <c r="O171" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="P171" t="n">
         <v>31.0</v>
       </c>
       <c r="Q171" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="R171" t="n" s="2">
+        <v>575.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="167">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Name(Prof./Dr./Mr./Ms.)</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -810,8 +813,8 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.0</v>
+      <c r="E10" t="s">
+        <v>166</v>
       </c>
       <c r="R10" t="n">
         <v>1.0</v>
@@ -824,8 +827,8 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
-        <v>1.0</v>
+      <c r="L11" t="s">
+        <v>166</v>
       </c>
       <c r="R11" t="n">
         <v>1.0</v>
@@ -838,8 +841,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.0</v>
+      <c r="H12" t="s">
+        <v>166</v>
       </c>
       <c r="R12" t="n">
         <v>1.0</v>
@@ -852,8 +855,8 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.0</v>
+      <c r="D13" t="s">
+        <v>166</v>
       </c>
       <c r="R13" t="n">
         <v>1.0</v>
@@ -866,8 +869,8 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.0</v>
+      <c r="C14" t="s">
+        <v>166</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
@@ -880,8 +883,8 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="N15" t="n">
-        <v>1.0</v>
+      <c r="K15" t="s">
+        <v>166</v>
       </c>
       <c r="R15" t="n">
         <v>1.0</v>
@@ -894,8 +897,8 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.0</v>
+      <c r="H16" t="s">
+        <v>166</v>
       </c>
       <c r="R16" t="n">
         <v>1.0</v>
@@ -908,8 +911,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.0</v>
+      <c r="Q17" t="s">
+        <v>166</v>
       </c>
       <c r="R17" t="n">
         <v>1.0</v>
@@ -922,8 +925,8 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.0</v>
+      <c r="E18" t="s">
+        <v>166</v>
       </c>
       <c r="R18" t="n">
         <v>1.0</v>
@@ -936,8 +939,8 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.0</v>
+      <c r="E19" t="s">
+        <v>166</v>
       </c>
       <c r="R19" t="n">
         <v>1.0</v>
@@ -950,11 +953,11 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.0</v>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>166</v>
       </c>
       <c r="R20" t="n">
         <v>2.0</v>
@@ -967,11 +970,11 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.0</v>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
       </c>
       <c r="R21" t="n">
         <v>2.0</v>
@@ -984,14 +987,14 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.0</v>
+      <c r="G22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
       </c>
       <c r="R22" t="n">
         <v>3.0</v>
@@ -1004,14 +1007,14 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.0</v>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>166</v>
       </c>
       <c r="R23" t="n">
         <v>3.0</v>
@@ -1024,17 +1027,14 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.0</v>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
       </c>
       <c r="R24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -1044,14 +1044,14 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.0</v>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
       </c>
       <c r="R25" t="n">
         <v>3.0</v>
@@ -1064,26 +1064,23 @@
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.0</v>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" t="s">
+        <v>166</v>
       </c>
       <c r="R26" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -1093,26 +1090,23 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.0</v>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
       </c>
       <c r="R27" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -1122,20 +1116,23 @@
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.0</v>
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>166</v>
       </c>
       <c r="R28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
@@ -1145,23 +1142,14 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.0</v>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" t="s">
+        <v>166</v>
       </c>
       <c r="R29" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -1171,23 +1159,23 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.0</v>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" t="s">
+        <v>166</v>
       </c>
       <c r="R30" t="n">
         <v>6.0</v>
@@ -1200,26 +1188,17 @@
       <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.0</v>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" t="s">
+        <v>166</v>
       </c>
       <c r="R31" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1229,23 +1208,23 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.0</v>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" t="s">
+        <v>166</v>
       </c>
       <c r="R32" t="n">
         <v>6.0</v>
@@ -1258,23 +1237,20 @@
       <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.0</v>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" t="s">
+        <v>166</v>
       </c>
       <c r="R33" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -1284,26 +1260,23 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.0</v>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" t="s">
+        <v>166</v>
+      </c>
+      <c r="O34" t="s">
+        <v>166</v>
       </c>
       <c r="R34" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -1313,23 +1286,23 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.0</v>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" t="s">
+        <v>166</v>
+      </c>
+      <c r="O35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" t="s">
+        <v>166</v>
       </c>
       <c r="R35" t="n">
         <v>6.0</v>
@@ -1342,17 +1315,26 @@
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.0</v>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>166</v>
       </c>
       <c r="R36" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -1362,20 +1344,26 @@
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.0</v>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+      <c r="O37" t="s">
+        <v>166</v>
+      </c>
+      <c r="P37" t="s">
+        <v>166</v>
       </c>
       <c r="R37" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -1385,26 +1373,23 @@
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="F38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.0</v>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" t="s">
+        <v>166</v>
       </c>
       <c r="R38" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
@@ -1414,26 +1399,23 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.0</v>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" t="s">
+        <v>166</v>
       </c>
       <c r="R39" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
@@ -1443,23 +1425,23 @@
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.0</v>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" t="s">
+        <v>166</v>
       </c>
       <c r="R40" t="n">
         <v>6.0</v>
@@ -1472,23 +1454,23 @@
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.0</v>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" t="s">
+        <v>166</v>
+      </c>
+      <c r="P41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>166</v>
       </c>
       <c r="R41" t="n">
         <v>6.0</v>
@@ -1509,8 +1491,8 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.0</v>
+      <c r="Q43" t="s">
+        <v>166</v>
       </c>
       <c r="R43" t="n">
         <v>1.0</v>
@@ -1523,11 +1505,11 @@
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.0</v>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" t="s">
+        <v>166</v>
       </c>
       <c r="R44" t="n">
         <v>2.0</v>
@@ -1540,11 +1522,11 @@
       <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="E45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.0</v>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>166</v>
       </c>
       <c r="R45" t="n">
         <v>2.0</v>
@@ -1557,11 +1539,11 @@
       <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.0</v>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>166</v>
       </c>
       <c r="R46" t="n">
         <v>2.0</v>
@@ -1574,11 +1556,11 @@
       <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="L47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.0</v>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+      <c r="O47" t="s">
+        <v>166</v>
       </c>
       <c r="R47" t="n">
         <v>2.0</v>
@@ -1591,14 +1573,14 @@
       <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.0</v>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
       </c>
       <c r="R48" t="n">
         <v>3.0</v>
@@ -1611,14 +1593,14 @@
       <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1.0</v>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+      <c r="M49" t="s">
+        <v>166</v>
       </c>
       <c r="R49" t="n">
         <v>3.0</v>
@@ -1631,26 +1613,23 @@
       <c r="B50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.0</v>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s">
+        <v>166</v>
       </c>
       <c r="R50" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -1660,20 +1639,20 @@
       <c r="B51" t="s">
         <v>42</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.0</v>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
+      <c r="P51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>166</v>
       </c>
       <c r="R51" t="n">
         <v>5.0</v>
@@ -1686,23 +1665,26 @@
       <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="D52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.0</v>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52" t="s">
+        <v>166</v>
+      </c>
+      <c r="O52" t="s">
+        <v>166</v>
       </c>
       <c r="R52" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
@@ -1712,26 +1694,23 @@
       <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="D53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.0</v>
+      <c r="G53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
       </c>
       <c r="R53" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
@@ -1741,23 +1720,23 @@
       <c r="B54" t="s">
         <v>45</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.0</v>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" t="s">
+        <v>166</v>
+      </c>
+      <c r="O54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P54" t="s">
+        <v>166</v>
       </c>
       <c r="R54" t="n">
         <v>6.0</v>
@@ -1770,26 +1749,23 @@
       <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="C55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.0</v>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P55" t="s">
+        <v>166</v>
       </c>
       <c r="R55" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -1799,23 +1775,23 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.0</v>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" t="s">
+        <v>166</v>
+      </c>
+      <c r="L56" t="s">
+        <v>166</v>
+      </c>
+      <c r="M56" t="s">
+        <v>166</v>
       </c>
       <c r="R56" t="n">
         <v>6.0</v>
@@ -1828,23 +1804,20 @@
       <c r="B57" t="s">
         <v>48</v>
       </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.0</v>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" t="s">
+        <v>166</v>
+      </c>
+      <c r="L57" t="s">
+        <v>166</v>
       </c>
       <c r="R57" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -1854,14 +1827,20 @@
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="I58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.0</v>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+      <c r="O58" t="s">
+        <v>166</v>
       </c>
       <c r="R58" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -1871,23 +1850,23 @@
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="C59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.0</v>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>166</v>
       </c>
       <c r="R59" t="n">
         <v>6.0</v>
@@ -1900,23 +1879,26 @@
       <c r="B60" t="s">
         <v>51</v>
       </c>
-      <c r="E60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.0</v>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" t="s">
+        <v>166</v>
       </c>
       <c r="R60" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -1926,26 +1908,20 @@
       <c r="B61" t="s">
         <v>52</v>
       </c>
-      <c r="C61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.0</v>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>166</v>
       </c>
       <c r="R61" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -1955,23 +1931,23 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="E62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.0</v>
+      <c r="F62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" t="s">
+        <v>166</v>
+      </c>
+      <c r="L62" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>166</v>
       </c>
       <c r="R62" t="n">
         <v>6.0</v>
@@ -1984,23 +1960,26 @@
       <c r="B63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.0</v>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" t="s">
+        <v>166</v>
+      </c>
+      <c r="L63" t="s">
+        <v>166</v>
       </c>
       <c r="R63" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -2010,20 +1989,26 @@
       <c r="B64" t="s">
         <v>55</v>
       </c>
-      <c r="C64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.0</v>
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" t="s">
+        <v>166</v>
+      </c>
+      <c r="O64" t="s">
+        <v>166</v>
+      </c>
+      <c r="P64" t="s">
+        <v>166</v>
       </c>
       <c r="R64" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
@@ -2033,23 +2018,20 @@
       <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="D65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.0</v>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" t="s">
+        <v>166</v>
+      </c>
+      <c r="O65" t="s">
+        <v>166</v>
       </c>
       <c r="R65" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -2059,20 +2041,14 @@
       <c r="B66" t="s">
         <v>57</v>
       </c>
-      <c r="D66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.0</v>
+      <c r="I66" t="s">
+        <v>166</v>
+      </c>
+      <c r="K66" t="s">
+        <v>166</v>
       </c>
       <c r="R66" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2082,17 +2058,17 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="H67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.0</v>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
       </c>
       <c r="R67" t="n">
         <v>4.0</v>
@@ -2105,14 +2081,14 @@
       <c r="B68" t="s">
         <v>59</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.0</v>
+      <c r="L68" t="s">
+        <v>166</v>
+      </c>
+      <c r="M68" t="s">
+        <v>166</v>
+      </c>
+      <c r="P68" t="s">
+        <v>166</v>
       </c>
       <c r="R68" t="n">
         <v>3.0</v>
@@ -2125,14 +2101,14 @@
       <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="C69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1.0</v>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" t="s">
+        <v>166</v>
       </c>
       <c r="R69" t="n">
         <v>3.0</v>
@@ -2145,11 +2121,26 @@
       <c r="B70" t="s">
         <v>61</v>
       </c>
-      <c r="G70" t="n">
-        <v>1.0</v>
+      <c r="E70" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" t="s">
+        <v>166</v>
+      </c>
+      <c r="L70" t="s">
+        <v>166</v>
+      </c>
+      <c r="N70" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>166</v>
       </c>
       <c r="R70" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
@@ -2159,20 +2150,20 @@
       <c r="B71" t="s">
         <v>62</v>
       </c>
-      <c r="D71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.0</v>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I71" t="s">
+        <v>166</v>
+      </c>
+      <c r="K71" t="s">
+        <v>166</v>
+      </c>
+      <c r="L71" t="s">
+        <v>166</v>
       </c>
       <c r="R71" t="n">
         <v>5.0</v>
@@ -2185,23 +2176,20 @@
       <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="F72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.0</v>
+      <c r="G72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H72" t="s">
+        <v>166</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="L72" t="s">
+        <v>166</v>
       </c>
       <c r="R72" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -2211,14 +2199,26 @@
       <c r="B73" t="s">
         <v>64</v>
       </c>
-      <c r="D73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.0</v>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" t="s">
+        <v>166</v>
+      </c>
+      <c r="L73" t="s">
+        <v>166</v>
+      </c>
+      <c r="O73" t="s">
+        <v>166</v>
       </c>
       <c r="R73" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
@@ -2228,23 +2228,23 @@
       <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="D74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.0</v>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" t="s">
+        <v>166</v>
+      </c>
+      <c r="K74" t="s">
+        <v>166</v>
       </c>
       <c r="R74" t="n">
         <v>6.0</v>
@@ -2257,14 +2257,26 @@
       <c r="B75" t="s">
         <v>66</v>
       </c>
-      <c r="G75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.0</v>
+      <c r="E75" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" t="s">
+        <v>166</v>
+      </c>
+      <c r="K75" t="s">
+        <v>166</v>
+      </c>
+      <c r="L75" t="s">
+        <v>166</v>
+      </c>
+      <c r="O75" t="s">
+        <v>166</v>
       </c>
       <c r="R75" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
@@ -2274,23 +2286,23 @@
       <c r="B76" t="s">
         <v>67</v>
       </c>
-      <c r="C76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.0</v>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" t="s">
+        <v>166</v>
+      </c>
+      <c r="K76" t="s">
+        <v>166</v>
+      </c>
+      <c r="O76" t="s">
+        <v>166</v>
       </c>
       <c r="R76" t="n">
         <v>6.0</v>
@@ -2303,20 +2315,26 @@
       <c r="B77" t="s">
         <v>68</v>
       </c>
-      <c r="D77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.0</v>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" t="s">
+        <v>166</v>
+      </c>
+      <c r="O77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P77" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>166</v>
       </c>
       <c r="R77" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
@@ -2326,23 +2344,23 @@
       <c r="B78" t="s">
         <v>69</v>
       </c>
-      <c r="C78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.0</v>
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" t="s">
+        <v>166</v>
+      </c>
+      <c r="K78" t="s">
+        <v>166</v>
+      </c>
+      <c r="P78" t="s">
+        <v>166</v>
       </c>
       <c r="R78" t="n">
         <v>6.0</v>
@@ -2355,8 +2373,8 @@
       <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="J79" t="n">
-        <v>1.0</v>
+      <c r="E79" t="s">
+        <v>166</v>
       </c>
       <c r="R79" t="n">
         <v>1.0</v>
@@ -2369,8 +2387,8 @@
       <c r="B80" t="s">
         <v>71</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.0</v>
+      <c r="M80" t="s">
+        <v>166</v>
       </c>
       <c r="R80" t="n">
         <v>1.0</v>
@@ -2383,8 +2401,8 @@
       <c r="B81" t="s">
         <v>72</v>
       </c>
-      <c r="L81" t="n">
-        <v>1.0</v>
+      <c r="O81" t="s">
+        <v>166</v>
       </c>
       <c r="R81" t="n">
         <v>1.0</v>
@@ -2397,8 +2415,8 @@
       <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="I82" t="n">
-        <v>1.0</v>
+      <c r="D82" t="s">
+        <v>166</v>
       </c>
       <c r="R82" t="n">
         <v>1.0</v>
@@ -2411,8 +2429,8 @@
       <c r="B83" t="s">
         <v>74</v>
       </c>
-      <c r="D83" t="n">
-        <v>1.0</v>
+      <c r="Q83" t="s">
+        <v>166</v>
       </c>
       <c r="R83" t="n">
         <v>1.0</v>
@@ -2425,8 +2443,8 @@
       <c r="B84" t="s">
         <v>75</v>
       </c>
-      <c r="K84" t="n">
-        <v>1.0</v>
+      <c r="E84" t="s">
+        <v>166</v>
       </c>
       <c r="R84" t="n">
         <v>1.0</v>
@@ -2439,8 +2457,8 @@
       <c r="B85" t="s">
         <v>76</v>
       </c>
-      <c r="H85" t="n">
-        <v>1.0</v>
+      <c r="C85" t="s">
+        <v>166</v>
       </c>
       <c r="R85" t="n">
         <v>1.0</v>
@@ -2453,11 +2471,11 @@
       <c r="B86" t="s">
         <v>77</v>
       </c>
-      <c r="M86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.0</v>
+      <c r="D86" t="s">
+        <v>166</v>
+      </c>
+      <c r="K86" t="s">
+        <v>166</v>
       </c>
       <c r="R86" t="n">
         <v>2.0</v>
@@ -2470,11 +2488,11 @@
       <c r="B87" t="s">
         <v>78</v>
       </c>
-      <c r="F87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.0</v>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="L87" t="s">
+        <v>166</v>
       </c>
       <c r="R87" t="n">
         <v>2.0</v>
@@ -2487,11 +2505,11 @@
       <c r="B88" t="s">
         <v>79</v>
       </c>
-      <c r="E88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.0</v>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" t="s">
+        <v>166</v>
       </c>
       <c r="R88" t="n">
         <v>2.0</v>
@@ -2504,11 +2522,11 @@
       <c r="B89" t="s">
         <v>80</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.0</v>
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="N89" t="s">
+        <v>166</v>
       </c>
       <c r="R89" t="n">
         <v>2.0</v>
@@ -2521,14 +2539,14 @@
       <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="D90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.0</v>
+      <c r="G90" t="s">
+        <v>166</v>
+      </c>
+      <c r="L90" t="s">
+        <v>166</v>
+      </c>
+      <c r="O90" t="s">
+        <v>166</v>
       </c>
       <c r="R90" t="n">
         <v>3.0</v>
@@ -2541,14 +2559,14 @@
       <c r="B91" t="s">
         <v>82</v>
       </c>
-      <c r="C91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.0</v>
+      <c r="H91" t="s">
+        <v>166</v>
+      </c>
+      <c r="I91" t="s">
+        <v>166</v>
+      </c>
+      <c r="K91" t="s">
+        <v>166</v>
       </c>
       <c r="R91" t="n">
         <v>3.0</v>
@@ -2561,14 +2579,14 @@
       <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="C92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.0</v>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" t="s">
+        <v>166</v>
+      </c>
+      <c r="I92" t="s">
+        <v>166</v>
       </c>
       <c r="R92" t="n">
         <v>3.0</v>
@@ -2581,14 +2599,14 @@
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="F93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.0</v>
+      <c r="C93" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" t="s">
+        <v>166</v>
+      </c>
+      <c r="H93" t="s">
+        <v>166</v>
       </c>
       <c r="R93" t="n">
         <v>3.0</v>
@@ -2601,14 +2619,14 @@
       <c r="B94" t="s">
         <v>85</v>
       </c>
-      <c r="I94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.0</v>
+      <c r="L94" t="s">
+        <v>166</v>
+      </c>
+      <c r="P94" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>166</v>
       </c>
       <c r="R94" t="n">
         <v>3.0</v>
@@ -2621,14 +2639,14 @@
       <c r="B95" t="s">
         <v>86</v>
       </c>
-      <c r="F95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.0</v>
+      <c r="F95" t="s">
+        <v>166</v>
+      </c>
+      <c r="O95" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>166</v>
       </c>
       <c r="R95" t="n">
         <v>3.0</v>
@@ -2641,14 +2659,14 @@
       <c r="B96" t="s">
         <v>87</v>
       </c>
-      <c r="C96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.0</v>
+      <c r="H96" t="s">
+        <v>166</v>
+      </c>
+      <c r="L96" t="s">
+        <v>166</v>
+      </c>
+      <c r="O96" t="s">
+        <v>166</v>
       </c>
       <c r="R96" t="n">
         <v>3.0</v>
@@ -2661,23 +2679,26 @@
       <c r="B97" t="s">
         <v>88</v>
       </c>
-      <c r="E97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1.0</v>
+      <c r="G97" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" t="s">
+        <v>166</v>
+      </c>
+      <c r="M97" t="s">
+        <v>166</v>
+      </c>
+      <c r="O97" t="s">
+        <v>166</v>
+      </c>
+      <c r="P97" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>166</v>
       </c>
       <c r="R97" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="98">
@@ -2687,23 +2708,23 @@
       <c r="B98" t="s">
         <v>89</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>1.0</v>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" t="s">
+        <v>166</v>
+      </c>
+      <c r="K98" t="s">
+        <v>166</v>
+      </c>
+      <c r="L98" t="s">
+        <v>166</v>
       </c>
       <c r="R98" t="n">
         <v>6.0</v>
@@ -2716,20 +2737,26 @@
       <c r="B99" t="s">
         <v>90</v>
       </c>
-      <c r="E99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>1.0</v>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>166</v>
+      </c>
+      <c r="F99" t="s">
+        <v>166</v>
+      </c>
+      <c r="G99" t="s">
+        <v>166</v>
+      </c>
+      <c r="I99" t="s">
+        <v>166</v>
+      </c>
+      <c r="L99" t="s">
+        <v>166</v>
       </c>
       <c r="R99" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="100">
@@ -2739,17 +2766,17 @@
       <c r="B100" t="s">
         <v>91</v>
       </c>
-      <c r="C100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.0</v>
+      <c r="E100" t="s">
+        <v>166</v>
+      </c>
+      <c r="G100" t="s">
+        <v>166</v>
+      </c>
+      <c r="I100" t="s">
+        <v>166</v>
+      </c>
+      <c r="K100" t="s">
+        <v>166</v>
       </c>
       <c r="R100" t="n">
         <v>4.0</v>
@@ -2762,20 +2789,23 @@
       <c r="B101" t="s">
         <v>92</v>
       </c>
-      <c r="D101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1.0</v>
+      <c r="F101" t="s">
+        <v>166</v>
+      </c>
+      <c r="G101" t="s">
+        <v>166</v>
+      </c>
+      <c r="L101" t="s">
+        <v>166</v>
+      </c>
+      <c r="M101" t="s">
+        <v>166</v>
+      </c>
+      <c r="P101" t="s">
+        <v>166</v>
       </c>
       <c r="R101" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
@@ -2785,26 +2815,14 @@
       <c r="B102" t="s">
         <v>93</v>
       </c>
-      <c r="D102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1.0</v>
+      <c r="G102" t="s">
+        <v>166</v>
+      </c>
+      <c r="I102" t="s">
+        <v>166</v>
       </c>
       <c r="R102" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
@@ -2814,23 +2832,26 @@
       <c r="B103" t="s">
         <v>94</v>
       </c>
-      <c r="G103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.0</v>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" t="s">
+        <v>166</v>
+      </c>
+      <c r="F103" t="s">
+        <v>166</v>
+      </c>
+      <c r="J103" t="s">
+        <v>166</v>
+      </c>
+      <c r="M103" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>166</v>
       </c>
       <c r="R103" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -2840,26 +2861,23 @@
       <c r="B104" t="s">
         <v>95</v>
       </c>
-      <c r="D104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1.0</v>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="H104" t="s">
+        <v>166</v>
+      </c>
+      <c r="I104" t="s">
+        <v>166</v>
+      </c>
+      <c r="L104" t="s">
+        <v>166</v>
+      </c>
+      <c r="P104" t="s">
+        <v>166</v>
       </c>
       <c r="R104" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="105">
@@ -2869,20 +2887,26 @@
       <c r="B105" t="s">
         <v>96</v>
       </c>
-      <c r="H105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.0</v>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="F105" t="s">
+        <v>166</v>
+      </c>
+      <c r="I105" t="s">
+        <v>166</v>
+      </c>
+      <c r="L105" t="s">
+        <v>166</v>
+      </c>
+      <c r="M105" t="s">
+        <v>166</v>
+      </c>
+      <c r="P105" t="s">
+        <v>166</v>
       </c>
       <c r="R105" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
@@ -2892,23 +2916,26 @@
       <c r="B106" t="s">
         <v>97</v>
       </c>
-      <c r="D106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>1.0</v>
+      <c r="F106" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="H106" t="s">
+        <v>166</v>
+      </c>
+      <c r="I106" t="s">
+        <v>166</v>
+      </c>
+      <c r="L106" t="s">
+        <v>166</v>
+      </c>
+      <c r="P106" t="s">
+        <v>166</v>
       </c>
       <c r="R106" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="107">
@@ -2918,23 +2945,23 @@
       <c r="B107" t="s">
         <v>98</v>
       </c>
-      <c r="C107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1.0</v>
+      <c r="F107" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="I107" t="s">
+        <v>166</v>
+      </c>
+      <c r="K107" t="s">
+        <v>166</v>
+      </c>
+      <c r="M107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>166</v>
       </c>
       <c r="R107" t="n">
         <v>6.0</v>
@@ -2947,23 +2974,26 @@
       <c r="B108" t="s">
         <v>99</v>
       </c>
-      <c r="E108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1.0</v>
+      <c r="D108" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" t="s">
+        <v>166</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="I108" t="s">
+        <v>166</v>
+      </c>
+      <c r="K108" t="s">
+        <v>166</v>
+      </c>
+      <c r="L108" t="s">
+        <v>166</v>
       </c>
       <c r="R108" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="109">
@@ -2973,23 +3003,20 @@
       <c r="B109" t="s">
         <v>100</v>
       </c>
-      <c r="G109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1.0</v>
+      <c r="C109" t="s">
+        <v>166</v>
+      </c>
+      <c r="F109" t="s">
+        <v>166</v>
+      </c>
+      <c r="H109" t="s">
+        <v>166</v>
+      </c>
+      <c r="L109" t="s">
+        <v>166</v>
       </c>
       <c r="R109" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
@@ -2999,17 +3026,26 @@
       <c r="B110" t="s">
         <v>101</v>
       </c>
-      <c r="C110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1.0</v>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" t="s">
+        <v>166</v>
+      </c>
+      <c r="I110" t="s">
+        <v>166</v>
+      </c>
+      <c r="M110" t="s">
+        <v>166</v>
+      </c>
+      <c r="O110" t="s">
+        <v>166</v>
       </c>
       <c r="R110" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
@@ -3019,17 +3055,23 @@
       <c r="B111" t="s">
         <v>102</v>
       </c>
-      <c r="I111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.0</v>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>166</v>
+      </c>
+      <c r="H111" t="s">
+        <v>166</v>
+      </c>
+      <c r="I111" t="s">
+        <v>166</v>
+      </c>
+      <c r="K111" t="s">
+        <v>166</v>
       </c>
       <c r="R111" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="112">
@@ -3039,23 +3081,23 @@
       <c r="B112" t="s">
         <v>103</v>
       </c>
-      <c r="F112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>1.0</v>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" t="s">
+        <v>166</v>
+      </c>
+      <c r="G112" t="s">
+        <v>166</v>
+      </c>
+      <c r="H112" t="s">
+        <v>166</v>
+      </c>
+      <c r="K112" t="s">
+        <v>166</v>
+      </c>
+      <c r="L112" t="s">
+        <v>166</v>
       </c>
       <c r="R112" t="n">
         <v>6.0</v>
@@ -3068,26 +3110,17 @@
       <c r="B113" t="s">
         <v>104</v>
       </c>
-      <c r="C113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1.0</v>
+      <c r="F113" t="s">
+        <v>166</v>
+      </c>
+      <c r="K113" t="s">
+        <v>166</v>
+      </c>
+      <c r="O113" t="s">
+        <v>166</v>
       </c>
       <c r="R113" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
@@ -3097,23 +3130,20 @@
       <c r="B114" t="s">
         <v>105</v>
       </c>
-      <c r="C114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>1.0</v>
+      <c r="F114" t="s">
+        <v>166</v>
+      </c>
+      <c r="G114" t="s">
+        <v>166</v>
+      </c>
+      <c r="L114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>166</v>
       </c>
       <c r="R114" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="115">
@@ -3123,20 +3153,26 @@
       <c r="B115" t="s">
         <v>106</v>
       </c>
-      <c r="C115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1.0</v>
+      <c r="D115" t="s">
+        <v>166</v>
+      </c>
+      <c r="F115" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115" t="s">
+        <v>166</v>
+      </c>
+      <c r="K115" t="s">
+        <v>166</v>
+      </c>
+      <c r="P115" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>166</v>
       </c>
       <c r="R115" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
@@ -3146,20 +3182,20 @@
       <c r="B116" t="s">
         <v>107</v>
       </c>
-      <c r="D116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1.0</v>
+      <c r="F116" t="s">
+        <v>166</v>
+      </c>
+      <c r="G116" t="s">
+        <v>166</v>
+      </c>
+      <c r="H116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I116" t="s">
+        <v>166</v>
+      </c>
+      <c r="K116" t="s">
+        <v>166</v>
       </c>
       <c r="R116" t="n">
         <v>5.0</v>
@@ -3172,26 +3208,23 @@
       <c r="B117" t="s">
         <v>108</v>
       </c>
-      <c r="D117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>1.0</v>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" t="s">
+        <v>166</v>
+      </c>
+      <c r="F117" t="s">
+        <v>166</v>
+      </c>
+      <c r="K117" t="s">
+        <v>166</v>
+      </c>
+      <c r="O117" t="s">
+        <v>166</v>
       </c>
       <c r="R117" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="118">
@@ -3201,8 +3234,8 @@
       <c r="B118" t="s">
         <v>109</v>
       </c>
-      <c r="M118" t="n">
-        <v>1.0</v>
+      <c r="I118" t="s">
+        <v>166</v>
       </c>
       <c r="R118" t="n">
         <v>1.0</v>
@@ -3215,8 +3248,8 @@
       <c r="B119" t="s">
         <v>110</v>
       </c>
-      <c r="Q119" t="n">
-        <v>1.0</v>
+      <c r="G119" t="s">
+        <v>166</v>
       </c>
       <c r="R119" t="n">
         <v>1.0</v>
@@ -3229,8 +3262,8 @@
       <c r="B120" t="s">
         <v>111</v>
       </c>
-      <c r="O120" t="n">
-        <v>1.0</v>
+      <c r="K120" t="s">
+        <v>166</v>
       </c>
       <c r="R120" t="n">
         <v>1.0</v>
@@ -3243,8 +3276,8 @@
       <c r="B121" t="s">
         <v>112</v>
       </c>
-      <c r="F121" t="n">
-        <v>1.0</v>
+      <c r="F121" t="s">
+        <v>166</v>
       </c>
       <c r="R121" t="n">
         <v>1.0</v>
@@ -3257,14 +3290,14 @@
       <c r="B122" t="s">
         <v>113</v>
       </c>
-      <c r="E122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>1.0</v>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+      <c r="E122" t="s">
+        <v>166</v>
+      </c>
+      <c r="K122" t="s">
+        <v>166</v>
       </c>
       <c r="R122" t="n">
         <v>3.0</v>
@@ -3277,14 +3310,14 @@
       <c r="B123" t="s">
         <v>114</v>
       </c>
-      <c r="E123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1.0</v>
+      <c r="G123" t="s">
+        <v>166</v>
+      </c>
+      <c r="K123" t="s">
+        <v>166</v>
+      </c>
+      <c r="L123" t="s">
+        <v>166</v>
       </c>
       <c r="R123" t="n">
         <v>3.0</v>
@@ -3297,14 +3330,14 @@
       <c r="B124" t="s">
         <v>115</v>
       </c>
-      <c r="K124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>1.0</v>
+      <c r="F124" t="s">
+        <v>166</v>
+      </c>
+      <c r="M124" t="s">
+        <v>166</v>
+      </c>
+      <c r="O124" t="s">
+        <v>166</v>
       </c>
       <c r="R124" t="n">
         <v>3.0</v>
@@ -3317,14 +3350,14 @@
       <c r="B125" t="s">
         <v>116</v>
       </c>
-      <c r="C125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.0</v>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G125" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>166</v>
       </c>
       <c r="R125" t="n">
         <v>3.0</v>
@@ -3337,14 +3370,14 @@
       <c r="B126" t="s">
         <v>117</v>
       </c>
-      <c r="G126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>1.0</v>
+      <c r="E126" t="s">
+        <v>166</v>
+      </c>
+      <c r="K126" t="s">
+        <v>166</v>
+      </c>
+      <c r="L126" t="s">
+        <v>166</v>
       </c>
       <c r="R126" t="n">
         <v>3.0</v>
@@ -3357,14 +3390,14 @@
       <c r="B127" t="s">
         <v>118</v>
       </c>
-      <c r="E127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.0</v>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+      <c r="P127" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>166</v>
       </c>
       <c r="R127" t="n">
         <v>3.0</v>
@@ -3377,14 +3410,14 @@
       <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="F128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1.0</v>
+      <c r="C128" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="L128" t="s">
+        <v>166</v>
       </c>
       <c r="R128" t="n">
         <v>3.0</v>
@@ -3397,14 +3430,14 @@
       <c r="B129" t="s">
         <v>120</v>
       </c>
-      <c r="C129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>1.0</v>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+      <c r="O129" t="s">
+        <v>166</v>
+      </c>
+      <c r="P129" t="s">
+        <v>166</v>
       </c>
       <c r="R129" t="n">
         <v>3.0</v>
@@ -3417,14 +3450,14 @@
       <c r="B130" t="s">
         <v>121</v>
       </c>
-      <c r="F130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.0</v>
+      <c r="H130" t="s">
+        <v>166</v>
+      </c>
+      <c r="L130" t="s">
+        <v>166</v>
+      </c>
+      <c r="O130" t="s">
+        <v>166</v>
       </c>
       <c r="R130" t="n">
         <v>3.0</v>
@@ -3437,14 +3470,14 @@
       <c r="B131" t="s">
         <v>122</v>
       </c>
-      <c r="F131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1.0</v>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+      <c r="H131" t="s">
+        <v>166</v>
+      </c>
+      <c r="L131" t="s">
+        <v>166</v>
       </c>
       <c r="R131" t="n">
         <v>3.0</v>
@@ -3457,23 +3490,23 @@
       <c r="B132" t="s">
         <v>123</v>
       </c>
-      <c r="E132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>1.0</v>
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" t="s">
+        <v>166</v>
+      </c>
+      <c r="G132" t="s">
+        <v>166</v>
+      </c>
+      <c r="H132" t="s">
+        <v>166</v>
+      </c>
+      <c r="L132" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>166</v>
       </c>
       <c r="R132" t="n">
         <v>6.0</v>
@@ -3486,23 +3519,23 @@
       <c r="B133" t="s">
         <v>124</v>
       </c>
-      <c r="C133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>1.0</v>
+      <c r="C133" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" t="s">
+        <v>166</v>
+      </c>
+      <c r="F133" t="s">
+        <v>166</v>
+      </c>
+      <c r="G133" t="s">
+        <v>166</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
       </c>
       <c r="R133" t="n">
         <v>6.0</v>
@@ -3515,8 +3548,8 @@
       <c r="B134" t="s">
         <v>125</v>
       </c>
-      <c r="D134" t="n">
-        <v>1.0</v>
+      <c r="C134" t="s">
+        <v>166</v>
       </c>
       <c r="R134" t="n">
         <v>1.0</v>
@@ -3529,14 +3562,14 @@
       <c r="B135" t="s">
         <v>126</v>
       </c>
-      <c r="E135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.0</v>
+      <c r="F135" t="s">
+        <v>166</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>166</v>
       </c>
       <c r="R135" t="n">
         <v>3.0</v>
@@ -3549,14 +3582,14 @@
       <c r="B136" t="s">
         <v>127</v>
       </c>
-      <c r="H136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>1.0</v>
+      <c r="H136" t="s">
+        <v>166</v>
+      </c>
+      <c r="O136" t="s">
+        <v>166</v>
+      </c>
+      <c r="P136" t="s">
+        <v>166</v>
       </c>
       <c r="R136" t="n">
         <v>3.0</v>
@@ -3569,14 +3602,14 @@
       <c r="B137" t="s">
         <v>128</v>
       </c>
-      <c r="E137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>1.0</v>
+      <c r="C137" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" t="s">
+        <v>166</v>
+      </c>
+      <c r="G137" t="s">
+        <v>166</v>
       </c>
       <c r="R137" t="n">
         <v>3.0</v>
@@ -3589,14 +3622,17 @@
       <c r="B138" t="s">
         <v>129</v>
       </c>
-      <c r="L138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>1.0</v>
+      <c r="E138" t="s">
+        <v>166</v>
+      </c>
+      <c r="F138" t="s">
+        <v>166</v>
+      </c>
+      <c r="P138" t="s">
+        <v>166</v>
       </c>
       <c r="R138" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
@@ -3606,23 +3642,23 @@
       <c r="B139" t="s">
         <v>123</v>
       </c>
-      <c r="E139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>1.0</v>
+      <c r="C139" t="s">
+        <v>166</v>
+      </c>
+      <c r="E139" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" t="s">
+        <v>166</v>
+      </c>
+      <c r="H139" t="s">
+        <v>166</v>
+      </c>
+      <c r="L139" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>166</v>
       </c>
       <c r="R139" t="n">
         <v>6.0</v>
@@ -3635,23 +3671,23 @@
       <c r="B140" t="s">
         <v>124</v>
       </c>
-      <c r="C140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>1.0</v>
+      <c r="C140" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F140" t="s">
+        <v>166</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
+      <c r="I140" t="s">
+        <v>166</v>
       </c>
       <c r="R140" t="n">
         <v>6.0</v>
@@ -3664,8 +3700,8 @@
       <c r="B141" t="s">
         <v>130</v>
       </c>
-      <c r="L141" t="n">
-        <v>1.0</v>
+      <c r="O141" t="s">
+        <v>166</v>
       </c>
       <c r="R141" t="n">
         <v>1.0</v>
@@ -3678,8 +3714,8 @@
       <c r="B142" t="s">
         <v>131</v>
       </c>
-      <c r="F142" t="n">
-        <v>1.0</v>
+      <c r="L142" t="s">
+        <v>166</v>
       </c>
       <c r="R142" t="n">
         <v>1.0</v>
@@ -3692,14 +3728,14 @@
       <c r="B143" t="s">
         <v>132</v>
       </c>
-      <c r="G143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>1.0</v>
+      <c r="L143" t="s">
+        <v>166</v>
+      </c>
+      <c r="O143" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>166</v>
       </c>
       <c r="R143" t="n">
         <v>3.0</v>
@@ -3712,14 +3748,14 @@
       <c r="B144" t="s">
         <v>133</v>
       </c>
-      <c r="F144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1.0</v>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="F144" t="s">
+        <v>166</v>
+      </c>
+      <c r="G144" t="s">
+        <v>166</v>
       </c>
       <c r="R144" t="n">
         <v>3.0</v>
@@ -3732,14 +3768,14 @@
       <c r="B145" t="s">
         <v>134</v>
       </c>
-      <c r="C145" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>1.0</v>
+      <c r="C145" t="s">
+        <v>166</v>
+      </c>
+      <c r="M145" t="s">
+        <v>166</v>
+      </c>
+      <c r="N145" t="s">
+        <v>166</v>
       </c>
       <c r="R145" t="n">
         <v>3.0</v>
@@ -3752,17 +3788,14 @@
       <c r="B146" t="s">
         <v>135</v>
       </c>
-      <c r="D146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1.0</v>
+      <c r="C146" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>166</v>
       </c>
       <c r="R146" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="147">
@@ -3772,20 +3805,20 @@
       <c r="B147" t="s">
         <v>136</v>
       </c>
-      <c r="C147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>1.0</v>
+      <c r="F147" t="s">
+        <v>166</v>
+      </c>
+      <c r="H147" t="s">
+        <v>166</v>
+      </c>
+      <c r="I147" t="s">
+        <v>166</v>
+      </c>
+      <c r="L147" t="s">
+        <v>166</v>
+      </c>
+      <c r="O147" t="s">
+        <v>166</v>
       </c>
       <c r="R147" t="n">
         <v>5.0</v>
@@ -3798,20 +3831,20 @@
       <c r="B148" t="s">
         <v>137</v>
       </c>
-      <c r="C148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>1.0</v>
+      <c r="D148" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>166</v>
+      </c>
+      <c r="H148" t="s">
+        <v>166</v>
+      </c>
+      <c r="I148" t="s">
+        <v>166</v>
+      </c>
+      <c r="L148" t="s">
+        <v>166</v>
       </c>
       <c r="R148" t="n">
         <v>5.0</v>
@@ -3824,8 +3857,8 @@
       <c r="B149" t="s">
         <v>138</v>
       </c>
-      <c r="O149" t="n">
-        <v>1.0</v>
+      <c r="M149" t="s">
+        <v>166</v>
       </c>
       <c r="R149" t="n">
         <v>1.0</v>
@@ -3838,8 +3871,8 @@
       <c r="B150" t="s">
         <v>139</v>
       </c>
-      <c r="O150" t="n">
-        <v>1.0</v>
+      <c r="P150" t="s">
+        <v>166</v>
       </c>
       <c r="R150" t="n">
         <v>1.0</v>
@@ -3852,11 +3885,11 @@
       <c r="B151" t="s">
         <v>140</v>
       </c>
-      <c r="L151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1.0</v>
+      <c r="D151" t="s">
+        <v>166</v>
+      </c>
+      <c r="H151" t="s">
+        <v>166</v>
       </c>
       <c r="R151" t="n">
         <v>2.0</v>
@@ -3869,14 +3902,14 @@
       <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="E152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1.0</v>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="I152" t="s">
+        <v>166</v>
+      </c>
+      <c r="L152" t="s">
+        <v>166</v>
       </c>
       <c r="R152" t="n">
         <v>3.0</v>
@@ -3889,14 +3922,14 @@
       <c r="B153" t="s">
         <v>142</v>
       </c>
-      <c r="C153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1.0</v>
+      <c r="D153" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" t="s">
+        <v>166</v>
+      </c>
+      <c r="H153" t="s">
+        <v>166</v>
       </c>
       <c r="R153" t="n">
         <v>3.0</v>
@@ -3909,23 +3942,17 @@
       <c r="B154" t="s">
         <v>143</v>
       </c>
-      <c r="C154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1.0</v>
+      <c r="F154" t="s">
+        <v>166</v>
+      </c>
+      <c r="G154" t="s">
+        <v>166</v>
+      </c>
+      <c r="M154" t="s">
+        <v>166</v>
       </c>
       <c r="R154" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="155">
@@ -3935,23 +3962,23 @@
       <c r="B155" t="s">
         <v>144</v>
       </c>
-      <c r="F155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>1.0</v>
+      <c r="E155" t="s">
+        <v>166</v>
+      </c>
+      <c r="F155" t="s">
+        <v>166</v>
+      </c>
+      <c r="G155" t="s">
+        <v>166</v>
+      </c>
+      <c r="H155" t="s">
+        <v>166</v>
+      </c>
+      <c r="P155" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>166</v>
       </c>
       <c r="R155" t="n">
         <v>6.0</v>
@@ -3964,26 +3991,23 @@
       <c r="B156" t="s">
         <v>145</v>
       </c>
-      <c r="D156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>1.0</v>
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="E156" t="s">
+        <v>166</v>
+      </c>
+      <c r="F156" t="s">
+        <v>166</v>
+      </c>
+      <c r="G156" t="s">
+        <v>166</v>
+      </c>
+      <c r="H156" t="s">
+        <v>166</v>
       </c>
       <c r="R156" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="157">
@@ -3993,11 +4017,11 @@
       <c r="B157" t="s">
         <v>146</v>
       </c>
-      <c r="E157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>1.0</v>
+      <c r="C157" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" t="s">
+        <v>166</v>
       </c>
       <c r="R157" t="n">
         <v>2.0</v>
@@ -4010,14 +4034,14 @@
       <c r="B158" t="s">
         <v>147</v>
       </c>
-      <c r="F158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.0</v>
+      <c r="F158" t="s">
+        <v>166</v>
+      </c>
+      <c r="I158" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>166</v>
       </c>
       <c r="R158" t="n">
         <v>3.0</v>
@@ -4030,14 +4054,14 @@
       <c r="B159" t="s">
         <v>148</v>
       </c>
-      <c r="F159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>1.0</v>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+      <c r="H159" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>166</v>
       </c>
       <c r="R159" t="n">
         <v>3.0</v>
@@ -4050,23 +4074,26 @@
       <c r="B160" t="s">
         <v>149</v>
       </c>
-      <c r="D160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>1.0</v>
+      <c r="D160" t="s">
+        <v>166</v>
+      </c>
+      <c r="F160" t="s">
+        <v>166</v>
+      </c>
+      <c r="G160" t="s">
+        <v>166</v>
+      </c>
+      <c r="I160" t="s">
+        <v>166</v>
+      </c>
+      <c r="K160" t="s">
+        <v>166</v>
+      </c>
+      <c r="P160" t="s">
+        <v>166</v>
       </c>
       <c r="R160" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="161">
@@ -4076,23 +4103,23 @@
       <c r="B161" t="s">
         <v>150</v>
       </c>
-      <c r="D161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>1.0</v>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I161" t="s">
+        <v>166</v>
+      </c>
+      <c r="K161" t="s">
+        <v>166</v>
+      </c>
+      <c r="O161" t="s">
+        <v>166</v>
+      </c>
+      <c r="P161" t="s">
+        <v>166</v>
       </c>
       <c r="R161" t="n">
         <v>6.0</v>
@@ -4105,23 +4132,26 @@
       <c r="B162" t="s">
         <v>151</v>
       </c>
-      <c r="C162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>1.0</v>
+      <c r="D162" t="s">
+        <v>166</v>
+      </c>
+      <c r="E162" t="s">
+        <v>166</v>
+      </c>
+      <c r="H162" t="s">
+        <v>166</v>
+      </c>
+      <c r="I162" t="s">
+        <v>166</v>
+      </c>
+      <c r="L162" t="s">
+        <v>166</v>
+      </c>
+      <c r="O162" t="s">
+        <v>166</v>
       </c>
       <c r="R162" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="163">
@@ -4131,23 +4161,23 @@
       <c r="B163" t="s">
         <v>152</v>
       </c>
-      <c r="C163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1.0</v>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+      <c r="F163" t="s">
+        <v>166</v>
+      </c>
+      <c r="G163" t="s">
+        <v>166</v>
+      </c>
+      <c r="H163" t="s">
+        <v>166</v>
+      </c>
+      <c r="P163" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>166</v>
       </c>
       <c r="R163" t="n">
         <v>6.0</v>
@@ -4160,26 +4190,23 @@
       <c r="B164" t="s">
         <v>153</v>
       </c>
-      <c r="C164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>1.0</v>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="F164" t="s">
+        <v>166</v>
+      </c>
+      <c r="M164" t="s">
+        <v>166</v>
+      </c>
+      <c r="O164" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>166</v>
       </c>
       <c r="R164" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
@@ -4189,11 +4216,11 @@
       <c r="B165" t="s">
         <v>154</v>
       </c>
-      <c r="H165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>1.0</v>
+      <c r="G165" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>166</v>
       </c>
       <c r="R165" t="n">
         <v>2.0</v>
@@ -4206,14 +4233,14 @@
       <c r="B166" t="s">
         <v>155</v>
       </c>
-      <c r="E166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>1.0</v>
+      <c r="H166" t="s">
+        <v>166</v>
+      </c>
+      <c r="L166" t="s">
+        <v>166</v>
+      </c>
+      <c r="O166" t="s">
+        <v>166</v>
       </c>
       <c r="R166" t="n">
         <v>3.0</v>
@@ -4226,26 +4253,14 @@
       <c r="B167" t="s">
         <v>156</v>
       </c>
-      <c r="D167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1.0</v>
+      <c r="G167" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>166</v>
       </c>
       <c r="R167" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
@@ -4255,26 +4270,23 @@
       <c r="B168" t="s">
         <v>157</v>
       </c>
-      <c r="C168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>1.0</v>
+      <c r="F168" t="s">
+        <v>166</v>
+      </c>
+      <c r="G168" t="s">
+        <v>166</v>
+      </c>
+      <c r="I168" t="s">
+        <v>166</v>
+      </c>
+      <c r="K168" t="s">
+        <v>166</v>
+      </c>
+      <c r="L168" t="s">
+        <v>166</v>
       </c>
       <c r="R168" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="169">
@@ -4284,23 +4296,23 @@
       <c r="B169" t="s">
         <v>158</v>
       </c>
-      <c r="C169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>1.0</v>
+      <c r="C169" t="s">
+        <v>166</v>
+      </c>
+      <c r="H169" t="s">
+        <v>166</v>
+      </c>
+      <c r="K169" t="s">
+        <v>166</v>
+      </c>
+      <c r="L169" t="s">
+        <v>166</v>
+      </c>
+      <c r="O169" t="s">
+        <v>166</v>
+      </c>
+      <c r="P169" t="s">
+        <v>166</v>
       </c>
       <c r="R169" t="n">
         <v>6.0</v>
@@ -4313,23 +4325,14 @@
       <c r="B170" t="s">
         <v>159</v>
       </c>
-      <c r="E170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>1.0</v>
+      <c r="D170" t="s">
+        <v>166</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
       </c>
       <c r="R170" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
@@ -4337,19 +4340,19 @@
         <v>162</v>
       </c>
       <c r="C171" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D171" t="n">
         <v>49.0</v>
       </c>
       <c r="E171" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="F171" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G171" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="H171" t="n">
         <v>54.0</v>
@@ -4364,19 +4367,19 @@
         <v>42.0</v>
       </c>
       <c r="L171" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="M171" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="N171" t="n">
         <v>3.0</v>
       </c>
       <c r="O171" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="P171" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q171" t="n">
         <v>33.0</v>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="188">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -25,6 +25,9 @@
     <t>Dr. R.K. Shrivastava</t>
   </si>
   <si>
+    <t>Civil Engg.</t>
+  </si>
+  <si>
     <t>Dr. S.K. Soni</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>ABHISHEK SHRIVASTAVA</t>
   </si>
   <si>
+    <t>Civil Engineering &amp; App. Mech.</t>
+  </si>
+  <si>
     <t>RISHABH  BAJPAI</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>Dr. R. K. Saxena</t>
   </si>
   <si>
+    <t>Electrical Engg.</t>
+  </si>
+  <si>
     <t>Dr. H.K. Verma*</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>RICHA SHARMA</t>
   </si>
   <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
     <t>HIMANSHI KOLI</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>SUMIT DWIVEDI</t>
   </si>
   <si>
+    <t>Industrial &amp; Production Engineering</t>
+  </si>
+  <si>
     <t>Dr. KUMAR ROHIT</t>
   </si>
   <si>
@@ -199,12 +214,18 @@
     <t>Shri S. Purohit</t>
   </si>
   <si>
+    <t>Central Workshop</t>
+  </si>
+  <si>
     <t>Shri Sukhlal Mujalda</t>
   </si>
   <si>
     <t>Dr. VAISHALI NAIK NAIK</t>
   </si>
   <si>
+    <t>Electronics &amp; Telecommunication Engineering</t>
+  </si>
+  <si>
     <t>DEEPALI KOTHARI</t>
   </si>
   <si>
@@ -232,6 +253,9 @@
     <t>Shri S.B.Purohit</t>
   </si>
   <si>
+    <t>Mechanical Engg.</t>
+  </si>
+  <si>
     <t>Dr.(Mrs.) S.Manepatil</t>
   </si>
   <si>
@@ -286,6 +310,9 @@
     <t>ASHISH MISHRA</t>
   </si>
   <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
     <t>RAKESH SINGH  THAKUR</t>
   </si>
   <si>
@@ -301,6 +328,9 @@
     <t>DIPIKA SIMARIYA</t>
   </si>
   <si>
+    <t>Electronics &amp; Instrumentation Engineering</t>
+  </si>
+  <si>
     <t>NEHA PANDE</t>
   </si>
   <si>
@@ -322,6 +352,9 @@
     <t>PUJA GUPTA</t>
   </si>
   <si>
+    <t>Information Technology &amp; MCA</t>
+  </si>
+  <si>
     <t>UPENDRA  SINGH</t>
   </si>
   <si>
@@ -343,12 +376,18 @@
     <t>MAYA MAKWANA</t>
   </si>
   <si>
+    <t>Biomedical Engineering</t>
+  </si>
+  <si>
     <t>VINAY MANURKAR</t>
   </si>
   <si>
     <t>Dr.T.R.Saini</t>
   </si>
   <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
     <t>Dr.(Mrs.) Meena Tiwari</t>
   </si>
   <si>
@@ -391,12 +430,18 @@
     <t>Dr. SHWETA CHOUDHARY</t>
   </si>
   <si>
+    <t>Management Studies (MBA)</t>
+  </si>
+  <si>
     <t>Dr. NAVITA GURBANI</t>
   </si>
   <si>
     <t>Dr. A.Dalpati*</t>
   </si>
   <si>
+    <t>MBA Deptt.</t>
+  </si>
+  <si>
     <t>Mrs. Vaniki Joshi Lohani</t>
   </si>
   <si>
@@ -412,6 +457,9 @@
     <t>Dr. (Mrs.) S. Khumbaj*</t>
   </si>
   <si>
+    <t>Applied Physics</t>
+  </si>
+  <si>
     <t>Dr.J.T.Andrews</t>
   </si>
   <si>
@@ -436,6 +484,9 @@
     <t>Dr. Nitin Sapre*</t>
   </si>
   <si>
+    <t>Applied Chemistry</t>
+  </si>
+  <si>
     <t>Dr.(Mrs.) M. Verma</t>
   </si>
   <si>
@@ -460,6 +511,9 @@
     <t>Dr. (Ms.) Smita Verma*</t>
   </si>
   <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
     <t>Dr. (Mrs.) Rachna Navlakha</t>
   </si>
   <si>
@@ -484,12 +538,18 @@
     <t>Dr.Neeraj Ku. Jain</t>
   </si>
   <si>
+    <t>Humanities</t>
+  </si>
+  <si>
     <t>Mrs.Sarika Tiwari</t>
   </si>
   <si>
     <t>SOMKANT PARWAR</t>
   </si>
   <si>
+    <t>Humanities(For English, Economics)</t>
+  </si>
+  <si>
     <t>SHWETA SUDELE</t>
   </si>
   <si>
@@ -515,6 +575,9 @@
   </si>
   <si>
     <t>Name(Prof./Dr./Mr./Ms.)</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>D</t>
@@ -525,7 +588,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yy"/>
+    <numFmt numFmtId="164" formatCode="dd-MM-yy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -625,13 +688,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
@@ -641,169 +705,163 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C5" t="n" s="3">
-        <v>44753.0</v>
-      </c>
-      <c r="D5" t="n" s="4">
-        <v>44754.0</v>
-      </c>
-      <c r="E5" t="n" s="5">
-        <v>44755.0</v>
-      </c>
-      <c r="F5" t="n" s="6">
-        <v>44756.0</v>
-      </c>
-      <c r="G5" t="n" s="7">
-        <v>44757.0</v>
-      </c>
-      <c r="H5" t="n" s="8">
-        <v>44758.0</v>
-      </c>
-      <c r="I5" t="n" s="9">
-        <v>44759.0</v>
-      </c>
-      <c r="J5" t="n" s="10">
-        <v>44760.0</v>
-      </c>
-      <c r="K5" t="n" s="11">
-        <v>44761.0</v>
-      </c>
-      <c r="L5" t="n" s="12">
-        <v>44762.0</v>
-      </c>
-      <c r="M5" t="n" s="13">
-        <v>44763.0</v>
-      </c>
-      <c r="N5" t="n" s="14">
-        <v>44764.0</v>
-      </c>
-      <c r="O5" t="n" s="15">
-        <v>44765.0</v>
-      </c>
-      <c r="P5" t="n" s="16">
-        <v>44766.0</v>
-      </c>
-      <c r="Q5" t="n" s="17">
-        <v>44767.0</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>44774.0</v>
+      </c>
+      <c r="E5" t="n" s="4">
+        <v>44775.0</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>44776.0</v>
+      </c>
+      <c r="G5" t="n" s="6">
+        <v>44777.0</v>
+      </c>
+      <c r="H5" t="n" s="7">
+        <v>44778.0</v>
+      </c>
+      <c r="I5" t="n" s="8">
+        <v>44779.0</v>
+      </c>
+      <c r="J5" t="n" s="9">
+        <v>44780.0</v>
+      </c>
+      <c r="K5" t="n" s="10">
+        <v>44781.0</v>
+      </c>
+      <c r="L5" t="n" s="11">
+        <v>44782.0</v>
+      </c>
+      <c r="M5" t="n" s="12">
+        <v>44783.0</v>
+      </c>
+      <c r="N5" t="n" s="13">
+        <v>44784.0</v>
+      </c>
+      <c r="O5" t="n" s="14">
+        <v>44785.0</v>
+      </c>
+      <c r="P5" t="n" s="15">
+        <v>44786.0</v>
+      </c>
+      <c r="Q5" t="n" s="16">
+        <v>44787.0</v>
+      </c>
+      <c r="R5" t="n" s="17">
+        <v>44788.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C6" t="n" s="2">
+        <v>183</v>
+      </c>
+      <c r="D6" t="n" s="2">
         <v>730.0</v>
       </c>
-      <c r="D6" t="n" s="2">
+      <c r="E6" t="n" s="2">
         <v>846.0</v>
       </c>
-      <c r="E6" t="n" s="2">
+      <c r="F6" t="n" s="2">
         <v>920.0</v>
       </c>
-      <c r="F6" t="n" s="2">
+      <c r="G6" t="n" s="2">
         <v>1006.0</v>
       </c>
-      <c r="G6" t="n" s="2">
+      <c r="H6" t="n" s="2">
         <v>956.0</v>
       </c>
-      <c r="H6" t="n" s="2">
+      <c r="I6" t="n" s="2">
         <v>945.0</v>
       </c>
-      <c r="I6" t="n" s="2">
+      <c r="J6" t="n" s="2">
         <v>961.0</v>
       </c>
-      <c r="J6" t="n" s="2">
+      <c r="K6" t="n" s="2">
         <v>53.0</v>
       </c>
-      <c r="K6" t="n" s="2">
+      <c r="L6" t="n" s="2">
         <v>750.0</v>
       </c>
-      <c r="L6" t="n" s="2">
+      <c r="M6" t="n" s="2">
         <v>952.0</v>
       </c>
-      <c r="M6" t="n" s="2">
+      <c r="N6" t="n" s="2">
         <v>276.0</v>
       </c>
-      <c r="N6" t="n" s="2">
+      <c r="O6" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="O6" t="n" s="2">
+      <c r="P6" t="n" s="2">
         <v>640.0</v>
       </c>
-      <c r="P6" t="n" s="2">
+      <c r="Q6" t="n" s="2">
         <v>520.0</v>
       </c>
-      <c r="Q6" t="n" s="2">
+      <c r="R6" t="n" s="2">
         <v>560.0</v>
-      </c>
-      <c r="R6" t="n" s="2">
-        <v>10145.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C7" t="n" s="2">
+        <v>184</v>
+      </c>
+      <c r="D7" t="n" s="2">
         <v>41.0</v>
       </c>
-      <c r="D7" t="n" s="2">
+      <c r="E7" t="n" s="2">
         <v>48.0</v>
       </c>
-      <c r="E7" t="n" s="2">
+      <c r="F7" t="n" s="2">
         <v>52.0</v>
       </c>
-      <c r="F7" t="n" s="2">
+      <c r="G7" t="n" s="2">
         <v>57.0</v>
-      </c>
-      <c r="G7" t="n" s="2">
-        <v>53.0</v>
       </c>
       <c r="H7" t="n" s="2">
         <v>53.0</v>
       </c>
       <c r="I7" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="J7" t="n" s="2">
         <v>54.0</v>
       </c>
-      <c r="J7" t="n" s="2">
+      <c r="K7" t="n" s="2">
         <v>4.0</v>
       </c>
-      <c r="K7" t="n" s="2">
+      <c r="L7" t="n" s="2">
         <v>42.0</v>
       </c>
-      <c r="L7" t="n" s="2">
+      <c r="M7" t="n" s="2">
         <v>53.0</v>
       </c>
-      <c r="M7" t="n" s="2">
+      <c r="N7" t="n" s="2">
         <v>16.0</v>
       </c>
-      <c r="N7" t="n" s="2">
+      <c r="O7" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="O7" t="n" s="2">
+      <c r="P7" t="n" s="2">
         <v>37.0</v>
       </c>
-      <c r="P7" t="n" s="2">
+      <c r="Q7" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="Q7" t="n" s="2">
+      <c r="R7" t="n" s="2">
         <v>32.0</v>
-      </c>
-      <c r="R7" t="n" s="2">
-        <v>575.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="2">
-        <v>165</v>
+        <v>185</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -813,10 +871,13 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>166</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -825,12 +886,15 @@
         <v>2.0</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>166</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="N11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -839,12 +903,15 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
-      </c>
-      <c r="R12" t="n">
+        <v>187</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -853,12 +920,15 @@
         <v>4.0</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -867,12 +937,15 @@
         <v>5.0</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
-      </c>
-      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -881,12 +954,15 @@
         <v>6.0</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>166</v>
-      </c>
-      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -895,12 +971,15 @@
         <v>7.0</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -909,12 +988,15 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>166</v>
-      </c>
-      <c r="R17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -923,12 +1005,15 @@
         <v>9.0</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -937,12 +1022,15 @@
         <v>10.0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="R19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -951,15 +1039,18 @@
         <v>11.0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>166</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>166</v>
-      </c>
-      <c r="R20" t="n">
+        <v>187</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -968,15 +1059,18 @@
         <v>12.0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" t="s">
-        <v>166</v>
-      </c>
-      <c r="R21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -985,18 +1079,21 @@
         <v>13.0</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>166</v>
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" t="s">
-        <v>166</v>
-      </c>
-      <c r="R22" t="n">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1005,18 +1102,21 @@
         <v>14.0</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" t="s">
-        <v>166</v>
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
       </c>
       <c r="Q23" t="s">
-        <v>166</v>
-      </c>
-      <c r="R23" t="n">
+        <v>187</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1025,16 +1125,22 @@
         <v>15.0</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>166</v>
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.0</v>
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -1042,18 +1148,21 @@
         <v>16.0</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" t="s">
-        <v>166</v>
-      </c>
-      <c r="R25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1062,25 +1171,25 @@
         <v>17.0</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" t="s">
-        <v>166</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -1088,25 +1197,31 @@
         <v>18.0</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -1114,25 +1229,31 @@
         <v>19.0</v>
       </c>
       <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
-        <v>166</v>
+      <c r="F28" t="s">
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="M28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" t="s">
+        <v>187</v>
       </c>
       <c r="Q28" t="s">
-        <v>166</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -1140,16 +1261,31 @@
         <v>20.0</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" t="s">
-        <v>166</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.0</v>
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1157,28 +1293,25 @@
         <v>21.0</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
-      </c>
-      <c r="K30" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M30" t="s">
-        <v>166</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="R30" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1186,19 +1319,28 @@
         <v>22.0</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.0</v>
+        <v>187</v>
+      </c>
+      <c r="I31" t="s">
+        <v>187</v>
+      </c>
+      <c r="R31" t="s">
+        <v>187</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -1206,27 +1348,30 @@
         <v>23.0</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" t="s">
-        <v>166</v>
-      </c>
-      <c r="L32" t="s">
-        <v>166</v>
-      </c>
-      <c r="P32" t="s">
-        <v>166</v>
-      </c>
-      <c r="R32" t="n">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" t="s">
+        <v>187</v>
+      </c>
+      <c r="S32" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1235,22 +1380,31 @@
         <v>24.0</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" t="s">
-        <v>166</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="J33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -1258,25 +1412,19 @@
         <v>25.0</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" t="s">
-        <v>166</v>
-      </c>
-      <c r="H34" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" t="s">
-        <v>166</v>
-      </c>
-      <c r="O34" t="s">
-        <v>166</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5.0</v>
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1284,28 +1432,28 @@
         <v>26.0</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>166</v>
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" t="s">
-        <v>166</v>
-      </c>
-      <c r="O35" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
-      </c>
-      <c r="R35" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -1313,27 +1461,30 @@
         <v>27.0</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>166</v>
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>166</v>
-      </c>
-      <c r="R36" t="n">
+        <v>187</v>
+      </c>
+      <c r="I36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>187</v>
+      </c>
+      <c r="R36" t="s">
+        <v>187</v>
+      </c>
+      <c r="S36" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1342,27 +1493,30 @@
         <v>28.0</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H37" t="s">
+        <v>187</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
-      </c>
-      <c r="K37" t="s">
-        <v>166</v>
-      </c>
-      <c r="O37" t="s">
-        <v>166</v>
-      </c>
-      <c r="P37" t="s">
-        <v>166</v>
-      </c>
-      <c r="R37" t="n">
+        <v>187</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+      <c r="L37" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" t="s">
+        <v>187</v>
+      </c>
+      <c r="S37" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1371,25 +1525,31 @@
         <v>29.0</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I38" t="s">
+        <v>187</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s">
-        <v>166</v>
-      </c>
-      <c r="O38" t="s">
-        <v>166</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>187</v>
+      </c>
+      <c r="R38" t="s">
+        <v>187</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -1397,24 +1557,27 @@
         <v>30.0</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" t="s">
-        <v>166</v>
-      </c>
-      <c r="K39" t="s">
-        <v>166</v>
-      </c>
-      <c r="R39" t="n">
+        <v>187</v>
+      </c>
+      <c r="L39" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" t="s">
+        <v>187</v>
+      </c>
+      <c r="P39" t="s">
+        <v>187</v>
+      </c>
+      <c r="S39" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -1423,28 +1586,22 @@
         <v>31.0</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" t="s">
-        <v>166</v>
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J40" t="s">
+        <v>187</v>
       </c>
       <c r="L40" t="s">
-        <v>166</v>
-      </c>
-      <c r="R40" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -1452,28 +1609,19 @@
         <v>32.0</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" t="s">
-        <v>166</v>
-      </c>
-      <c r="I41" t="s">
-        <v>166</v>
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>187</v>
       </c>
       <c r="L41" t="s">
-        <v>166</v>
-      </c>
-      <c r="P41" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>166</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1481,7 +1629,10 @@
         <v>33.0</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -1489,12 +1640,15 @@
         <v>34.0</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>166</v>
-      </c>
-      <c r="R43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" t="s">
+        <v>187</v>
+      </c>
+      <c r="S43" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1503,15 +1657,18 @@
         <v>35.0</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" t="s">
-        <v>166</v>
-      </c>
-      <c r="R44" t="n">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>187</v>
+      </c>
+      <c r="S44" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1520,15 +1677,18 @@
         <v>36.0</v>
       </c>
       <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
         <v>36</v>
       </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>166</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="N45" t="s">
+        <v>187</v>
+      </c>
+      <c r="S45" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1537,15 +1697,18 @@
         <v>37.0</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" t="s">
-        <v>166</v>
-      </c>
-      <c r="R46" t="n">
+        <v>187</v>
+      </c>
+      <c r="L46" t="s">
+        <v>187</v>
+      </c>
+      <c r="S46" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1554,15 +1717,18 @@
         <v>38.0</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
-      </c>
-      <c r="O47" t="s">
-        <v>166</v>
-      </c>
-      <c r="R47" t="n">
+        <v>187</v>
+      </c>
+      <c r="G47" t="s">
+        <v>187</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1571,18 +1737,21 @@
         <v>39.0</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" t="s">
-        <v>166</v>
-      </c>
-      <c r="R48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" t="s">
+        <v>187</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1591,18 +1760,21 @@
         <v>40.0</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" t="s">
-        <v>166</v>
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
       </c>
       <c r="M49" t="s">
-        <v>166</v>
-      </c>
-      <c r="R49" t="n">
+        <v>187</v>
+      </c>
+      <c r="P49" t="s">
+        <v>187</v>
+      </c>
+      <c r="S49" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1611,24 +1783,27 @@
         <v>41.0</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" t="s">
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>166</v>
-      </c>
-      <c r="I50" t="s">
-        <v>166</v>
-      </c>
-      <c r="K50" t="s">
-        <v>166</v>
-      </c>
-      <c r="R50" t="n">
+        <v>187</v>
+      </c>
+      <c r="M50" t="s">
+        <v>187</v>
+      </c>
+      <c r="S50" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -1637,25 +1812,31 @@
         <v>42.0</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" t="s">
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K51" t="s">
-        <v>166</v>
-      </c>
-      <c r="P51" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>166</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="H51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" t="s">
+        <v>187</v>
+      </c>
+      <c r="S51" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1663,27 +1844,30 @@
         <v>43.0</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="G52" t="s">
+        <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" t="s">
-        <v>166</v>
-      </c>
-      <c r="K52" t="s">
-        <v>166</v>
-      </c>
-      <c r="O52" t="s">
-        <v>166</v>
-      </c>
-      <c r="R52" t="n">
+        <v>187</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>187</v>
+      </c>
+      <c r="S52" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1692,25 +1876,31 @@
         <v>44.0</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>166</v>
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
-      </c>
-      <c r="K53" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J53" t="s">
+        <v>187</v>
       </c>
       <c r="L53" t="s">
-        <v>166</v>
-      </c>
-      <c r="O53" t="s">
-        <v>166</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="P53" t="s">
+        <v>187</v>
+      </c>
+      <c r="R53" t="s">
+        <v>187</v>
+      </c>
+      <c r="S53" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -1718,27 +1908,30 @@
         <v>45.0</v>
       </c>
       <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
         <v>45</v>
       </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
+        <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J54" t="s">
+        <v>187</v>
       </c>
       <c r="L54" t="s">
-        <v>166</v>
-      </c>
-      <c r="O54" t="s">
-        <v>166</v>
-      </c>
-      <c r="P54" t="s">
-        <v>166</v>
-      </c>
-      <c r="R54" t="n">
+        <v>187</v>
+      </c>
+      <c r="S54" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1747,25 +1940,31 @@
         <v>46.0</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" t="s">
-        <v>166</v>
-      </c>
-      <c r="G55" t="s">
-        <v>166</v>
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" t="s">
-        <v>166</v>
-      </c>
-      <c r="P55" t="s">
-        <v>166</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s">
+        <v>187</v>
+      </c>
+      <c r="N55" t="s">
+        <v>187</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -1773,27 +1972,30 @@
         <v>47.0</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
-      </c>
-      <c r="L56" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H56" t="s">
+        <v>187</v>
+      </c>
+      <c r="I56" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>166</v>
-      </c>
-      <c r="R56" t="n">
+        <v>187</v>
+      </c>
+      <c r="P56" t="s">
+        <v>187</v>
+      </c>
+      <c r="S56" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1802,22 +2004,31 @@
         <v>48.0</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" t="s">
-        <v>166</v>
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s">
-        <v>166</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="M57" t="s">
+        <v>187</v>
+      </c>
+      <c r="P57" t="s">
+        <v>187</v>
+      </c>
+      <c r="R57" t="s">
+        <v>187</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -1825,22 +2036,28 @@
         <v>49.0</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J58" t="s">
-        <v>166</v>
-      </c>
-      <c r="K58" t="s">
-        <v>166</v>
-      </c>
-      <c r="O58" t="s">
-        <v>166</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="H58" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>187</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
@@ -1848,28 +2065,25 @@
         <v>50.0</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>166</v>
-      </c>
-      <c r="R59" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="M59" t="s">
+        <v>187</v>
+      </c>
+      <c r="P59" t="s">
+        <v>187</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -1877,28 +2091,28 @@
         <v>51.0</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="G60" t="s">
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
-      </c>
-      <c r="K60" t="s">
-        <v>166</v>
-      </c>
-      <c r="L60" t="s">
-        <v>166</v>
-      </c>
-      <c r="R60" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" t="s">
+        <v>187</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
@@ -1906,22 +2120,28 @@
         <v>52.0</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
-      </c>
-      <c r="I61" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>187</v>
+      </c>
+      <c r="P61" t="s">
+        <v>187</v>
       </c>
       <c r="Q61" t="s">
-        <v>166</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -1929,27 +2149,30 @@
         <v>53.0</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I62" t="s">
-        <v>166</v>
-      </c>
-      <c r="L62" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>166</v>
-      </c>
-      <c r="R62" t="n">
+        <v>187</v>
+      </c>
+      <c r="M62" t="s">
+        <v>187</v>
+      </c>
+      <c r="S62" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1958,27 +2181,30 @@
         <v>54.0</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
       </c>
       <c r="H63" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I63" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" t="s">
+        <v>187</v>
       </c>
       <c r="L63" t="s">
-        <v>166</v>
-      </c>
-      <c r="R63" t="n">
+        <v>187</v>
+      </c>
+      <c r="S63" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -1987,28 +2213,25 @@
         <v>55.0</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" t="s">
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" t="s">
-        <v>166</v>
-      </c>
-      <c r="O64" t="s">
-        <v>166</v>
-      </c>
-      <c r="P64" t="s">
-        <v>166</v>
-      </c>
-      <c r="R64" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
@@ -2016,22 +2239,31 @@
         <v>56.0</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" t="s">
+        <v>187</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
-      </c>
-      <c r="O65" t="s">
-        <v>166</v>
-      </c>
-      <c r="R65" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="J65" t="s">
+        <v>187</v>
+      </c>
+      <c r="S65" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -2039,16 +2271,28 @@
         <v>57.0</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K66" t="s">
-        <v>166</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.0</v>
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+      <c r="P66" t="s">
+        <v>187</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -2056,22 +2300,31 @@
         <v>58.0</v>
       </c>
       <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
         <v>58</v>
       </c>
-      <c r="D67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>166</v>
-      </c>
       <c r="F67" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" t="s">
-        <v>166</v>
-      </c>
-      <c r="R67" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" t="s">
+        <v>187</v>
+      </c>
+      <c r="J67" t="s">
+        <v>187</v>
+      </c>
+      <c r="L67" t="s">
+        <v>187</v>
+      </c>
+      <c r="M67" t="s">
+        <v>187</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
@@ -2079,18 +2332,21 @@
         <v>59.0</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="L68" t="s">
-        <v>166</v>
-      </c>
-      <c r="M68" t="s">
-        <v>166</v>
-      </c>
-      <c r="P68" t="s">
-        <v>166</v>
-      </c>
-      <c r="R68" t="n">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" t="s">
+        <v>187</v>
+      </c>
+      <c r="S68" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2099,18 +2355,21 @@
         <v>60.0</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" t="s">
-        <v>166</v>
-      </c>
-      <c r="R69" t="n">
+        <v>187</v>
+      </c>
+      <c r="J69" t="s">
+        <v>187</v>
+      </c>
+      <c r="M69" t="s">
+        <v>187</v>
+      </c>
+      <c r="S69" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2119,27 +2378,30 @@
         <v>61.0</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" t="s">
-        <v>166</v>
-      </c>
-      <c r="K70" t="s">
-        <v>166</v>
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>187</v>
+      </c>
+      <c r="I70" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70" t="s">
+        <v>187</v>
       </c>
       <c r="L70" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="N70" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>166</v>
-      </c>
-      <c r="R70" t="n">
+        <v>187</v>
+      </c>
+      <c r="R70" t="s">
+        <v>187</v>
+      </c>
+      <c r="S70" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2148,24 +2410,27 @@
         <v>62.0</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>166</v>
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>187</v>
       </c>
       <c r="I71" t="s">
-        <v>166</v>
-      </c>
-      <c r="K71" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J71" t="s">
+        <v>187</v>
       </c>
       <c r="L71" t="s">
-        <v>166</v>
-      </c>
-      <c r="R71" t="n">
+        <v>187</v>
+      </c>
+      <c r="M71" t="s">
+        <v>187</v>
+      </c>
+      <c r="S71" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -2174,21 +2439,24 @@
         <v>63.0</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>166</v>
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
       </c>
       <c r="H72" t="s">
-        <v>166</v>
-      </c>
-      <c r="I72" t="s">
-        <v>166</v>
-      </c>
-      <c r="L72" t="s">
-        <v>166</v>
-      </c>
-      <c r="R72" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>187</v>
+      </c>
+      <c r="S72" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -2197,27 +2465,30 @@
         <v>64.0</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
-      </c>
-      <c r="F73" t="s">
-        <v>166</v>
-      </c>
-      <c r="G73" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I73" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J73" t="s">
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>166</v>
-      </c>
-      <c r="O73" t="s">
-        <v>166</v>
-      </c>
-      <c r="R73" t="n">
+        <v>187</v>
+      </c>
+      <c r="M73" t="s">
+        <v>187</v>
+      </c>
+      <c r="N73" t="s">
+        <v>187</v>
+      </c>
+      <c r="S73" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2226,27 +2497,30 @@
         <v>65.0</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="G74" t="s">
+        <v>187</v>
       </c>
       <c r="H74" t="s">
-        <v>166</v>
-      </c>
-      <c r="I74" t="s">
-        <v>166</v>
-      </c>
-      <c r="K74" t="s">
-        <v>166</v>
-      </c>
-      <c r="R74" t="n">
+        <v>187</v>
+      </c>
+      <c r="J74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>187</v>
+      </c>
+      <c r="S74" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2255,28 +2529,25 @@
         <v>66.0</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" t="s">
-        <v>166</v>
-      </c>
-      <c r="K75" t="s">
-        <v>166</v>
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75" t="s">
+        <v>187</v>
       </c>
       <c r="L75" t="s">
-        <v>166</v>
-      </c>
-      <c r="O75" t="s">
-        <v>166</v>
-      </c>
-      <c r="R75" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="M75" t="s">
+        <v>187</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
@@ -2284,27 +2555,30 @@
         <v>67.0</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" t="s">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
       </c>
       <c r="G76" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I76" t="s">
-        <v>166</v>
-      </c>
-      <c r="K76" t="s">
-        <v>166</v>
-      </c>
-      <c r="O76" t="s">
-        <v>166</v>
-      </c>
-      <c r="R76" t="n">
+        <v>187</v>
+      </c>
+      <c r="J76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" t="s">
+        <v>187</v>
+      </c>
+      <c r="P76" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>187</v>
+      </c>
+      <c r="S76" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2313,28 +2587,22 @@
         <v>68.0</v>
       </c>
       <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
         <v>68</v>
       </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-      <c r="F77" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" t="s">
-        <v>166</v>
-      </c>
-      <c r="O77" t="s">
-        <v>166</v>
-      </c>
-      <c r="P77" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>166</v>
-      </c>
-      <c r="R77" t="n">
-        <v>6.0</v>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H77" t="s">
+        <v>187</v>
+      </c>
+      <c r="R77" t="s">
+        <v>187</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -2342,27 +2610,30 @@
         <v>69.0</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" t="s">
-        <v>166</v>
-      </c>
-      <c r="K78" t="s">
-        <v>166</v>
-      </c>
-      <c r="P78" t="s">
-        <v>166</v>
-      </c>
-      <c r="R78" t="n">
+        <v>187</v>
+      </c>
+      <c r="H78" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" t="s">
+        <v>187</v>
+      </c>
+      <c r="N78" t="s">
+        <v>187</v>
+      </c>
+      <c r="O78" t="s">
+        <v>187</v>
+      </c>
+      <c r="S78" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2371,12 +2642,15 @@
         <v>70.0</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" t="s">
-        <v>166</v>
-      </c>
-      <c r="R79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s">
+        <v>187</v>
+      </c>
+      <c r="S79" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2385,12 +2659,15 @@
         <v>71.0</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="M80" t="s">
-        <v>166</v>
-      </c>
-      <c r="R80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
+      <c r="S80" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2399,12 +2676,15 @@
         <v>72.0</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="O81" t="s">
-        <v>166</v>
-      </c>
-      <c r="R81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="s">
+        <v>187</v>
+      </c>
+      <c r="S81" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2413,12 +2693,15 @@
         <v>73.0</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" t="s">
-        <v>166</v>
-      </c>
-      <c r="R82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" t="s">
+        <v>187</v>
+      </c>
+      <c r="S82" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2427,12 +2710,15 @@
         <v>74.0</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
       </c>
       <c r="Q83" t="s">
-        <v>166</v>
-      </c>
-      <c r="R83" t="n">
+        <v>187</v>
+      </c>
+      <c r="S83" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2441,12 +2727,15 @@
         <v>75.0</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E84" t="s">
-        <v>166</v>
-      </c>
-      <c r="R84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s">
+        <v>187</v>
+      </c>
+      <c r="S84" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2455,12 +2744,15 @@
         <v>76.0</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
-      </c>
-      <c r="R85" t="n">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="S85" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2469,15 +2761,18 @@
         <v>77.0</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="K86" t="s">
-        <v>166</v>
-      </c>
-      <c r="R86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>187</v>
+      </c>
+      <c r="S86" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -2486,15 +2781,18 @@
         <v>78.0</v>
       </c>
       <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
         <v>78</v>
       </c>
-      <c r="C87" t="s">
-        <v>166</v>
-      </c>
-      <c r="L87" t="s">
-        <v>166</v>
-      </c>
-      <c r="R87" t="n">
+      <c r="I87" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" t="s">
+        <v>187</v>
+      </c>
+      <c r="S87" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -2503,15 +2801,18 @@
         <v>79.0</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" t="s">
-        <v>166</v>
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
-      </c>
-      <c r="R88" t="n">
+        <v>187</v>
+      </c>
+      <c r="F88" t="s">
+        <v>187</v>
+      </c>
+      <c r="S88" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -2520,15 +2821,18 @@
         <v>80.0</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s">
-        <v>166</v>
-      </c>
-      <c r="N89" t="s">
-        <v>166</v>
-      </c>
-      <c r="R89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>187</v>
+      </c>
+      <c r="S89" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -2537,19 +2841,16 @@
         <v>81.0</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s">
-        <v>166</v>
-      </c>
-      <c r="L90" t="s">
-        <v>166</v>
-      </c>
-      <c r="O90" t="s">
-        <v>166</v>
-      </c>
-      <c r="R90" t="n">
-        <v>3.0</v>
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -2557,18 +2858,21 @@
         <v>82.0</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H91" t="s">
-        <v>166</v>
-      </c>
-      <c r="I91" t="s">
-        <v>166</v>
-      </c>
-      <c r="K91" t="s">
-        <v>166</v>
-      </c>
-      <c r="R91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="L91" t="s">
+        <v>187</v>
+      </c>
+      <c r="P91" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>187</v>
+      </c>
+      <c r="S91" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2577,18 +2881,21 @@
         <v>83.0</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="I92" t="s">
-        <v>166</v>
-      </c>
-      <c r="R92" t="n">
+        <v>187</v>
+      </c>
+      <c r="J92" t="s">
+        <v>187</v>
+      </c>
+      <c r="R92" t="s">
+        <v>187</v>
+      </c>
+      <c r="S92" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2597,18 +2904,21 @@
         <v>84.0</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>187</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
-      </c>
-      <c r="H93" t="s">
-        <v>166</v>
-      </c>
-      <c r="R93" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>187</v>
+      </c>
+      <c r="S93" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2617,18 +2927,21 @@
         <v>85.0</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
-      </c>
-      <c r="L94" t="s">
-        <v>166</v>
-      </c>
-      <c r="P94" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>166</v>
-      </c>
-      <c r="R94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+      <c r="G94" t="s">
+        <v>187</v>
+      </c>
+      <c r="S94" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2637,18 +2950,21 @@
         <v>86.0</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
       </c>
       <c r="F95" t="s">
-        <v>166</v>
-      </c>
-      <c r="O95" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>166</v>
-      </c>
-      <c r="R95" t="n">
+        <v>187</v>
+      </c>
+      <c r="J95" t="s">
+        <v>187</v>
+      </c>
+      <c r="N95" t="s">
+        <v>187</v>
+      </c>
+      <c r="S95" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2657,18 +2973,21 @@
         <v>87.0</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="H96" t="s">
-        <v>166</v>
-      </c>
-      <c r="L96" t="s">
-        <v>166</v>
-      </c>
-      <c r="O96" t="s">
-        <v>166</v>
-      </c>
-      <c r="R96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s">
+        <v>187</v>
+      </c>
+      <c r="P96" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>187</v>
+      </c>
+      <c r="S96" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -2677,27 +2996,30 @@
         <v>88.0</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s">
-        <v>166</v>
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" t="s">
+        <v>187</v>
       </c>
       <c r="H97" t="s">
-        <v>166</v>
-      </c>
-      <c r="M97" t="s">
-        <v>166</v>
-      </c>
-      <c r="O97" t="s">
-        <v>166</v>
-      </c>
-      <c r="P97" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I97" t="s">
+        <v>187</v>
       </c>
       <c r="Q97" t="s">
-        <v>166</v>
-      </c>
-      <c r="R97" t="n">
+        <v>187</v>
+      </c>
+      <c r="R97" t="s">
+        <v>187</v>
+      </c>
+      <c r="S97" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2706,27 +3028,30 @@
         <v>89.0</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F98" t="s">
+        <v>187</v>
+      </c>
+      <c r="H98" t="s">
+        <v>187</v>
       </c>
       <c r="I98" t="s">
-        <v>166</v>
-      </c>
-      <c r="K98" t="s">
-        <v>166</v>
-      </c>
-      <c r="L98" t="s">
-        <v>166</v>
-      </c>
-      <c r="R98" t="n">
+        <v>187</v>
+      </c>
+      <c r="J98" t="s">
+        <v>187</v>
+      </c>
+      <c r="S98" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2735,28 +3060,28 @@
         <v>90.0</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E99" t="s">
-        <v>166</v>
-      </c>
-      <c r="F99" t="s">
-        <v>166</v>
-      </c>
-      <c r="G99" t="s">
-        <v>166</v>
-      </c>
-      <c r="I99" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H99" t="s">
+        <v>187</v>
+      </c>
+      <c r="J99" t="s">
+        <v>187</v>
       </c>
       <c r="L99" t="s">
-        <v>166</v>
-      </c>
-      <c r="R99" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="100">
@@ -2764,21 +3089,24 @@
         <v>91.0</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" t="s">
-        <v>166</v>
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>97</v>
       </c>
       <c r="G100" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H100" t="s">
+        <v>187</v>
       </c>
       <c r="I100" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K100" t="s">
-        <v>166</v>
-      </c>
-      <c r="R100" t="n">
+        <v>187</v>
+      </c>
+      <c r="S100" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -2787,25 +3115,31 @@
         <v>92.0</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" t="s">
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G101" t="s">
-        <v>166</v>
-      </c>
-      <c r="L101" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I101" t="s">
+        <v>187</v>
       </c>
       <c r="M101" t="s">
-        <v>166</v>
-      </c>
-      <c r="P101" t="s">
-        <v>166</v>
-      </c>
-      <c r="R101" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="R101" t="s">
+        <v>187</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="102">
@@ -2813,16 +3147,25 @@
         <v>93.0</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="G102" t="s">
-        <v>166</v>
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" t="s">
+        <v>187</v>
       </c>
       <c r="I102" t="s">
-        <v>166</v>
-      </c>
-      <c r="R102" t="n">
-        <v>2.0</v>
+        <v>187</v>
+      </c>
+      <c r="J102" t="s">
+        <v>187</v>
+      </c>
+      <c r="P102" t="s">
+        <v>187</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
@@ -2830,27 +3173,30 @@
         <v>94.0</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E103" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
-      </c>
-      <c r="J103" t="s">
-        <v>166</v>
-      </c>
-      <c r="M103" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>166</v>
-      </c>
-      <c r="R103" t="n">
+        <v>187</v>
+      </c>
+      <c r="G103" t="s">
+        <v>187</v>
+      </c>
+      <c r="H103" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" t="s">
+        <v>187</v>
+      </c>
+      <c r="P103" t="s">
+        <v>187</v>
+      </c>
+      <c r="S103" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2859,25 +3205,31 @@
         <v>95.0</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-      <c r="H104" t="s">
-        <v>166</v>
-      </c>
-      <c r="I104" t="s">
-        <v>166</v>
-      </c>
-      <c r="L104" t="s">
-        <v>166</v>
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" t="s">
+        <v>187</v>
+      </c>
+      <c r="G104" t="s">
+        <v>187</v>
+      </c>
+      <c r="J104" t="s">
+        <v>187</v>
+      </c>
+      <c r="M104" t="s">
+        <v>187</v>
+      </c>
+      <c r="N104" t="s">
+        <v>187</v>
       </c>
       <c r="P104" t="s">
-        <v>166</v>
-      </c>
-      <c r="R104" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="S104" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
@@ -2885,27 +3237,30 @@
         <v>96.0</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" t="s">
+        <v>187</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="G105" t="s">
+        <v>187</v>
       </c>
       <c r="I105" t="s">
-        <v>166</v>
-      </c>
-      <c r="L105" t="s">
-        <v>166</v>
-      </c>
-      <c r="M105" t="s">
-        <v>166</v>
-      </c>
-      <c r="P105" t="s">
-        <v>166</v>
-      </c>
-      <c r="R105" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>187</v>
+      </c>
+      <c r="S105" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2914,28 +3269,28 @@
         <v>97.0</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
-      </c>
-      <c r="F106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G106" t="s">
-        <v>166</v>
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>103</v>
       </c>
       <c r="H106" t="s">
-        <v>166</v>
-      </c>
-      <c r="I106" t="s">
-        <v>166</v>
-      </c>
-      <c r="L106" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="M106" t="s">
+        <v>187</v>
+      </c>
+      <c r="N106" t="s">
+        <v>187</v>
       </c>
       <c r="P106" t="s">
-        <v>166</v>
-      </c>
-      <c r="R106" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="R106" t="s">
+        <v>187</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="107">
@@ -2943,27 +3298,30 @@
         <v>98.0</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F107" t="s">
-        <v>166</v>
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" t="s">
+        <v>187</v>
       </c>
       <c r="G107" t="s">
-        <v>166</v>
-      </c>
-      <c r="I107" t="s">
-        <v>166</v>
-      </c>
-      <c r="K107" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="L107" t="s">
+        <v>187</v>
       </c>
       <c r="M107" t="s">
-        <v>166</v>
-      </c>
-      <c r="P107" t="s">
-        <v>166</v>
-      </c>
-      <c r="R107" t="n">
+        <v>187</v>
+      </c>
+      <c r="R107" t="s">
+        <v>187</v>
+      </c>
+      <c r="S107" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2972,28 +3330,28 @@
         <v>99.0</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F108" t="s">
+        <v>187</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
-      </c>
-      <c r="I108" t="s">
-        <v>166</v>
-      </c>
-      <c r="K108" t="s">
-        <v>166</v>
-      </c>
-      <c r="L108" t="s">
-        <v>166</v>
-      </c>
-      <c r="R108" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="H108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M108" t="s">
+        <v>187</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="109">
@@ -3001,22 +3359,31 @@
         <v>100.0</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
-      </c>
-      <c r="F109" t="s">
-        <v>166</v>
-      </c>
-      <c r="H109" t="s">
-        <v>166</v>
+        <v>111</v>
+      </c>
+      <c r="D109" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" t="s">
+        <v>187</v>
+      </c>
+      <c r="G109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I109" t="s">
+        <v>187</v>
       </c>
       <c r="L109" t="s">
-        <v>166</v>
-      </c>
-      <c r="R109" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>187</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
@@ -3024,28 +3391,28 @@
         <v>101.0</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" t="s">
-        <v>166</v>
-      </c>
-      <c r="F110" t="s">
-        <v>166</v>
-      </c>
-      <c r="I110" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="G110" t="s">
+        <v>187</v>
+      </c>
+      <c r="J110" t="s">
+        <v>187</v>
+      </c>
+      <c r="L110" t="s">
+        <v>187</v>
       </c>
       <c r="M110" t="s">
-        <v>166</v>
-      </c>
-      <c r="O110" t="s">
-        <v>166</v>
-      </c>
-      <c r="R110" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="111">
@@ -3053,24 +3420,27 @@
         <v>102.0</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
-      </c>
-      <c r="D111" t="s">
-        <v>166</v>
+        <v>111</v>
+      </c>
+      <c r="G111" t="s">
+        <v>187</v>
       </c>
       <c r="H111" t="s">
-        <v>166</v>
-      </c>
-      <c r="I111" t="s">
-        <v>166</v>
-      </c>
-      <c r="K111" t="s">
-        <v>166</v>
-      </c>
-      <c r="R111" t="n">
+        <v>187</v>
+      </c>
+      <c r="J111" t="s">
+        <v>187</v>
+      </c>
+      <c r="M111" t="s">
+        <v>187</v>
+      </c>
+      <c r="P111" t="s">
+        <v>187</v>
+      </c>
+      <c r="S111" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -3079,27 +3449,30 @@
         <v>103.0</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D112" t="s">
-        <v>166</v>
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F112" t="s">
+        <v>187</v>
       </c>
       <c r="G112" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H112" t="s">
-        <v>166</v>
-      </c>
-      <c r="K112" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L112" t="s">
-        <v>166</v>
-      </c>
-      <c r="R112" t="n">
+        <v>187</v>
+      </c>
+      <c r="P112" t="s">
+        <v>187</v>
+      </c>
+      <c r="S112" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3108,18 +3481,21 @@
         <v>104.0</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
-      </c>
-      <c r="F113" t="s">
-        <v>166</v>
-      </c>
-      <c r="K113" t="s">
-        <v>166</v>
-      </c>
-      <c r="O113" t="s">
-        <v>166</v>
-      </c>
-      <c r="R113" t="n">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>111</v>
+      </c>
+      <c r="H113" t="s">
+        <v>187</v>
+      </c>
+      <c r="M113" t="s">
+        <v>187</v>
+      </c>
+      <c r="P113" t="s">
+        <v>187</v>
+      </c>
+      <c r="S113" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3128,22 +3504,28 @@
         <v>105.0</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
-      </c>
-      <c r="F114" t="s">
-        <v>166</v>
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" t="s">
+        <v>187</v>
       </c>
       <c r="G114" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I114" t="s">
+        <v>187</v>
       </c>
       <c r="L114" t="s">
-        <v>166</v>
-      </c>
-      <c r="P114" t="s">
-        <v>166</v>
-      </c>
-      <c r="R114" t="n">
-        <v>4.0</v>
+        <v>187</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>187</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="115">
@@ -3151,28 +3533,25 @@
         <v>106.0</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>111</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
-      </c>
-      <c r="F115" t="s">
-        <v>166</v>
-      </c>
-      <c r="G115" t="s">
-        <v>166</v>
-      </c>
-      <c r="K115" t="s">
-        <v>166</v>
-      </c>
-      <c r="P115" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>166</v>
-      </c>
-      <c r="R115" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="I115" t="s">
+        <v>187</v>
+      </c>
+      <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="R115" t="s">
+        <v>187</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
@@ -3180,25 +3559,25 @@
         <v>107.0</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
-      </c>
-      <c r="F116" t="s">
-        <v>166</v>
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H116" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I116" t="s">
-        <v>166</v>
-      </c>
-      <c r="K116" t="s">
-        <v>166</v>
-      </c>
-      <c r="R116" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="M116" t="s">
+        <v>187</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="117">
@@ -3206,25 +3585,22 @@
         <v>108.0</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" t="s">
-        <v>166</v>
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
       </c>
       <c r="E117" t="s">
-        <v>166</v>
-      </c>
-      <c r="F117" t="s">
-        <v>166</v>
-      </c>
-      <c r="K117" t="s">
-        <v>166</v>
-      </c>
-      <c r="O117" t="s">
-        <v>166</v>
-      </c>
-      <c r="R117" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="H117" t="s">
+        <v>187</v>
+      </c>
+      <c r="J117" t="s">
+        <v>187</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="118">
@@ -3232,12 +3608,15 @@
         <v>109.0</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
-      </c>
-      <c r="I118" t="s">
-        <v>166</v>
-      </c>
-      <c r="R118" t="n">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="R118" t="s">
+        <v>187</v>
+      </c>
+      <c r="S118" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3246,12 +3625,15 @@
         <v>110.0</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
-      </c>
-      <c r="G119" t="s">
-        <v>166</v>
-      </c>
-      <c r="R119" t="n">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="N119" t="s">
+        <v>187</v>
+      </c>
+      <c r="S119" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3260,12 +3642,15 @@
         <v>111.0</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" t="s">
-        <v>166</v>
-      </c>
-      <c r="R120" t="n">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" t="s">
+        <v>187</v>
+      </c>
+      <c r="S120" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3274,12 +3659,15 @@
         <v>112.0</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
-      </c>
-      <c r="F121" t="s">
-        <v>166</v>
-      </c>
-      <c r="R121" t="n">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="M121" t="s">
+        <v>187</v>
+      </c>
+      <c r="S121" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3288,18 +3676,21 @@
         <v>113.0</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
-      </c>
-      <c r="E122" t="s">
-        <v>166</v>
-      </c>
-      <c r="K122" t="s">
-        <v>166</v>
-      </c>
-      <c r="R122" t="n">
+        <v>122</v>
+      </c>
+      <c r="G122" t="s">
+        <v>187</v>
+      </c>
+      <c r="H122" t="s">
+        <v>187</v>
+      </c>
+      <c r="N122" t="s">
+        <v>187</v>
+      </c>
+      <c r="S122" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3308,18 +3699,21 @@
         <v>114.0</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" t="s">
+        <v>187</v>
       </c>
       <c r="G123" t="s">
-        <v>166</v>
-      </c>
-      <c r="K123" t="s">
-        <v>166</v>
-      </c>
-      <c r="L123" t="s">
-        <v>166</v>
-      </c>
-      <c r="R123" t="n">
+        <v>187</v>
+      </c>
+      <c r="N123" t="s">
+        <v>187</v>
+      </c>
+      <c r="S123" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3328,18 +3722,21 @@
         <v>115.0</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
-      </c>
-      <c r="F124" t="s">
-        <v>166</v>
-      </c>
-      <c r="M124" t="s">
-        <v>166</v>
-      </c>
-      <c r="O124" t="s">
-        <v>166</v>
-      </c>
-      <c r="R124" t="n">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>122</v>
+      </c>
+      <c r="G124" t="s">
+        <v>187</v>
+      </c>
+      <c r="I124" t="s">
+        <v>187</v>
+      </c>
+      <c r="L124" t="s">
+        <v>187</v>
+      </c>
+      <c r="S124" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3348,18 +3745,21 @@
         <v>116.0</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G125" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>166</v>
-      </c>
-      <c r="R125" t="n">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>122</v>
+      </c>
+      <c r="H125" t="s">
+        <v>187</v>
+      </c>
+      <c r="M125" t="s">
+        <v>187</v>
+      </c>
+      <c r="R125" t="s">
+        <v>187</v>
+      </c>
+      <c r="S125" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3368,18 +3768,21 @@
         <v>117.0</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
-      </c>
-      <c r="E126" t="s">
-        <v>166</v>
-      </c>
-      <c r="K126" t="s">
-        <v>166</v>
-      </c>
-      <c r="L126" t="s">
-        <v>166</v>
-      </c>
-      <c r="R126" t="n">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>122</v>
+      </c>
+      <c r="G126" t="s">
+        <v>187</v>
+      </c>
+      <c r="H126" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>187</v>
+      </c>
+      <c r="S126" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3388,18 +3791,21 @@
         <v>118.0</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>122</v>
       </c>
       <c r="I127" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="J127" t="s">
+        <v>187</v>
       </c>
       <c r="P127" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>166</v>
-      </c>
-      <c r="R127" t="n">
+        <v>187</v>
+      </c>
+      <c r="S127" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3408,18 +3814,21 @@
         <v>119.0</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>166</v>
-      </c>
-      <c r="D128" t="s">
-        <v>166</v>
-      </c>
-      <c r="L128" t="s">
-        <v>166</v>
-      </c>
-      <c r="R128" t="n">
+        <v>122</v>
+      </c>
+      <c r="P128" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>187</v>
+      </c>
+      <c r="R128" t="s">
+        <v>187</v>
+      </c>
+      <c r="S128" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3428,18 +3837,21 @@
         <v>120.0</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
-      </c>
-      <c r="J129" t="s">
-        <v>166</v>
-      </c>
-      <c r="O129" t="s">
-        <v>166</v>
-      </c>
-      <c r="P129" t="s">
-        <v>166</v>
-      </c>
-      <c r="R129" t="n">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>122</v>
+      </c>
+      <c r="G129" t="s">
+        <v>187</v>
+      </c>
+      <c r="H129" t="s">
+        <v>187</v>
+      </c>
+      <c r="M129" t="s">
+        <v>187</v>
+      </c>
+      <c r="S129" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3448,18 +3860,21 @@
         <v>121.0</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
-      </c>
-      <c r="H130" t="s">
-        <v>166</v>
-      </c>
-      <c r="L130" t="s">
-        <v>166</v>
-      </c>
-      <c r="O130" t="s">
-        <v>166</v>
-      </c>
-      <c r="R130" t="n">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" t="s">
+        <v>187</v>
+      </c>
+      <c r="J130" t="s">
+        <v>187</v>
+      </c>
+      <c r="R130" t="s">
+        <v>187</v>
+      </c>
+      <c r="S130" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3468,18 +3883,21 @@
         <v>122.0</v>
       </c>
       <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
         <v>122</v>
       </c>
-      <c r="D131" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" t="s">
-        <v>166</v>
-      </c>
       <c r="L131" t="s">
-        <v>166</v>
-      </c>
-      <c r="R131" t="n">
+        <v>187</v>
+      </c>
+      <c r="N131" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>187</v>
+      </c>
+      <c r="S131" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3488,27 +3906,30 @@
         <v>123.0</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G132" t="s">
-        <v>166</v>
-      </c>
-      <c r="H132" t="s">
-        <v>166</v>
-      </c>
-      <c r="L132" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I132" t="s">
+        <v>187</v>
+      </c>
+      <c r="M132" t="s">
+        <v>187</v>
+      </c>
+      <c r="P132" t="s">
+        <v>187</v>
       </c>
       <c r="Q132" t="s">
-        <v>166</v>
-      </c>
-      <c r="R132" t="n">
+        <v>187</v>
+      </c>
+      <c r="R132" t="s">
+        <v>187</v>
+      </c>
+      <c r="S132" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3517,27 +3938,30 @@
         <v>124.0</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
-      </c>
-      <c r="D133" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F133" t="s">
-        <v>166</v>
-      </c>
-      <c r="G133" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H133" t="s">
+        <v>187</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-      <c r="R133" t="n">
+        <v>187</v>
+      </c>
+      <c r="J133" t="s">
+        <v>187</v>
+      </c>
+      <c r="R133" t="s">
+        <v>187</v>
+      </c>
+      <c r="S133" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3546,12 +3970,15 @@
         <v>125.0</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
-      </c>
-      <c r="R134" t="n">
+        <v>140</v>
+      </c>
+      <c r="M134" t="s">
+        <v>187</v>
+      </c>
+      <c r="S134" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3560,18 +3987,21 @@
         <v>126.0</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
       </c>
       <c r="F135" t="s">
-        <v>166</v>
-      </c>
-      <c r="I135" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>166</v>
-      </c>
-      <c r="R135" t="n">
+        <v>187</v>
+      </c>
+      <c r="M135" t="s">
+        <v>187</v>
+      </c>
+      <c r="R135" t="s">
+        <v>187</v>
+      </c>
+      <c r="S135" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3580,18 +4010,21 @@
         <v>127.0</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
-      </c>
-      <c r="H136" t="s">
-        <v>166</v>
-      </c>
-      <c r="O136" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="L136" t="s">
+        <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>166</v>
-      </c>
-      <c r="R136" t="n">
+        <v>187</v>
+      </c>
+      <c r="R136" t="s">
+        <v>187</v>
+      </c>
+      <c r="S136" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3600,18 +4033,21 @@
         <v>128.0</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
-      <c r="R137" t="n">
+        <v>187</v>
+      </c>
+      <c r="M137" t="s">
+        <v>187</v>
+      </c>
+      <c r="P137" t="s">
+        <v>187</v>
+      </c>
+      <c r="S137" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3620,18 +4056,21 @@
         <v>129.0</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
       </c>
       <c r="E138" t="s">
-        <v>166</v>
-      </c>
-      <c r="F138" t="s">
-        <v>166</v>
-      </c>
-      <c r="P138" t="s">
-        <v>166</v>
-      </c>
-      <c r="R138" t="n">
+        <v>187</v>
+      </c>
+      <c r="J138" t="s">
+        <v>187</v>
+      </c>
+      <c r="R138" t="s">
+        <v>187</v>
+      </c>
+      <c r="S138" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3640,27 +4079,30 @@
         <v>130.0</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>166</v>
-      </c>
-      <c r="E139" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G139" t="s">
-        <v>166</v>
-      </c>
-      <c r="H139" t="s">
-        <v>166</v>
-      </c>
-      <c r="L139" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I139" t="s">
+        <v>187</v>
+      </c>
+      <c r="M139" t="s">
+        <v>187</v>
+      </c>
+      <c r="P139" t="s">
+        <v>187</v>
       </c>
       <c r="Q139" t="s">
-        <v>166</v>
-      </c>
-      <c r="R139" t="n">
+        <v>187</v>
+      </c>
+      <c r="R139" t="s">
+        <v>187</v>
+      </c>
+      <c r="S139" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3669,27 +4111,30 @@
         <v>131.0</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
-      </c>
-      <c r="D140" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H140" t="s">
+        <v>187</v>
       </c>
       <c r="I140" t="s">
-        <v>166</v>
-      </c>
-      <c r="R140" t="n">
+        <v>187</v>
+      </c>
+      <c r="J140" t="s">
+        <v>187</v>
+      </c>
+      <c r="R140" t="s">
+        <v>187</v>
+      </c>
+      <c r="S140" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3698,12 +4143,15 @@
         <v>132.0</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
-      </c>
-      <c r="O141" t="s">
-        <v>166</v>
-      </c>
-      <c r="R141" t="n">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="L141" t="s">
+        <v>187</v>
+      </c>
+      <c r="S141" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3712,12 +4160,15 @@
         <v>133.0</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
-      </c>
-      <c r="L142" t="s">
-        <v>166</v>
-      </c>
-      <c r="R142" t="n">
+        <v>147</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" t="s">
+        <v>187</v>
+      </c>
+      <c r="S142" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3726,18 +4177,21 @@
         <v>134.0</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
-      </c>
-      <c r="L143" t="s">
-        <v>166</v>
-      </c>
-      <c r="O143" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>166</v>
-      </c>
-      <c r="R143" t="n">
+        <v>148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="J143" t="s">
+        <v>187</v>
+      </c>
+      <c r="K143" t="s">
+        <v>187</v>
+      </c>
+      <c r="M143" t="s">
+        <v>187</v>
+      </c>
+      <c r="S143" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3746,18 +4200,21 @@
         <v>135.0</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
-      </c>
-      <c r="F144" t="s">
-        <v>166</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
-      <c r="R144" t="n">
+        <v>146</v>
+      </c>
+      <c r="E144" t="s">
+        <v>187</v>
+      </c>
+      <c r="I144" t="s">
+        <v>187</v>
+      </c>
+      <c r="L144" t="s">
+        <v>187</v>
+      </c>
+      <c r="S144" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3766,18 +4223,21 @@
         <v>136.0</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
-      </c>
-      <c r="M145" t="s">
-        <v>166</v>
-      </c>
-      <c r="N145" t="s">
-        <v>166</v>
-      </c>
-      <c r="R145" t="n">
+        <v>146</v>
+      </c>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>187</v>
+      </c>
+      <c r="R145" t="s">
+        <v>187</v>
+      </c>
+      <c r="S145" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3786,16 +4246,22 @@
         <v>137.0</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>166</v>
-      </c>
-      <c r="R146" t="n">
-        <v>2.0</v>
+        <v>146</v>
+      </c>
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+      <c r="L146" t="s">
+        <v>187</v>
+      </c>
+      <c r="M146" t="s">
+        <v>187</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
@@ -3803,24 +4269,27 @@
         <v>138.0</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
-      </c>
-      <c r="F147" t="s">
-        <v>166</v>
-      </c>
-      <c r="H147" t="s">
-        <v>166</v>
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>187</v>
       </c>
       <c r="I147" t="s">
-        <v>166</v>
-      </c>
-      <c r="L147" t="s">
-        <v>166</v>
-      </c>
-      <c r="O147" t="s">
-        <v>166</v>
-      </c>
-      <c r="R147" t="n">
+        <v>187</v>
+      </c>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+      <c r="P147" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>187</v>
+      </c>
+      <c r="S147" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -3829,24 +4298,27 @@
         <v>139.0</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="C148" t="s">
+        <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
-      </c>
-      <c r="E148" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="F148" t="s">
+        <v>187</v>
       </c>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="I148" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L148" t="s">
-        <v>166</v>
-      </c>
-      <c r="R148" t="n">
+        <v>187</v>
+      </c>
+      <c r="S148" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -3855,12 +4327,15 @@
         <v>140.0</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
-      </c>
-      <c r="M149" t="s">
-        <v>166</v>
-      </c>
-      <c r="R149" t="n">
+        <v>154</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="R149" t="s">
+        <v>187</v>
+      </c>
+      <c r="S149" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3869,12 +4344,15 @@
         <v>141.0</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
-      </c>
-      <c r="P150" t="s">
-        <v>166</v>
-      </c>
-      <c r="R150" t="n">
+        <v>156</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" t="s">
+        <v>187</v>
+      </c>
+      <c r="S150" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3883,15 +4361,18 @@
         <v>142.0</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
-      </c>
-      <c r="D151" t="s">
-        <v>166</v>
-      </c>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-      <c r="R151" t="n">
+        <v>157</v>
+      </c>
+      <c r="C151" t="s">
+        <v>155</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+      <c r="M151" t="s">
+        <v>187</v>
+      </c>
+      <c r="S151" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -3900,18 +4381,21 @@
         <v>143.0</v>
       </c>
       <c r="B152" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="F152" t="s">
+        <v>187</v>
       </c>
       <c r="I152" t="s">
-        <v>166</v>
-      </c>
-      <c r="L152" t="s">
-        <v>166</v>
-      </c>
-      <c r="R152" t="n">
+        <v>187</v>
+      </c>
+      <c r="R152" t="s">
+        <v>187</v>
+      </c>
+      <c r="S152" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3920,18 +4404,21 @@
         <v>144.0</v>
       </c>
       <c r="B153" t="s">
-        <v>142</v>
-      </c>
-      <c r="D153" t="s">
-        <v>166</v>
-      </c>
-      <c r="E153" t="s">
-        <v>166</v>
-      </c>
-      <c r="H153" t="s">
-        <v>166</v>
-      </c>
-      <c r="R153" t="n">
+        <v>159</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+      <c r="F153" t="s">
+        <v>187</v>
+      </c>
+      <c r="G153" t="s">
+        <v>187</v>
+      </c>
+      <c r="J153" t="s">
+        <v>187</v>
+      </c>
+      <c r="S153" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3940,19 +4427,31 @@
         <v>145.0</v>
       </c>
       <c r="B154" t="s">
-        <v>143</v>
-      </c>
-      <c r="F154" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" t="s">
+        <v>187</v>
       </c>
       <c r="G154" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+      <c r="J154" t="s">
+        <v>187</v>
       </c>
       <c r="M154" t="s">
-        <v>166</v>
-      </c>
-      <c r="R154" t="n">
-        <v>3.0</v>
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>187</v>
+      </c>
+      <c r="S154" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="155">
@@ -3960,27 +4459,30 @@
         <v>146.0</v>
       </c>
       <c r="B155" t="s">
-        <v>144</v>
+        <v>161</v>
+      </c>
+      <c r="C155" t="s">
+        <v>155</v>
+      </c>
+      <c r="D155" t="s">
+        <v>187</v>
       </c>
       <c r="E155" t="s">
-        <v>166</v>
-      </c>
-      <c r="F155" t="s">
-        <v>166</v>
-      </c>
-      <c r="G155" t="s">
-        <v>166</v>
-      </c>
-      <c r="H155" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+      <c r="L155" t="s">
+        <v>187</v>
+      </c>
+      <c r="M155" t="s">
+        <v>187</v>
       </c>
       <c r="P155" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>166</v>
-      </c>
-      <c r="R155" t="n">
+        <v>187</v>
+      </c>
+      <c r="S155" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -3989,24 +4491,27 @@
         <v>147.0</v>
       </c>
       <c r="B156" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>166</v>
-      </c>
-      <c r="E156" t="s">
-        <v>166</v>
-      </c>
-      <c r="F156" t="s">
-        <v>166</v>
-      </c>
-      <c r="G156" t="s">
-        <v>166</v>
-      </c>
-      <c r="H156" t="s">
-        <v>166</v>
-      </c>
-      <c r="R156" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" t="s">
+        <v>187</v>
+      </c>
+      <c r="I156" t="s">
+        <v>187</v>
+      </c>
+      <c r="L156" t="s">
+        <v>187</v>
+      </c>
+      <c r="M156" t="s">
+        <v>187</v>
+      </c>
+      <c r="P156" t="s">
+        <v>187</v>
+      </c>
+      <c r="S156" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -4015,15 +4520,18 @@
         <v>148.0</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
-        <v>166</v>
-      </c>
-      <c r="E157" t="s">
-        <v>166</v>
-      </c>
-      <c r="R157" t="n">
+        <v>164</v>
+      </c>
+      <c r="D157" t="s">
+        <v>187</v>
+      </c>
+      <c r="G157" t="s">
+        <v>187</v>
+      </c>
+      <c r="S157" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -4032,18 +4540,21 @@
         <v>149.0</v>
       </c>
       <c r="B158" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
       </c>
       <c r="F158" t="s">
-        <v>166</v>
-      </c>
-      <c r="I158" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>166</v>
-      </c>
-      <c r="R158" t="n">
+        <v>187</v>
+      </c>
+      <c r="G158" t="s">
+        <v>187</v>
+      </c>
+      <c r="M158" t="s">
+        <v>187</v>
+      </c>
+      <c r="S158" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -4052,18 +4563,21 @@
         <v>150.0</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>166</v>
-      </c>
-      <c r="H159" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>166</v>
-      </c>
-      <c r="R159" t="n">
+        <v>164</v>
+      </c>
+      <c r="D159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F159" t="s">
+        <v>187</v>
+      </c>
+      <c r="J159" t="s">
+        <v>187</v>
+      </c>
+      <c r="S159" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -4072,28 +4586,28 @@
         <v>151.0</v>
       </c>
       <c r="B160" t="s">
-        <v>149</v>
-      </c>
-      <c r="D160" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
       </c>
       <c r="F160" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G160" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H160" t="s">
+        <v>187</v>
       </c>
       <c r="I160" t="s">
-        <v>166</v>
-      </c>
-      <c r="K160" t="s">
-        <v>166</v>
-      </c>
-      <c r="P160" t="s">
-        <v>166</v>
-      </c>
-      <c r="R160" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="L160" t="s">
+        <v>187</v>
+      </c>
+      <c r="S160" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="161">
@@ -4101,28 +4615,22 @@
         <v>152.0</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="F161" t="s">
+        <v>187</v>
       </c>
       <c r="G161" t="s">
-        <v>166</v>
-      </c>
-      <c r="I161" t="s">
-        <v>166</v>
-      </c>
-      <c r="K161" t="s">
-        <v>166</v>
-      </c>
-      <c r="O161" t="s">
-        <v>166</v>
-      </c>
-      <c r="P161" t="s">
-        <v>166</v>
-      </c>
-      <c r="R161" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="H161" t="s">
+        <v>187</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="162">
@@ -4130,28 +4638,22 @@
         <v>153.0</v>
       </c>
       <c r="B162" t="s">
-        <v>151</v>
-      </c>
-      <c r="D162" t="s">
-        <v>166</v>
-      </c>
-      <c r="E162" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
       </c>
       <c r="H162" t="s">
-        <v>166</v>
-      </c>
-      <c r="I162" t="s">
-        <v>166</v>
-      </c>
-      <c r="L162" t="s">
-        <v>166</v>
-      </c>
-      <c r="O162" t="s">
-        <v>166</v>
-      </c>
-      <c r="R162" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="M162" t="s">
+        <v>187</v>
+      </c>
+      <c r="P162" t="s">
+        <v>187</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="163">
@@ -4159,28 +4661,25 @@
         <v>154.0</v>
       </c>
       <c r="B163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E163" t="s">
-        <v>166</v>
-      </c>
-      <c r="F163" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
       </c>
       <c r="G163" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H163" t="s">
-        <v>166</v>
-      </c>
-      <c r="P163" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>166</v>
-      </c>
-      <c r="R163" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="I163" t="s">
+        <v>187</v>
+      </c>
+      <c r="M163" t="s">
+        <v>187</v>
+      </c>
+      <c r="S163" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="164">
@@ -4188,25 +4687,31 @@
         <v>155.0</v>
       </c>
       <c r="B164" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="D164" t="s">
+        <v>187</v>
+      </c>
+      <c r="E164" t="s">
+        <v>187</v>
       </c>
       <c r="F164" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H164" t="s">
+        <v>187</v>
       </c>
       <c r="M164" t="s">
-        <v>166</v>
-      </c>
-      <c r="O164" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>166</v>
-      </c>
-      <c r="R164" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="R164" t="s">
+        <v>187</v>
+      </c>
+      <c r="S164" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="165">
@@ -4214,15 +4719,18 @@
         <v>156.0</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
-      </c>
-      <c r="G165" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>166</v>
-      </c>
-      <c r="R165" t="n">
+        <v>172</v>
+      </c>
+      <c r="C165" t="s">
+        <v>173</v>
+      </c>
+      <c r="F165" t="s">
+        <v>187</v>
+      </c>
+      <c r="I165" t="s">
+        <v>187</v>
+      </c>
+      <c r="S165" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -4231,18 +4739,21 @@
         <v>157.0</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
-      </c>
-      <c r="H166" t="s">
-        <v>166</v>
-      </c>
-      <c r="L166" t="s">
-        <v>166</v>
-      </c>
-      <c r="O166" t="s">
-        <v>166</v>
-      </c>
-      <c r="R166" t="n">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="E166" t="s">
+        <v>187</v>
+      </c>
+      <c r="J166" t="s">
+        <v>187</v>
+      </c>
+      <c r="R166" t="s">
+        <v>187</v>
+      </c>
+      <c r="S166" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -4251,16 +4762,31 @@
         <v>158.0</v>
       </c>
       <c r="B167" t="s">
-        <v>156</v>
+        <v>175</v>
+      </c>
+      <c r="C167" t="s">
+        <v>176</v>
+      </c>
+      <c r="D167" t="s">
+        <v>187</v>
       </c>
       <c r="G167" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H167" t="s">
+        <v>187</v>
+      </c>
+      <c r="J167" t="s">
+        <v>187</v>
       </c>
       <c r="Q167" t="s">
-        <v>166</v>
-      </c>
-      <c r="R167" t="n">
-        <v>2.0</v>
+        <v>187</v>
+      </c>
+      <c r="R167" t="s">
+        <v>187</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="168">
@@ -4268,25 +4794,25 @@
         <v>159.0</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>177</v>
+      </c>
+      <c r="C168" t="s">
+        <v>176</v>
       </c>
       <c r="F168" t="s">
-        <v>166</v>
-      </c>
-      <c r="G168" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H168" t="s">
+        <v>187</v>
       </c>
       <c r="I168" t="s">
-        <v>166</v>
-      </c>
-      <c r="K168" t="s">
-        <v>166</v>
-      </c>
-      <c r="L168" t="s">
-        <v>166</v>
-      </c>
-      <c r="R168" t="n">
-        <v>5.0</v>
+        <v>187</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>187</v>
+      </c>
+      <c r="S168" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="169">
@@ -4294,28 +4820,28 @@
         <v>160.0</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>166</v>
-      </c>
-      <c r="H169" t="s">
-        <v>166</v>
-      </c>
-      <c r="K169" t="s">
-        <v>166</v>
-      </c>
-      <c r="L169" t="s">
-        <v>166</v>
-      </c>
-      <c r="O169" t="s">
-        <v>166</v>
+        <v>176</v>
+      </c>
+      <c r="E169" t="s">
+        <v>187</v>
+      </c>
+      <c r="I169" t="s">
+        <v>187</v>
       </c>
       <c r="P169" t="s">
-        <v>166</v>
-      </c>
-      <c r="R169" t="n">
-        <v>6.0</v>
+        <v>187</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>187</v>
+      </c>
+      <c r="R169" t="s">
+        <v>187</v>
+      </c>
+      <c r="S169" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="170">
@@ -4323,36 +4849,48 @@
         <v>161.0</v>
       </c>
       <c r="B170" t="s">
-        <v>159</v>
+        <v>179</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
       </c>
       <c r="D170" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E170" t="s">
-        <v>166</v>
-      </c>
-      <c r="R170" t="n">
-        <v>2.0</v>
+        <v>187</v>
+      </c>
+      <c r="G170" t="s">
+        <v>187</v>
+      </c>
+      <c r="H170" t="s">
+        <v>187</v>
+      </c>
+      <c r="M170" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>187</v>
+      </c>
+      <c r="S170" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C171" t="n">
-        <v>43.0</v>
+        <v>182</v>
       </c>
       <c r="D171" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E171" t="n">
         <v>49.0</v>
       </c>
-      <c r="E171" t="n">
-        <v>54.0</v>
-      </c>
       <c r="F171" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G171" t="n">
         <v>58.0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>55.0</v>
       </c>
       <c r="H171" t="n">
         <v>54.0</v>
@@ -4361,31 +4899,34 @@
         <v>55.0</v>
       </c>
       <c r="J171" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="K171" t="n">
         <v>4.0</v>
       </c>
-      <c r="K171" t="n">
+      <c r="L171" t="n">
         <v>42.0</v>
       </c>
-      <c r="L171" t="n">
+      <c r="M171" t="n">
         <v>54.0</v>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>16.0</v>
       </c>
-      <c r="N171" t="n">
+      <c r="O171" t="n">
         <v>3.0</v>
       </c>
-      <c r="O171" t="n">
-        <v>37.0</v>
-      </c>
       <c r="P171" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q171" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="R171" t="n" s="2">
-        <v>575.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="S171" t="n" s="2">
+        <v>587.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="189">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -565,19 +565,22 @@
     <t>Exam Dates</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>No. of students</t>
+  </si>
+  <si>
+    <t>No. of Invigilators</t>
+  </si>
+  <si>
+    <t>Name(Prof./Dr./Mr./Ms.)</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>Total Duties</t>
-  </si>
-  <si>
-    <t>No. of students</t>
-  </si>
-  <si>
-    <t>No. of Invigilators</t>
-  </si>
-  <si>
-    <t>Name(Prof./Dr./Mr./Ms.)</t>
-  </si>
-  <si>
-    <t>Department</t>
   </si>
   <si>
     <t>D</t>
@@ -755,6 +758,9 @@
       <c r="R5" t="n" s="17">
         <v>44788.0</v>
       </c>
+      <c r="S5" t="s" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
@@ -805,6 +811,9 @@
       <c r="R6" t="n" s="2">
         <v>560.0</v>
       </c>
+      <c r="S6" t="n" s="2">
+        <v>10145.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
@@ -855,6 +864,9 @@
       <c r="R7" t="n" s="2">
         <v>32.0</v>
       </c>
+      <c r="S7" t="n" s="2">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="2">
@@ -874,8 +886,8 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>187</v>
+      <c r="D10" t="s">
+        <v>188</v>
       </c>
       <c r="S10" t="n">
         <v>1.0</v>
@@ -891,8 +903,8 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
-        <v>187</v>
+      <c r="E11" t="s">
+        <v>188</v>
       </c>
       <c r="S11" t="n">
         <v>1.0</v>
@@ -908,8 +920,8 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>187</v>
+      <c r="Q12" t="s">
+        <v>188</v>
       </c>
       <c r="S12" t="n">
         <v>1.0</v>
@@ -926,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S13" t="n">
         <v>1.0</v>
@@ -943,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S14" t="n">
         <v>1.0</v>
@@ -960,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S15" t="n">
         <v>1.0</v>
@@ -976,8 +988,8 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
-        <v>187</v>
+      <c r="H16" t="s">
+        <v>188</v>
       </c>
       <c r="S16" t="n">
         <v>1.0</v>
@@ -993,8 +1005,8 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>187</v>
+      <c r="R17" t="s">
+        <v>188</v>
       </c>
       <c r="S17" t="n">
         <v>1.0</v>
@@ -1010,8 +1022,8 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="J18" t="s">
-        <v>187</v>
+      <c r="L18" t="s">
+        <v>188</v>
       </c>
       <c r="S18" t="n">
         <v>1.0</v>
@@ -1027,8 +1039,8 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="K19" t="s">
-        <v>187</v>
+      <c r="R19" t="s">
+        <v>188</v>
       </c>
       <c r="S19" t="n">
         <v>1.0</v>
@@ -1044,11 +1056,11 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>187</v>
-      </c>
-      <c r="O20" t="s">
-        <v>187</v>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
       </c>
       <c r="S20" t="n">
         <v>2.0</v>
@@ -1064,11 +1076,11 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>188</v>
       </c>
       <c r="S21" t="n">
         <v>2.0</v>
@@ -1085,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
       </c>
       <c r="S22" t="n">
         <v>3.0</v>
@@ -1107,17 +1119,14 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="M23" t="s">
-        <v>187</v>
+      <c r="L23" t="s">
+        <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S23" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1130,14 +1139,14 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
+      <c r="G24" t="s">
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R24" t="s">
+        <v>188</v>
       </c>
       <c r="S24" t="n">
         <v>3.0</v>
@@ -1153,14 +1162,14 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="I25" t="s">
-        <v>187</v>
-      </c>
-      <c r="N25" t="s">
-        <v>187</v>
-      </c>
-      <c r="O25" t="s">
-        <v>187</v>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
       </c>
       <c r="S25" t="n">
         <v>3.0</v>
@@ -1176,20 +1185,26 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
       <c r="H26" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" t="s">
+        <v>188</v>
       </c>
       <c r="S26" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -1202,23 +1217,23 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" t="s">
-        <v>187</v>
+      <c r="H27" t="s">
+        <v>188</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S27" t="n">
         <v>6.0</v>
@@ -1234,26 +1249,17 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" t="s">
-        <v>187</v>
+      <c r="J28" t="s">
+        <v>188</v>
       </c>
       <c r="M28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S28" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -1266,26 +1272,20 @@
       <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" t="s">
-        <v>187</v>
-      </c>
       <c r="H29" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s">
-        <v>187</v>
-      </c>
-      <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>188</v>
       </c>
       <c r="S29" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -1298,20 +1298,17 @@
       <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" t="s">
-        <v>187</v>
+      <c r="F30" t="s">
+        <v>188</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" t="s">
-        <v>187</v>
-      </c>
-      <c r="R30" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>188</v>
       </c>
       <c r="S30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -1325,22 +1322,25 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>188</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P31" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>188</v>
       </c>
       <c r="R31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -1353,26 +1353,17 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" t="s">
-        <v>187</v>
-      </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P32" t="s">
+        <v>188</v>
       </c>
       <c r="S32" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -1385,26 +1376,20 @@
       <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" t="s">
-        <v>187</v>
-      </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
-      </c>
-      <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="O33" t="s">
+        <v>188</v>
       </c>
       <c r="S33" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -1417,14 +1402,26 @@
       <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" t="s">
-        <v>187</v>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" t="s">
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L34" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" t="s">
+        <v>188</v>
       </c>
       <c r="S34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -1438,22 +1435,25 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J35" t="s">
-        <v>187</v>
-      </c>
-      <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>188</v>
       </c>
       <c r="S35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,23 +1466,23 @@
       <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" t="s">
-        <v>187</v>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I36" t="s">
-        <v>187</v>
-      </c>
-      <c r="L36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
-      </c>
-      <c r="R36" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>188</v>
       </c>
       <c r="S36" t="n">
         <v>6.0</v>
@@ -1498,23 +1498,23 @@
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" t="s">
-        <v>187</v>
+      <c r="F37" t="s">
+        <v>188</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J37" t="s">
-        <v>187</v>
-      </c>
-      <c r="L37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P37" t="s">
+        <v>188</v>
+      </c>
+      <c r="R37" t="s">
+        <v>188</v>
       </c>
       <c r="S37" t="n">
         <v>6.0</v>
@@ -1530,26 +1530,23 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
-        <v>187</v>
+      <c r="G38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" t="s">
+        <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
-      </c>
-      <c r="K38" t="s">
-        <v>187</v>
-      </c>
-      <c r="L38" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M38" t="s">
+        <v>188</v>
       </c>
       <c r="Q38" t="s">
-        <v>187</v>
-      </c>
-      <c r="R38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S38" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
@@ -1563,19 +1560,19 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H39" t="s">
+        <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
-      </c>
-      <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S39" t="n">
         <v>5.0</v>
@@ -1591,17 +1588,23 @@
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="H40" t="s">
-        <v>187</v>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" t="s">
+        <v>188</v>
       </c>
       <c r="J40" t="s">
-        <v>187</v>
-      </c>
-      <c r="L40" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M40" t="s">
+        <v>188</v>
       </c>
       <c r="S40" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
@@ -1614,14 +1617,26 @@
       <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="J41" t="s">
-        <v>187</v>
+      <c r="D41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" t="s">
+        <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M41" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" t="s">
+        <v>188</v>
       </c>
       <c r="S41" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -1645,8 +1660,8 @@
       <c r="C43" t="s">
         <v>36</v>
       </c>
-      <c r="M43" t="s">
-        <v>187</v>
+      <c r="K43" t="s">
+        <v>188</v>
       </c>
       <c r="S43" t="n">
         <v>1.0</v>
@@ -1662,11 +1677,11 @@
       <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="L44" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>187</v>
+      <c r="J44" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" t="s">
+        <v>188</v>
       </c>
       <c r="S44" t="n">
         <v>2.0</v>
@@ -1682,11 +1697,11 @@
       <c r="C45" t="s">
         <v>36</v>
       </c>
-      <c r="L45" t="s">
-        <v>187</v>
-      </c>
-      <c r="N45" t="s">
-        <v>187</v>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="M45" t="s">
+        <v>188</v>
       </c>
       <c r="S45" t="n">
         <v>2.0</v>
@@ -1702,11 +1717,11 @@
       <c r="C46" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
-        <v>187</v>
-      </c>
-      <c r="L46" t="s">
-        <v>187</v>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="M46" t="s">
+        <v>188</v>
       </c>
       <c r="S46" t="n">
         <v>2.0</v>
@@ -1722,11 +1737,11 @@
       <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="F47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" t="s">
-        <v>187</v>
+      <c r="M47" t="s">
+        <v>188</v>
+      </c>
+      <c r="P47" t="s">
+        <v>188</v>
       </c>
       <c r="S47" t="n">
         <v>2.0</v>
@@ -1742,14 +1757,14 @@
       <c r="C48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" t="s">
-        <v>187</v>
-      </c>
-      <c r="M48" t="s">
-        <v>187</v>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>188</v>
       </c>
       <c r="S48" t="n">
         <v>3.0</v>
@@ -1765,14 +1780,14 @@
       <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="E49" t="s">
-        <v>187</v>
-      </c>
-      <c r="M49" t="s">
-        <v>187</v>
-      </c>
-      <c r="P49" t="s">
-        <v>187</v>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>188</v>
+      </c>
+      <c r="R49" t="s">
+        <v>188</v>
       </c>
       <c r="S49" t="n">
         <v>3.0</v>
@@ -1788,23 +1803,20 @@
       <c r="C50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" t="s">
-        <v>187</v>
+      <c r="E50" t="s">
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" t="s">
-        <v>187</v>
-      </c>
-      <c r="M50" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J50" t="s">
+        <v>188</v>
       </c>
       <c r="S50" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
@@ -1817,26 +1829,20 @@
       <c r="C51" t="s">
         <v>45</v>
       </c>
-      <c r="E51" t="s">
-        <v>187</v>
-      </c>
       <c r="F51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J51" t="s">
-        <v>187</v>
-      </c>
-      <c r="M51" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P51" t="s">
+        <v>188</v>
       </c>
       <c r="S51" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -1850,22 +1856,22 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
-      </c>
-      <c r="J52" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N52" t="s">
+        <v>188</v>
+      </c>
+      <c r="R52" t="s">
+        <v>188</v>
       </c>
       <c r="S52" t="n">
         <v>6.0</v>
@@ -1881,23 +1887,23 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="E53" t="s">
-        <v>187</v>
+      <c r="D53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" t="s">
+        <v>188</v>
       </c>
       <c r="I53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J53" t="s">
-        <v>187</v>
-      </c>
-      <c r="L53" t="s">
-        <v>187</v>
-      </c>
-      <c r="P53" t="s">
-        <v>187</v>
-      </c>
-      <c r="R53" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M53" t="s">
+        <v>188</v>
       </c>
       <c r="S53" t="n">
         <v>6.0</v>
@@ -1914,22 +1920,22 @@
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" t="s">
-        <v>187</v>
-      </c>
-      <c r="L54" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H54" t="s">
+        <v>188</v>
+      </c>
+      <c r="M54" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>188</v>
       </c>
       <c r="S54" t="n">
         <v>6.0</v>
@@ -1945,26 +1951,23 @@
       <c r="C55" t="s">
         <v>45</v>
       </c>
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G55" t="s">
+        <v>188</v>
       </c>
       <c r="H55" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" t="s">
-        <v>187</v>
-      </c>
-      <c r="L55" t="s">
-        <v>187</v>
-      </c>
-      <c r="M55" t="s">
-        <v>187</v>
-      </c>
-      <c r="N55" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
       </c>
       <c r="S55" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -1977,26 +1980,23 @@
       <c r="C56" t="s">
         <v>45</v>
       </c>
+      <c r="F56" t="s">
+        <v>188</v>
+      </c>
       <c r="G56" t="s">
-        <v>187</v>
-      </c>
-      <c r="H56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>187</v>
-      </c>
-      <c r="J56" t="s">
-        <v>187</v>
-      </c>
-      <c r="M56" t="s">
-        <v>187</v>
-      </c>
-      <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L56" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>188</v>
       </c>
       <c r="S56" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
@@ -2009,23 +2009,23 @@
       <c r="C57" t="s">
         <v>45</v>
       </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
       <c r="H57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J57" t="s">
+        <v>188</v>
       </c>
       <c r="L57" t="s">
-        <v>187</v>
-      </c>
-      <c r="M57" t="s">
-        <v>187</v>
-      </c>
-      <c r="P57" t="s">
-        <v>187</v>
-      </c>
-      <c r="R57" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="N57" t="s">
+        <v>188</v>
       </c>
       <c r="S57" t="n">
         <v>6.0</v>
@@ -2041,23 +2041,17 @@
       <c r="C58" t="s">
         <v>45</v>
       </c>
-      <c r="F58" t="s">
-        <v>187</v>
+      <c r="E58" t="s">
+        <v>188</v>
       </c>
       <c r="G58" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" t="s">
-        <v>187</v>
-      </c>
-      <c r="M58" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R58" t="s">
+        <v>188</v>
       </c>
       <c r="S58" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -2071,19 +2065,25 @@
         <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H59" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" t="s">
+        <v>188</v>
       </c>
       <c r="M59" t="s">
-        <v>187</v>
-      </c>
-      <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>188</v>
       </c>
       <c r="S59" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -2096,23 +2096,26 @@
       <c r="C60" t="s">
         <v>45</v>
       </c>
-      <c r="D60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" t="s">
-        <v>187</v>
+      <c r="E60" t="s">
+        <v>188</v>
       </c>
       <c r="H60" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I60" t="s">
+        <v>188</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L60" t="s">
+        <v>188</v>
       </c>
       <c r="M60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S60" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -2125,23 +2128,17 @@
       <c r="C61" t="s">
         <v>45</v>
       </c>
-      <c r="D61" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" t="s">
-        <v>187</v>
+      <c r="G61" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" t="s">
+        <v>188</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S61" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -2155,22 +2152,22 @@
         <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L62" t="s">
+        <v>188</v>
       </c>
       <c r="M62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S62" t="n">
         <v>6.0</v>
@@ -2187,22 +2184,22 @@
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G63" t="s">
+        <v>188</v>
       </c>
       <c r="H63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" t="s">
-        <v>187</v>
-      </c>
-      <c r="J63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L63" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M63" t="s">
+        <v>188</v>
       </c>
       <c r="S63" t="n">
         <v>6.0</v>
@@ -2218,20 +2215,17 @@
       <c r="C64" t="s">
         <v>58</v>
       </c>
-      <c r="E64" t="s">
-        <v>187</v>
-      </c>
       <c r="F64" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H64" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I64" t="s">
+        <v>188</v>
       </c>
       <c r="S64" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -2245,25 +2239,19 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M65" t="s">
+        <v>188</v>
       </c>
       <c r="S65" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -2277,22 +2265,25 @@
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
-      </c>
-      <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L66" t="s">
+        <v>188</v>
+      </c>
+      <c r="R66" t="s">
+        <v>188</v>
       </c>
       <c r="S66" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
@@ -2305,23 +2296,23 @@
       <c r="C67" t="s">
         <v>58</v>
       </c>
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
       <c r="F67" t="s">
-        <v>187</v>
-      </c>
-      <c r="G67" t="s">
-        <v>187</v>
-      </c>
-      <c r="I67" t="s">
-        <v>187</v>
-      </c>
-      <c r="J67" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H67" t="s">
+        <v>188</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M67" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>188</v>
       </c>
       <c r="S67" t="n">
         <v>6.0</v>
@@ -2338,13 +2329,13 @@
         <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I68" t="s">
+        <v>188</v>
       </c>
       <c r="J68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S68" t="n">
         <v>3.0</v>
@@ -2360,14 +2351,14 @@
       <c r="C69" t="s">
         <v>65</v>
       </c>
-      <c r="F69" t="s">
-        <v>187</v>
+      <c r="G69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" t="s">
+        <v>188</v>
       </c>
       <c r="J69" t="s">
-        <v>187</v>
-      </c>
-      <c r="M69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S69" t="n">
         <v>3.0</v>
@@ -2383,23 +2374,23 @@
       <c r="C70" t="s">
         <v>68</v>
       </c>
+      <c r="E70" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
       <c r="G70" t="s">
-        <v>187</v>
-      </c>
-      <c r="I70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s">
-        <v>187</v>
-      </c>
-      <c r="N70" t="s">
-        <v>187</v>
-      </c>
-      <c r="R70" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
       </c>
       <c r="S70" t="n">
         <v>6.0</v>
@@ -2415,23 +2406,26 @@
       <c r="C71" t="s">
         <v>68</v>
       </c>
+      <c r="E71" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" t="s">
+        <v>188</v>
+      </c>
       <c r="G71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I71" t="s">
-        <v>187</v>
-      </c>
-      <c r="J71" t="s">
-        <v>187</v>
-      </c>
-      <c r="L71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P71" t="s">
+        <v>188</v>
       </c>
       <c r="S71" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
@@ -2445,19 +2439,25 @@
         <v>68</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" t="s">
-        <v>187</v>
-      </c>
-      <c r="H72" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I72" t="s">
+        <v>188</v>
+      </c>
+      <c r="L72" t="s">
+        <v>188</v>
+      </c>
+      <c r="P72" t="s">
+        <v>188</v>
       </c>
       <c r="Q72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S72" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
@@ -2470,23 +2470,23 @@
       <c r="C73" t="s">
         <v>68</v>
       </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
       <c r="E73" t="s">
-        <v>187</v>
-      </c>
-      <c r="I73" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" t="s">
+        <v>188</v>
       </c>
       <c r="J73" t="s">
-        <v>187</v>
-      </c>
-      <c r="L73" t="s">
-        <v>187</v>
-      </c>
-      <c r="M73" t="s">
-        <v>187</v>
-      </c>
-      <c r="N73" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P73" t="s">
+        <v>188</v>
       </c>
       <c r="S73" t="n">
         <v>6.0</v>
@@ -2502,26 +2502,23 @@
       <c r="C74" t="s">
         <v>68</v>
       </c>
-      <c r="F74" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74" t="s">
-        <v>187</v>
+      <c r="D74" t="s">
+        <v>188</v>
       </c>
       <c r="H74" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I74" t="s">
+        <v>188</v>
       </c>
       <c r="J74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M74" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S74" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75">
@@ -2535,19 +2532,25 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E75" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" t="s">
+        <v>188</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
-      </c>
-      <c r="L75" t="s">
-        <v>187</v>
-      </c>
-      <c r="M75" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J75" t="s">
+        <v>188</v>
+      </c>
+      <c r="N75" t="s">
+        <v>188</v>
       </c>
       <c r="S75" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
@@ -2560,26 +2563,20 @@
       <c r="C76" t="s">
         <v>68</v>
       </c>
-      <c r="G76" t="s">
-        <v>187</v>
+      <c r="E76" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" t="s">
+        <v>188</v>
       </c>
       <c r="I76" t="s">
-        <v>187</v>
-      </c>
-      <c r="J76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M76" t="s">
-        <v>187</v>
-      </c>
-      <c r="P76" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S76" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
@@ -2592,17 +2589,14 @@
       <c r="C77" t="s">
         <v>68</v>
       </c>
-      <c r="E77" t="s">
-        <v>187</v>
-      </c>
-      <c r="H77" t="s">
-        <v>187</v>
-      </c>
-      <c r="R77" t="s">
-        <v>187</v>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F77" t="s">
+        <v>188</v>
       </c>
       <c r="S77" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -2615,23 +2609,23 @@
       <c r="C78" t="s">
         <v>68</v>
       </c>
-      <c r="D78" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78" t="s">
-        <v>187</v>
-      </c>
       <c r="H78" t="s">
-        <v>187</v>
-      </c>
-      <c r="M78" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I78" t="s">
+        <v>188</v>
       </c>
       <c r="N78" t="s">
-        <v>187</v>
-      </c>
-      <c r="O78" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>188</v>
+      </c>
+      <c r="R78" t="s">
+        <v>188</v>
       </c>
       <c r="S78" t="n">
         <v>6.0</v>
@@ -2647,8 +2641,8 @@
       <c r="C79" t="s">
         <v>78</v>
       </c>
-      <c r="R79" t="s">
-        <v>187</v>
+      <c r="I79" t="s">
+        <v>188</v>
       </c>
       <c r="S79" t="n">
         <v>1.0</v>
@@ -2664,8 +2658,8 @@
       <c r="C80" t="s">
         <v>78</v>
       </c>
-      <c r="D80" t="s">
-        <v>187</v>
+      <c r="G80" t="s">
+        <v>188</v>
       </c>
       <c r="S80" t="n">
         <v>1.0</v>
@@ -2681,8 +2675,8 @@
       <c r="C81" t="s">
         <v>78</v>
       </c>
-      <c r="P81" t="s">
-        <v>187</v>
+      <c r="R81" t="s">
+        <v>188</v>
       </c>
       <c r="S81" t="n">
         <v>1.0</v>
@@ -2698,8 +2692,8 @@
       <c r="C82" t="s">
         <v>78</v>
       </c>
-      <c r="L82" t="s">
-        <v>187</v>
+      <c r="F82" t="s">
+        <v>188</v>
       </c>
       <c r="S82" t="n">
         <v>1.0</v>
@@ -2715,8 +2709,8 @@
       <c r="C83" t="s">
         <v>78</v>
       </c>
-      <c r="Q83" t="s">
-        <v>187</v>
+      <c r="P83" t="s">
+        <v>188</v>
       </c>
       <c r="S83" t="n">
         <v>1.0</v>
@@ -2732,8 +2726,8 @@
       <c r="C84" t="s">
         <v>78</v>
       </c>
-      <c r="F84" t="s">
-        <v>187</v>
+      <c r="I84" t="s">
+        <v>188</v>
       </c>
       <c r="S84" t="n">
         <v>1.0</v>
@@ -2749,8 +2743,8 @@
       <c r="C85" t="s">
         <v>78</v>
       </c>
-      <c r="E85" t="s">
-        <v>187</v>
+      <c r="J85" t="s">
+        <v>188</v>
       </c>
       <c r="S85" t="n">
         <v>1.0</v>
@@ -2766,11 +2760,11 @@
       <c r="C86" t="s">
         <v>78</v>
       </c>
-      <c r="I86" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>187</v>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+      <c r="N86" t="s">
+        <v>188</v>
       </c>
       <c r="S86" t="n">
         <v>2.0</v>
@@ -2786,11 +2780,11 @@
       <c r="C87" t="s">
         <v>78</v>
       </c>
-      <c r="I87" t="s">
-        <v>187</v>
-      </c>
-      <c r="J87" t="s">
-        <v>187</v>
+      <c r="F87" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>188</v>
       </c>
       <c r="S87" t="n">
         <v>2.0</v>
@@ -2806,11 +2800,11 @@
       <c r="C88" t="s">
         <v>78</v>
       </c>
-      <c r="E88" t="s">
-        <v>187</v>
-      </c>
       <c r="F88" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J88" t="s">
+        <v>188</v>
       </c>
       <c r="S88" t="n">
         <v>2.0</v>
@@ -2826,11 +2820,11 @@
       <c r="C89" t="s">
         <v>78</v>
       </c>
-      <c r="D89" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>187</v>
+      <c r="H89" t="s">
+        <v>188</v>
+      </c>
+      <c r="I89" t="s">
+        <v>188</v>
       </c>
       <c r="S89" t="n">
         <v>2.0</v>
@@ -2846,11 +2840,17 @@
       <c r="C90" t="s">
         <v>78</v>
       </c>
-      <c r="E90" t="s">
-        <v>187</v>
+      <c r="D90" t="s">
+        <v>188</v>
+      </c>
+      <c r="H90" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" t="s">
+        <v>188</v>
       </c>
       <c r="S90" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
@@ -2863,14 +2863,14 @@
       <c r="C91" t="s">
         <v>78</v>
       </c>
-      <c r="L91" t="s">
-        <v>187</v>
-      </c>
-      <c r="P91" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>187</v>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" t="s">
+        <v>188</v>
+      </c>
+      <c r="M91" t="s">
+        <v>188</v>
       </c>
       <c r="S91" t="n">
         <v>3.0</v>
@@ -2886,14 +2886,14 @@
       <c r="C92" t="s">
         <v>78</v>
       </c>
-      <c r="I92" t="s">
-        <v>187</v>
-      </c>
-      <c r="J92" t="s">
-        <v>187</v>
-      </c>
-      <c r="R92" t="s">
-        <v>187</v>
+      <c r="F92" t="s">
+        <v>188</v>
+      </c>
+      <c r="N92" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>188</v>
       </c>
       <c r="S92" t="n">
         <v>3.0</v>
@@ -2909,14 +2909,14 @@
       <c r="C93" t="s">
         <v>78</v>
       </c>
-      <c r="D93" t="s">
-        <v>187</v>
-      </c>
-      <c r="F93" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>187</v>
+      <c r="M93" t="s">
+        <v>188</v>
+      </c>
+      <c r="N93" t="s">
+        <v>188</v>
+      </c>
+      <c r="R93" t="s">
+        <v>188</v>
       </c>
       <c r="S93" t="n">
         <v>3.0</v>
@@ -2932,14 +2932,14 @@
       <c r="C94" t="s">
         <v>78</v>
       </c>
-      <c r="D94" t="s">
-        <v>187</v>
-      </c>
-      <c r="E94" t="s">
-        <v>187</v>
-      </c>
       <c r="G94" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H94" t="s">
+        <v>188</v>
+      </c>
+      <c r="P94" t="s">
+        <v>188</v>
       </c>
       <c r="S94" t="n">
         <v>3.0</v>
@@ -2955,14 +2955,14 @@
       <c r="C95" t="s">
         <v>78</v>
       </c>
-      <c r="F95" t="s">
-        <v>187</v>
-      </c>
-      <c r="J95" t="s">
-        <v>187</v>
-      </c>
-      <c r="N95" t="s">
-        <v>187</v>
+      <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="L95" t="s">
+        <v>188</v>
+      </c>
+      <c r="R95" t="s">
+        <v>188</v>
       </c>
       <c r="S95" t="n">
         <v>3.0</v>
@@ -2978,14 +2978,14 @@
       <c r="C96" t="s">
         <v>78</v>
       </c>
-      <c r="F96" t="s">
-        <v>187</v>
+      <c r="D96" t="s">
+        <v>188</v>
       </c>
       <c r="P96" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R96" t="s">
+        <v>188</v>
       </c>
       <c r="S96" t="n">
         <v>3.0</v>
@@ -3001,26 +3001,23 @@
       <c r="C97" t="s">
         <v>97</v>
       </c>
-      <c r="E97" t="s">
-        <v>187</v>
+      <c r="D97" t="s">
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G97" t="s">
+        <v>188</v>
       </c>
       <c r="H97" t="s">
-        <v>187</v>
-      </c>
-      <c r="I97" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>187</v>
-      </c>
-      <c r="R97" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M97" t="s">
+        <v>188</v>
       </c>
       <c r="S97" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="98">
@@ -3033,26 +3030,20 @@
       <c r="C98" t="s">
         <v>97</v>
       </c>
-      <c r="D98" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" t="s">
-        <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>187</v>
-      </c>
-      <c r="H98" t="s">
-        <v>187</v>
+      <c r="G98" t="s">
+        <v>188</v>
       </c>
       <c r="I98" t="s">
-        <v>187</v>
-      </c>
-      <c r="J98" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P98" t="s">
+        <v>188</v>
+      </c>
+      <c r="R98" t="s">
+        <v>188</v>
       </c>
       <c r="S98" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="99">
@@ -3065,23 +3056,20 @@
       <c r="C99" t="s">
         <v>97</v>
       </c>
-      <c r="D99" t="s">
-        <v>187</v>
-      </c>
-      <c r="E99" t="s">
-        <v>187</v>
+      <c r="F99" t="s">
+        <v>188</v>
+      </c>
+      <c r="G99" t="s">
+        <v>188</v>
       </c>
       <c r="H99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
-      </c>
-      <c r="L99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S99" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="100">
@@ -3094,20 +3082,26 @@
       <c r="C100" t="s">
         <v>97</v>
       </c>
+      <c r="D100" t="s">
+        <v>188</v>
+      </c>
       <c r="G100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H100" t="s">
-        <v>187</v>
-      </c>
-      <c r="I100" t="s">
-        <v>187</v>
-      </c>
-      <c r="K100" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J100" t="s">
+        <v>188</v>
+      </c>
+      <c r="L100" t="s">
+        <v>188</v>
+      </c>
+      <c r="R100" t="s">
+        <v>188</v>
       </c>
       <c r="S100" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="101">
@@ -3120,23 +3114,23 @@
       <c r="C101" t="s">
         <v>97</v>
       </c>
-      <c r="D101" t="s">
-        <v>187</v>
-      </c>
       <c r="F101" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H101" t="s">
+        <v>188</v>
       </c>
       <c r="I101" t="s">
-        <v>187</v>
-      </c>
-      <c r="M101" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J101" t="s">
+        <v>188</v>
+      </c>
+      <c r="N101" t="s">
+        <v>188</v>
       </c>
       <c r="R101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S101" t="n">
         <v>6.0</v>
@@ -3152,20 +3146,26 @@
       <c r="C102" t="s">
         <v>103</v>
       </c>
+      <c r="E102" t="s">
+        <v>188</v>
+      </c>
       <c r="F102" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G102" t="s">
+        <v>188</v>
       </c>
       <c r="I102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J102" t="s">
-        <v>187</v>
-      </c>
-      <c r="P102" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>188</v>
       </c>
       <c r="S102" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
@@ -3178,23 +3178,23 @@
       <c r="C103" t="s">
         <v>103</v>
       </c>
+      <c r="D103" t="s">
+        <v>188</v>
+      </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G103" t="s">
-        <v>187</v>
-      </c>
-      <c r="H103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
-      </c>
-      <c r="P103" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J103" t="s">
+        <v>188</v>
       </c>
       <c r="S103" t="n">
         <v>6.0</v>
@@ -3210,23 +3210,23 @@
       <c r="C104" t="s">
         <v>103</v>
       </c>
+      <c r="E104" t="s">
+        <v>188</v>
+      </c>
       <c r="F104" t="s">
-        <v>187</v>
-      </c>
-      <c r="G104" t="s">
-        <v>187</v>
-      </c>
-      <c r="J104" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H104" t="s">
+        <v>188</v>
+      </c>
+      <c r="I104" t="s">
+        <v>188</v>
+      </c>
+      <c r="L104" t="s">
+        <v>188</v>
       </c>
       <c r="M104" t="s">
-        <v>187</v>
-      </c>
-      <c r="N104" t="s">
-        <v>187</v>
-      </c>
-      <c r="P104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S104" t="n">
         <v>6.0</v>
@@ -3242,26 +3242,23 @@
       <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D105" t="s">
-        <v>187</v>
-      </c>
-      <c r="E105" t="s">
-        <v>187</v>
-      </c>
       <c r="F105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G105" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H105" t="s">
+        <v>188</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J105" t="s">
+        <v>188</v>
       </c>
       <c r="S105" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="106">
@@ -3274,23 +3271,26 @@
       <c r="C106" t="s">
         <v>103</v>
       </c>
+      <c r="D106" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" t="s">
+        <v>188</v>
+      </c>
+      <c r="G106" t="s">
+        <v>188</v>
+      </c>
       <c r="H106" t="s">
-        <v>187</v>
-      </c>
-      <c r="M106" t="s">
-        <v>187</v>
-      </c>
-      <c r="N106" t="s">
-        <v>187</v>
-      </c>
-      <c r="P106" t="s">
-        <v>187</v>
-      </c>
-      <c r="R106" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J106" t="s">
+        <v>188</v>
+      </c>
+      <c r="L106" t="s">
+        <v>188</v>
       </c>
       <c r="S106" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="107">
@@ -3303,26 +3303,23 @@
       <c r="C107" t="s">
         <v>103</v>
       </c>
-      <c r="D107" t="s">
-        <v>187</v>
-      </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F107" t="s">
+        <v>188</v>
       </c>
       <c r="G107" t="s">
-        <v>187</v>
-      </c>
-      <c r="L107" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I107" t="s">
+        <v>188</v>
       </c>
       <c r="M107" t="s">
-        <v>187</v>
-      </c>
-      <c r="R107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S107" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
@@ -3335,23 +3332,26 @@
       <c r="C108" t="s">
         <v>103</v>
       </c>
-      <c r="D108" t="s">
-        <v>187</v>
-      </c>
-      <c r="F108" t="s">
-        <v>187</v>
-      </c>
       <c r="G108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H108" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J108" t="s">
+        <v>188</v>
+      </c>
+      <c r="K108" t="s">
+        <v>188</v>
       </c>
       <c r="M108" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="O108" t="s">
+        <v>188</v>
       </c>
       <c r="S108" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="109">
@@ -3364,26 +3364,17 @@
       <c r="C109" t="s">
         <v>111</v>
       </c>
-      <c r="D109" t="s">
-        <v>187</v>
-      </c>
       <c r="E109" t="s">
-        <v>187</v>
-      </c>
-      <c r="G109" t="s">
-        <v>187</v>
-      </c>
-      <c r="I109" t="s">
-        <v>187</v>
-      </c>
-      <c r="L109" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H109" t="s">
+        <v>188</v>
+      </c>
+      <c r="R109" t="s">
+        <v>188</v>
       </c>
       <c r="S109" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
@@ -3396,20 +3387,20 @@
       <c r="C110" t="s">
         <v>111</v>
       </c>
-      <c r="D110" t="s">
-        <v>187</v>
-      </c>
       <c r="G110" t="s">
-        <v>187</v>
-      </c>
-      <c r="J110" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H110" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110" t="s">
+        <v>188</v>
       </c>
       <c r="L110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S110" t="n">
         <v>5.0</v>
@@ -3425,23 +3416,26 @@
       <c r="C111" t="s">
         <v>111</v>
       </c>
+      <c r="D111" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" t="s">
+        <v>188</v>
+      </c>
       <c r="G111" t="s">
-        <v>187</v>
-      </c>
-      <c r="H111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J111" t="s">
-        <v>187</v>
-      </c>
-      <c r="M111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P111" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R111" t="s">
+        <v>188</v>
       </c>
       <c r="S111" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="112">
@@ -3455,25 +3449,22 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>187</v>
-      </c>
-      <c r="F112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G112" t="s">
-        <v>187</v>
-      </c>
-      <c r="H112" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I112" t="s">
+        <v>188</v>
       </c>
       <c r="L112" t="s">
-        <v>187</v>
-      </c>
-      <c r="P112" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M112" t="s">
+        <v>188</v>
       </c>
       <c r="S112" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="113">
@@ -3486,17 +3477,26 @@
       <c r="C113" t="s">
         <v>111</v>
       </c>
-      <c r="H113" t="s">
-        <v>187</v>
+      <c r="F113" t="s">
+        <v>188</v>
+      </c>
+      <c r="G113" t="s">
+        <v>188</v>
+      </c>
+      <c r="I113" t="s">
+        <v>188</v>
+      </c>
+      <c r="L113" t="s">
+        <v>188</v>
       </c>
       <c r="M113" t="s">
-        <v>187</v>
-      </c>
-      <c r="P113" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R113" t="s">
+        <v>188</v>
       </c>
       <c r="S113" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
@@ -3509,23 +3509,26 @@
       <c r="C114" t="s">
         <v>111</v>
       </c>
-      <c r="E114" t="s">
-        <v>187</v>
-      </c>
-      <c r="G114" t="s">
-        <v>187</v>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" t="s">
+        <v>188</v>
+      </c>
+      <c r="H114" t="s">
+        <v>188</v>
       </c>
       <c r="I114" t="s">
-        <v>187</v>
-      </c>
-      <c r="L114" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P114" t="s">
+        <v>188</v>
+      </c>
+      <c r="R114" t="s">
+        <v>188</v>
       </c>
       <c r="S114" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="115">
@@ -3538,20 +3541,26 @@
       <c r="C115" t="s">
         <v>111</v>
       </c>
-      <c r="D115" t="s">
-        <v>187</v>
+      <c r="E115" t="s">
+        <v>188</v>
+      </c>
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" t="s">
+        <v>188</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
-      </c>
-      <c r="L115" t="s">
-        <v>187</v>
-      </c>
-      <c r="R115" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J115" t="s">
+        <v>188</v>
+      </c>
+      <c r="P115" t="s">
+        <v>188</v>
       </c>
       <c r="S115" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
@@ -3564,20 +3573,26 @@
       <c r="C116" t="s">
         <v>119</v>
       </c>
+      <c r="D116" t="s">
+        <v>188</v>
+      </c>
+      <c r="F116" t="s">
+        <v>188</v>
+      </c>
       <c r="G116" t="s">
-        <v>187</v>
-      </c>
-      <c r="H116" t="s">
-        <v>187</v>
-      </c>
-      <c r="I116" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L116" t="s">
+        <v>188</v>
       </c>
       <c r="M116" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="N116" t="s">
+        <v>188</v>
       </c>
       <c r="S116" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
@@ -3590,17 +3605,26 @@
       <c r="C117" t="s">
         <v>119</v>
       </c>
-      <c r="E117" t="s">
-        <v>187</v>
+      <c r="D117" t="s">
+        <v>188</v>
+      </c>
+      <c r="F117" t="s">
+        <v>188</v>
       </c>
       <c r="H117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J117" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L117" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>188</v>
       </c>
       <c r="S117" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
@@ -3613,8 +3637,8 @@
       <c r="C118" t="s">
         <v>122</v>
       </c>
-      <c r="R118" t="s">
-        <v>187</v>
+      <c r="J118" t="s">
+        <v>188</v>
       </c>
       <c r="S118" t="n">
         <v>1.0</v>
@@ -3630,8 +3654,8 @@
       <c r="C119" t="s">
         <v>122</v>
       </c>
-      <c r="N119" t="s">
-        <v>187</v>
+      <c r="R119" t="s">
+        <v>188</v>
       </c>
       <c r="S119" t="n">
         <v>1.0</v>
@@ -3647,8 +3671,8 @@
       <c r="C120" t="s">
         <v>122</v>
       </c>
-      <c r="D120" t="s">
-        <v>187</v>
+      <c r="G120" t="s">
+        <v>188</v>
       </c>
       <c r="S120" t="n">
         <v>1.0</v>
@@ -3664,8 +3688,8 @@
       <c r="C121" t="s">
         <v>122</v>
       </c>
-      <c r="M121" t="s">
-        <v>187</v>
+      <c r="P121" t="s">
+        <v>188</v>
       </c>
       <c r="S121" t="n">
         <v>1.0</v>
@@ -3681,14 +3705,14 @@
       <c r="C122" t="s">
         <v>122</v>
       </c>
+      <c r="E122" t="s">
+        <v>188</v>
+      </c>
       <c r="G122" t="s">
-        <v>187</v>
-      </c>
-      <c r="H122" t="s">
-        <v>187</v>
-      </c>
-      <c r="N122" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L122" t="s">
+        <v>188</v>
       </c>
       <c r="S122" t="n">
         <v>3.0</v>
@@ -3705,13 +3729,13 @@
         <v>122</v>
       </c>
       <c r="D123" t="s">
-        <v>187</v>
-      </c>
-      <c r="G123" t="s">
-        <v>187</v>
-      </c>
-      <c r="N123" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>188</v>
+      </c>
+      <c r="R123" t="s">
+        <v>188</v>
       </c>
       <c r="S123" t="n">
         <v>3.0</v>
@@ -3727,14 +3751,14 @@
       <c r="C124" t="s">
         <v>122</v>
       </c>
-      <c r="G124" t="s">
-        <v>187</v>
+      <c r="E124" t="s">
+        <v>188</v>
       </c>
       <c r="I124" t="s">
-        <v>187</v>
-      </c>
-      <c r="L124" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R124" t="s">
+        <v>188</v>
       </c>
       <c r="S124" t="n">
         <v>3.0</v>
@@ -3750,14 +3774,14 @@
       <c r="C125" t="s">
         <v>122</v>
       </c>
-      <c r="H125" t="s">
-        <v>187</v>
-      </c>
-      <c r="M125" t="s">
-        <v>187</v>
-      </c>
-      <c r="R125" t="s">
-        <v>187</v>
+      <c r="F125" t="s">
+        <v>188</v>
+      </c>
+      <c r="L125" t="s">
+        <v>188</v>
+      </c>
+      <c r="P125" t="s">
+        <v>188</v>
       </c>
       <c r="S125" t="n">
         <v>3.0</v>
@@ -3773,14 +3797,14 @@
       <c r="C126" t="s">
         <v>122</v>
       </c>
-      <c r="G126" t="s">
-        <v>187</v>
-      </c>
-      <c r="H126" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>187</v>
+      <c r="D126" t="s">
+        <v>188</v>
+      </c>
+      <c r="M126" t="s">
+        <v>188</v>
+      </c>
+      <c r="P126" t="s">
+        <v>188</v>
       </c>
       <c r="S126" t="n">
         <v>3.0</v>
@@ -3796,14 +3820,14 @@
       <c r="C127" t="s">
         <v>122</v>
       </c>
-      <c r="I127" t="s">
-        <v>187</v>
-      </c>
-      <c r="J127" t="s">
-        <v>187</v>
-      </c>
-      <c r="P127" t="s">
-        <v>187</v>
+      <c r="F127" t="s">
+        <v>188</v>
+      </c>
+      <c r="M127" t="s">
+        <v>188</v>
+      </c>
+      <c r="R127" t="s">
+        <v>188</v>
       </c>
       <c r="S127" t="n">
         <v>3.0</v>
@@ -3819,14 +3843,14 @@
       <c r="C128" t="s">
         <v>122</v>
       </c>
+      <c r="D128" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" t="s">
+        <v>188</v>
+      </c>
       <c r="P128" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>187</v>
-      </c>
-      <c r="R128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S128" t="n">
         <v>3.0</v>
@@ -3842,14 +3866,14 @@
       <c r="C129" t="s">
         <v>122</v>
       </c>
-      <c r="G129" t="s">
-        <v>187</v>
-      </c>
-      <c r="H129" t="s">
-        <v>187</v>
-      </c>
-      <c r="M129" t="s">
-        <v>187</v>
+      <c r="D129" t="s">
+        <v>188</v>
+      </c>
+      <c r="J129" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>188</v>
       </c>
       <c r="S129" t="n">
         <v>3.0</v>
@@ -3865,14 +3889,14 @@
       <c r="C130" t="s">
         <v>122</v>
       </c>
-      <c r="E130" t="s">
-        <v>187</v>
-      </c>
-      <c r="J130" t="s">
-        <v>187</v>
-      </c>
-      <c r="R130" t="s">
-        <v>187</v>
+      <c r="H130" t="s">
+        <v>188</v>
+      </c>
+      <c r="L130" t="s">
+        <v>188</v>
+      </c>
+      <c r="M130" t="s">
+        <v>188</v>
       </c>
       <c r="S130" t="n">
         <v>3.0</v>
@@ -3888,14 +3912,14 @@
       <c r="C131" t="s">
         <v>122</v>
       </c>
-      <c r="L131" t="s">
-        <v>187</v>
-      </c>
       <c r="N131" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P131" t="s">
+        <v>188</v>
       </c>
       <c r="Q131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S131" t="n">
         <v>3.0</v>
@@ -3911,23 +3935,23 @@
       <c r="C132" t="s">
         <v>137</v>
       </c>
-      <c r="G132" t="s">
-        <v>187</v>
+      <c r="E132" t="s">
+        <v>188</v>
       </c>
       <c r="I132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M132" t="s">
-        <v>187</v>
-      </c>
-      <c r="P132" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="O132" t="s">
+        <v>188</v>
       </c>
       <c r="Q132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S132" t="n">
         <v>6.0</v>
@@ -3943,23 +3967,23 @@
       <c r="C133" t="s">
         <v>137</v>
       </c>
-      <c r="E133" t="s">
-        <v>187</v>
-      </c>
-      <c r="F133" t="s">
-        <v>187</v>
-      </c>
-      <c r="H133" t="s">
-        <v>187</v>
+      <c r="D133" t="s">
+        <v>188</v>
       </c>
       <c r="I133" t="s">
-        <v>187</v>
-      </c>
-      <c r="J133" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L133" t="s">
+        <v>188</v>
+      </c>
+      <c r="N133" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>188</v>
       </c>
       <c r="R133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S133" t="n">
         <v>6.0</v>
@@ -3975,8 +3999,8 @@
       <c r="C134" t="s">
         <v>140</v>
       </c>
-      <c r="M134" t="s">
-        <v>187</v>
+      <c r="H134" t="s">
+        <v>188</v>
       </c>
       <c r="S134" t="n">
         <v>1.0</v>
@@ -3993,13 +4017,13 @@
         <v>140</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
-      </c>
-      <c r="M135" t="s">
-        <v>187</v>
-      </c>
-      <c r="R135" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H135" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>188</v>
       </c>
       <c r="S135" t="n">
         <v>3.0</v>
@@ -4016,13 +4040,13 @@
         <v>140</v>
       </c>
       <c r="L136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S136" t="n">
         <v>3.0</v>
@@ -4038,14 +4062,14 @@
       <c r="C137" t="s">
         <v>140</v>
       </c>
-      <c r="D137" t="s">
-        <v>187</v>
-      </c>
-      <c r="M137" t="s">
-        <v>187</v>
+      <c r="H137" t="s">
+        <v>188</v>
+      </c>
+      <c r="L137" t="s">
+        <v>188</v>
       </c>
       <c r="P137" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S137" t="n">
         <v>3.0</v>
@@ -4062,13 +4086,13 @@
         <v>140</v>
       </c>
       <c r="E138" t="s">
-        <v>187</v>
-      </c>
-      <c r="J138" t="s">
-        <v>187</v>
-      </c>
-      <c r="R138" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H138" t="s">
+        <v>188</v>
+      </c>
+      <c r="M138" t="s">
+        <v>188</v>
       </c>
       <c r="S138" t="n">
         <v>3.0</v>
@@ -4084,23 +4108,23 @@
       <c r="C139" t="s">
         <v>137</v>
       </c>
-      <c r="G139" t="s">
-        <v>187</v>
+      <c r="E139" t="s">
+        <v>188</v>
       </c>
       <c r="I139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M139" t="s">
-        <v>187</v>
-      </c>
-      <c r="P139" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="O139" t="s">
+        <v>188</v>
       </c>
       <c r="Q139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S139" t="n">
         <v>6.0</v>
@@ -4116,23 +4140,23 @@
       <c r="C140" t="s">
         <v>137</v>
       </c>
-      <c r="E140" t="s">
-        <v>187</v>
-      </c>
-      <c r="F140" t="s">
-        <v>187</v>
-      </c>
-      <c r="H140" t="s">
-        <v>187</v>
+      <c r="D140" t="s">
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>187</v>
-      </c>
-      <c r="J140" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L140" t="s">
+        <v>188</v>
+      </c>
+      <c r="N140" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>188</v>
       </c>
       <c r="R140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S140" t="n">
         <v>6.0</v>
@@ -4148,8 +4172,8 @@
       <c r="C141" t="s">
         <v>146</v>
       </c>
-      <c r="L141" t="s">
-        <v>187</v>
+      <c r="D141" t="s">
+        <v>188</v>
       </c>
       <c r="S141" t="n">
         <v>1.0</v>
@@ -4165,8 +4189,8 @@
       <c r="C142" t="s">
         <v>146</v>
       </c>
-      <c r="E142" t="s">
-        <v>187</v>
+      <c r="I142" t="s">
+        <v>188</v>
       </c>
       <c r="S142" t="n">
         <v>1.0</v>
@@ -4182,14 +4206,14 @@
       <c r="C143" t="s">
         <v>146</v>
       </c>
-      <c r="J143" t="s">
-        <v>187</v>
-      </c>
-      <c r="K143" t="s">
-        <v>187</v>
+      <c r="F143" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" t="s">
+        <v>188</v>
       </c>
       <c r="M143" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S143" t="n">
         <v>3.0</v>
@@ -4205,14 +4229,14 @@
       <c r="C144" t="s">
         <v>146</v>
       </c>
-      <c r="E144" t="s">
-        <v>187</v>
+      <c r="G144" t="s">
+        <v>188</v>
       </c>
       <c r="I144" t="s">
-        <v>187</v>
-      </c>
-      <c r="L144" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>188</v>
       </c>
       <c r="S144" t="n">
         <v>3.0</v>
@@ -4228,14 +4252,14 @@
       <c r="C145" t="s">
         <v>146</v>
       </c>
-      <c r="I145" t="s">
-        <v>187</v>
+      <c r="J145" t="s">
+        <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>187</v>
-      </c>
-      <c r="R145" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>188</v>
       </c>
       <c r="S145" t="n">
         <v>3.0</v>
@@ -4251,14 +4275,14 @@
       <c r="C146" t="s">
         <v>146</v>
       </c>
-      <c r="J146" t="s">
-        <v>187</v>
-      </c>
-      <c r="L146" t="s">
-        <v>187</v>
+      <c r="D146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" t="s">
+        <v>188</v>
       </c>
       <c r="M146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S146" t="n">
         <v>3.0</v>
@@ -4274,23 +4298,20 @@
       <c r="C147" t="s">
         <v>146</v>
       </c>
-      <c r="D147" t="s">
-        <v>187</v>
-      </c>
-      <c r="I147" t="s">
-        <v>187</v>
+      <c r="E147" t="s">
+        <v>188</v>
+      </c>
+      <c r="H147" t="s">
+        <v>188</v>
       </c>
       <c r="J147" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S147" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="148">
@@ -4304,19 +4325,19 @@
         <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>187</v>
-      </c>
-      <c r="F148" t="s">
-        <v>187</v>
-      </c>
-      <c r="H148" t="s">
-        <v>187</v>
-      </c>
-      <c r="I148" t="s">
-        <v>187</v>
-      </c>
-      <c r="L148" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E148" t="s">
+        <v>188</v>
+      </c>
+      <c r="G148" t="s">
+        <v>188</v>
+      </c>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+      <c r="M148" t="s">
+        <v>188</v>
       </c>
       <c r="S148" t="n">
         <v>5.0</v>
@@ -4332,8 +4353,8 @@
       <c r="C149" t="s">
         <v>155</v>
       </c>
-      <c r="R149" t="s">
-        <v>187</v>
+      <c r="M149" t="s">
+        <v>188</v>
       </c>
       <c r="S149" t="n">
         <v>1.0</v>
@@ -4349,8 +4370,8 @@
       <c r="C150" t="s">
         <v>155</v>
       </c>
-      <c r="E150" t="s">
-        <v>187</v>
+      <c r="H150" t="s">
+        <v>188</v>
       </c>
       <c r="S150" t="n">
         <v>1.0</v>
@@ -4366,11 +4387,11 @@
       <c r="C151" t="s">
         <v>155</v>
       </c>
-      <c r="J151" t="s">
-        <v>187</v>
-      </c>
-      <c r="M151" t="s">
-        <v>187</v>
+      <c r="D151" t="s">
+        <v>188</v>
+      </c>
+      <c r="N151" t="s">
+        <v>188</v>
       </c>
       <c r="S151" t="n">
         <v>2.0</v>
@@ -4387,13 +4408,13 @@
         <v>155</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
-      </c>
-      <c r="I152" t="s">
-        <v>187</v>
-      </c>
-      <c r="R152" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G152" t="s">
+        <v>188</v>
+      </c>
+      <c r="M152" t="s">
+        <v>188</v>
       </c>
       <c r="S152" t="n">
         <v>3.0</v>
@@ -4409,14 +4430,14 @@
       <c r="C153" t="s">
         <v>155</v>
       </c>
+      <c r="D153" t="s">
+        <v>188</v>
+      </c>
       <c r="F153" t="s">
-        <v>187</v>
-      </c>
-      <c r="G153" t="s">
-        <v>187</v>
-      </c>
-      <c r="J153" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="P153" t="s">
+        <v>188</v>
       </c>
       <c r="S153" t="n">
         <v>3.0</v>
@@ -4432,23 +4453,23 @@
       <c r="C154" t="s">
         <v>155</v>
       </c>
-      <c r="D154" t="s">
-        <v>187</v>
-      </c>
       <c r="G154" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H154" t="s">
+        <v>188</v>
       </c>
       <c r="I154" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J154" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L154" t="s">
+        <v>188</v>
       </c>
       <c r="M154" t="s">
-        <v>187</v>
-      </c>
-      <c r="P154" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S154" t="n">
         <v>6.0</v>
@@ -4464,26 +4485,17 @@
       <c r="C155" t="s">
         <v>155</v>
       </c>
-      <c r="D155" t="s">
-        <v>187</v>
-      </c>
-      <c r="E155" t="s">
-        <v>187</v>
-      </c>
       <c r="I155" t="s">
-        <v>187</v>
-      </c>
-      <c r="L155" t="s">
-        <v>187</v>
-      </c>
-      <c r="M155" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J155" t="s">
+        <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S155" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
@@ -4496,23 +4508,17 @@
       <c r="C156" t="s">
         <v>155</v>
       </c>
-      <c r="D156" t="s">
-        <v>187</v>
-      </c>
-      <c r="I156" t="s">
-        <v>187</v>
+      <c r="F156" t="s">
+        <v>188</v>
+      </c>
+      <c r="J156" t="s">
+        <v>188</v>
       </c>
       <c r="L156" t="s">
-        <v>187</v>
-      </c>
-      <c r="M156" t="s">
-        <v>187</v>
-      </c>
-      <c r="P156" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S156" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="157">
@@ -4525,11 +4531,11 @@
       <c r="C157" t="s">
         <v>164</v>
       </c>
-      <c r="D157" t="s">
-        <v>187</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
+      <c r="H157" t="s">
+        <v>188</v>
+      </c>
+      <c r="M157" t="s">
+        <v>188</v>
       </c>
       <c r="S157" t="n">
         <v>2.0</v>
@@ -4545,14 +4551,14 @@
       <c r="C158" t="s">
         <v>164</v>
       </c>
-      <c r="F158" t="s">
-        <v>187</v>
-      </c>
-      <c r="G158" t="s">
-        <v>187</v>
-      </c>
-      <c r="M158" t="s">
-        <v>187</v>
+      <c r="E158" t="s">
+        <v>188</v>
+      </c>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+      <c r="L158" t="s">
+        <v>188</v>
       </c>
       <c r="S158" t="n">
         <v>3.0</v>
@@ -4568,14 +4574,14 @@
       <c r="C159" t="s">
         <v>164</v>
       </c>
-      <c r="D159" t="s">
-        <v>187</v>
-      </c>
-      <c r="F159" t="s">
-        <v>187</v>
-      </c>
       <c r="J159" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L159" t="s">
+        <v>188</v>
+      </c>
+      <c r="P159" t="s">
+        <v>188</v>
       </c>
       <c r="S159" t="n">
         <v>3.0</v>
@@ -4591,23 +4597,26 @@
       <c r="C160" t="s">
         <v>164</v>
       </c>
-      <c r="F160" t="s">
-        <v>187</v>
-      </c>
-      <c r="G160" t="s">
-        <v>187</v>
-      </c>
-      <c r="H160" t="s">
-        <v>187</v>
+      <c r="D160" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" t="s">
+        <v>188</v>
       </c>
       <c r="I160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L160" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="M160" t="s">
+        <v>188</v>
+      </c>
+      <c r="P160" t="s">
+        <v>188</v>
       </c>
       <c r="S160" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="161">
@@ -4620,17 +4629,26 @@
       <c r="C161" t="s">
         <v>164</v>
       </c>
-      <c r="F161" t="s">
-        <v>187</v>
+      <c r="D161" t="s">
+        <v>188</v>
       </c>
       <c r="G161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L161" t="s">
+        <v>188</v>
+      </c>
+      <c r="P161" t="s">
+        <v>188</v>
+      </c>
+      <c r="R161" t="s">
+        <v>188</v>
       </c>
       <c r="S161" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="162">
@@ -4643,17 +4661,26 @@
       <c r="C162" t="s">
         <v>164</v>
       </c>
+      <c r="D162" t="s">
+        <v>188</v>
+      </c>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J162" t="s">
+        <v>188</v>
+      </c>
+      <c r="L162" t="s">
+        <v>188</v>
       </c>
       <c r="M162" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S162" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="163">
@@ -4666,20 +4693,17 @@
       <c r="C163" t="s">
         <v>164</v>
       </c>
+      <c r="E163" t="s">
+        <v>188</v>
+      </c>
+      <c r="F163" t="s">
+        <v>188</v>
+      </c>
       <c r="G163" t="s">
-        <v>187</v>
-      </c>
-      <c r="H163" t="s">
-        <v>187</v>
-      </c>
-      <c r="I163" t="s">
-        <v>187</v>
-      </c>
-      <c r="M163" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S163" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="164">
@@ -4692,26 +4716,23 @@
       <c r="C164" t="s">
         <v>164</v>
       </c>
-      <c r="D164" t="s">
-        <v>187</v>
-      </c>
       <c r="E164" t="s">
-        <v>187</v>
-      </c>
-      <c r="F164" t="s">
-        <v>187</v>
-      </c>
-      <c r="H164" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G164" t="s">
+        <v>188</v>
+      </c>
+      <c r="I164" t="s">
+        <v>188</v>
+      </c>
+      <c r="J164" t="s">
+        <v>188</v>
       </c>
       <c r="M164" t="s">
-        <v>187</v>
-      </c>
-      <c r="R164" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S164" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
@@ -4724,11 +4745,11 @@
       <c r="C165" t="s">
         <v>173</v>
       </c>
-      <c r="F165" t="s">
-        <v>187</v>
-      </c>
-      <c r="I165" t="s">
-        <v>187</v>
+      <c r="E165" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>188</v>
       </c>
       <c r="S165" t="n">
         <v>2.0</v>
@@ -4744,14 +4765,14 @@
       <c r="C166" t="s">
         <v>173</v>
       </c>
-      <c r="E166" t="s">
-        <v>187</v>
-      </c>
-      <c r="J166" t="s">
-        <v>187</v>
-      </c>
-      <c r="R166" t="s">
-        <v>187</v>
+      <c r="G166" t="s">
+        <v>188</v>
+      </c>
+      <c r="I166" t="s">
+        <v>188</v>
+      </c>
+      <c r="M166" t="s">
+        <v>188</v>
       </c>
       <c r="S166" t="n">
         <v>3.0</v>
@@ -4767,26 +4788,20 @@
       <c r="C167" t="s">
         <v>176</v>
       </c>
-      <c r="D167" t="s">
-        <v>187</v>
-      </c>
-      <c r="G167" t="s">
-        <v>187</v>
-      </c>
-      <c r="H167" t="s">
-        <v>187</v>
-      </c>
-      <c r="J167" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>187</v>
-      </c>
-      <c r="R167" t="s">
-        <v>187</v>
+      <c r="E167" t="s">
+        <v>188</v>
+      </c>
+      <c r="F167" t="s">
+        <v>188</v>
+      </c>
+      <c r="K167" t="s">
+        <v>188</v>
+      </c>
+      <c r="L167" t="s">
+        <v>188</v>
       </c>
       <c r="S167" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="168">
@@ -4799,20 +4814,26 @@
       <c r="C168" t="s">
         <v>176</v>
       </c>
-      <c r="F168" t="s">
-        <v>187</v>
-      </c>
-      <c r="H168" t="s">
-        <v>187</v>
+      <c r="E168" t="s">
+        <v>188</v>
       </c>
       <c r="I168" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="J168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L168" t="s">
+        <v>188</v>
       </c>
       <c r="Q168" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="R168" t="s">
+        <v>188</v>
       </c>
       <c r="S168" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="169">
@@ -4826,22 +4847,19 @@
         <v>176</v>
       </c>
       <c r="E169" t="s">
-        <v>187</v>
-      </c>
-      <c r="I169" t="s">
-        <v>187</v>
-      </c>
-      <c r="P169" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>187</v>
-      </c>
-      <c r="R169" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G169" t="s">
+        <v>188</v>
+      </c>
+      <c r="H169" t="s">
+        <v>188</v>
+      </c>
+      <c r="J169" t="s">
+        <v>188</v>
       </c>
       <c r="S169" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="170">
@@ -4854,73 +4872,67 @@
       <c r="C170" t="s">
         <v>176</v>
       </c>
-      <c r="D170" t="s">
-        <v>187</v>
-      </c>
-      <c r="E170" t="s">
-        <v>187</v>
-      </c>
       <c r="G170" t="s">
-        <v>187</v>
-      </c>
-      <c r="H170" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="I170" t="s">
+        <v>188</v>
+      </c>
+      <c r="J170" t="s">
+        <v>188</v>
       </c>
       <c r="M170" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S170" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D171" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E171" t="n">
         <v>49.0</v>
       </c>
       <c r="F171" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="H171" t="n">
         <v>53.0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>54.0</v>
       </c>
       <c r="I171" t="n">
         <v>55.0</v>
       </c>
       <c r="J171" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="K171" t="n">
         <v>4.0</v>
       </c>
       <c r="L171" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="M171" t="n">
         <v>54.0</v>
       </c>
       <c r="N171" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O171" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P171" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q171" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="R171" t="n">
         <v>34.0</v>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="193">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -28,6 +28,9 @@
     <t>Civil Engg.</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Dr. S.K. Soni</t>
   </si>
   <si>
@@ -58,12 +61,18 @@
     <t>Shri Mileen Langhate</t>
   </si>
   <si>
+    <t>AP</t>
+  </si>
+  <si>
     <t>Shri H.S. Goliya</t>
   </si>
   <si>
     <t>Shri Devendra Dohare</t>
   </si>
   <si>
+    <t>AR</t>
+  </si>
+  <si>
     <t>Shri Sunil K.Ahirwar</t>
   </si>
   <si>
@@ -128,6 +137,9 @@
   </si>
   <si>
     <t>Electrical Engg.</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
   </si>
   <si>
     <t>Dr. H.K. Verma*</t>
@@ -612,12 +624,22 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F5F8A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F5F8A3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -632,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
@@ -685,20 +707,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S171"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="41.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
@@ -708,10 +733,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D5" t="n" s="3">
         <v>44774.0</v>
@@ -759,12 +784,12 @@
         <v>44788.0</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D6" t="n" s="2">
         <v>730.0</v>
@@ -817,51 +842,51 @@
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="D7" t="n" s="2">
+        <v>188</v>
+      </c>
+      <c r="D7" t="n" s="18">
         <v>41.0</v>
       </c>
-      <c r="E7" t="n" s="2">
+      <c r="E7" t="n" s="18">
         <v>48.0</v>
       </c>
-      <c r="F7" t="n" s="2">
+      <c r="F7" t="n" s="18">
         <v>52.0</v>
       </c>
-      <c r="G7" t="n" s="2">
+      <c r="G7" t="n" s="18">
         <v>57.0</v>
       </c>
-      <c r="H7" t="n" s="2">
+      <c r="H7" t="n" s="18">
         <v>53.0</v>
       </c>
-      <c r="I7" t="n" s="2">
+      <c r="I7" t="n" s="18">
         <v>53.0</v>
       </c>
-      <c r="J7" t="n" s="2">
+      <c r="J7" t="n" s="18">
         <v>54.0</v>
       </c>
-      <c r="K7" t="n" s="2">
+      <c r="K7" t="n" s="18">
         <v>4.0</v>
       </c>
-      <c r="L7" t="n" s="2">
+      <c r="L7" t="n" s="18">
         <v>42.0</v>
       </c>
-      <c r="M7" t="n" s="2">
+      <c r="M7" t="n" s="18">
         <v>53.0</v>
       </c>
-      <c r="N7" t="n" s="2">
+      <c r="N7" t="n" s="18">
         <v>16.0</v>
       </c>
-      <c r="O7" t="n" s="2">
+      <c r="O7" t="n" s="18">
         <v>3.0</v>
       </c>
-      <c r="P7" t="n" s="2">
+      <c r="P7" t="n" s="18">
         <v>37.0</v>
       </c>
-      <c r="Q7" t="n" s="2">
+      <c r="Q7" t="n" s="18">
         <v>30.0</v>
       </c>
-      <c r="R7" t="n" s="2">
+      <c r="R7" t="n" s="18">
         <v>32.0</v>
       </c>
       <c r="S7" t="n" s="2">
@@ -870,10 +895,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -886,11 +911,14 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>188</v>
+      <c r="P10" t="s">
+        <v>192</v>
       </c>
       <c r="S10" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -898,16 +926,19 @@
         <v>2.0</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>188</v>
+      <c r="Q11" t="s">
+        <v>192</v>
       </c>
       <c r="S11" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -915,16 +946,19 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" t="s">
-        <v>188</v>
+      <c r="H12" t="s">
+        <v>192</v>
       </c>
       <c r="S12" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -932,16 +966,19 @@
         <v>4.0</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="R13" t="s">
-        <v>188</v>
+      <c r="G13" t="s">
+        <v>192</v>
       </c>
       <c r="S13" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -949,16 +986,19 @@
         <v>5.0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="P14" t="s">
-        <v>188</v>
+      <c r="K14" t="s">
+        <v>192</v>
       </c>
       <c r="S14" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -966,16 +1006,19 @@
         <v>6.0</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S15" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -983,16 +1026,19 @@
         <v>7.0</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>188</v>
+      <c r="L16" t="s">
+        <v>192</v>
       </c>
       <c r="S16" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1000,16 +1046,19 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="R17" t="s">
-        <v>188</v>
+      <c r="H17" t="s">
+        <v>192</v>
       </c>
       <c r="S17" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1066,19 @@
         <v>9.0</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="L18" t="s">
-        <v>188</v>
+      <c r="D18" t="s">
+        <v>192</v>
       </c>
       <c r="S18" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1034,16 +1086,19 @@
         <v>10.0</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
-        <v>188</v>
+      <c r="I19" t="s">
+        <v>192</v>
       </c>
       <c r="S19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1051,19 +1106,22 @@
         <v>11.0</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
+      <c r="G20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" t="s">
+        <v>192</v>
       </c>
       <c r="S20" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1071,19 +1129,19 @@
         <v>12.0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="K21" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>188</v>
+      <c r="M21" t="s">
+        <v>192</v>
       </c>
       <c r="S21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1091,22 +1149,25 @@
         <v>13.0</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
-      </c>
-      <c r="J22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
       </c>
       <c r="S22" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1114,19 +1175,25 @@
         <v>14.0</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="L23" t="s">
-        <v>188</v>
-      </c>
-      <c r="N23" t="s">
-        <v>188</v>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="s">
+        <v>192</v>
       </c>
       <c r="S23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1134,22 +1201,25 @@
         <v>15.0</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
       <c r="G24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" t="s">
-        <v>188</v>
-      </c>
-      <c r="R24" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H24" t="s">
+        <v>192</v>
       </c>
       <c r="S24" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1157,22 +1227,25 @@
         <v>16.0</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" t="s">
-        <v>188</v>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>192</v>
       </c>
       <c r="S25" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1180,474 +1253,484 @@
         <v>17.0</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
       </c>
       <c r="L26" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S26" t="n">
-        <v>6.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="T26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>18.0</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" t="s">
-        <v>188</v>
-      </c>
-      <c r="P27" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R27" t="s">
+        <v>192</v>
       </c>
       <c r="S27" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19.0</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>192</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>192</v>
       </c>
       <c r="S28" t="n">
-        <v>3.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20.0</v>
       </c>
       <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" t="s">
-        <v>188</v>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q29" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S29" t="n">
         <v>4.0</v>
       </c>
+      <c r="T29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21.0</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" t="s">
+        <v>192</v>
+      </c>
+      <c r="R30" t="s">
+        <v>192</v>
       </c>
       <c r="S30" t="n">
-        <v>3.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>22.0</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I31" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" t="s">
+        <v>192</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q31" t="s">
-        <v>188</v>
-      </c>
-      <c r="R31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S31" t="n">
         <v>6.0</v>
       </c>
+      <c r="T31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>23.0</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
-      </c>
-      <c r="P32" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I32" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
       </c>
       <c r="S32" t="n">
-        <v>3.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24.0</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S33" t="n">
-        <v>4.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="T33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25.0</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
-      </c>
-      <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M34" t="s">
+        <v>192</v>
       </c>
       <c r="S34" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>26.0</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G35" t="s">
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
-      </c>
-      <c r="M35" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J35" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" t="s">
+        <v>192</v>
       </c>
       <c r="S35" t="n">
         <v>6.0</v>
       </c>
+      <c r="T35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27.0</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
-      </c>
-      <c r="I36" t="s">
-        <v>188</v>
-      </c>
-      <c r="M36" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" t="s">
+        <v>192</v>
       </c>
       <c r="S36" t="n">
-        <v>6.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28.0</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>192</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G37" t="s">
+        <v>192</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37" t="s">
-        <v>188</v>
-      </c>
-      <c r="P37" t="s">
-        <v>188</v>
-      </c>
-      <c r="R37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S37" t="n">
-        <v>6.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29.0</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" t="s">
+        <v>192</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>188</v>
-      </c>
-      <c r="M38" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L38" t="s">
+        <v>192</v>
       </c>
       <c r="Q38" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S38" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>30.0</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" t="s">
+        <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J39" t="s">
+        <v>192</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S39" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31.0</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I40" t="s">
-        <v>188</v>
-      </c>
-      <c r="J40" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L40" t="s">
+        <v>192</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S40" t="n">
         <v>5.0</v>
       </c>
+      <c r="T40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32.0</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I41" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" t="s">
+        <v>192</v>
       </c>
       <c r="M41" t="s">
-        <v>188</v>
-      </c>
-      <c r="N41" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P41" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>192</v>
       </c>
       <c r="S41" t="n">
         <v>6.0</v>
       </c>
+      <c r="T41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33.0</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="T42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -1655,16 +1738,19 @@
         <v>34.0</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>192</v>
       </c>
       <c r="S43" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1672,19 +1758,22 @@
         <v>35.0</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" t="s">
-        <v>188</v>
-      </c>
-      <c r="N44" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" t="s">
+        <v>192</v>
       </c>
       <c r="S44" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1692,19 +1781,22 @@
         <v>36.0</v>
       </c>
       <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M45" t="s">
-        <v>188</v>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" t="s">
+        <v>192</v>
       </c>
       <c r="S45" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1804,22 @@
         <v>37.0</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
-      </c>
-      <c r="M46" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>192</v>
       </c>
       <c r="S46" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1732,19 +1827,22 @@
         <v>38.0</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="M47" t="s">
-        <v>188</v>
-      </c>
-      <c r="P47" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" t="s">
+        <v>192</v>
       </c>
       <c r="S47" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1752,22 +1850,22 @@
         <v>39.0</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I48" t="s">
+        <v>192</v>
       </c>
       <c r="S48" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1775,22 +1873,25 @@
         <v>40.0</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>188</v>
-      </c>
-      <c r="R49" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" t="s">
+        <v>192</v>
       </c>
       <c r="S49" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1798,547 +1899,586 @@
         <v>41.0</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" t="s">
+        <v>192</v>
       </c>
       <c r="I50" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P50" t="s">
+        <v>192</v>
       </c>
       <c r="S50" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42.0</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
-      </c>
-      <c r="J51" t="s">
-        <v>188</v>
-      </c>
-      <c r="P51" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H51" t="s">
+        <v>192</v>
+      </c>
+      <c r="L51" t="s">
+        <v>192</v>
+      </c>
+      <c r="M51" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" t="s">
+        <v>192</v>
+      </c>
+      <c r="R51" t="s">
+        <v>192</v>
       </c>
       <c r="S51" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>43.0</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
-      </c>
-      <c r="M52" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J52" t="s">
+        <v>192</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
-      </c>
-      <c r="R52" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P52" t="s">
+        <v>192</v>
       </c>
       <c r="S52" t="n">
         <v>6.0</v>
       </c>
+      <c r="T52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>44.0</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>188</v>
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G53" t="s">
+        <v>192</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I53" t="s">
-        <v>188</v>
-      </c>
-      <c r="J53" t="s">
-        <v>188</v>
-      </c>
-      <c r="M53" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L53" t="s">
+        <v>192</v>
       </c>
       <c r="S53" t="n">
         <v>6.0</v>
       </c>
+      <c r="T53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>45.0</v>
       </c>
       <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
       <c r="D54" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
+        <v>192</v>
       </c>
       <c r="G54" t="s">
-        <v>188</v>
-      </c>
-      <c r="H54" t="s">
-        <v>188</v>
-      </c>
-      <c r="M54" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+      <c r="L54" t="s">
+        <v>192</v>
+      </c>
+      <c r="P54" t="s">
+        <v>192</v>
       </c>
       <c r="S54" t="n">
         <v>6.0</v>
       </c>
+      <c r="T54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>46.0</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F55" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H55" t="s">
-        <v>188</v>
-      </c>
-      <c r="I55" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M55" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>192</v>
+      </c>
+      <c r="R55" t="s">
+        <v>192</v>
       </c>
       <c r="S55" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>47.0</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I56" t="s">
-        <v>188</v>
-      </c>
-      <c r="L56" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M56" t="s">
+        <v>192</v>
+      </c>
+      <c r="N56" t="s">
+        <v>192</v>
+      </c>
+      <c r="R56" t="s">
+        <v>192</v>
       </c>
       <c r="S56" t="n">
         <v>5.0</v>
       </c>
+      <c r="T56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>48.0</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>192</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" t="s">
-        <v>188</v>
-      </c>
-      <c r="I57" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57" t="s">
-        <v>188</v>
-      </c>
-      <c r="L57" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G57" t="s">
+        <v>192</v>
       </c>
       <c r="N57" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P57" t="s">
+        <v>192</v>
       </c>
       <c r="S57" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>49.0</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" t="s">
+        <v>192</v>
+      </c>
+      <c r="L58" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>192</v>
       </c>
       <c r="R58" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S58" t="n">
-        <v>3.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>50.0</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" t="s">
-        <v>188</v>
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J59" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M59" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R59" t="s">
+        <v>192</v>
       </c>
       <c r="S59" t="n">
         <v>6.0</v>
       </c>
+      <c r="T59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>51.0</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F60" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" t="s">
+        <v>192</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60" t="s">
-        <v>188</v>
-      </c>
-      <c r="L60" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M60" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S60" t="n">
         <v>6.0</v>
       </c>
+      <c r="T60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52.0</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>188</v>
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>192</v>
       </c>
       <c r="J61" t="s">
-        <v>188</v>
-      </c>
-      <c r="P61" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M61" t="s">
+        <v>192</v>
       </c>
       <c r="S61" t="n">
         <v>3.0</v>
       </c>
+      <c r="T61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>53.0</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
-      </c>
-      <c r="L62" t="s">
-        <v>188</v>
-      </c>
-      <c r="M62" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I62" t="s">
+        <v>192</v>
+      </c>
+      <c r="J62" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>192</v>
       </c>
       <c r="S62" t="n">
         <v>6.0</v>
       </c>
+      <c r="T62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54.0</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" t="s">
-        <v>188</v>
-      </c>
-      <c r="H63" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M63" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S63" t="n">
-        <v>6.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="T63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>55.0</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" t="s">
-        <v>188</v>
-      </c>
-      <c r="I64" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G64" t="s">
+        <v>192</v>
+      </c>
+      <c r="J64" t="s">
+        <v>192</v>
       </c>
       <c r="S64" t="n">
-        <v>3.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56.0</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" t="s">
-        <v>188</v>
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" t="s">
+        <v>192</v>
       </c>
       <c r="J65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M65" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R65" t="s">
+        <v>192</v>
       </c>
       <c r="S65" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57.0</v>
       </c>
       <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="C66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" t="s">
-        <v>188</v>
+      <c r="D66" t="s">
+        <v>192</v>
       </c>
       <c r="G66" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
-      </c>
-      <c r="J66" t="s">
-        <v>188</v>
-      </c>
-      <c r="L66" t="s">
-        <v>188</v>
-      </c>
-      <c r="R66" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I66" t="s">
+        <v>192</v>
+      </c>
+      <c r="M66" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" t="s">
+        <v>192</v>
       </c>
       <c r="S66" t="n">
         <v>6.0</v>
       </c>
+      <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58.0</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
+        <v>62</v>
+      </c>
+      <c r="E67" t="s">
+        <v>192</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G67" t="s">
+        <v>192</v>
       </c>
       <c r="H67" t="s">
-        <v>188</v>
-      </c>
-      <c r="L67" t="s">
-        <v>188</v>
-      </c>
-      <c r="M67" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="N67" t="s">
+        <v>192</v>
+      </c>
+      <c r="R67" t="s">
+        <v>192</v>
       </c>
       <c r="S67" t="n">
         <v>6.0</v>
       </c>
+      <c r="T67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59.0</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" t="s">
-        <v>188</v>
-      </c>
-      <c r="I68" t="s">
-        <v>188</v>
-      </c>
-      <c r="J68" t="s">
-        <v>188</v>
+        <v>69</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" t="s">
+        <v>192</v>
+      </c>
+      <c r="M68" t="s">
+        <v>192</v>
       </c>
       <c r="S68" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -2346,22 +2486,25 @@
         <v>60.0</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" t="s">
-        <v>188</v>
-      </c>
-      <c r="I69" t="s">
-        <v>188</v>
+        <v>69</v>
+      </c>
+      <c r="H69" t="s">
+        <v>192</v>
       </c>
       <c r="J69" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P69" t="s">
+        <v>192</v>
       </c>
       <c r="S69" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -2369,283 +2512,280 @@
         <v>61.0</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F70" t="s">
-        <v>188</v>
-      </c>
-      <c r="G70" t="s">
-        <v>188</v>
-      </c>
-      <c r="J70" t="s">
-        <v>188</v>
-      </c>
-      <c r="L70" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I70" t="s">
+        <v>192</v>
       </c>
       <c r="M70" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R70" t="s">
+        <v>192</v>
       </c>
       <c r="S70" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>62.0</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I71" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H71" t="s">
+        <v>192</v>
+      </c>
+      <c r="L71" t="s">
+        <v>192</v>
       </c>
       <c r="M71" t="s">
-        <v>188</v>
-      </c>
-      <c r="P71" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R71" t="s">
+        <v>192</v>
       </c>
       <c r="S71" t="n">
         <v>6.0</v>
       </c>
+      <c r="T71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63.0</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>192</v>
       </c>
       <c r="I72" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J72" t="s">
+        <v>192</v>
       </c>
       <c r="L72" t="s">
-        <v>188</v>
-      </c>
-      <c r="P72" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="O72" t="s">
+        <v>192</v>
       </c>
       <c r="S72" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64.0</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G73" t="s">
+        <v>192</v>
       </c>
       <c r="H73" t="s">
-        <v>188</v>
-      </c>
-      <c r="J73" t="s">
-        <v>188</v>
-      </c>
-      <c r="P73" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S73" t="n">
-        <v>6.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65.0</v>
       </c>
       <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
+      <c r="E74" t="s">
+        <v>192</v>
       </c>
       <c r="H74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J74" t="s">
-        <v>188</v>
-      </c>
-      <c r="M74" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L74" t="s">
+        <v>192</v>
+      </c>
+      <c r="R74" t="s">
+        <v>192</v>
       </c>
       <c r="S74" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>66.0</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" t="s">
-        <v>188</v>
-      </c>
-      <c r="J75" t="s">
-        <v>188</v>
-      </c>
-      <c r="N75" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="F75" t="s">
+        <v>192</v>
+      </c>
+      <c r="R75" t="s">
+        <v>192</v>
       </c>
       <c r="S75" t="n">
-        <v>6.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="T75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>67.0</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" t="s">
-        <v>188</v>
-      </c>
-      <c r="F76" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" t="s">
+        <v>192</v>
       </c>
       <c r="I76" t="s">
-        <v>188</v>
-      </c>
-      <c r="M76" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S76" t="n">
         <v>4.0</v>
       </c>
+      <c r="T76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>68.0</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F77" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="E77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" t="s">
+        <v>192</v>
+      </c>
+      <c r="J77" t="s">
+        <v>192</v>
+      </c>
+      <c r="M77" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>192</v>
       </c>
       <c r="S77" t="n">
-        <v>2.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>69.0</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" t="s">
-        <v>188</v>
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" t="s">
+        <v>192</v>
       </c>
       <c r="I78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N78" t="s">
-        <v>188</v>
-      </c>
-      <c r="P78" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>188</v>
-      </c>
-      <c r="R78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S78" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>70.0</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="N79" t="s">
+        <v>192</v>
       </c>
       <c r="S79" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2653,16 +2793,19 @@
         <v>71.0</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="E80" t="s">
+        <v>192</v>
       </c>
       <c r="S80" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -2670,16 +2813,19 @@
         <v>72.0</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="R81" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="J81" t="s">
+        <v>192</v>
       </c>
       <c r="S81" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2687,16 +2833,19 @@
         <v>73.0</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
       </c>
       <c r="S82" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2704,16 +2853,19 @@
         <v>74.0</v>
       </c>
       <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
-        <v>78</v>
-      </c>
-      <c r="P83" t="s">
-        <v>188</v>
+      <c r="J83" t="s">
+        <v>192</v>
       </c>
       <c r="S83" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2721,16 +2873,19 @@
         <v>75.0</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>192</v>
       </c>
       <c r="S84" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2738,16 +2893,19 @@
         <v>76.0</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="N85" t="s">
+        <v>192</v>
       </c>
       <c r="S85" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -2755,19 +2913,22 @@
         <v>77.0</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" t="s">
-        <v>188</v>
-      </c>
-      <c r="N86" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>192</v>
+      </c>
+      <c r="G86" t="s">
+        <v>192</v>
       </c>
       <c r="S86" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2775,19 +2936,22 @@
         <v>78.0</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="E87" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87" t="s">
+        <v>192</v>
       </c>
       <c r="S87" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -2795,19 +2959,22 @@
         <v>79.0</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" t="s">
-        <v>188</v>
-      </c>
-      <c r="J88" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="M88" t="s">
+        <v>192</v>
+      </c>
+      <c r="P88" t="s">
+        <v>192</v>
       </c>
       <c r="S88" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -2815,19 +2982,22 @@
         <v>80.0</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="E89" t="s">
+        <v>192</v>
       </c>
       <c r="I89" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S89" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -2835,22 +3005,25 @@
         <v>81.0</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" t="s">
-        <v>188</v>
-      </c>
-      <c r="H90" t="s">
-        <v>188</v>
-      </c>
-      <c r="I90" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="L90" t="s">
+        <v>192</v>
+      </c>
+      <c r="M90" t="s">
+        <v>192</v>
+      </c>
+      <c r="R90" t="s">
+        <v>192</v>
       </c>
       <c r="S90" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -2858,22 +3031,25 @@
         <v>82.0</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
-      </c>
-      <c r="J91" t="s">
-        <v>188</v>
-      </c>
-      <c r="M91" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L91" t="s">
+        <v>192</v>
+      </c>
+      <c r="P91" t="s">
+        <v>192</v>
       </c>
       <c r="S91" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -2881,22 +3057,25 @@
         <v>83.0</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
-      </c>
-      <c r="N92" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G92" t="s">
+        <v>192</v>
+      </c>
+      <c r="P92" t="s">
+        <v>192</v>
       </c>
       <c r="S92" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -2904,22 +3083,25 @@
         <v>84.0</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
-      </c>
-      <c r="M93" t="s">
-        <v>188</v>
-      </c>
-      <c r="N93" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>192</v>
+      </c>
+      <c r="P93" t="s">
+        <v>192</v>
       </c>
       <c r="R93" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S93" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -2927,22 +3109,25 @@
         <v>85.0</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="E94" t="s">
+        <v>192</v>
       </c>
       <c r="H94" t="s">
-        <v>188</v>
-      </c>
-      <c r="P94" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J94" t="s">
+        <v>192</v>
       </c>
       <c r="S94" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T94" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -2950,22 +3135,25 @@
         <v>86.0</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" t="s">
-        <v>188</v>
-      </c>
-      <c r="L95" t="s">
-        <v>188</v>
-      </c>
-      <c r="R95" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="H95" t="s">
+        <v>192</v>
+      </c>
+      <c r="J95" t="s">
+        <v>192</v>
       </c>
       <c r="S95" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T95" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -2973,22 +3161,25 @@
         <v>87.0</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" t="s">
-        <v>188</v>
-      </c>
-      <c r="P96" t="s">
-        <v>188</v>
-      </c>
-      <c r="R96" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="G96" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" t="s">
+        <v>192</v>
+      </c>
+      <c r="N96" t="s">
+        <v>192</v>
       </c>
       <c r="S96" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -2996,652 +3187,664 @@
         <v>88.0</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" t="s">
-        <v>188</v>
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>192</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H97" t="s">
-        <v>188</v>
-      </c>
-      <c r="M97" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I97" t="s">
+        <v>192</v>
       </c>
       <c r="S97" t="n">
         <v>5.0</v>
       </c>
+      <c r="T97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>89.0</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" t="s">
-        <v>188</v>
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+      <c r="H98" t="s">
+        <v>192</v>
       </c>
       <c r="I98" t="s">
-        <v>188</v>
-      </c>
-      <c r="P98" t="s">
-        <v>188</v>
-      </c>
-      <c r="R98" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L98" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>192</v>
       </c>
       <c r="S98" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>90.0</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G99" t="s">
-        <v>188</v>
-      </c>
-      <c r="H99" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J99" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M99" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>192</v>
+      </c>
+      <c r="R99" t="s">
+        <v>192</v>
       </c>
       <c r="S99" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>91.0</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="s">
-        <v>188</v>
-      </c>
-      <c r="G100" t="s">
-        <v>188</v>
-      </c>
-      <c r="H100" t="s">
-        <v>188</v>
-      </c>
-      <c r="J100" t="s">
-        <v>188</v>
-      </c>
-      <c r="L100" t="s">
-        <v>188</v>
-      </c>
-      <c r="R100" t="s">
-        <v>188</v>
+        <v>101</v>
+      </c>
+      <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
+        <v>192</v>
+      </c>
+      <c r="M100" t="s">
+        <v>192</v>
       </c>
       <c r="S100" t="n">
-        <v>6.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="T100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>92.0</v>
       </c>
       <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" t="s">
-        <v>97</v>
+      <c r="E101" t="s">
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
-      </c>
-      <c r="H101" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I101" t="s">
-        <v>188</v>
-      </c>
-      <c r="J101" t="s">
-        <v>188</v>
-      </c>
-      <c r="N101" t="s">
-        <v>188</v>
-      </c>
-      <c r="R101" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L101" t="s">
+        <v>192</v>
+      </c>
+      <c r="M101" t="s">
+        <v>192</v>
       </c>
       <c r="S101" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>93.0</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G102" t="s">
-        <v>188</v>
-      </c>
-      <c r="I102" t="s">
-        <v>188</v>
-      </c>
-      <c r="J102" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M102" t="s">
+        <v>192</v>
       </c>
       <c r="Q102" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R102" t="s">
+        <v>192</v>
       </c>
       <c r="S102" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T102"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>94.0</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>188</v>
-      </c>
-      <c r="E103" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
-      </c>
-      <c r="G103" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H103" t="s">
+        <v>192</v>
       </c>
       <c r="I103" t="s">
-        <v>188</v>
-      </c>
-      <c r="J103" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M103" t="s">
+        <v>192</v>
       </c>
       <c r="S103" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T103"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>95.0</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>188</v>
-      </c>
-      <c r="F104" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G104" t="s">
+        <v>192</v>
       </c>
       <c r="H104" t="s">
-        <v>188</v>
-      </c>
-      <c r="I104" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J104" t="s">
+        <v>192</v>
       </c>
       <c r="L104" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M104" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S104" t="n">
         <v>6.0</v>
       </c>
+      <c r="T104"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>96.0</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
-      </c>
-      <c r="F105" t="s">
-        <v>188</v>
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>192</v>
       </c>
       <c r="G105" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H105" t="s">
-        <v>188</v>
-      </c>
-      <c r="I105" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J105" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P105" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>192</v>
       </c>
       <c r="S105" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T105"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>97.0</v>
       </c>
       <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
         <v>107</v>
       </c>
-      <c r="C106" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" t="s">
-        <v>188</v>
-      </c>
-      <c r="F106" t="s">
-        <v>188</v>
+      <c r="E106" t="s">
+        <v>192</v>
       </c>
       <c r="G106" t="s">
-        <v>188</v>
-      </c>
-      <c r="H106" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I106" t="s">
+        <v>192</v>
       </c>
       <c r="J106" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L106" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R106" t="s">
+        <v>192</v>
       </c>
       <c r="S106" t="n">
         <v>6.0</v>
       </c>
+      <c r="T106"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>98.0</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G107" t="s">
-        <v>188</v>
-      </c>
-      <c r="I107" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J107" t="s">
+        <v>192</v>
       </c>
       <c r="M107" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P107" t="s">
+        <v>192</v>
       </c>
       <c r="S107" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>99.0</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>192</v>
       </c>
       <c r="G108" t="s">
-        <v>188</v>
-      </c>
-      <c r="H108" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I108" t="s">
+        <v>192</v>
       </c>
       <c r="J108" t="s">
-        <v>188</v>
-      </c>
-      <c r="K108" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M108" t="s">
-        <v>188</v>
-      </c>
-      <c r="O108" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S108" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>100.0</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" t="s">
-        <v>188</v>
-      </c>
-      <c r="H109" t="s">
-        <v>188</v>
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>192</v>
+      </c>
+      <c r="F109" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" t="s">
+        <v>192</v>
       </c>
       <c r="R109" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S109" t="n">
-        <v>3.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>101.0</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
-      </c>
-      <c r="G110" t="s">
-        <v>188</v>
-      </c>
-      <c r="H110" t="s">
-        <v>188</v>
-      </c>
-      <c r="I110" t="s">
-        <v>188</v>
+        <v>115</v>
+      </c>
+      <c r="J110" t="s">
+        <v>192</v>
       </c>
       <c r="L110" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M110" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P110" t="s">
+        <v>192</v>
       </c>
       <c r="S110" t="n">
-        <v>5.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>102.0</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
-      </c>
-      <c r="D111" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="F111" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G111" t="s">
-        <v>188</v>
-      </c>
-      <c r="J111" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I111" t="s">
+        <v>192</v>
+      </c>
+      <c r="M111" t="s">
+        <v>192</v>
       </c>
       <c r="P111" t="s">
-        <v>188</v>
-      </c>
-      <c r="R111" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S111" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>103.0</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G112" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I112" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J112" t="s">
+        <v>192</v>
       </c>
       <c r="L112" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M112" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S112" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>104.0</v>
       </c>
       <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
         <v>115</v>
       </c>
-      <c r="C113" t="s">
-        <v>111</v>
-      </c>
-      <c r="F113" t="s">
-        <v>188</v>
-      </c>
       <c r="G113" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J113" t="s">
+        <v>192</v>
       </c>
       <c r="L113" t="s">
-        <v>188</v>
-      </c>
-      <c r="M113" t="s">
-        <v>188</v>
-      </c>
-      <c r="R113" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P113" t="s">
+        <v>192</v>
       </c>
       <c r="S113" t="n">
-        <v>6.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="T113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>105.0</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G114" t="s">
+        <v>192</v>
       </c>
       <c r="H114" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I114" t="s">
-        <v>188</v>
-      </c>
-      <c r="P114" t="s">
-        <v>188</v>
-      </c>
-      <c r="R114" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J114" t="s">
+        <v>192</v>
+      </c>
+      <c r="L114" t="s">
+        <v>192</v>
       </c>
       <c r="S114" t="n">
         <v>6.0</v>
       </c>
+      <c r="T114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>106.0</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
       </c>
       <c r="E115" t="s">
-        <v>188</v>
-      </c>
-      <c r="F115" t="s">
-        <v>188</v>
-      </c>
-      <c r="G115" t="s">
-        <v>188</v>
-      </c>
-      <c r="I115" t="s">
-        <v>188</v>
-      </c>
-      <c r="J115" t="s">
-        <v>188</v>
-      </c>
-      <c r="P115" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H115" t="s">
+        <v>192</v>
+      </c>
+      <c r="K115" t="s">
+        <v>192</v>
+      </c>
+      <c r="L115" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>192</v>
       </c>
       <c r="S115" t="n">
         <v>6.0</v>
       </c>
+      <c r="T115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>107.0</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
-      </c>
-      <c r="D116" t="s">
-        <v>188</v>
-      </c>
-      <c r="F116" t="s">
-        <v>188</v>
+        <v>123</v>
+      </c>
+      <c r="E116" t="s">
+        <v>192</v>
       </c>
       <c r="G116" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H116" t="s">
+        <v>192</v>
       </c>
       <c r="L116" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M116" t="s">
-        <v>188</v>
-      </c>
-      <c r="N116" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P116" t="s">
+        <v>192</v>
       </c>
       <c r="S116" t="n">
         <v>6.0</v>
       </c>
+      <c r="T116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>108.0</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H117" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J117" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L117" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P117" t="s">
+        <v>192</v>
       </c>
       <c r="S117" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>109.0</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
-      </c>
-      <c r="J118" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="H118" t="s">
+        <v>192</v>
       </c>
       <c r="S118" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T118" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -3649,16 +3852,19 @@
         <v>110.0</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
-      </c>
-      <c r="R119" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>192</v>
       </c>
       <c r="S119" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T119" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -3666,16 +3872,19 @@
         <v>111.0</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
-      </c>
-      <c r="G120" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="E120" t="s">
+        <v>192</v>
       </c>
       <c r="S120" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T120" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -3683,16 +3892,19 @@
         <v>112.0</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
-      </c>
-      <c r="P121" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>192</v>
       </c>
       <c r="S121" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T121" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -3700,22 +3912,25 @@
         <v>113.0</v>
       </c>
       <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
         <v>126</v>
       </c>
-      <c r="C122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" t="s">
-        <v>188</v>
-      </c>
       <c r="G122" t="s">
-        <v>188</v>
-      </c>
-      <c r="L122" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H122" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>192</v>
       </c>
       <c r="S122" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T122" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -3723,22 +3938,25 @@
         <v>114.0</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>188</v>
-      </c>
-      <c r="R123" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J123" t="s">
+        <v>192</v>
+      </c>
+      <c r="O123" t="s">
+        <v>192</v>
       </c>
       <c r="S123" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T123" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -3746,22 +3964,25 @@
         <v>115.0</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
-      </c>
-      <c r="E124" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="G124" t="s">
+        <v>192</v>
+      </c>
+      <c r="H124" t="s">
+        <v>192</v>
       </c>
       <c r="I124" t="s">
-        <v>188</v>
-      </c>
-      <c r="R124" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S124" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T124" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -3769,22 +3990,25 @@
         <v>116.0</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
-      </c>
-      <c r="F125" t="s">
-        <v>188</v>
-      </c>
-      <c r="L125" t="s">
-        <v>188</v>
-      </c>
-      <c r="P125" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="G125" t="s">
+        <v>192</v>
+      </c>
+      <c r="I125" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>192</v>
       </c>
       <c r="S125" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T125" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126">
@@ -3792,22 +4016,25 @@
         <v>117.0</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
-      </c>
-      <c r="D126" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="E126" t="s">
+        <v>192</v>
+      </c>
+      <c r="I126" t="s">
+        <v>192</v>
       </c>
       <c r="M126" t="s">
-        <v>188</v>
-      </c>
-      <c r="P126" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S126" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T126" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -3815,22 +4042,25 @@
         <v>118.0</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
-      </c>
-      <c r="F127" t="s">
-        <v>188</v>
-      </c>
-      <c r="M127" t="s">
-        <v>188</v>
-      </c>
-      <c r="R127" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="G127" t="s">
+        <v>192</v>
+      </c>
+      <c r="J127" t="s">
+        <v>192</v>
+      </c>
+      <c r="P127" t="s">
+        <v>192</v>
       </c>
       <c r="S127" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T127" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -3838,22 +4068,25 @@
         <v>119.0</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
-      </c>
-      <c r="D128" t="s">
-        <v>188</v>
-      </c>
-      <c r="G128" t="s">
-        <v>188</v>
-      </c>
-      <c r="P128" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="H128" t="s">
+        <v>192</v>
+      </c>
+      <c r="I128" t="s">
+        <v>192</v>
+      </c>
+      <c r="R128" t="s">
+        <v>192</v>
       </c>
       <c r="S128" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T128" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="129">
@@ -3861,22 +4094,25 @@
         <v>120.0</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
-      </c>
-      <c r="D129" t="s">
-        <v>188</v>
-      </c>
-      <c r="J129" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="F129" t="s">
+        <v>192</v>
+      </c>
+      <c r="G129" t="s">
+        <v>192</v>
+      </c>
+      <c r="M129" t="s">
+        <v>192</v>
       </c>
       <c r="S129" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T129" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="130">
@@ -3884,22 +4120,25 @@
         <v>121.0</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
-      </c>
-      <c r="H130" t="s">
-        <v>188</v>
-      </c>
-      <c r="L130" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
+        <v>192</v>
+      </c>
+      <c r="G130" t="s">
+        <v>192</v>
       </c>
       <c r="M130" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S130" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T130" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -3907,22 +4146,25 @@
         <v>122.0</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>122</v>
-      </c>
-      <c r="N131" t="s">
-        <v>188</v>
-      </c>
-      <c r="P131" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="D131" t="s">
+        <v>192</v>
+      </c>
+      <c r="H131" t="s">
+        <v>192</v>
+      </c>
+      <c r="L131" t="s">
+        <v>192</v>
       </c>
       <c r="S131" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T131" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132">
@@ -3930,80 +4172,85 @@
         <v>123.0</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>137</v>
-      </c>
-      <c r="E132" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="F132" t="s">
+        <v>192</v>
       </c>
       <c r="I132" t="s">
-        <v>188</v>
-      </c>
-      <c r="M132" t="s">
-        <v>188</v>
-      </c>
-      <c r="O132" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J132" t="s">
+        <v>192</v>
+      </c>
+      <c r="P132" t="s">
+        <v>192</v>
       </c>
       <c r="Q132" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="R132" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S132" t="n">
         <v>6.0</v>
       </c>
+      <c r="T132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>124.0</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
-      </c>
-      <c r="D133" t="s">
-        <v>188</v>
-      </c>
-      <c r="I133" t="s">
-        <v>188</v>
-      </c>
-      <c r="L133" t="s">
-        <v>188</v>
-      </c>
-      <c r="N133" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="E133" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" t="s">
+        <v>192</v>
+      </c>
+      <c r="G133" t="s">
+        <v>192</v>
+      </c>
+      <c r="M133" t="s">
+        <v>192</v>
+      </c>
+      <c r="P133" t="s">
+        <v>192</v>
       </c>
       <c r="Q133" t="s">
-        <v>188</v>
-      </c>
-      <c r="R133" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S133" t="n">
         <v>6.0</v>
       </c>
+      <c r="T133"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>125.0</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>140</v>
-      </c>
-      <c r="H134" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="F134" t="s">
+        <v>192</v>
       </c>
       <c r="S134" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T134" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4011,22 +4258,25 @@
         <v>126.0</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
-      </c>
-      <c r="F135" t="s">
-        <v>188</v>
-      </c>
-      <c r="H135" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="L135" t="s">
+        <v>192</v>
+      </c>
+      <c r="M135" t="s">
+        <v>192</v>
+      </c>
+      <c r="R135" t="s">
+        <v>192</v>
       </c>
       <c r="S135" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T135" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -4034,22 +4284,25 @@
         <v>127.0</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
-      </c>
-      <c r="L136" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="F136" t="s">
+        <v>192</v>
+      </c>
+      <c r="M136" t="s">
+        <v>192</v>
       </c>
       <c r="P136" t="s">
-        <v>188</v>
-      </c>
-      <c r="R136" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S136" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T136" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="137">
@@ -4057,22 +4310,25 @@
         <v>128.0</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
-      </c>
-      <c r="H137" t="s">
-        <v>188</v>
-      </c>
-      <c r="L137" t="s">
-        <v>188</v>
-      </c>
-      <c r="P137" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="J137" t="s">
+        <v>192</v>
+      </c>
+      <c r="M137" t="s">
+        <v>192</v>
+      </c>
+      <c r="R137" t="s">
+        <v>192</v>
       </c>
       <c r="S137" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T137" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -4080,22 +4336,25 @@
         <v>129.0</v>
       </c>
       <c r="B138" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
         <v>144</v>
       </c>
-      <c r="C138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" t="s">
-        <v>188</v>
-      </c>
-      <c r="H138" t="s">
-        <v>188</v>
-      </c>
-      <c r="M138" t="s">
-        <v>188</v>
+      <c r="D138" t="s">
+        <v>192</v>
+      </c>
+      <c r="L138" t="s">
+        <v>192</v>
+      </c>
+      <c r="R138" t="s">
+        <v>192</v>
       </c>
       <c r="S138" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T138" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139">
@@ -4103,80 +4362,85 @@
         <v>130.0</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>137</v>
-      </c>
-      <c r="E139" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="F139" t="s">
+        <v>192</v>
       </c>
       <c r="I139" t="s">
-        <v>188</v>
-      </c>
-      <c r="M139" t="s">
-        <v>188</v>
-      </c>
-      <c r="O139" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+      <c r="P139" t="s">
+        <v>192</v>
       </c>
       <c r="Q139" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="R139" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S139" t="n">
         <v>6.0</v>
       </c>
+      <c r="T139"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>131.0</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
-      </c>
-      <c r="D140" t="s">
-        <v>188</v>
-      </c>
-      <c r="I140" t="s">
-        <v>188</v>
-      </c>
-      <c r="L140" t="s">
-        <v>188</v>
-      </c>
-      <c r="N140" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="E140" t="s">
+        <v>192</v>
+      </c>
+      <c r="F140" t="s">
+        <v>192</v>
+      </c>
+      <c r="G140" t="s">
+        <v>192</v>
+      </c>
+      <c r="M140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>192</v>
       </c>
       <c r="Q140" t="s">
-        <v>188</v>
-      </c>
-      <c r="R140" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S140" t="n">
         <v>6.0</v>
       </c>
+      <c r="T140"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>132.0</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S141" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T141" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -4184,16 +4448,19 @@
         <v>133.0</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
-      </c>
-      <c r="I142" t="s">
-        <v>188</v>
+        <v>150</v>
+      </c>
+      <c r="L142" t="s">
+        <v>192</v>
       </c>
       <c r="S142" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T142" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -4201,22 +4468,25 @@
         <v>134.0</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
-      </c>
-      <c r="F143" t="s">
-        <v>188</v>
-      </c>
-      <c r="G143" t="s">
-        <v>188</v>
-      </c>
-      <c r="M143" t="s">
-        <v>188</v>
+        <v>150</v>
+      </c>
+      <c r="D143" t="s">
+        <v>192</v>
+      </c>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+      <c r="J143" t="s">
+        <v>192</v>
       </c>
       <c r="S143" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T143" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="144">
@@ -4224,22 +4494,25 @@
         <v>135.0</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G144" t="s">
-        <v>188</v>
-      </c>
-      <c r="I144" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P144" t="s">
+        <v>192</v>
       </c>
       <c r="Q144" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S144" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T144" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -4247,22 +4520,25 @@
         <v>136.0</v>
       </c>
       <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" t="s">
         <v>150</v>
       </c>
-      <c r="C145" t="s">
-        <v>146</v>
-      </c>
-      <c r="J145" t="s">
-        <v>188</v>
+      <c r="I145" t="s">
+        <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R145" t="s">
+        <v>192</v>
       </c>
       <c r="S145" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T145" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="146">
@@ -4270,22 +4546,25 @@
         <v>137.0</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
-        <v>188</v>
-      </c>
-      <c r="E146" t="s">
-        <v>188</v>
-      </c>
-      <c r="M146" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G146" t="s">
+        <v>192</v>
+      </c>
+      <c r="J146" t="s">
+        <v>192</v>
       </c>
       <c r="S146" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T146" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -4293,71 +4572,76 @@
         <v>138.0</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
-      </c>
-      <c r="E147" t="s">
-        <v>188</v>
+        <v>150</v>
+      </c>
+      <c r="D147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" t="s">
+        <v>192</v>
       </c>
       <c r="H147" t="s">
-        <v>188</v>
-      </c>
-      <c r="J147" t="s">
-        <v>188</v>
-      </c>
-      <c r="P147" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M147" t="s">
+        <v>192</v>
       </c>
       <c r="S147" t="n">
         <v>4.0</v>
       </c>
+      <c r="T147"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>139.0</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
-      </c>
-      <c r="D148" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E148" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G148" t="s">
-        <v>188</v>
-      </c>
-      <c r="J148" t="s">
-        <v>188</v>
-      </c>
-      <c r="M148" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H148" t="s">
+        <v>192</v>
+      </c>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+      <c r="P148" t="s">
+        <v>192</v>
       </c>
       <c r="S148" t="n">
         <v>5.0</v>
       </c>
+      <c r="T148"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>140.0</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>155</v>
-      </c>
-      <c r="M149" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="L149" t="s">
+        <v>192</v>
       </c>
       <c r="S149" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T149" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4365,16 +4649,19 @@
         <v>141.0</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
-      </c>
-      <c r="H150" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="I150" t="s">
+        <v>192</v>
       </c>
       <c r="S150" t="n">
         <v>1.0</v>
+      </c>
+      <c r="T150" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -4382,19 +4669,22 @@
         <v>142.0</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>155</v>
-      </c>
-      <c r="D151" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="E151" t="s">
+        <v>192</v>
       </c>
       <c r="N151" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S151" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T151" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -4402,22 +4692,25 @@
         <v>143.0</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F152" t="s">
-        <v>188</v>
-      </c>
-      <c r="G152" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L152" t="s">
+        <v>192</v>
       </c>
       <c r="M152" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S152" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T152" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -4425,22 +4718,25 @@
         <v>144.0</v>
       </c>
       <c r="B153" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" t="s">
         <v>159</v>
       </c>
-      <c r="C153" t="s">
-        <v>155</v>
-      </c>
-      <c r="D153" t="s">
-        <v>188</v>
-      </c>
-      <c r="F153" t="s">
-        <v>188</v>
+      <c r="J153" t="s">
+        <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>192</v>
       </c>
       <c r="S153" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T153" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154">
@@ -4448,97 +4744,109 @@
         <v>145.0</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
-      </c>
-      <c r="G154" t="s">
-        <v>188</v>
-      </c>
-      <c r="H154" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="D154" t="s">
+        <v>192</v>
       </c>
       <c r="I154" t="s">
-        <v>188</v>
-      </c>
-      <c r="J154" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L154" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M154" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>192</v>
       </c>
       <c r="S154" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T154"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>146.0</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>155</v>
-      </c>
-      <c r="I155" t="s">
-        <v>188</v>
-      </c>
-      <c r="J155" t="s">
-        <v>188</v>
-      </c>
-      <c r="P155" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="D155" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" t="s">
+        <v>192</v>
+      </c>
+      <c r="G155" t="s">
+        <v>192</v>
       </c>
       <c r="S155" t="n">
         <v>3.0</v>
       </c>
+      <c r="T155"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>147.0</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="E156" t="s">
+        <v>192</v>
       </c>
       <c r="F156" t="s">
-        <v>188</v>
-      </c>
-      <c r="J156" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G156" t="s">
+        <v>192</v>
       </c>
       <c r="L156" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="M156" t="s">
+        <v>192</v>
+      </c>
+      <c r="P156" t="s">
+        <v>192</v>
       </c>
       <c r="S156" t="n">
-        <v>3.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T156"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
         <v>148.0</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H157" t="s">
-        <v>188</v>
-      </c>
-      <c r="M157" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="J157" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>192</v>
       </c>
       <c r="S157" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T157" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -4546,22 +4854,25 @@
         <v>149.0</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C158" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="I158" t="s">
+        <v>192</v>
       </c>
       <c r="J158" t="s">
-        <v>188</v>
-      </c>
-      <c r="L158" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P158" t="s">
+        <v>192</v>
       </c>
       <c r="S158" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T158" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="159">
@@ -4569,22 +4880,25 @@
         <v>150.0</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C159" t="s">
-        <v>164</v>
-      </c>
-      <c r="J159" t="s">
-        <v>188</v>
-      </c>
-      <c r="L159" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="D159" t="s">
+        <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R159" t="s">
+        <v>192</v>
       </c>
       <c r="S159" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T159" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -4592,167 +4906,187 @@
         <v>151.0</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D160" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E160" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I160" t="s">
-        <v>188</v>
-      </c>
-      <c r="L160" t="s">
-        <v>188</v>
-      </c>
-      <c r="M160" t="s">
-        <v>188</v>
-      </c>
-      <c r="P160" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J160" t="s">
+        <v>192</v>
+      </c>
+      <c r="N160" t="s">
+        <v>192</v>
+      </c>
+      <c r="R160" t="s">
+        <v>192</v>
       </c>
       <c r="S160" t="n">
         <v>6.0</v>
       </c>
+      <c r="T160"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
         <v>152.0</v>
       </c>
       <c r="B161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" t="s">
         <v>168</v>
       </c>
-      <c r="C161" t="s">
-        <v>164</v>
-      </c>
       <c r="D161" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J161" t="s">
+        <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>188</v>
-      </c>
-      <c r="P161" t="s">
-        <v>188</v>
-      </c>
-      <c r="R161" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>192</v>
       </c>
       <c r="S161" t="n">
         <v>6.0</v>
       </c>
+      <c r="T161"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>153.0</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
-      </c>
-      <c r="D162" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="E162" t="s">
+        <v>192</v>
+      </c>
+      <c r="G162" t="s">
+        <v>192</v>
       </c>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I162" t="s">
+        <v>192</v>
       </c>
       <c r="J162" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L162" t="s">
-        <v>188</v>
-      </c>
-      <c r="M162" t="s">
-        <v>188</v>
-      </c>
-      <c r="P162" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S162" t="n">
         <v>6.0</v>
       </c>
+      <c r="T162"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
         <v>154.0</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="D163" t="s">
+        <v>192</v>
       </c>
       <c r="E163" t="s">
-        <v>188</v>
-      </c>
-      <c r="F163" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G163" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H163" t="s">
+        <v>192</v>
+      </c>
+      <c r="M163" t="s">
+        <v>192</v>
+      </c>
+      <c r="N163" t="s">
+        <v>192</v>
       </c>
       <c r="S163" t="n">
-        <v>3.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T163"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
         <v>155.0</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>188</v>
-      </c>
-      <c r="G164" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I164" t="s">
-        <v>188</v>
-      </c>
-      <c r="J164" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="L164" t="s">
+        <v>192</v>
       </c>
       <c r="M164" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="P164" t="s">
+        <v>192</v>
+      </c>
+      <c r="R164" t="s">
+        <v>192</v>
       </c>
       <c r="S164" t="n">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T164"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
         <v>156.0</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
-        <v>173</v>
-      </c>
-      <c r="E165" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="L165" t="s">
+        <v>192</v>
       </c>
       <c r="Q165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S165" t="n">
         <v>2.0</v>
+      </c>
+      <c r="T165" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -4760,22 +5094,25 @@
         <v>157.0</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C166" t="s">
-        <v>173</v>
-      </c>
-      <c r="G166" t="s">
-        <v>188</v>
-      </c>
-      <c r="I166" t="s">
-        <v>188</v>
-      </c>
-      <c r="M166" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="J166" t="s">
+        <v>192</v>
+      </c>
+      <c r="K166" t="s">
+        <v>192</v>
+      </c>
+      <c r="L166" t="s">
+        <v>192</v>
       </c>
       <c r="S166" t="n">
         <v>3.0</v>
+      </c>
+      <c r="T166" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -4783,159 +5120,166 @@
         <v>158.0</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C167" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>192</v>
       </c>
       <c r="E167" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="K167" t="s">
-        <v>188</v>
-      </c>
-      <c r="L167" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="H167" t="s">
+        <v>192</v>
+      </c>
+      <c r="M167" t="s">
+        <v>192</v>
+      </c>
+      <c r="P167" t="s">
+        <v>192</v>
       </c>
       <c r="S167" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T167"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
         <v>159.0</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
-      </c>
-      <c r="I168" t="s">
-        <v>188</v>
-      </c>
-      <c r="J168" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="F168" t="s">
+        <v>192</v>
+      </c>
+      <c r="G168" t="s">
+        <v>192</v>
       </c>
       <c r="L168" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="R168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S168" t="n">
-        <v>6.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="T168"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
         <v>160.0</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>176</v>
-      </c>
-      <c r="E169" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G169" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H169" t="s">
-        <v>188</v>
-      </c>
-      <c r="J169" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="I169" t="s">
+        <v>192</v>
+      </c>
+      <c r="M169" t="s">
+        <v>192</v>
+      </c>
+      <c r="N169" t="s">
+        <v>192</v>
+      </c>
+      <c r="R169" t="s">
+        <v>192</v>
       </c>
       <c r="S169" t="n">
-        <v>4.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="T169"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
         <v>161.0</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>176</v>
-      </c>
-      <c r="G170" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I170" t="s">
-        <v>188</v>
-      </c>
-      <c r="J170" t="s">
-        <v>188</v>
-      </c>
-      <c r="M170" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="R170" t="s">
+        <v>192</v>
       </c>
       <c r="S170" t="n">
-        <v>4.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="T170"/>
     </row>
     <row r="171">
       <c r="B171" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D171" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E171" t="n">
         <v>49.0</v>
       </c>
       <c r="F171" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G171" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="H171" t="n">
         <v>53.0</v>
       </c>
       <c r="I171" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J171" t="n">
         <v>55.0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>54.0</v>
       </c>
       <c r="K171" t="n">
         <v>4.0</v>
       </c>
       <c r="L171" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="M171" t="n">
         <v>54.0</v>
       </c>
       <c r="N171" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="O171" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P171" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="Q171" t="n">
         <v>32.0</v>
       </c>
       <c r="R171" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="S171" t="n" s="2">
         <v>587.0</v>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -624,7 +624,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +641,16 @@
         <fgColor rgb="F5F8A3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF3B28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B28"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -654,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
@@ -710,6 +720,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -718,12 +731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane xSplit="2.0" ySplit="7.0" state="frozen" topLeftCell="C8" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="41.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.05859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="10.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
@@ -911,7 +928,7 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="P10" t="s">
+      <c r="K10" t="s">
         <v>192</v>
       </c>
       <c r="S10" t="n">
@@ -931,7 +948,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>192</v>
       </c>
       <c r="S11" t="n">
@@ -951,7 +968,7 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="Q12" t="s">
         <v>192</v>
       </c>
       <c r="S12" t="n">
@@ -971,7 +988,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>192</v>
       </c>
       <c r="S13" t="n">
@@ -991,7 +1008,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="D14" t="s">
         <v>192</v>
       </c>
       <c r="S14" t="n">
@@ -1031,7 +1048,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="L16" t="s">
+      <c r="G16" t="s">
         <v>192</v>
       </c>
       <c r="S16" t="n">
@@ -1051,7 +1068,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="R17" t="s">
         <v>192</v>
       </c>
       <c r="S17" t="n">
@@ -1071,7 +1088,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="N18" t="s">
         <v>192</v>
       </c>
       <c r="S18" t="n">
@@ -1091,7 +1108,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="P19" t="s">
         <v>192</v>
       </c>
       <c r="S19" t="n">
@@ -1111,10 +1128,10 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" t="s">
         <v>192</v>
       </c>
       <c r="S20" t="n">
@@ -1134,11 +1151,14 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="M21" t="s">
+      <c r="G21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" t="s">
         <v>192</v>
       </c>
       <c r="S21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T21" t="s">
         <v>14</v>
@@ -1154,13 +1174,13 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
       <c r="F22" t="s">
         <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
-      </c>
-      <c r="K22" t="s">
         <v>192</v>
       </c>
       <c r="S22" t="n">
@@ -1180,13 +1200,13 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" t="s">
-        <v>192</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="G23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23" t="s">
         <v>192</v>
       </c>
       <c r="S23" t="n">
@@ -1206,13 +1226,13 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>192</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>192</v>
       </c>
       <c r="S24" t="n">
@@ -1232,10 +1252,10 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
-        <v>192</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" t="s">
         <v>192</v>
       </c>
       <c r="Q25" t="s">
@@ -1258,14 +1278,17 @@
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" t="s">
-        <v>192</v>
-      </c>
       <c r="L26" t="s">
         <v>192</v>
       </c>
+      <c r="M26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
       <c r="S26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T26"/>
     </row>
@@ -1279,23 +1302,20 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
+      <c r="H27" t="s">
+        <v>192</v>
+      </c>
       <c r="I27" t="s">
         <v>192</v>
       </c>
       <c r="J27" t="s">
         <v>192</v>
       </c>
-      <c r="M27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="L27" t="s">
         <v>192</v>
       </c>
       <c r="S27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T27"/>
     </row>
@@ -1309,23 +1329,11 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="I28" t="s">
-        <v>192</v>
-      </c>
       <c r="J28" t="s">
         <v>192</v>
       </c>
-      <c r="M28" t="s">
-        <v>192</v>
-      </c>
-      <c r="P28" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>192</v>
-      </c>
       <c r="S28" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T28"/>
     </row>
@@ -1339,16 +1347,16 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="s">
         <v>192</v>
       </c>
       <c r="J29" t="s">
         <v>192</v>
       </c>
-      <c r="M29" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="P29" t="s">
         <v>192</v>
       </c>
       <c r="S29" t="n">
@@ -1366,22 +1374,22 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" t="s">
-        <v>192</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" t="s">
         <v>192</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
-      </c>
-      <c r="R30" t="s">
         <v>192</v>
       </c>
       <c r="S30" t="n">
@@ -1402,23 +1410,17 @@
       <c r="D31" t="s">
         <v>192</v>
       </c>
-      <c r="H31" t="s">
-        <v>192</v>
-      </c>
       <c r="J31" t="s">
         <v>192</v>
       </c>
-      <c r="N31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P31" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="L31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" t="s">
         <v>192</v>
       </c>
       <c r="S31" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T31"/>
     </row>
@@ -1435,13 +1437,13 @@
       <c r="D32" t="s">
         <v>192</v>
       </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
       <c r="G32" t="s">
         <v>192</v>
       </c>
-      <c r="I32" t="s">
-        <v>192</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="H32" t="s">
         <v>192</v>
       </c>
       <c r="S32" t="n">
@@ -1468,8 +1470,14 @@
       <c r="G33" t="s">
         <v>192</v>
       </c>
+      <c r="H33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s">
+        <v>192</v>
+      </c>
       <c r="S33" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T33"/>
     </row>
@@ -1486,20 +1494,14 @@
       <c r="G34" t="s">
         <v>192</v>
       </c>
-      <c r="H34" t="s">
-        <v>192</v>
-      </c>
       <c r="I34" t="s">
         <v>192</v>
       </c>
-      <c r="L34" t="s">
-        <v>192</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="R34" t="s">
         <v>192</v>
       </c>
       <c r="S34" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T34"/>
     </row>
@@ -1513,26 +1515,14 @@
       <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" t="s">
-        <v>192</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="E35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" t="s">
         <v>192</v>
       </c>
       <c r="S35" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="T35"/>
     </row>
@@ -1546,20 +1536,26 @@
       <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>192</v>
       </c>
       <c r="G36" t="s">
         <v>192</v>
       </c>
+      <c r="H36" t="s">
+        <v>192</v>
+      </c>
       <c r="J36" t="s">
         <v>192</v>
       </c>
+      <c r="P36" t="s">
+        <v>192</v>
+      </c>
       <c r="R36" t="s">
         <v>192</v>
       </c>
       <c r="S36" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T36"/>
     </row>
@@ -1573,20 +1569,26 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>192</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
       </c>
-      <c r="G37" t="s">
-        <v>192</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q37" t="s">
         <v>192</v>
       </c>
       <c r="S37" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T37"/>
     </row>
@@ -1600,22 +1602,22 @@
       <c r="C38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" t="s">
         <v>192</v>
       </c>
       <c r="H38" t="s">
         <v>192</v>
       </c>
-      <c r="I38" t="s">
-        <v>192</v>
-      </c>
-      <c r="L38" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="M38" t="s">
+        <v>192</v>
+      </c>
+      <c r="N38" t="s">
+        <v>192</v>
+      </c>
+      <c r="R38" t="s">
         <v>192</v>
       </c>
       <c r="S38" t="n">
@@ -1633,22 +1635,22 @@
       <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D39" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39" t="s">
         <v>192</v>
       </c>
       <c r="J39" t="s">
         <v>192</v>
       </c>
+      <c r="L39" t="s">
+        <v>192</v>
+      </c>
       <c r="M39" t="s">
+        <v>192</v>
+      </c>
+      <c r="R39" t="s">
         <v>192</v>
       </c>
       <c r="S39" t="n">
@@ -1666,23 +1668,26 @@
       <c r="C40" t="s">
         <v>22</v>
       </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
       <c r="F40" t="s">
         <v>192</v>
       </c>
-      <c r="G40" t="s">
-        <v>192</v>
-      </c>
-      <c r="I40" t="s">
-        <v>192</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="H40" t="s">
         <v>192</v>
       </c>
       <c r="M40" t="s">
         <v>192</v>
       </c>
+      <c r="Q40" t="s">
+        <v>192</v>
+      </c>
       <c r="S40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T40"/>
     </row>
@@ -1696,22 +1701,22 @@
       <c r="C41" t="s">
         <v>22</v>
       </c>
+      <c r="E41" t="s">
+        <v>192</v>
+      </c>
       <c r="F41" t="s">
         <v>192</v>
       </c>
+      <c r="G41" t="s">
+        <v>192</v>
+      </c>
       <c r="I41" t="s">
         <v>192</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>192</v>
       </c>
       <c r="M41" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q41" t="s">
         <v>192</v>
       </c>
       <c r="S41" t="n">
@@ -1729,6 +1734,21 @@
       <c r="C42" t="s">
         <v>39</v>
       </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
       <c r="T42" t="s">
         <v>40</v>
       </c>
@@ -1743,7 +1763,7 @@
       <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="M43" t="s">
         <v>192</v>
       </c>
       <c r="S43" t="n">
@@ -1766,7 +1786,7 @@
       <c r="H44" t="s">
         <v>192</v>
       </c>
-      <c r="P44" t="s">
+      <c r="M44" t="s">
         <v>192</v>
       </c>
       <c r="S44" t="n">
@@ -1786,10 +1806,10 @@
       <c r="C45" t="s">
         <v>39</v>
       </c>
-      <c r="D45" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="F45" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" t="s">
         <v>192</v>
       </c>
       <c r="S45" t="n">
@@ -1809,10 +1829,10 @@
       <c r="C46" t="s">
         <v>39</v>
       </c>
-      <c r="F46" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="P46" t="s">
+        <v>192</v>
+      </c>
+      <c r="R46" t="s">
         <v>192</v>
       </c>
       <c r="S46" t="n">
@@ -1832,10 +1852,10 @@
       <c r="C47" t="s">
         <v>39</v>
       </c>
-      <c r="D47" t="s">
-        <v>192</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="G47" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q47" t="s">
         <v>192</v>
       </c>
       <c r="S47" t="n">
@@ -1855,14 +1875,17 @@
       <c r="C48" t="s">
         <v>39</v>
       </c>
-      <c r="H48" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="E48" t="s">
+        <v>192</v>
+      </c>
+      <c r="M48" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q48" t="s">
         <v>192</v>
       </c>
       <c r="S48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T48" t="s">
         <v>17</v>
@@ -1878,13 +1901,13 @@
       <c r="C49" t="s">
         <v>39</v>
       </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
       <c r="G49" t="s">
         <v>192</v>
       </c>
       <c r="L49" t="s">
-        <v>192</v>
-      </c>
-      <c r="P49" t="s">
         <v>192</v>
       </c>
       <c r="S49" t="n">
@@ -1904,12 +1927,12 @@
       <c r="C50" t="s">
         <v>49</v>
       </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
       <c r="E50" t="s">
         <v>192</v>
       </c>
-      <c r="F50" t="s">
-        <v>192</v>
-      </c>
       <c r="H50" t="s">
         <v>192</v>
       </c>
@@ -1919,7 +1942,7 @@
       <c r="J50" t="s">
         <v>192</v>
       </c>
-      <c r="P50" t="s">
+      <c r="M50" t="s">
         <v>192</v>
       </c>
       <c r="S50" t="n">
@@ -1937,22 +1960,22 @@
       <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="G51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="E51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I51" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" t="s">
         <v>192</v>
       </c>
       <c r="L51" t="s">
         <v>192</v>
       </c>
-      <c r="M51" t="s">
-        <v>192</v>
-      </c>
       <c r="N51" t="s">
-        <v>192</v>
-      </c>
-      <c r="R51" t="s">
         <v>192</v>
       </c>
       <c r="S51" t="n">
@@ -1970,22 +1993,22 @@
       <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" t="s">
-        <v>192</v>
-      </c>
       <c r="H52" t="s">
         <v>192</v>
       </c>
+      <c r="I52" t="s">
+        <v>192</v>
+      </c>
       <c r="J52" t="s">
         <v>192</v>
       </c>
+      <c r="M52" t="s">
+        <v>192</v>
+      </c>
       <c r="N52" t="s">
         <v>192</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>192</v>
       </c>
       <c r="S52" t="n">
@@ -2003,10 +2026,7 @@
       <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D53" t="s">
         <v>192</v>
       </c>
       <c r="G53" t="s">
@@ -2015,14 +2035,14 @@
       <c r="H53" t="s">
         <v>192</v>
       </c>
-      <c r="I53" t="s">
-        <v>192</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="J53" t="s">
+        <v>192</v>
+      </c>
+      <c r="R53" t="s">
         <v>192</v>
       </c>
       <c r="S53" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T53"/>
     </row>
@@ -2036,26 +2056,17 @@
       <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="D54" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" t="s">
-        <v>192</v>
-      </c>
       <c r="G54" t="s">
         <v>192</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>192</v>
       </c>
       <c r="L54" t="s">
         <v>192</v>
       </c>
-      <c r="P54" t="s">
-        <v>192</v>
-      </c>
       <c r="S54" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T54"/>
     </row>
@@ -2069,19 +2080,19 @@
       <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+      <c r="H55" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" t="s">
         <v>192</v>
       </c>
       <c r="L55" t="s">
         <v>192</v>
       </c>
-      <c r="M55" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="P55" t="s">
         <v>192</v>
       </c>
       <c r="R55" t="s">
@@ -2105,13 +2116,13 @@
       <c r="F56" t="s">
         <v>192</v>
       </c>
+      <c r="G56" t="s">
+        <v>192</v>
+      </c>
       <c r="I56" t="s">
         <v>192</v>
       </c>
-      <c r="M56" t="s">
-        <v>192</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="J56" t="s">
         <v>192</v>
       </c>
       <c r="R56" t="s">
@@ -2132,23 +2143,26 @@
       <c r="C57" t="s">
         <v>49</v>
       </c>
+      <c r="D57" t="s">
+        <v>192</v>
+      </c>
       <c r="E57" t="s">
         <v>192</v>
       </c>
       <c r="F57" t="s">
         <v>192</v>
       </c>
-      <c r="G57" t="s">
-        <v>192</v>
-      </c>
-      <c r="N57" t="s">
-        <v>192</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="I57" t="s">
+        <v>192</v>
+      </c>
+      <c r="J57" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" t="s">
         <v>192</v>
       </c>
       <c r="S57" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T57"/>
     </row>
@@ -2168,20 +2182,14 @@
       <c r="F58" t="s">
         <v>192</v>
       </c>
+      <c r="H58" t="s">
+        <v>192</v>
+      </c>
       <c r="J58" t="s">
         <v>192</v>
       </c>
-      <c r="L58" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>192</v>
-      </c>
-      <c r="R58" t="s">
-        <v>192</v>
-      </c>
       <c r="S58" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T58"/>
     </row>
@@ -2195,13 +2203,10 @@
       <c r="C59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s">
-        <v>192</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" t="s">
         <v>192</v>
       </c>
       <c r="J59" t="s">
@@ -2210,11 +2215,11 @@
       <c r="M59" t="s">
         <v>192</v>
       </c>
-      <c r="R59" t="s">
+      <c r="N59" t="s">
         <v>192</v>
       </c>
       <c r="S59" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T59"/>
     </row>
@@ -2234,9 +2239,6 @@
       <c r="E60" t="s">
         <v>192</v>
       </c>
-      <c r="F60" t="s">
-        <v>192</v>
-      </c>
       <c r="G60" t="s">
         <v>192</v>
       </c>
@@ -2244,6 +2246,9 @@
         <v>192</v>
       </c>
       <c r="M60" t="s">
+        <v>192</v>
+      </c>
+      <c r="R60" t="s">
         <v>192</v>
       </c>
       <c r="S60" t="n">
@@ -2261,7 +2266,10 @@
       <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="I61" t="s">
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" t="s">
         <v>192</v>
       </c>
       <c r="J61" t="s">
@@ -2270,8 +2278,11 @@
       <c r="M61" t="s">
         <v>192</v>
       </c>
+      <c r="P61" t="s">
+        <v>192</v>
+      </c>
       <c r="S61" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T61"/>
     </row>
@@ -2291,16 +2302,16 @@
       <c r="E62" t="s">
         <v>192</v>
       </c>
-      <c r="H62" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="F62" t="s">
+        <v>192</v>
+      </c>
+      <c r="M62" t="s">
+        <v>192</v>
+      </c>
+      <c r="P62" t="s">
+        <v>192</v>
+      </c>
+      <c r="R62" t="s">
         <v>192</v>
       </c>
       <c r="S62" t="n">
@@ -2318,14 +2329,26 @@
       <c r="C63" t="s">
         <v>62</v>
       </c>
-      <c r="I63" t="s">
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" t="s">
         <v>192</v>
       </c>
       <c r="M63" t="s">
         <v>192</v>
       </c>
+      <c r="R63" t="s">
+        <v>192</v>
+      </c>
       <c r="S63" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T63"/>
     </row>
@@ -2339,20 +2362,17 @@
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="E64" t="s">
-        <v>192</v>
-      </c>
       <c r="F64" t="s">
         <v>192</v>
       </c>
       <c r="G64" t="s">
         <v>192</v>
       </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
         <v>192</v>
       </c>
       <c r="S64" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T64"/>
     </row>
@@ -2366,22 +2386,22 @@
       <c r="C65" t="s">
         <v>62</v>
       </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
       <c r="F65" t="s">
         <v>192</v>
       </c>
-      <c r="H65" t="s">
-        <v>192</v>
-      </c>
-      <c r="I65" t="s">
-        <v>192</v>
-      </c>
       <c r="J65" t="s">
         <v>192</v>
       </c>
       <c r="M65" t="s">
         <v>192</v>
       </c>
-      <c r="R65" t="s">
+      <c r="P65" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q65" t="s">
         <v>192</v>
       </c>
       <c r="S65" t="n">
@@ -2399,26 +2419,17 @@
       <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="D66" t="s">
-        <v>192</v>
-      </c>
-      <c r="G66" t="s">
-        <v>192</v>
-      </c>
-      <c r="H66" t="s">
-        <v>192</v>
-      </c>
-      <c r="I66" t="s">
-        <v>192</v>
-      </c>
-      <c r="M66" t="s">
-        <v>192</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+      <c r="J66" t="s">
+        <v>192</v>
+      </c>
+      <c r="L66" t="s">
         <v>192</v>
       </c>
       <c r="S66" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T66"/>
     </row>
@@ -2432,6 +2443,9 @@
       <c r="C67" t="s">
         <v>62</v>
       </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
       <c r="E67" t="s">
         <v>192</v>
       </c>
@@ -2441,13 +2455,10 @@
       <c r="G67" t="s">
         <v>192</v>
       </c>
-      <c r="H67" t="s">
-        <v>192</v>
-      </c>
-      <c r="N67" t="s">
-        <v>192</v>
-      </c>
-      <c r="R67" t="s">
+      <c r="I67" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q67" t="s">
         <v>192</v>
       </c>
       <c r="S67" t="n">
@@ -2465,10 +2476,10 @@
       <c r="C68" t="s">
         <v>69</v>
       </c>
-      <c r="F68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="E68" t="s">
+        <v>192</v>
+      </c>
+      <c r="I68" t="s">
         <v>192</v>
       </c>
       <c r="M68" t="s">
@@ -2491,13 +2502,13 @@
       <c r="C69" t="s">
         <v>69</v>
       </c>
-      <c r="H69" t="s">
-        <v>192</v>
-      </c>
-      <c r="J69" t="s">
-        <v>192</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+      <c r="N69" t="s">
+        <v>192</v>
+      </c>
+      <c r="R69" t="s">
         <v>192</v>
       </c>
       <c r="S69" t="n">
@@ -2517,23 +2528,26 @@
       <c r="C70" t="s">
         <v>72</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>192</v>
       </c>
       <c r="F70" t="s">
         <v>192</v>
       </c>
-      <c r="I70" t="s">
-        <v>192</v>
-      </c>
-      <c r="M70" t="s">
+      <c r="G70" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" t="s">
+        <v>192</v>
+      </c>
+      <c r="L70" t="s">
         <v>192</v>
       </c>
       <c r="R70" t="s">
         <v>192</v>
       </c>
       <c r="S70" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T70"/>
     </row>
@@ -2547,13 +2561,13 @@
       <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="D71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" t="s">
-        <v>192</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
+        <v>192</v>
+      </c>
+      <c r="I71" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" t="s">
         <v>192</v>
       </c>
       <c r="L71" t="s">
@@ -2580,23 +2594,26 @@
       <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="G72" t="s">
+      <c r="D72" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" t="s">
         <v>192</v>
       </c>
       <c r="I72" t="s">
         <v>192</v>
       </c>
-      <c r="J72" t="s">
-        <v>192</v>
-      </c>
       <c r="L72" t="s">
         <v>192</v>
       </c>
-      <c r="O72" t="s">
+      <c r="M72" t="s">
+        <v>192</v>
+      </c>
+      <c r="P72" t="s">
         <v>192</v>
       </c>
       <c r="S72" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T72"/>
     </row>
@@ -2613,17 +2630,20 @@
       <c r="E73" t="s">
         <v>192</v>
       </c>
-      <c r="F73" t="s">
-        <v>192</v>
-      </c>
-      <c r="G73" t="s">
-        <v>192</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
+        <v>192</v>
+      </c>
+      <c r="L73" t="s">
+        <v>192</v>
+      </c>
+      <c r="M73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="s">
         <v>192</v>
       </c>
       <c r="S73" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T73"/>
     </row>
@@ -2637,7 +2657,7 @@
       <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>192</v>
       </c>
       <c r="H74" t="s">
@@ -2646,17 +2666,14 @@
       <c r="I74" t="s">
         <v>192</v>
       </c>
-      <c r="J74" t="s">
-        <v>192</v>
-      </c>
-      <c r="L74" t="s">
-        <v>192</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="P74" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q74" t="s">
         <v>192</v>
       </c>
       <c r="S74" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T74"/>
     </row>
@@ -2670,10 +2687,10 @@
       <c r="C75" t="s">
         <v>72</v>
       </c>
-      <c r="F75" t="s">
-        <v>192</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="G75" t="s">
+        <v>192</v>
+      </c>
+      <c r="H75" t="s">
         <v>192</v>
       </c>
       <c r="S75" t="n">
@@ -2694,17 +2711,20 @@
       <c r="D76" t="s">
         <v>192</v>
       </c>
-      <c r="G76" t="s">
+      <c r="E76" t="s">
         <v>192</v>
       </c>
       <c r="H76" t="s">
         <v>192</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q76" t="s">
         <v>192</v>
       </c>
       <c r="S76" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T76"/>
     </row>
@@ -2718,10 +2738,10 @@
       <c r="C77" t="s">
         <v>72</v>
       </c>
-      <c r="E77" t="s">
-        <v>192</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="F77" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" t="s">
         <v>192</v>
       </c>
       <c r="J77" t="s">
@@ -2730,11 +2750,8 @@
       <c r="M77" t="s">
         <v>192</v>
       </c>
-      <c r="Q77" t="s">
-        <v>192</v>
-      </c>
       <c r="S77" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T77"/>
     </row>
@@ -2754,17 +2771,20 @@
       <c r="E78" t="s">
         <v>192</v>
       </c>
-      <c r="F78" t="s">
-        <v>192</v>
-      </c>
-      <c r="I78" t="s">
-        <v>192</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="G78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M78" t="s">
+        <v>192</v>
+      </c>
+      <c r="O78" t="s">
+        <v>192</v>
+      </c>
+      <c r="P78" t="s">
         <v>192</v>
       </c>
       <c r="S78" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T78"/>
     </row>
@@ -2778,7 +2798,7 @@
       <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="N79" t="s">
+      <c r="D79" t="s">
         <v>192</v>
       </c>
       <c r="S79" t="n">
@@ -2798,7 +2818,7 @@
       <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="E80" t="s">
+      <c r="M80" t="s">
         <v>192</v>
       </c>
       <c r="S80" t="n">
@@ -2818,7 +2838,7 @@
       <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="J81" t="s">
+      <c r="Q81" t="s">
         <v>192</v>
       </c>
       <c r="S81" t="n">
@@ -2838,7 +2858,7 @@
       <c r="C82" t="s">
         <v>82</v>
       </c>
-      <c r="D82" t="s">
+      <c r="J82" t="s">
         <v>192</v>
       </c>
       <c r="S82" t="n">
@@ -2858,7 +2878,7 @@
       <c r="C83" t="s">
         <v>82</v>
       </c>
-      <c r="J83" t="s">
+      <c r="D83" t="s">
         <v>192</v>
       </c>
       <c r="S83" t="n">
@@ -2878,7 +2898,7 @@
       <c r="C84" t="s">
         <v>82</v>
       </c>
-      <c r="F84" t="s">
+      <c r="I84" t="s">
         <v>192</v>
       </c>
       <c r="S84" t="n">
@@ -2898,7 +2918,7 @@
       <c r="C85" t="s">
         <v>82</v>
       </c>
-      <c r="N85" t="s">
+      <c r="E85" t="s">
         <v>192</v>
       </c>
       <c r="S85" t="n">
@@ -2918,10 +2938,10 @@
       <c r="C86" t="s">
         <v>82</v>
       </c>
-      <c r="E86" t="s">
-        <v>192</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
+        <v>192</v>
+      </c>
+      <c r="P86" t="s">
         <v>192</v>
       </c>
       <c r="S86" t="n">
@@ -2944,7 +2964,7 @@
       <c r="E87" t="s">
         <v>192</v>
       </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s">
         <v>192</v>
       </c>
       <c r="S87" t="n">
@@ -2964,7 +2984,7 @@
       <c r="C88" t="s">
         <v>82</v>
       </c>
-      <c r="M88" t="s">
+      <c r="J88" t="s">
         <v>192</v>
       </c>
       <c r="P88" t="s">
@@ -2990,7 +3010,7 @@
       <c r="E89" t="s">
         <v>192</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>192</v>
       </c>
       <c r="S89" t="n">
@@ -3010,10 +3030,10 @@
       <c r="C90" t="s">
         <v>82</v>
       </c>
-      <c r="L90" t="s">
-        <v>192</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="G90" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" t="s">
         <v>192</v>
       </c>
       <c r="R90" t="s">
@@ -3039,10 +3059,10 @@
       <c r="D91" t="s">
         <v>192</v>
       </c>
-      <c r="L91" t="s">
-        <v>192</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="H91" t="s">
+        <v>192</v>
+      </c>
+      <c r="R91" t="s">
         <v>192</v>
       </c>
       <c r="S91" t="n">
@@ -3065,7 +3085,7 @@
       <c r="F92" t="s">
         <v>192</v>
       </c>
-      <c r="G92" t="s">
+      <c r="L92" t="s">
         <v>192</v>
       </c>
       <c r="P92" t="s">
@@ -3088,13 +3108,13 @@
       <c r="C93" t="s">
         <v>82</v>
       </c>
-      <c r="H93" t="s">
-        <v>192</v>
-      </c>
-      <c r="P93" t="s">
-        <v>192</v>
-      </c>
-      <c r="R93" t="s">
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" t="s">
+        <v>192</v>
+      </c>
+      <c r="I93" t="s">
         <v>192</v>
       </c>
       <c r="S93" t="n">
@@ -3114,17 +3134,14 @@
       <c r="C94" t="s">
         <v>82</v>
       </c>
-      <c r="E94" t="s">
-        <v>192</v>
-      </c>
-      <c r="H94" t="s">
-        <v>192</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="F94" t="s">
+        <v>192</v>
+      </c>
+      <c r="M94" t="s">
         <v>192</v>
       </c>
       <c r="S94" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T94" t="s">
         <v>17</v>
@@ -3140,13 +3157,13 @@
       <c r="C95" t="s">
         <v>82</v>
       </c>
-      <c r="D95" t="s">
-        <v>192</v>
-      </c>
-      <c r="H95" t="s">
-        <v>192</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="G95" t="s">
+        <v>192</v>
+      </c>
+      <c r="L95" t="s">
+        <v>192</v>
+      </c>
+      <c r="P95" t="s">
         <v>192</v>
       </c>
       <c r="S95" t="n">
@@ -3166,17 +3183,14 @@
       <c r="C96" t="s">
         <v>82</v>
       </c>
-      <c r="G96" t="s">
-        <v>192</v>
-      </c>
-      <c r="H96" t="s">
-        <v>192</v>
-      </c>
-      <c r="N96" t="s">
+      <c r="M96" t="s">
+        <v>192</v>
+      </c>
+      <c r="P96" t="s">
         <v>192</v>
       </c>
       <c r="S96" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T96" t="s">
         <v>17</v>
@@ -3192,23 +3206,26 @@
       <c r="C97" t="s">
         <v>101</v>
       </c>
-      <c r="E97" t="s">
-        <v>192</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
-      </c>
-      <c r="G97" t="s">
-        <v>192</v>
-      </c>
-      <c r="H97" t="s">
-        <v>192</v>
-      </c>
       <c r="I97" t="s">
         <v>192</v>
       </c>
+      <c r="L97" t="s">
+        <v>192</v>
+      </c>
+      <c r="M97" t="s">
+        <v>192</v>
+      </c>
+      <c r="N97" t="s">
+        <v>192</v>
+      </c>
+      <c r="P97" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>192</v>
+      </c>
       <c r="S97" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T97"/>
     </row>
@@ -3222,22 +3239,22 @@
       <c r="C98" t="s">
         <v>101</v>
       </c>
-      <c r="D98" t="s">
-        <v>192</v>
-      </c>
       <c r="F98" t="s">
         <v>192</v>
       </c>
+      <c r="G98" t="s">
+        <v>192</v>
+      </c>
       <c r="H98" t="s">
         <v>192</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>192</v>
       </c>
       <c r="L98" t="s">
         <v>192</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="M98" t="s">
         <v>192</v>
       </c>
       <c r="S98" t="n">
@@ -3258,23 +3275,17 @@
       <c r="F99" t="s">
         <v>192</v>
       </c>
-      <c r="G99" t="s">
-        <v>192</v>
-      </c>
-      <c r="J99" t="s">
-        <v>192</v>
-      </c>
-      <c r="M99" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>192</v>
-      </c>
-      <c r="R99" t="s">
+      <c r="H99" t="s">
+        <v>192</v>
+      </c>
+      <c r="I99" t="s">
+        <v>192</v>
+      </c>
+      <c r="P99" t="s">
         <v>192</v>
       </c>
       <c r="S99" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T99"/>
     </row>
@@ -3288,17 +3299,26 @@
       <c r="C100" t="s">
         <v>101</v>
       </c>
-      <c r="E100" t="s">
-        <v>192</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" t="s">
+        <v>192</v>
+      </c>
+      <c r="I100" t="s">
         <v>192</v>
       </c>
       <c r="M100" t="s">
         <v>192</v>
       </c>
+      <c r="Q100" t="s">
+        <v>192</v>
+      </c>
+      <c r="R100" t="s">
+        <v>192</v>
+      </c>
       <c r="S100" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T100"/>
     </row>
@@ -3312,23 +3332,14 @@
       <c r="C101" t="s">
         <v>101</v>
       </c>
-      <c r="E101" t="s">
-        <v>192</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
-      </c>
-      <c r="I101" t="s">
-        <v>192</v>
-      </c>
-      <c r="L101" t="s">
-        <v>192</v>
-      </c>
-      <c r="M101" t="s">
+      <c r="H101" t="s">
+        <v>192</v>
+      </c>
+      <c r="J101" t="s">
         <v>192</v>
       </c>
       <c r="S101" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="T101"/>
     </row>
@@ -3342,23 +3353,26 @@
       <c r="C102" t="s">
         <v>107</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>192</v>
       </c>
       <c r="G102" t="s">
         <v>192</v>
       </c>
+      <c r="H102" t="s">
+        <v>192</v>
+      </c>
       <c r="M102" t="s">
         <v>192</v>
       </c>
-      <c r="Q102" t="s">
-        <v>192</v>
-      </c>
       <c r="R102" t="s">
         <v>192</v>
       </c>
       <c r="S102" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T102"/>
     </row>
@@ -3372,16 +3386,16 @@
       <c r="C103" t="s">
         <v>107</v>
       </c>
-      <c r="D103" t="s">
-        <v>192</v>
-      </c>
       <c r="F103" t="s">
         <v>192</v>
       </c>
-      <c r="H103" t="s">
-        <v>192</v>
-      </c>
       <c r="I103" t="s">
+        <v>192</v>
+      </c>
+      <c r="J103" t="s">
+        <v>192</v>
+      </c>
+      <c r="L103" t="s">
         <v>192</v>
       </c>
       <c r="M103" t="s">
@@ -3402,7 +3416,7 @@
       <c r="C104" t="s">
         <v>107</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>192</v>
       </c>
       <c r="G104" t="s">
@@ -3411,7 +3425,7 @@
       <c r="H104" t="s">
         <v>192</v>
       </c>
-      <c r="J104" t="s">
+      <c r="I104" t="s">
         <v>192</v>
       </c>
       <c r="L104" t="s">
@@ -3435,26 +3449,20 @@
       <c r="C105" t="s">
         <v>107</v>
       </c>
-      <c r="D105" t="s">
-        <v>192</v>
-      </c>
-      <c r="G105" t="s">
-        <v>192</v>
-      </c>
       <c r="H105" t="s">
         <v>192</v>
       </c>
+      <c r="I105" t="s">
+        <v>192</v>
+      </c>
       <c r="J105" t="s">
         <v>192</v>
       </c>
-      <c r="P105" t="s">
-        <v>192</v>
-      </c>
       <c r="Q105" t="s">
         <v>192</v>
       </c>
       <c r="S105" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T105"/>
     </row>
@@ -3471,16 +3479,16 @@
       <c r="E106" t="s">
         <v>192</v>
       </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
       <c r="G106" t="s">
         <v>192</v>
       </c>
+      <c r="H106" t="s">
+        <v>192</v>
+      </c>
       <c r="I106" t="s">
-        <v>192</v>
-      </c>
-      <c r="J106" t="s">
-        <v>192</v>
-      </c>
-      <c r="L106" t="s">
         <v>192</v>
       </c>
       <c r="R106" t="s">
@@ -3501,22 +3509,22 @@
       <c r="C107" t="s">
         <v>107</v>
       </c>
+      <c r="D107" t="s">
+        <v>192</v>
+      </c>
       <c r="E107" t="s">
         <v>192</v>
       </c>
       <c r="F107" t="s">
         <v>192</v>
       </c>
-      <c r="G107" t="s">
-        <v>192</v>
-      </c>
-      <c r="J107" t="s">
-        <v>192</v>
-      </c>
-      <c r="M107" t="s">
-        <v>192</v>
-      </c>
-      <c r="P107" t="s">
+      <c r="H107" t="s">
+        <v>192</v>
+      </c>
+      <c r="I107" t="s">
+        <v>192</v>
+      </c>
+      <c r="L107" t="s">
         <v>192</v>
       </c>
       <c r="S107" t="n">
@@ -3537,20 +3545,23 @@
       <c r="E108" t="s">
         <v>192</v>
       </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
       <c r="G108" t="s">
         <v>192</v>
       </c>
-      <c r="I108" t="s">
-        <v>192</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="H108" t="s">
         <v>192</v>
       </c>
       <c r="M108" t="s">
         <v>192</v>
       </c>
+      <c r="N108" t="s">
+        <v>192</v>
+      </c>
       <c r="S108" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T108"/>
     </row>
@@ -3567,17 +3578,23 @@
       <c r="D109" t="s">
         <v>192</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
         <v>192</v>
       </c>
       <c r="I109" t="s">
         <v>192</v>
       </c>
+      <c r="J109" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" t="s">
+        <v>192</v>
+      </c>
       <c r="R109" t="s">
         <v>192</v>
       </c>
       <c r="S109" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T109"/>
     </row>
@@ -3591,20 +3608,23 @@
       <c r="C110" t="s">
         <v>115</v>
       </c>
+      <c r="F110" t="s">
+        <v>192</v>
+      </c>
+      <c r="G110" t="s">
+        <v>192</v>
+      </c>
+      <c r="H110" t="s">
+        <v>192</v>
+      </c>
+      <c r="I110" t="s">
+        <v>192</v>
+      </c>
       <c r="J110" t="s">
         <v>192</v>
       </c>
-      <c r="L110" t="s">
-        <v>192</v>
-      </c>
-      <c r="M110" t="s">
-        <v>192</v>
-      </c>
-      <c r="P110" t="s">
-        <v>192</v>
-      </c>
       <c r="S110" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T110"/>
     </row>
@@ -3618,23 +3638,26 @@
       <c r="C111" t="s">
         <v>115</v>
       </c>
+      <c r="D111" t="s">
+        <v>192</v>
+      </c>
       <c r="F111" t="s">
         <v>192</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>192</v>
       </c>
       <c r="I111" t="s">
         <v>192</v>
       </c>
-      <c r="M111" t="s">
-        <v>192</v>
-      </c>
-      <c r="P111" t="s">
+      <c r="J111" t="s">
+        <v>192</v>
+      </c>
+      <c r="L111" t="s">
         <v>192</v>
       </c>
       <c r="S111" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T111"/>
     </row>
@@ -3651,7 +3674,7 @@
       <c r="E112" t="s">
         <v>192</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>192</v>
       </c>
       <c r="I112" t="s">
@@ -3660,10 +3683,10 @@
       <c r="J112" t="s">
         <v>192</v>
       </c>
-      <c r="L112" t="s">
-        <v>192</v>
-      </c>
-      <c r="M112" t="s">
+      <c r="P112" t="s">
+        <v>192</v>
+      </c>
+      <c r="R112" t="s">
         <v>192</v>
       </c>
       <c r="S112" t="n">
@@ -3681,20 +3704,26 @@
       <c r="C113" t="s">
         <v>115</v>
       </c>
-      <c r="G113" t="s">
+      <c r="E113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" t="s">
         <v>192</v>
       </c>
       <c r="J113" t="s">
         <v>192</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>192</v>
       </c>
       <c r="P113" t="s">
         <v>192</v>
       </c>
+      <c r="R113" t="s">
+        <v>192</v>
+      </c>
       <c r="S113" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T113"/>
     </row>
@@ -3708,10 +3737,10 @@
       <c r="C114" t="s">
         <v>115</v>
       </c>
-      <c r="F114" t="s">
-        <v>192</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="D114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" t="s">
         <v>192</v>
       </c>
       <c r="H114" t="s">
@@ -3741,22 +3770,22 @@
       <c r="C115" t="s">
         <v>115</v>
       </c>
-      <c r="D115" t="s">
-        <v>192</v>
-      </c>
       <c r="E115" t="s">
         <v>192</v>
       </c>
+      <c r="F115" t="s">
+        <v>192</v>
+      </c>
       <c r="H115" t="s">
         <v>192</v>
       </c>
-      <c r="K115" t="s">
-        <v>192</v>
-      </c>
-      <c r="L115" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q115" t="s">
+      <c r="I115" t="s">
+        <v>192</v>
+      </c>
+      <c r="J115" t="s">
+        <v>192</v>
+      </c>
+      <c r="M115" t="s">
         <v>192</v>
       </c>
       <c r="S115" t="n">
@@ -3774,19 +3803,19 @@
       <c r="C116" t="s">
         <v>123</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>192</v>
       </c>
       <c r="G116" t="s">
         <v>192</v>
       </c>
-      <c r="H116" t="s">
+      <c r="J116" t="s">
+        <v>192</v>
+      </c>
+      <c r="K116" t="s">
         <v>192</v>
       </c>
       <c r="L116" t="s">
-        <v>192</v>
-      </c>
-      <c r="M116" t="s">
         <v>192</v>
       </c>
       <c r="P116" t="s">
@@ -3810,20 +3839,14 @@
       <c r="F117" t="s">
         <v>192</v>
       </c>
-      <c r="H117" t="s">
-        <v>192</v>
-      </c>
-      <c r="J117" t="s">
-        <v>192</v>
-      </c>
-      <c r="L117" t="s">
-        <v>192</v>
-      </c>
-      <c r="P117" t="s">
+      <c r="G117" t="s">
+        <v>192</v>
+      </c>
+      <c r="M117" t="s">
         <v>192</v>
       </c>
       <c r="S117" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T117"/>
     </row>
@@ -3837,7 +3860,7 @@
       <c r="C118" t="s">
         <v>126</v>
       </c>
-      <c r="H118" t="s">
+      <c r="G118" t="s">
         <v>192</v>
       </c>
       <c r="S118" t="n">
@@ -3857,7 +3880,7 @@
       <c r="C119" t="s">
         <v>126</v>
       </c>
-      <c r="D119" t="s">
+      <c r="L119" t="s">
         <v>192</v>
       </c>
       <c r="S119" t="n">
@@ -3877,7 +3900,7 @@
       <c r="C120" t="s">
         <v>126</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D120" t="s">
         <v>192</v>
       </c>
       <c r="S120" t="n">
@@ -3897,7 +3920,7 @@
       <c r="C121" t="s">
         <v>126</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="E121" t="s">
         <v>192</v>
       </c>
       <c r="S121" t="n">
@@ -3917,10 +3940,10 @@
       <c r="C122" t="s">
         <v>126</v>
       </c>
-      <c r="G122" t="s">
-        <v>192</v>
-      </c>
       <c r="H122" t="s">
+        <v>192</v>
+      </c>
+      <c r="N122" t="s">
         <v>192</v>
       </c>
       <c r="Q122" t="s">
@@ -3943,13 +3966,13 @@
       <c r="C123" t="s">
         <v>126</v>
       </c>
-      <c r="D123" t="s">
-        <v>192</v>
-      </c>
       <c r="J123" t="s">
         <v>192</v>
       </c>
-      <c r="O123" t="s">
+      <c r="L123" t="s">
+        <v>192</v>
+      </c>
+      <c r="N123" t="s">
         <v>192</v>
       </c>
       <c r="S123" t="n">
@@ -3972,10 +3995,10 @@
       <c r="G124" t="s">
         <v>192</v>
       </c>
-      <c r="H124" t="s">
-        <v>192</v>
-      </c>
       <c r="I124" t="s">
+        <v>192</v>
+      </c>
+      <c r="L124" t="s">
         <v>192</v>
       </c>
       <c r="S124" t="n">
@@ -3995,10 +4018,10 @@
       <c r="C125" t="s">
         <v>126</v>
       </c>
-      <c r="G125" t="s">
-        <v>192</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="D125" t="s">
+        <v>192</v>
+      </c>
+      <c r="F125" t="s">
         <v>192</v>
       </c>
       <c r="Q125" t="s">
@@ -4021,10 +4044,10 @@
       <c r="C126" t="s">
         <v>126</v>
       </c>
-      <c r="E126" t="s">
-        <v>192</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="H126" t="s">
+        <v>192</v>
+      </c>
+      <c r="L126" t="s">
         <v>192</v>
       </c>
       <c r="M126" t="s">
@@ -4047,13 +4070,13 @@
       <c r="C127" t="s">
         <v>126</v>
       </c>
-      <c r="G127" t="s">
-        <v>192</v>
-      </c>
-      <c r="J127" t="s">
-        <v>192</v>
-      </c>
-      <c r="P127" t="s">
+      <c r="E127" t="s">
+        <v>192</v>
+      </c>
+      <c r="M127" t="s">
+        <v>192</v>
+      </c>
+      <c r="R127" t="s">
         <v>192</v>
       </c>
       <c r="S127" t="n">
@@ -4073,13 +4096,13 @@
       <c r="C128" t="s">
         <v>126</v>
       </c>
-      <c r="H128" t="s">
+      <c r="G128" t="s">
         <v>192</v>
       </c>
       <c r="I128" t="s">
         <v>192</v>
       </c>
-      <c r="R128" t="s">
+      <c r="Q128" t="s">
         <v>192</v>
       </c>
       <c r="S128" t="n">
@@ -4099,13 +4122,13 @@
       <c r="C129" t="s">
         <v>126</v>
       </c>
-      <c r="F129" t="s">
-        <v>192</v>
-      </c>
-      <c r="G129" t="s">
-        <v>192</v>
-      </c>
-      <c r="M129" t="s">
+      <c r="J129" t="s">
+        <v>192</v>
+      </c>
+      <c r="P129" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q129" t="s">
         <v>192</v>
       </c>
       <c r="S129" t="n">
@@ -4125,17 +4148,14 @@
       <c r="C130" t="s">
         <v>126</v>
       </c>
-      <c r="F130" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" t="s">
-        <v>192</v>
-      </c>
-      <c r="M130" t="s">
+      <c r="E130" t="s">
+        <v>192</v>
+      </c>
+      <c r="J130" t="s">
         <v>192</v>
       </c>
       <c r="S130" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T130" t="s">
         <v>17</v>
@@ -4151,13 +4171,13 @@
       <c r="C131" t="s">
         <v>126</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>192</v>
       </c>
       <c r="H131" t="s">
         <v>192</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>192</v>
       </c>
       <c r="S131" t="n">
@@ -4177,22 +4197,22 @@
       <c r="C132" t="s">
         <v>141</v>
       </c>
-      <c r="F132" t="s">
-        <v>192</v>
-      </c>
-      <c r="I132" t="s">
-        <v>192</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="D132" t="s">
+        <v>192</v>
+      </c>
+      <c r="G132" t="s">
+        <v>192</v>
+      </c>
+      <c r="L132" t="s">
+        <v>192</v>
+      </c>
+      <c r="M132" t="s">
         <v>192</v>
       </c>
       <c r="P132" t="s">
         <v>192</v>
       </c>
       <c r="Q132" t="s">
-        <v>192</v>
-      </c>
-      <c r="R132" t="s">
         <v>192</v>
       </c>
       <c r="S132" t="n">
@@ -4219,13 +4239,13 @@
       <c r="G133" t="s">
         <v>192</v>
       </c>
+      <c r="H133" t="s">
+        <v>192</v>
+      </c>
+      <c r="I133" t="s">
+        <v>192</v>
+      </c>
       <c r="M133" t="s">
-        <v>192</v>
-      </c>
-      <c r="P133" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q133" t="s">
         <v>192</v>
       </c>
       <c r="S133" t="n">
@@ -4263,13 +4283,13 @@
       <c r="C135" t="s">
         <v>144</v>
       </c>
+      <c r="D135" t="s">
+        <v>192</v>
+      </c>
+      <c r="J135" t="s">
+        <v>192</v>
+      </c>
       <c r="L135" t="s">
-        <v>192</v>
-      </c>
-      <c r="M135" t="s">
-        <v>192</v>
-      </c>
-      <c r="R135" t="s">
         <v>192</v>
       </c>
       <c r="S135" t="n">
@@ -4289,13 +4309,13 @@
       <c r="C136" t="s">
         <v>144</v>
       </c>
-      <c r="F136" t="s">
-        <v>192</v>
-      </c>
-      <c r="M136" t="s">
-        <v>192</v>
-      </c>
-      <c r="P136" t="s">
+      <c r="G136" t="s">
+        <v>192</v>
+      </c>
+      <c r="H136" t="s">
+        <v>192</v>
+      </c>
+      <c r="L136" t="s">
         <v>192</v>
       </c>
       <c r="S136" t="n">
@@ -4315,13 +4335,13 @@
       <c r="C137" t="s">
         <v>144</v>
       </c>
-      <c r="J137" t="s">
-        <v>192</v>
-      </c>
-      <c r="M137" t="s">
-        <v>192</v>
-      </c>
-      <c r="R137" t="s">
+      <c r="D137" t="s">
+        <v>192</v>
+      </c>
+      <c r="G137" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q137" t="s">
         <v>192</v>
       </c>
       <c r="S137" t="n">
@@ -4341,13 +4361,13 @@
       <c r="C138" t="s">
         <v>144</v>
       </c>
-      <c r="D138" t="s">
-        <v>192</v>
-      </c>
-      <c r="L138" t="s">
-        <v>192</v>
-      </c>
-      <c r="R138" t="s">
+      <c r="H138" t="s">
+        <v>192</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+      <c r="M138" t="s">
         <v>192</v>
       </c>
       <c r="S138" t="n">
@@ -4367,22 +4387,22 @@
       <c r="C139" t="s">
         <v>141</v>
       </c>
-      <c r="F139" t="s">
-        <v>192</v>
-      </c>
-      <c r="I139" t="s">
-        <v>192</v>
-      </c>
-      <c r="J139" t="s">
+      <c r="D139" t="s">
+        <v>192</v>
+      </c>
+      <c r="G139" t="s">
+        <v>192</v>
+      </c>
+      <c r="L139" t="s">
+        <v>192</v>
+      </c>
+      <c r="M139" t="s">
         <v>192</v>
       </c>
       <c r="P139" t="s">
         <v>192</v>
       </c>
       <c r="Q139" t="s">
-        <v>192</v>
-      </c>
-      <c r="R139" t="s">
         <v>192</v>
       </c>
       <c r="S139" t="n">
@@ -4409,13 +4429,13 @@
       <c r="G140" t="s">
         <v>192</v>
       </c>
+      <c r="H140" t="s">
+        <v>192</v>
+      </c>
+      <c r="I140" t="s">
+        <v>192</v>
+      </c>
       <c r="M140" t="s">
-        <v>192</v>
-      </c>
-      <c r="P140" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q140" t="s">
         <v>192</v>
       </c>
       <c r="S140" t="n">
@@ -4433,7 +4453,7 @@
       <c r="C141" t="s">
         <v>150</v>
       </c>
-      <c r="D141" t="s">
+      <c r="N141" t="s">
         <v>192</v>
       </c>
       <c r="S141" t="n">
@@ -4453,7 +4473,7 @@
       <c r="C142" t="s">
         <v>150</v>
       </c>
-      <c r="L142" t="s">
+      <c r="G142" t="s">
         <v>192</v>
       </c>
       <c r="S142" t="n">
@@ -4473,13 +4493,13 @@
       <c r="C143" t="s">
         <v>150</v>
       </c>
-      <c r="D143" t="s">
-        <v>192</v>
-      </c>
-      <c r="I143" t="s">
-        <v>192</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="E143" t="s">
+        <v>192</v>
+      </c>
+      <c r="G143" t="s">
+        <v>192</v>
+      </c>
+      <c r="L143" t="s">
         <v>192</v>
       </c>
       <c r="S143" t="n">
@@ -4502,7 +4522,7 @@
       <c r="G144" t="s">
         <v>192</v>
       </c>
-      <c r="P144" t="s">
+      <c r="M144" t="s">
         <v>192</v>
       </c>
       <c r="Q144" t="s">
@@ -4525,13 +4545,13 @@
       <c r="C145" t="s">
         <v>150</v>
       </c>
+      <c r="F145" t="s">
+        <v>192</v>
+      </c>
       <c r="I145" t="s">
         <v>192</v>
       </c>
-      <c r="P145" t="s">
-        <v>192</v>
-      </c>
-      <c r="R145" t="s">
+      <c r="Q145" t="s">
         <v>192</v>
       </c>
       <c r="S145" t="n">
@@ -4551,13 +4571,13 @@
       <c r="C146" t="s">
         <v>150</v>
       </c>
-      <c r="D146" t="s">
-        <v>192</v>
-      </c>
-      <c r="G146" t="s">
-        <v>192</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
+        <v>192</v>
+      </c>
+      <c r="M146" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q146" t="s">
         <v>192</v>
       </c>
       <c r="S146" t="n">
@@ -4577,20 +4597,26 @@
       <c r="C147" t="s">
         <v>150</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>192</v>
       </c>
       <c r="F147" t="s">
         <v>192</v>
       </c>
+      <c r="G147" t="s">
+        <v>192</v>
+      </c>
       <c r="H147" t="s">
         <v>192</v>
       </c>
-      <c r="M147" t="s">
+      <c r="J147" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q147" t="s">
         <v>192</v>
       </c>
       <c r="S147" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T147"/>
     </row>
@@ -4604,10 +4630,7 @@
       <c r="C148" t="s">
         <v>150</v>
       </c>
-      <c r="E148" t="s">
-        <v>192</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="D148" t="s">
         <v>192</v>
       </c>
       <c r="H148" t="s">
@@ -4616,11 +4639,17 @@
       <c r="I148" t="s">
         <v>192</v>
       </c>
-      <c r="P148" t="s">
+      <c r="N148" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>192</v>
+      </c>
+      <c r="R148" t="s">
         <v>192</v>
       </c>
       <c r="S148" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T148"/>
     </row>
@@ -4634,7 +4663,7 @@
       <c r="C149" t="s">
         <v>159</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>192</v>
       </c>
       <c r="S149" t="n">
@@ -4654,7 +4683,7 @@
       <c r="C150" t="s">
         <v>159</v>
       </c>
-      <c r="I150" t="s">
+      <c r="R150" t="s">
         <v>192</v>
       </c>
       <c r="S150" t="n">
@@ -4674,10 +4703,10 @@
       <c r="C151" t="s">
         <v>159</v>
       </c>
-      <c r="E151" t="s">
-        <v>192</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="H151" t="s">
+        <v>192</v>
+      </c>
+      <c r="R151" t="s">
         <v>192</v>
       </c>
       <c r="S151" t="n">
@@ -4697,13 +4726,13 @@
       <c r="C152" t="s">
         <v>159</v>
       </c>
-      <c r="F152" t="s">
-        <v>192</v>
-      </c>
-      <c r="L152" t="s">
-        <v>192</v>
-      </c>
-      <c r="M152" t="s">
+      <c r="G152" t="s">
+        <v>192</v>
+      </c>
+      <c r="P152" t="s">
+        <v>192</v>
+      </c>
+      <c r="R152" t="s">
         <v>192</v>
       </c>
       <c r="S152" t="n">
@@ -4723,13 +4752,13 @@
       <c r="C153" t="s">
         <v>159</v>
       </c>
-      <c r="J153" t="s">
-        <v>192</v>
-      </c>
-      <c r="P153" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q153" t="s">
+      <c r="D153" t="s">
+        <v>192</v>
+      </c>
+      <c r="I153" t="s">
+        <v>192</v>
+      </c>
+      <c r="M153" t="s">
         <v>192</v>
       </c>
       <c r="S153" t="n">
@@ -4749,16 +4778,16 @@
       <c r="C154" t="s">
         <v>159</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>192</v>
       </c>
       <c r="I154" t="s">
         <v>192</v>
       </c>
-      <c r="L154" t="s">
-        <v>192</v>
-      </c>
-      <c r="M154" t="s">
+      <c r="J154" t="s">
+        <v>192</v>
+      </c>
+      <c r="N154" t="s">
         <v>192</v>
       </c>
       <c r="Q154" t="s">
@@ -4779,13 +4808,13 @@
       <c r="C155" t="s">
         <v>159</v>
       </c>
-      <c r="D155" t="s">
-        <v>192</v>
-      </c>
-      <c r="E155" t="s">
-        <v>192</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
+        <v>192</v>
+      </c>
+      <c r="J155" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q155" t="s">
         <v>192</v>
       </c>
       <c r="S155" t="n">
@@ -4803,22 +4832,22 @@
       <c r="C156" t="s">
         <v>159</v>
       </c>
+      <c r="D156" t="s">
+        <v>192</v>
+      </c>
       <c r="E156" t="s">
         <v>192</v>
       </c>
-      <c r="F156" t="s">
-        <v>192</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
+        <v>192</v>
+      </c>
+      <c r="I156" t="s">
         <v>192</v>
       </c>
       <c r="L156" t="s">
         <v>192</v>
       </c>
       <c r="M156" t="s">
-        <v>192</v>
-      </c>
-      <c r="P156" t="s">
         <v>192</v>
       </c>
       <c r="S156" t="n">
@@ -4836,10 +4865,10 @@
       <c r="C157" t="s">
         <v>168</v>
       </c>
-      <c r="J157" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q157" t="s">
+      <c r="P157" t="s">
+        <v>192</v>
+      </c>
+      <c r="R157" t="s">
         <v>192</v>
       </c>
       <c r="S157" t="n">
@@ -4859,13 +4888,13 @@
       <c r="C158" t="s">
         <v>168</v>
       </c>
+      <c r="D158" t="s">
+        <v>192</v>
+      </c>
       <c r="I158" t="s">
         <v>192</v>
       </c>
-      <c r="J158" t="s">
-        <v>192</v>
-      </c>
-      <c r="P158" t="s">
+      <c r="L158" t="s">
         <v>192</v>
       </c>
       <c r="S158" t="n">
@@ -4885,13 +4914,13 @@
       <c r="C159" t="s">
         <v>168</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
+        <v>192</v>
+      </c>
+      <c r="J159" t="s">
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>192</v>
-      </c>
-      <c r="R159" t="s">
         <v>192</v>
       </c>
       <c r="S159" t="n">
@@ -4911,26 +4940,23 @@
       <c r="C160" t="s">
         <v>168</v>
       </c>
-      <c r="D160" t="s">
-        <v>192</v>
-      </c>
       <c r="E160" t="s">
         <v>192</v>
       </c>
-      <c r="I160" t="s">
-        <v>192</v>
-      </c>
-      <c r="J160" t="s">
-        <v>192</v>
-      </c>
-      <c r="N160" t="s">
-        <v>192</v>
-      </c>
-      <c r="R160" t="s">
+      <c r="G160" t="s">
+        <v>192</v>
+      </c>
+      <c r="H160" t="s">
+        <v>192</v>
+      </c>
+      <c r="L160" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q160" t="s">
         <v>192</v>
       </c>
       <c r="S160" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T160"/>
     </row>
@@ -4944,26 +4970,23 @@
       <c r="C161" t="s">
         <v>168</v>
       </c>
-      <c r="D161" t="s">
-        <v>192</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F161" t="s">
         <v>192</v>
       </c>
       <c r="H161" t="s">
         <v>192</v>
       </c>
+      <c r="I161" t="s">
+        <v>192</v>
+      </c>
       <c r="J161" t="s">
         <v>192</v>
       </c>
-      <c r="L161" t="s">
-        <v>192</v>
-      </c>
       <c r="Q161" t="s">
         <v>192</v>
       </c>
       <c r="S161" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T161"/>
     </row>
@@ -4977,9 +5000,6 @@
       <c r="C162" t="s">
         <v>168</v>
       </c>
-      <c r="E162" t="s">
-        <v>192</v>
-      </c>
       <c r="G162" t="s">
         <v>192</v>
       </c>
@@ -4996,7 +5016,7 @@
         <v>192</v>
       </c>
       <c r="S162" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T162"/>
     </row>
@@ -5010,26 +5030,23 @@
       <c r="C163" t="s">
         <v>168</v>
       </c>
-      <c r="D163" t="s">
-        <v>192</v>
-      </c>
       <c r="E163" t="s">
         <v>192</v>
       </c>
-      <c r="G163" t="s">
-        <v>192</v>
-      </c>
-      <c r="H163" t="s">
-        <v>192</v>
-      </c>
-      <c r="M163" t="s">
-        <v>192</v>
-      </c>
-      <c r="N163" t="s">
+      <c r="F163" t="s">
+        <v>192</v>
+      </c>
+      <c r="I163" t="s">
+        <v>192</v>
+      </c>
+      <c r="O163" t="s">
+        <v>192</v>
+      </c>
+      <c r="P163" t="s">
         <v>192</v>
       </c>
       <c r="S163" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T163"/>
     </row>
@@ -5043,22 +5060,22 @@
       <c r="C164" t="s">
         <v>168</v>
       </c>
+      <c r="D164" t="s">
+        <v>192</v>
+      </c>
       <c r="E164" t="s">
         <v>192</v>
       </c>
-      <c r="I164" t="s">
+      <c r="H164" t="s">
         <v>192</v>
       </c>
       <c r="L164" t="s">
         <v>192</v>
       </c>
-      <c r="M164" t="s">
-        <v>192</v>
-      </c>
       <c r="P164" t="s">
         <v>192</v>
       </c>
-      <c r="R164" t="s">
+      <c r="Q164" t="s">
         <v>192</v>
       </c>
       <c r="S164" t="n">
@@ -5076,10 +5093,10 @@
       <c r="C165" t="s">
         <v>177</v>
       </c>
-      <c r="L165" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q165" t="s">
+      <c r="G165" t="s">
+        <v>192</v>
+      </c>
+      <c r="I165" t="s">
         <v>192</v>
       </c>
       <c r="S165" t="n">
@@ -5099,13 +5116,13 @@
       <c r="C166" t="s">
         <v>177</v>
       </c>
-      <c r="J166" t="s">
-        <v>192</v>
-      </c>
-      <c r="K166" t="s">
+      <c r="G166" t="s">
         <v>192</v>
       </c>
       <c r="L166" t="s">
+        <v>192</v>
+      </c>
+      <c r="M166" t="s">
         <v>192</v>
       </c>
       <c r="S166" t="n">
@@ -5128,19 +5145,19 @@
       <c r="D167" t="s">
         <v>192</v>
       </c>
-      <c r="E167" t="s">
-        <v>192</v>
-      </c>
       <c r="F167" t="s">
         <v>192</v>
       </c>
-      <c r="H167" t="s">
+      <c r="G167" t="s">
         <v>192</v>
       </c>
       <c r="M167" t="s">
         <v>192</v>
       </c>
       <c r="P167" t="s">
+        <v>192</v>
+      </c>
+      <c r="R167" t="s">
         <v>192</v>
       </c>
       <c r="S167" t="n">
@@ -5158,6 +5175,9 @@
       <c r="C168" t="s">
         <v>180</v>
       </c>
+      <c r="D168" t="s">
+        <v>192</v>
+      </c>
       <c r="E168" t="s">
         <v>192</v>
       </c>
@@ -5167,14 +5187,14 @@
       <c r="G168" t="s">
         <v>192</v>
       </c>
-      <c r="L168" t="s">
-        <v>192</v>
-      </c>
-      <c r="R168" t="s">
+      <c r="J168" t="s">
+        <v>192</v>
+      </c>
+      <c r="K168" t="s">
         <v>192</v>
       </c>
       <c r="S168" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T168"/>
     </row>
@@ -5188,22 +5208,22 @@
       <c r="C169" t="s">
         <v>180</v>
       </c>
-      <c r="G169" t="s">
-        <v>192</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="D169" t="s">
+        <v>192</v>
+      </c>
+      <c r="F169" t="s">
         <v>192</v>
       </c>
       <c r="I169" t="s">
         <v>192</v>
       </c>
-      <c r="M169" t="s">
-        <v>192</v>
-      </c>
-      <c r="N169" t="s">
-        <v>192</v>
-      </c>
-      <c r="R169" t="s">
+      <c r="J169" t="s">
+        <v>192</v>
+      </c>
+      <c r="L169" t="s">
+        <v>192</v>
+      </c>
+      <c r="P169" t="s">
         <v>192</v>
       </c>
       <c r="S169" t="n">
@@ -5221,14 +5241,26 @@
       <c r="C170" t="s">
         <v>180</v>
       </c>
+      <c r="E170" t="s">
+        <v>192</v>
+      </c>
+      <c r="F170" t="s">
+        <v>192</v>
+      </c>
       <c r="I170" t="s">
         <v>192</v>
       </c>
-      <c r="R170" t="s">
+      <c r="J170" t="s">
+        <v>192</v>
+      </c>
+      <c r="M170" t="s">
+        <v>192</v>
+      </c>
+      <c r="P170" t="s">
         <v>192</v>
       </c>
       <c r="S170" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T170"/>
     </row>
@@ -5236,50 +5268,50 @@
       <c r="B171" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="D171" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="E171" t="n">
+      <c r="D171" t="n" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="E171" t="n" s="2">
         <v>49.0</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171" t="n" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="G171" t="n" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="H171" t="n" s="2">
         <v>54.0</v>
       </c>
-      <c r="G171" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="I171" t="n">
+      <c r="I171" t="n" s="2">
         <v>54.0</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171" t="n" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="K171" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="L171" t="n" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="M171" t="n" s="2">
         <v>55.0</v>
       </c>
-      <c r="K171" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="M171" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="N171" t="n">
+      <c r="N171" t="n" s="2">
         <v>16.0</v>
       </c>
-      <c r="O171" t="n">
+      <c r="O171" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="P171" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="Q171" t="n">
+      <c r="P171" t="n" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="Q171" t="n" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="R171" t="n" s="2">
         <v>32.0</v>
-      </c>
-      <c r="R171" t="n">
-        <v>33.0</v>
       </c>
       <c r="S171" t="n" s="2">
         <v>587.0</v>
@@ -5287,7 +5319,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R4"/>
+    <mergeCell ref="A1:S4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="195">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -43,10 +43,16 @@
     <t>Dr. H.K. Mahiyar</t>
   </si>
   <si>
+    <t>HOD</t>
+  </si>
+  <si>
     <t>Dr. (Ms.) U. Gupta</t>
   </si>
   <si>
     <t>Dr. (Mrs.) V.Tare</t>
+  </si>
+  <si>
+    <t>DEAN</t>
   </si>
   <si>
     <t>Dr. S.M. Narulkar</t>
@@ -750,10 +756,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n" s="3">
         <v>44774.0</v>
@@ -801,12 +807,12 @@
         <v>44788.0</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D6" t="n" s="2">
         <v>730.0</v>
@@ -859,7 +865,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" t="n" s="18">
         <v>41.0</v>
@@ -912,10 +918,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
@@ -928,8 +934,8 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
-        <v>192</v>
+      <c r="D10" t="s">
+        <v>194</v>
       </c>
       <c r="S10" t="n">
         <v>1.0</v>
@@ -948,8 +954,8 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="R11" t="s">
-        <v>192</v>
+      <c r="D11" t="s">
+        <v>194</v>
       </c>
       <c r="S11" t="n">
         <v>1.0</v>
@@ -968,8 +974,8 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" t="s">
-        <v>192</v>
+      <c r="R12" t="s">
+        <v>194</v>
       </c>
       <c r="S12" t="n">
         <v>1.0</v>
@@ -988,8 +994,8 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>192</v>
+      <c r="P13" t="s">
+        <v>194</v>
       </c>
       <c r="S13" t="n">
         <v>1.0</v>
@@ -1008,14 +1014,23 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
       <c r="T14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1023,13 +1038,13 @@
         <v>6.0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
-        <v>192</v>
+      <c r="R15" t="s">
+        <v>194</v>
       </c>
       <c r="S15" t="n">
         <v>1.0</v>
@@ -1043,19 +1058,28 @@
         <v>7.0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
       <c r="T16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1063,19 +1087,28 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="R17" t="s">
-        <v>192</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
       <c r="T17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1083,19 +1116,28 @@
         <v>9.0</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
-        <v>192</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
       <c r="T18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1103,13 +1145,13 @@
         <v>10.0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="P19" t="s">
-        <v>192</v>
+      <c r="L19" t="s">
+        <v>194</v>
       </c>
       <c r="S19" t="n">
         <v>1.0</v>
@@ -1123,22 +1165,22 @@
         <v>11.0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" t="s">
-        <v>192</v>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" t="s">
+        <v>194</v>
       </c>
       <c r="S20" t="n">
         <v>2.0</v>
       </c>
       <c r="T20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1146,22 +1188,22 @@
         <v>12.0</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" t="s">
-        <v>192</v>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" t="s">
+        <v>194</v>
       </c>
       <c r="S21" t="n">
         <v>2.0</v>
       </c>
       <c r="T21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1169,25 +1211,25 @@
         <v>13.0</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" t="s">
-        <v>192</v>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" t="s">
+        <v>194</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S22" t="n">
         <v>3.0</v>
       </c>
       <c r="T22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1195,25 +1237,25 @@
         <v>14.0</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="G23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" t="s">
-        <v>192</v>
-      </c>
-      <c r="P23" t="s">
-        <v>192</v>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" t="s">
+        <v>194</v>
       </c>
       <c r="S23" t="n">
         <v>3.0</v>
       </c>
       <c r="T23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1221,25 +1263,25 @@
         <v>15.0</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" t="s">
-        <v>192</v>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
       </c>
       <c r="S24" t="n">
         <v>3.0</v>
       </c>
       <c r="T24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1247,25 +1289,25 @@
         <v>16.0</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>192</v>
+      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="R25" t="s">
+        <v>194</v>
       </c>
       <c r="S25" t="n">
         <v>3.0</v>
       </c>
       <c r="T25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1273,22 +1315,25 @@
         <v>17.0</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
       </c>
       <c r="M26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>194</v>
       </c>
       <c r="S26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T26"/>
     </row>
@@ -1297,22 +1342,22 @@
         <v>18.0</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>194</v>
       </c>
       <c r="S27" t="n">
         <v>4.0</v>
@@ -1324,16 +1369,25 @@
         <v>19.0</v>
       </c>
       <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
+      <c r="F28" t="s">
+        <v>194</v>
       </c>
       <c r="J28" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P28" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>194</v>
       </c>
       <c r="S28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T28"/>
     </row>
@@ -1342,25 +1396,28 @@
         <v>20.0</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>194</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T29"/>
     </row>
@@ -1369,28 +1426,28 @@
         <v>21.0</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>192</v>
-      </c>
-      <c r="N30" t="s">
-        <v>192</v>
-      </c>
-      <c r="O30" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" t="s">
+        <v>194</v>
       </c>
       <c r="S30" t="n">
         <v>6.0</v>
@@ -1402,25 +1459,31 @@
         <v>22.0</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s">
+        <v>194</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
       </c>
       <c r="S31" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T31"/>
     </row>
@@ -1429,25 +1492,22 @@
         <v>23.0</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" t="s">
+        <v>194</v>
       </c>
       <c r="S32" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T32"/>
     </row>
@@ -1456,28 +1516,31 @@
         <v>24.0</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" t="s">
-        <v>192</v>
-      </c>
-      <c r="L33" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" t="s">
+        <v>194</v>
       </c>
       <c r="S33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T33"/>
     </row>
@@ -1486,22 +1549,31 @@
         <v>25.0</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
-      </c>
-      <c r="R34" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J34" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>194</v>
       </c>
       <c r="S34" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T34"/>
     </row>
@@ -1510,19 +1582,22 @@
         <v>26.0</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" t="s">
+        <v>194</v>
       </c>
       <c r="S35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T35"/>
     </row>
@@ -1531,28 +1606,28 @@
         <v>27.0</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
-      </c>
-      <c r="J36" t="s">
-        <v>192</v>
-      </c>
-      <c r="P36" t="s">
-        <v>192</v>
-      </c>
-      <c r="R36" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L36" t="s">
+        <v>194</v>
+      </c>
+      <c r="M36" t="s">
+        <v>194</v>
       </c>
       <c r="S36" t="n">
         <v>6.0</v>
@@ -1564,31 +1639,28 @@
         <v>28.0</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" t="s">
-        <v>192</v>
-      </c>
-      <c r="M37" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s">
+        <v>194</v>
       </c>
       <c r="Q37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S37" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T37"/>
     </row>
@@ -1597,28 +1669,28 @@
         <v>29.0</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I38" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s">
+        <v>194</v>
       </c>
       <c r="M38" t="s">
-        <v>192</v>
-      </c>
-      <c r="N38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S38" t="n">
         <v>6.0</v>
@@ -1630,28 +1702,28 @@
         <v>30.0</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>192</v>
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
       </c>
       <c r="I39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s">
-        <v>192</v>
-      </c>
-      <c r="R39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S39" t="n">
         <v>6.0</v>
@@ -1663,28 +1735,28 @@
         <v>31.0</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I40" t="s">
+        <v>194</v>
+      </c>
+      <c r="L40" t="s">
+        <v>194</v>
       </c>
       <c r="M40" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P40" t="s">
+        <v>194</v>
       </c>
       <c r="S40" t="n">
         <v>6.0</v>
@@ -1696,28 +1768,28 @@
         <v>32.0</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="H41" t="s">
+        <v>194</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s">
-        <v>192</v>
-      </c>
-      <c r="M41" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>194</v>
       </c>
       <c r="S41" t="n">
         <v>6.0</v>
@@ -1729,10 +1801,10 @@
         <v>33.0</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -1750,7 +1822,7 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="T42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -1758,13 +1830,13 @@
         <v>34.0</v>
       </c>
       <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" t="s">
-        <v>192</v>
+      <c r="J43" t="s">
+        <v>194</v>
       </c>
       <c r="S43" t="n">
         <v>1.0</v>
@@ -1778,22 +1850,22 @@
         <v>35.0</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M44" t="s">
-        <v>192</v>
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" t="s">
+        <v>194</v>
       </c>
       <c r="S44" t="n">
         <v>2.0</v>
       </c>
       <c r="T44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1801,22 +1873,22 @@
         <v>36.0</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>192</v>
-      </c>
-      <c r="P45" t="s">
-        <v>192</v>
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" t="s">
+        <v>194</v>
       </c>
       <c r="S45" t="n">
         <v>2.0</v>
       </c>
       <c r="T45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1824,22 +1896,22 @@
         <v>37.0</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P46" t="s">
-        <v>192</v>
-      </c>
-      <c r="R46" t="s">
-        <v>192</v>
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" t="s">
+        <v>194</v>
       </c>
       <c r="S46" t="n">
         <v>2.0</v>
       </c>
       <c r="T46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1847,22 +1919,22 @@
         <v>38.0</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L47" t="s">
+        <v>194</v>
       </c>
       <c r="S47" t="n">
         <v>2.0</v>
       </c>
       <c r="T47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1870,25 +1942,25 @@
         <v>39.0</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
-      </c>
-      <c r="M48" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L48" t="s">
+        <v>194</v>
+      </c>
+      <c r="P48" t="s">
+        <v>194</v>
       </c>
       <c r="S48" t="n">
         <v>3.0</v>
       </c>
       <c r="T48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1896,25 +1968,25 @@
         <v>40.0</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
-      </c>
-      <c r="L49" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J49" t="s">
+        <v>194</v>
+      </c>
+      <c r="R49" t="s">
+        <v>194</v>
       </c>
       <c r="S49" t="n">
         <v>3.0</v>
       </c>
       <c r="T49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1922,31 +1994,25 @@
         <v>41.0</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
-      </c>
-      <c r="M50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S50" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T50"/>
     </row>
@@ -1955,31 +2021,25 @@
         <v>42.0</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" t="s">
-        <v>192</v>
-      </c>
-      <c r="L51" t="s">
-        <v>192</v>
-      </c>
-      <c r="N51" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M51" t="s">
+        <v>194</v>
+      </c>
+      <c r="O51" t="s">
+        <v>194</v>
+      </c>
+      <c r="P51" t="s">
+        <v>194</v>
       </c>
       <c r="S51" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T51"/>
     </row>
@@ -1988,28 +2048,28 @@
         <v>43.0</v>
       </c>
       <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>49</v>
+      <c r="E52" t="s">
+        <v>194</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s">
-        <v>192</v>
-      </c>
-      <c r="N52" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P52" t="s">
+        <v>194</v>
       </c>
       <c r="R52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S52" t="n">
         <v>6.0</v>
@@ -2021,28 +2081,22 @@
         <v>44.0</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" t="s">
+        <v>194</v>
       </c>
       <c r="H53" t="s">
-        <v>192</v>
-      </c>
-      <c r="J53" t="s">
-        <v>192</v>
-      </c>
-      <c r="R53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T53"/>
     </row>
@@ -2051,22 +2105,31 @@
         <v>45.0</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" t="s">
+        <v>194</v>
       </c>
       <c r="J54" t="s">
-        <v>192</v>
-      </c>
-      <c r="L54" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M54" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>194</v>
+      </c>
+      <c r="R54" t="s">
+        <v>194</v>
       </c>
       <c r="S54" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T54"/>
     </row>
@@ -2075,28 +2138,28 @@
         <v>46.0</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G55" t="s">
+        <v>194</v>
       </c>
       <c r="H55" t="s">
-        <v>192</v>
-      </c>
-      <c r="I55" t="s">
-        <v>192</v>
-      </c>
-      <c r="L55" t="s">
-        <v>192</v>
-      </c>
-      <c r="P55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S55" t="n">
         <v>6.0</v>
@@ -2108,28 +2171,31 @@
         <v>47.0</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" t="s">
-        <v>192</v>
-      </c>
-      <c r="I56" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" t="s">
+        <v>194</v>
       </c>
       <c r="J56" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M56" t="s">
+        <v>194</v>
       </c>
       <c r="R56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S56" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T56"/>
     </row>
@@ -2138,31 +2204,28 @@
         <v>48.0</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" t="s">
-        <v>192</v>
-      </c>
-      <c r="F57" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="G57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" t="s">
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
-      </c>
-      <c r="J57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M57" t="s">
+        <v>194</v>
       </c>
       <c r="S57" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T57"/>
     </row>
@@ -2171,25 +2234,31 @@
         <v>49.0</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" t="s">
-        <v>192</v>
-      </c>
-      <c r="H58" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" t="s">
+        <v>194</v>
+      </c>
+      <c r="N58" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>194</v>
+      </c>
+      <c r="R58" t="s">
+        <v>194</v>
       </c>
       <c r="S58" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T58"/>
     </row>
@@ -2198,28 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" t="s">
-        <v>192</v>
-      </c>
-      <c r="J59" t="s">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="H59" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" t="s">
+        <v>194</v>
       </c>
       <c r="M59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N59" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>194</v>
+      </c>
+      <c r="R59" t="s">
+        <v>194</v>
       </c>
       <c r="S59" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T59"/>
     </row>
@@ -2228,28 +2300,28 @@
         <v>51.0</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
-      </c>
-      <c r="E60" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="F60" t="s">
+        <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
-      </c>
-      <c r="M60" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I60" t="s">
+        <v>194</v>
       </c>
       <c r="R60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S60" t="n">
         <v>6.0</v>
@@ -2261,28 +2333,31 @@
         <v>52.0</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
-      </c>
-      <c r="G61" t="s">
-        <v>192</v>
-      </c>
-      <c r="J61" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
       </c>
       <c r="M61" t="s">
-        <v>192</v>
-      </c>
-      <c r="P61" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R61" t="s">
+        <v>194</v>
       </c>
       <c r="S61" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T61"/>
     </row>
@@ -2291,28 +2366,28 @@
         <v>53.0</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" t="s">
-        <v>192</v>
+        <v>64</v>
+      </c>
+      <c r="G62" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" t="s">
+        <v>194</v>
       </c>
       <c r="M62" t="s">
-        <v>192</v>
-      </c>
-      <c r="P62" t="s">
-        <v>192</v>
-      </c>
-      <c r="R62" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N62" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>194</v>
       </c>
       <c r="S62" t="n">
         <v>6.0</v>
@@ -2324,31 +2399,22 @@
         <v>54.0</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J63" t="s">
-        <v>192</v>
-      </c>
-      <c r="M63" t="s">
-        <v>192</v>
-      </c>
-      <c r="R63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S63" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T63"/>
     </row>
@@ -2357,22 +2423,31 @@
         <v>55.0</v>
       </c>
       <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>62</v>
+      <c r="D64" t="s">
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>192</v>
-      </c>
-      <c r="M64" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I64" t="s">
+        <v>194</v>
+      </c>
+      <c r="N64" t="s">
+        <v>194</v>
+      </c>
+      <c r="R64" t="s">
+        <v>194</v>
       </c>
       <c r="S64" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T64"/>
     </row>
@@ -2381,31 +2456,28 @@
         <v>56.0</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" t="s">
-        <v>192</v>
-      </c>
-      <c r="J65" t="s">
-        <v>192</v>
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65" t="s">
+        <v>194</v>
       </c>
       <c r="M65" t="s">
-        <v>192</v>
-      </c>
-      <c r="P65" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S65" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T65"/>
     </row>
@@ -2414,22 +2486,31 @@
         <v>57.0</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" t="s">
+        <v>194</v>
       </c>
       <c r="J66" t="s">
-        <v>192</v>
-      </c>
-      <c r="L66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S66" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T66"/>
     </row>
@@ -2438,28 +2519,28 @@
         <v>58.0</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
-      </c>
-      <c r="G67" t="s">
-        <v>192</v>
-      </c>
-      <c r="I67" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="H67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M67" t="s">
+        <v>194</v>
       </c>
       <c r="Q67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S67" t="n">
         <v>6.0</v>
@@ -2471,25 +2552,22 @@
         <v>59.0</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" t="s">
-        <v>192</v>
-      </c>
-      <c r="I68" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="M68" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P68" t="s">
+        <v>194</v>
       </c>
       <c r="S68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -2497,25 +2575,25 @@
         <v>60.0</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
-      </c>
-      <c r="N69" t="s">
-        <v>192</v>
-      </c>
-      <c r="R69" t="s">
-        <v>192</v>
+        <v>71</v>
+      </c>
+      <c r="F69" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" t="s">
+        <v>194</v>
+      </c>
+      <c r="P69" t="s">
+        <v>194</v>
       </c>
       <c r="S69" t="n">
         <v>3.0</v>
       </c>
       <c r="T69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -2523,31 +2601,25 @@
         <v>61.0</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H70" t="s">
-        <v>192</v>
-      </c>
-      <c r="L70" t="s">
-        <v>192</v>
-      </c>
-      <c r="R70" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M70" t="s">
+        <v>194</v>
       </c>
       <c r="S70" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T70"/>
     </row>
@@ -2556,28 +2628,28 @@
         <v>62.0</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s">
-        <v>192</v>
-      </c>
-      <c r="I71" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" t="s">
+        <v>194</v>
       </c>
       <c r="J71" t="s">
-        <v>192</v>
-      </c>
-      <c r="L71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M71" t="s">
-        <v>192</v>
-      </c>
-      <c r="R71" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P71" t="s">
+        <v>194</v>
       </c>
       <c r="S71" t="n">
         <v>6.0</v>
@@ -2589,28 +2661,28 @@
         <v>63.0</v>
       </c>
       <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
         <v>74</v>
       </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
       <c r="D72" t="s">
-        <v>192</v>
-      </c>
-      <c r="H72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>194</v>
       </c>
       <c r="S72" t="n">
         <v>6.0</v>
@@ -2622,28 +2694,22 @@
         <v>64.0</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>192</v>
-      </c>
-      <c r="J73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L73" t="s">
-        <v>192</v>
-      </c>
-      <c r="M73" t="s">
-        <v>192</v>
-      </c>
-      <c r="P73" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" t="s">
+        <v>194</v>
       </c>
       <c r="S73" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T73"/>
     </row>
@@ -2652,25 +2718,25 @@
         <v>65.0</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" t="s">
-        <v>192</v>
-      </c>
-      <c r="H74" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" t="s">
+        <v>194</v>
       </c>
       <c r="I74" t="s">
-        <v>192</v>
-      </c>
-      <c r="P74" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L74" t="s">
+        <v>194</v>
+      </c>
+      <c r="M74" t="s">
+        <v>194</v>
       </c>
       <c r="S74" t="n">
         <v>5.0</v>
@@ -2682,19 +2748,28 @@
         <v>66.0</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>194</v>
       </c>
       <c r="G75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I75" t="s">
+        <v>194</v>
+      </c>
+      <c r="R75" t="s">
+        <v>194</v>
       </c>
       <c r="S75" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="T75"/>
     </row>
@@ -2703,25 +2778,25 @@
         <v>67.0</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>192</v>
-      </c>
-      <c r="J76" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L76" t="s">
+        <v>194</v>
+      </c>
+      <c r="P76" t="s">
+        <v>194</v>
       </c>
       <c r="Q76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S76" t="n">
         <v>5.0</v>
@@ -2733,25 +2808,31 @@
         <v>68.0</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I77" t="s">
-        <v>192</v>
-      </c>
-      <c r="J77" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="E77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" t="s">
+        <v>194</v>
+      </c>
+      <c r="H77" t="s">
+        <v>194</v>
       </c>
       <c r="M77" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R77" t="s">
+        <v>194</v>
       </c>
       <c r="S77" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T77"/>
     </row>
@@ -2760,31 +2841,25 @@
         <v>69.0</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" t="s">
-        <v>192</v>
-      </c>
-      <c r="G78" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="F78" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78" t="s">
+        <v>194</v>
       </c>
       <c r="M78" t="s">
-        <v>192</v>
-      </c>
-      <c r="O78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S78" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T78"/>
     </row>
@@ -2793,13 +2868,13 @@
         <v>70.0</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
       </c>
       <c r="S79" t="n">
         <v>1.0</v>
@@ -2813,13 +2888,13 @@
         <v>71.0</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
-      </c>
-      <c r="M80" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="E80" t="s">
+        <v>194</v>
       </c>
       <c r="S80" t="n">
         <v>1.0</v>
@@ -2833,13 +2908,13 @@
         <v>72.0</v>
       </c>
       <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>192</v>
+      <c r="J81" t="s">
+        <v>194</v>
       </c>
       <c r="S81" t="n">
         <v>1.0</v>
@@ -2853,13 +2928,13 @@
         <v>73.0</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
-      </c>
-      <c r="J82" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="I82" t="s">
+        <v>194</v>
       </c>
       <c r="S82" t="n">
         <v>1.0</v>
@@ -2873,13 +2948,13 @@
         <v>74.0</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="E83" t="s">
+        <v>194</v>
       </c>
       <c r="S83" t="n">
         <v>1.0</v>
@@ -2893,13 +2968,13 @@
         <v>75.0</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="O84" t="s">
+        <v>194</v>
       </c>
       <c r="S84" t="n">
         <v>1.0</v>
@@ -2913,13 +2988,13 @@
         <v>76.0</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E85" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>194</v>
       </c>
       <c r="S85" t="n">
         <v>1.0</v>
@@ -2933,22 +3008,22 @@
         <v>77.0</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s">
-        <v>192</v>
-      </c>
-      <c r="P86" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="G86" t="s">
+        <v>194</v>
+      </c>
+      <c r="M86" t="s">
+        <v>194</v>
       </c>
       <c r="S86" t="n">
         <v>2.0</v>
       </c>
       <c r="T86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -2956,22 +3031,22 @@
         <v>78.0</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" t="s">
-        <v>192</v>
-      </c>
-      <c r="F87" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="I87" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>194</v>
       </c>
       <c r="S87" t="n">
         <v>2.0</v>
       </c>
       <c r="T87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -2979,22 +3054,22 @@
         <v>79.0</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="J88" t="s">
-        <v>192</v>
-      </c>
-      <c r="P88" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="F88" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>194</v>
       </c>
       <c r="S88" t="n">
         <v>2.0</v>
       </c>
       <c r="T88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -3002,22 +3077,22 @@
         <v>80.0</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89" t="s">
-        <v>192</v>
-      </c>
-      <c r="J89" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>194</v>
+      </c>
+      <c r="M89" t="s">
+        <v>194</v>
       </c>
       <c r="S89" t="n">
         <v>2.0</v>
       </c>
       <c r="T89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -3025,25 +3100,25 @@
         <v>81.0</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
-      </c>
-      <c r="G90" t="s">
-        <v>192</v>
-      </c>
-      <c r="I90" t="s">
-        <v>192</v>
-      </c>
-      <c r="R90" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="E90" t="s">
+        <v>194</v>
+      </c>
+      <c r="K90" t="s">
+        <v>194</v>
+      </c>
+      <c r="M90" t="s">
+        <v>194</v>
       </c>
       <c r="S90" t="n">
         <v>3.0</v>
       </c>
       <c r="T90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -3051,25 +3126,25 @@
         <v>82.0</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>192</v>
-      </c>
-      <c r="H91" t="s">
-        <v>192</v>
-      </c>
-      <c r="R91" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="K91" t="s">
+        <v>194</v>
+      </c>
+      <c r="M91" t="s">
+        <v>194</v>
+      </c>
+      <c r="P91" t="s">
+        <v>194</v>
       </c>
       <c r="S91" t="n">
         <v>3.0</v>
       </c>
       <c r="T91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -3077,25 +3152,25 @@
         <v>83.0</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="F92" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="G92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" t="s">
+        <v>194</v>
       </c>
       <c r="L92" t="s">
-        <v>192</v>
-      </c>
-      <c r="P92" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S92" t="n">
         <v>3.0</v>
       </c>
       <c r="T92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -3103,25 +3178,25 @@
         <v>84.0</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>192</v>
-      </c>
-      <c r="G93" t="s">
-        <v>192</v>
-      </c>
-      <c r="I93" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N93" t="s">
+        <v>194</v>
+      </c>
+      <c r="P93" t="s">
+        <v>194</v>
       </c>
       <c r="S93" t="n">
         <v>3.0</v>
       </c>
       <c r="T93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -3129,22 +3204,25 @@
         <v>85.0</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" t="s">
-        <v>192</v>
-      </c>
-      <c r="M94" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="G94" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>194</v>
+      </c>
+      <c r="R94" t="s">
+        <v>194</v>
       </c>
       <c r="S94" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -3152,25 +3230,25 @@
         <v>86.0</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L95" t="s">
-        <v>192</v>
-      </c>
-      <c r="P95" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M95" t="s">
+        <v>194</v>
       </c>
       <c r="S95" t="n">
         <v>3.0</v>
       </c>
       <c r="T95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -3178,22 +3256,25 @@
         <v>87.0</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
-      </c>
-      <c r="M96" t="s">
-        <v>192</v>
-      </c>
-      <c r="P96" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="I96" t="s">
+        <v>194</v>
       </c>
       <c r="S96" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -3201,31 +3282,22 @@
         <v>88.0</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="I97" t="s">
-        <v>192</v>
-      </c>
-      <c r="L97" t="s">
-        <v>192</v>
-      </c>
-      <c r="M97" t="s">
-        <v>192</v>
-      </c>
-      <c r="N97" t="s">
-        <v>192</v>
-      </c>
-      <c r="P97" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="E97" t="s">
+        <v>194</v>
+      </c>
+      <c r="H97" t="s">
+        <v>194</v>
+      </c>
+      <c r="J97" t="s">
+        <v>194</v>
       </c>
       <c r="S97" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T97"/>
     </row>
@@ -3234,28 +3306,28 @@
         <v>89.0</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="D98" t="s">
+        <v>194</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G98" t="s">
-        <v>192</v>
-      </c>
-      <c r="H98" t="s">
-        <v>192</v>
-      </c>
-      <c r="J98" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I98" t="s">
+        <v>194</v>
       </c>
       <c r="L98" t="s">
-        <v>192</v>
-      </c>
-      <c r="M98" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="R98" t="s">
+        <v>194</v>
       </c>
       <c r="S98" t="n">
         <v>6.0</v>
@@ -3267,25 +3339,19 @@
         <v>90.0</v>
       </c>
       <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" t="s">
         <v>103</v>
       </c>
-      <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
+      <c r="G99" t="s">
+        <v>194</v>
       </c>
       <c r="H99" t="s">
-        <v>192</v>
-      </c>
-      <c r="I99" t="s">
-        <v>192</v>
-      </c>
-      <c r="P99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S99" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="T99"/>
     </row>
@@ -3294,28 +3360,28 @@
         <v>91.0</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
+        <v>194</v>
       </c>
       <c r="G100" t="s">
-        <v>192</v>
-      </c>
-      <c r="H100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I100" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L100" t="s">
+        <v>194</v>
       </c>
       <c r="M100" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>192</v>
-      </c>
-      <c r="R100" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P100" t="s">
+        <v>194</v>
       </c>
       <c r="S100" t="n">
         <v>6.0</v>
@@ -3327,19 +3393,25 @@
         <v>92.0</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="E101" t="s">
+        <v>194</v>
       </c>
       <c r="H101" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J101" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M101" t="s">
+        <v>194</v>
       </c>
       <c r="S101" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T101"/>
     </row>
@@ -3348,28 +3420,28 @@
         <v>93.0</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
-      </c>
-      <c r="G102" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H102" t="s">
-        <v>192</v>
-      </c>
-      <c r="M102" t="s">
-        <v>192</v>
-      </c>
-      <c r="R102" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I102" t="s">
+        <v>194</v>
+      </c>
+      <c r="J102" t="s">
+        <v>194</v>
+      </c>
+      <c r="P102" t="s">
+        <v>194</v>
       </c>
       <c r="S102" t="n">
         <v>6.0</v>
@@ -3381,25 +3453,25 @@
         <v>94.0</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
+        <v>109</v>
+      </c>
+      <c r="G103" t="s">
+        <v>194</v>
+      </c>
+      <c r="H103" t="s">
+        <v>194</v>
       </c>
       <c r="I103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J103" t="s">
-        <v>192</v>
-      </c>
-      <c r="L103" t="s">
-        <v>192</v>
-      </c>
-      <c r="M103" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>194</v>
       </c>
       <c r="S103" t="n">
         <v>5.0</v>
@@ -3411,31 +3483,28 @@
         <v>95.0</v>
       </c>
       <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
         <v>109</v>
       </c>
-      <c r="C104" t="s">
-        <v>107</v>
-      </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G104" t="s">
-        <v>192</v>
-      </c>
-      <c r="H104" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I104" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L104" t="s">
-        <v>192</v>
-      </c>
-      <c r="M104" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="R104" t="s">
+        <v>194</v>
       </c>
       <c r="S104" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T104"/>
     </row>
@@ -3444,25 +3513,22 @@
         <v>96.0</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="H105" t="s">
-        <v>192</v>
+        <v>109</v>
+      </c>
+      <c r="F105" t="s">
+        <v>194</v>
+      </c>
+      <c r="G105" t="s">
+        <v>194</v>
       </c>
       <c r="I105" t="s">
-        <v>192</v>
-      </c>
-      <c r="J105" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S105" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T105"/>
     </row>
@@ -3471,31 +3537,28 @@
         <v>97.0</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
-      </c>
-      <c r="G106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I106" t="s">
-        <v>192</v>
-      </c>
-      <c r="R106" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J106" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>194</v>
       </c>
       <c r="S106" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T106"/>
     </row>
@@ -3504,28 +3567,28 @@
         <v>98.0</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
-      </c>
-      <c r="E107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
-      </c>
-      <c r="H107" t="s">
-        <v>192</v>
-      </c>
-      <c r="I107" t="s">
-        <v>192</v>
-      </c>
-      <c r="L107" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M107" t="s">
+        <v>194</v>
+      </c>
+      <c r="N107" t="s">
+        <v>194</v>
+      </c>
+      <c r="P107" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>194</v>
       </c>
       <c r="S107" t="n">
         <v>6.0</v>
@@ -3537,31 +3600,28 @@
         <v>99.0</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
-      </c>
-      <c r="G108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H108" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I108" t="s">
+        <v>194</v>
       </c>
       <c r="M108" t="s">
-        <v>192</v>
-      </c>
-      <c r="N108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S108" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T108"/>
     </row>
@@ -3570,31 +3630,28 @@
         <v>100.0</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
-      </c>
-      <c r="I109" t="s">
-        <v>192</v>
-      </c>
-      <c r="J109" t="s">
-        <v>192</v>
-      </c>
-      <c r="M109" t="s">
-        <v>192</v>
-      </c>
-      <c r="R109" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="F109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" t="s">
+        <v>194</v>
+      </c>
+      <c r="H109" t="s">
+        <v>194</v>
+      </c>
+      <c r="L109" t="s">
+        <v>194</v>
       </c>
       <c r="S109" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T109"/>
     </row>
@@ -3603,28 +3660,31 @@
         <v>101.0</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="E110" t="s">
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H110" t="s">
-        <v>192</v>
-      </c>
-      <c r="I110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J110" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L110" t="s">
+        <v>194</v>
       </c>
       <c r="S110" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T110"/>
     </row>
@@ -3633,31 +3693,25 @@
         <v>102.0</v>
       </c>
       <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
         <v>117</v>
       </c>
-      <c r="C111" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" t="s">
-        <v>192</v>
-      </c>
-      <c r="F111" t="s">
-        <v>192</v>
-      </c>
-      <c r="H111" t="s">
-        <v>192</v>
+      <c r="E111" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" t="s">
+        <v>194</v>
       </c>
       <c r="I111" t="s">
-        <v>192</v>
-      </c>
-      <c r="J111" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L111" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S111" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T111"/>
     </row>
@@ -3666,31 +3720,28 @@
         <v>103.0</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" t="s">
-        <v>192</v>
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" t="s">
+        <v>194</v>
       </c>
       <c r="H112" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I112" t="s">
-        <v>192</v>
-      </c>
-      <c r="J112" t="s">
-        <v>192</v>
-      </c>
-      <c r="P112" t="s">
-        <v>192</v>
-      </c>
-      <c r="R112" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L112" t="s">
+        <v>194</v>
       </c>
       <c r="S112" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T112"/>
     </row>
@@ -3699,28 +3750,28 @@
         <v>104.0</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F113" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G113" t="s">
+        <v>194</v>
+      </c>
+      <c r="H113" t="s">
+        <v>194</v>
       </c>
       <c r="J113" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M113" t="s">
-        <v>192</v>
-      </c>
-      <c r="P113" t="s">
-        <v>192</v>
-      </c>
-      <c r="R113" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S113" t="n">
         <v>6.0</v>
@@ -3732,31 +3783,28 @@
         <v>105.0</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
-      </c>
-      <c r="E114" t="s">
-        <v>192</v>
-      </c>
-      <c r="H114" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G114" t="s">
+        <v>194</v>
       </c>
       <c r="I114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S114" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T114"/>
     </row>
@@ -3765,31 +3813,28 @@
         <v>106.0</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" t="s">
-        <v>192</v>
-      </c>
-      <c r="F115" t="s">
-        <v>192</v>
+        <v>117</v>
+      </c>
+      <c r="G115" t="s">
+        <v>194</v>
       </c>
       <c r="H115" t="s">
-        <v>192</v>
-      </c>
-      <c r="I115" t="s">
-        <v>192</v>
-      </c>
-      <c r="J115" t="s">
-        <v>192</v>
-      </c>
-      <c r="M115" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L115" t="s">
+        <v>194</v>
+      </c>
+      <c r="P115" t="s">
+        <v>194</v>
+      </c>
+      <c r="R115" t="s">
+        <v>194</v>
       </c>
       <c r="S115" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T115"/>
     </row>
@@ -3798,28 +3843,28 @@
         <v>107.0</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="E116" t="s">
+        <v>194</v>
       </c>
       <c r="F116" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G116" t="s">
-        <v>192</v>
-      </c>
-      <c r="J116" t="s">
-        <v>192</v>
-      </c>
-      <c r="K116" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L116" t="s">
-        <v>192</v>
-      </c>
-      <c r="P116" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M116" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>194</v>
       </c>
       <c r="S116" t="n">
         <v>6.0</v>
@@ -3831,22 +3876,31 @@
         <v>108.0</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>194</v>
       </c>
       <c r="F117" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I117" t="s">
+        <v>194</v>
+      </c>
+      <c r="J117" t="s">
+        <v>194</v>
       </c>
       <c r="M117" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P117" t="s">
+        <v>194</v>
       </c>
       <c r="S117" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T117"/>
     </row>
@@ -3855,13 +3909,13 @@
         <v>109.0</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="G118" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>194</v>
       </c>
       <c r="S118" t="n">
         <v>1.0</v>
@@ -3875,13 +3929,13 @@
         <v>110.0</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="L119" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="G119" t="s">
+        <v>194</v>
       </c>
       <c r="S119" t="n">
         <v>1.0</v>
@@ -3895,13 +3949,13 @@
         <v>111.0</v>
       </c>
       <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" t="s">
         <v>128</v>
       </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>192</v>
+      <c r="F120" t="s">
+        <v>194</v>
       </c>
       <c r="S120" t="n">
         <v>1.0</v>
@@ -3915,13 +3969,13 @@
         <v>112.0</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S121" t="n">
         <v>1.0</v>
@@ -3935,25 +3989,25 @@
         <v>113.0</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="H122" t="s">
-        <v>192</v>
-      </c>
-      <c r="N122" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="D122" t="s">
+        <v>194</v>
+      </c>
+      <c r="F122" t="s">
+        <v>194</v>
+      </c>
+      <c r="L122" t="s">
+        <v>194</v>
       </c>
       <c r="S122" t="n">
         <v>3.0</v>
       </c>
       <c r="T122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -3961,25 +4015,25 @@
         <v>114.0</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="I123" t="s">
+        <v>194</v>
       </c>
       <c r="J123" t="s">
-        <v>192</v>
-      </c>
-      <c r="L123" t="s">
-        <v>192</v>
-      </c>
-      <c r="N123" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P123" t="s">
+        <v>194</v>
       </c>
       <c r="S123" t="n">
         <v>3.0</v>
       </c>
       <c r="T123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -3987,25 +4041,25 @@
         <v>115.0</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E124" t="s">
+        <v>194</v>
       </c>
       <c r="G124" t="s">
-        <v>192</v>
-      </c>
-      <c r="I124" t="s">
-        <v>192</v>
-      </c>
-      <c r="L124" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M124" t="s">
+        <v>194</v>
       </c>
       <c r="S124" t="n">
         <v>3.0</v>
       </c>
       <c r="T124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -4013,25 +4067,25 @@
         <v>116.0</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" t="s">
-        <v>192</v>
-      </c>
-      <c r="F125" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="I125" t="s">
+        <v>194</v>
+      </c>
+      <c r="J125" t="s">
+        <v>194</v>
+      </c>
+      <c r="L125" t="s">
+        <v>194</v>
       </c>
       <c r="S125" t="n">
         <v>3.0</v>
       </c>
       <c r="T125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -4039,25 +4093,25 @@
         <v>117.0</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="D126" t="s">
+        <v>194</v>
       </c>
       <c r="H126" t="s">
-        <v>192</v>
-      </c>
-      <c r="L126" t="s">
-        <v>192</v>
-      </c>
-      <c r="M126" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P126" t="s">
+        <v>194</v>
       </c>
       <c r="S126" t="n">
         <v>3.0</v>
       </c>
       <c r="T126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -4065,25 +4119,25 @@
         <v>118.0</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
-      </c>
-      <c r="M127" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J127" t="s">
+        <v>194</v>
       </c>
       <c r="R127" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S127" t="n">
         <v>3.0</v>
       </c>
       <c r="T127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
@@ -4091,25 +4145,25 @@
         <v>119.0</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
-      </c>
-      <c r="G128" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="I128" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J128" t="s">
+        <v>194</v>
+      </c>
+      <c r="M128" t="s">
+        <v>194</v>
       </c>
       <c r="S128" t="n">
         <v>3.0</v>
       </c>
       <c r="T128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
@@ -4117,25 +4171,25 @@
         <v>120.0</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
-      </c>
-      <c r="J129" t="s">
-        <v>192</v>
-      </c>
-      <c r="P129" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="F129" t="s">
+        <v>194</v>
+      </c>
+      <c r="I129" t="s">
+        <v>194</v>
+      </c>
+      <c r="R129" t="s">
+        <v>194</v>
       </c>
       <c r="S129" t="n">
         <v>3.0</v>
       </c>
       <c r="T129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -4143,22 +4197,25 @@
         <v>121.0</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="J130" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L130" t="s">
+        <v>194</v>
+      </c>
+      <c r="P130" t="s">
+        <v>194</v>
       </c>
       <c r="S130" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
@@ -4166,25 +4223,25 @@
         <v>122.0</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
-      </c>
-      <c r="E131" t="s">
-        <v>192</v>
-      </c>
-      <c r="H131" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="I131" t="s">
+        <v>194</v>
       </c>
       <c r="M131" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N131" t="s">
+        <v>194</v>
       </c>
       <c r="S131" t="n">
         <v>3.0</v>
       </c>
       <c r="T131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
@@ -4192,28 +4249,28 @@
         <v>123.0</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" t="s">
-        <v>192</v>
+        <v>143</v>
+      </c>
+      <c r="E132" t="s">
+        <v>194</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I132" t="s">
+        <v>194</v>
+      </c>
+      <c r="J132" t="s">
+        <v>194</v>
       </c>
       <c r="L132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M132" t="s">
-        <v>192</v>
-      </c>
-      <c r="P132" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S132" t="n">
         <v>6.0</v>
@@ -4225,28 +4282,28 @@
         <v>124.0</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D133" t="s">
+        <v>194</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F133" t="s">
-        <v>192</v>
-      </c>
-      <c r="G133" t="s">
-        <v>192</v>
-      </c>
-      <c r="H133" t="s">
-        <v>192</v>
-      </c>
-      <c r="I133" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J133" t="s">
+        <v>194</v>
       </c>
       <c r="M133" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P133" t="s">
+        <v>194</v>
       </c>
       <c r="S133" t="n">
         <v>6.0</v>
@@ -4258,13 +4315,13 @@
         <v>125.0</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
-      </c>
-      <c r="F134" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="D134" t="s">
+        <v>194</v>
       </c>
       <c r="S134" t="n">
         <v>1.0</v>
@@ -4278,25 +4335,25 @@
         <v>126.0</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" t="s">
-        <v>192</v>
-      </c>
-      <c r="J135" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="H135" t="s">
+        <v>194</v>
       </c>
       <c r="L135" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M135" t="s">
+        <v>194</v>
       </c>
       <c r="S135" t="n">
         <v>3.0</v>
       </c>
       <c r="T135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -4304,25 +4361,25 @@
         <v>127.0</v>
       </c>
       <c r="B136" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" t="s">
         <v>146</v>
       </c>
-      <c r="C136" t="s">
-        <v>144</v>
+      <c r="D136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F136" t="s">
+        <v>194</v>
       </c>
       <c r="G136" t="s">
-        <v>192</v>
-      </c>
-      <c r="H136" t="s">
-        <v>192</v>
-      </c>
-      <c r="L136" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S136" t="n">
         <v>3.0</v>
       </c>
       <c r="T136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -4330,25 +4387,25 @@
         <v>128.0</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" t="s">
-        <v>192</v>
-      </c>
-      <c r="G137" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="F137" t="s">
+        <v>194</v>
+      </c>
+      <c r="L137" t="s">
+        <v>194</v>
       </c>
       <c r="Q137" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S137" t="n">
         <v>3.0</v>
       </c>
       <c r="T137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
@@ -4356,25 +4413,25 @@
         <v>129.0</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C138" t="s">
-        <v>144</v>
-      </c>
-      <c r="H138" t="s">
-        <v>192</v>
+        <v>146</v>
+      </c>
+      <c r="G138" t="s">
+        <v>194</v>
       </c>
       <c r="J138" t="s">
-        <v>192</v>
-      </c>
-      <c r="M138" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N138" t="s">
+        <v>194</v>
       </c>
       <c r="S138" t="n">
         <v>3.0</v>
       </c>
       <c r="T138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -4382,28 +4439,28 @@
         <v>130.0</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
-      </c>
-      <c r="D139" t="s">
-        <v>192</v>
+        <v>143</v>
+      </c>
+      <c r="E139" t="s">
+        <v>194</v>
       </c>
       <c r="G139" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I139" t="s">
+        <v>194</v>
+      </c>
+      <c r="J139" t="s">
+        <v>194</v>
       </c>
       <c r="L139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M139" t="s">
-        <v>192</v>
-      </c>
-      <c r="P139" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S139" t="n">
         <v>6.0</v>
@@ -4415,28 +4472,28 @@
         <v>131.0</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D140" t="s">
+        <v>194</v>
       </c>
       <c r="E140" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F140" t="s">
-        <v>192</v>
-      </c>
-      <c r="G140" t="s">
-        <v>192</v>
-      </c>
-      <c r="H140" t="s">
-        <v>192</v>
-      </c>
-      <c r="I140" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J140" t="s">
+        <v>194</v>
       </c>
       <c r="M140" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P140" t="s">
+        <v>194</v>
       </c>
       <c r="S140" t="n">
         <v>6.0</v>
@@ -4448,13 +4505,13 @@
         <v>132.0</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
-      </c>
-      <c r="N141" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="J141" t="s">
+        <v>194</v>
       </c>
       <c r="S141" t="n">
         <v>1.0</v>
@@ -4468,13 +4525,13 @@
         <v>133.0</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="E142" t="s">
+        <v>194</v>
       </c>
       <c r="S142" t="n">
         <v>1.0</v>
@@ -4488,25 +4545,25 @@
         <v>134.0</v>
       </c>
       <c r="B143" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" t="s">
-        <v>192</v>
-      </c>
-      <c r="G143" t="s">
-        <v>192</v>
+      <c r="I143" t="s">
+        <v>194</v>
       </c>
       <c r="L143" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P143" t="s">
+        <v>194</v>
       </c>
       <c r="S143" t="n">
         <v>3.0</v>
       </c>
       <c r="T143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -4514,25 +4571,25 @@
         <v>135.0</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" t="s">
-        <v>192</v>
-      </c>
-      <c r="M144" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+      <c r="H144" t="s">
+        <v>194</v>
+      </c>
+      <c r="P144" t="s">
+        <v>194</v>
       </c>
       <c r="S144" t="n">
         <v>3.0</v>
       </c>
       <c r="T144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -4540,25 +4597,25 @@
         <v>136.0</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E145" t="s">
+        <v>194</v>
       </c>
       <c r="F145" t="s">
-        <v>192</v>
-      </c>
-      <c r="I145" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J145" t="s">
+        <v>194</v>
       </c>
       <c r="S145" t="n">
         <v>3.0</v>
       </c>
       <c r="T145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -4566,25 +4623,25 @@
         <v>137.0</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
-      </c>
-      <c r="K146" t="s">
-        <v>192</v>
-      </c>
-      <c r="M146" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="G146" t="s">
+        <v>194</v>
+      </c>
+      <c r="P146" t="s">
+        <v>194</v>
+      </c>
+      <c r="R146" t="s">
+        <v>194</v>
       </c>
       <c r="S146" t="n">
         <v>3.0</v>
       </c>
       <c r="T146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -4592,28 +4649,28 @@
         <v>138.0</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
-      </c>
-      <c r="E147" t="s">
-        <v>192</v>
-      </c>
-      <c r="F147" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="D147" t="s">
+        <v>194</v>
       </c>
       <c r="G147" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H147" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J147" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L147" t="s">
+        <v>194</v>
+      </c>
+      <c r="R147" t="s">
+        <v>194</v>
       </c>
       <c r="S147" t="n">
         <v>6.0</v>
@@ -4625,31 +4682,25 @@
         <v>139.0</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="F148" t="s">
+        <v>194</v>
       </c>
       <c r="H148" t="s">
-        <v>192</v>
-      </c>
-      <c r="I148" t="s">
-        <v>192</v>
-      </c>
-      <c r="N148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S148" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T148"/>
     </row>
@@ -4658,13 +4709,13 @@
         <v>140.0</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
-      </c>
-      <c r="M149" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="P149" t="s">
+        <v>194</v>
       </c>
       <c r="S149" t="n">
         <v>1.0</v>
@@ -4678,13 +4729,13 @@
         <v>141.0</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
-      </c>
-      <c r="R150" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="I150" t="s">
+        <v>194</v>
       </c>
       <c r="S150" t="n">
         <v>1.0</v>
@@ -4698,22 +4749,22 @@
         <v>142.0</v>
       </c>
       <c r="B151" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" t="s">
         <v>161</v>
       </c>
-      <c r="C151" t="s">
-        <v>159</v>
-      </c>
-      <c r="H151" t="s">
-        <v>192</v>
-      </c>
-      <c r="R151" t="s">
-        <v>192</v>
+      <c r="I151" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>194</v>
       </c>
       <c r="S151" t="n">
         <v>2.0</v>
       </c>
       <c r="T151" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
@@ -4721,25 +4772,25 @@
         <v>143.0</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s">
-        <v>192</v>
-      </c>
-      <c r="P152" t="s">
-        <v>192</v>
-      </c>
-      <c r="R152" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="H152" t="s">
+        <v>194</v>
+      </c>
+      <c r="I152" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>194</v>
       </c>
       <c r="S152" t="n">
         <v>3.0</v>
       </c>
       <c r="T152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
@@ -4747,25 +4798,25 @@
         <v>144.0</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
-      </c>
-      <c r="D153" t="s">
-        <v>192</v>
-      </c>
-      <c r="I153" t="s">
-        <v>192</v>
-      </c>
-      <c r="M153" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="F153" t="s">
+        <v>194</v>
+      </c>
+      <c r="K153" t="s">
+        <v>194</v>
+      </c>
+      <c r="L153" t="s">
+        <v>194</v>
       </c>
       <c r="S153" t="n">
         <v>3.0</v>
       </c>
       <c r="T153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -4773,28 +4824,31 @@
         <v>145.0</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
-      </c>
-      <c r="F154" t="s">
-        <v>192</v>
-      </c>
-      <c r="I154" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="E154" t="s">
+        <v>194</v>
       </c>
       <c r="J154" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M154" t="s">
+        <v>194</v>
       </c>
       <c r="N154" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P154" t="s">
+        <v>194</v>
       </c>
       <c r="Q154" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S154" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T154"/>
     </row>
@@ -4803,22 +4857,28 @@
         <v>146.0</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="G155" t="s">
+        <v>194</v>
       </c>
       <c r="H155" t="s">
-        <v>192</v>
-      </c>
-      <c r="J155" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M155" t="s">
+        <v>194</v>
+      </c>
+      <c r="P155" t="s">
+        <v>194</v>
+      </c>
+      <c r="R155" t="s">
+        <v>194</v>
       </c>
       <c r="S155" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T155"/>
     </row>
@@ -4827,28 +4887,28 @@
         <v>147.0</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
-      </c>
-      <c r="E156" t="s">
-        <v>192</v>
-      </c>
-      <c r="H156" t="s">
-        <v>192</v>
-      </c>
-      <c r="I156" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G156" t="s">
+        <v>194</v>
+      </c>
+      <c r="J156" t="s">
+        <v>194</v>
       </c>
       <c r="L156" t="s">
-        <v>192</v>
-      </c>
-      <c r="M156" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>194</v>
+      </c>
+      <c r="R156" t="s">
+        <v>194</v>
       </c>
       <c r="S156" t="n">
         <v>6.0</v>
@@ -4860,22 +4920,22 @@
         <v>148.0</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
-      </c>
-      <c r="P157" t="s">
-        <v>192</v>
-      </c>
-      <c r="R157" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>194</v>
+      </c>
+      <c r="G157" t="s">
+        <v>194</v>
       </c>
       <c r="S157" t="n">
         <v>2.0</v>
       </c>
       <c r="T157" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -4883,25 +4943,25 @@
         <v>149.0</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>168</v>
-      </c>
-      <c r="D158" t="s">
-        <v>192</v>
-      </c>
-      <c r="I158" t="s">
-        <v>192</v>
-      </c>
-      <c r="L158" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="G158" t="s">
+        <v>194</v>
+      </c>
+      <c r="J158" t="s">
+        <v>194</v>
+      </c>
+      <c r="N158" t="s">
+        <v>194</v>
       </c>
       <c r="S158" t="n">
         <v>3.0</v>
       </c>
       <c r="T158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -4909,25 +4969,25 @@
         <v>150.0</v>
       </c>
       <c r="B159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" t="s">
         <v>170</v>
       </c>
-      <c r="C159" t="s">
-        <v>168</v>
-      </c>
       <c r="F159" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J159" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S159" t="n">
         <v>3.0</v>
       </c>
       <c r="T159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -4935,28 +4995,31 @@
         <v>151.0</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E160" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G160" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H160" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="I160" t="s">
+        <v>194</v>
       </c>
       <c r="L160" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="M160" t="s">
+        <v>194</v>
       </c>
       <c r="S160" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T160"/>
     </row>
@@ -4965,28 +5028,31 @@
         <v>152.0</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>168</v>
-      </c>
-      <c r="F161" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="D161" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" t="s">
+        <v>194</v>
+      </c>
+      <c r="G161" t="s">
+        <v>194</v>
       </c>
       <c r="H161" t="s">
-        <v>192</v>
-      </c>
-      <c r="I161" t="s">
-        <v>192</v>
-      </c>
-      <c r="J161" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="L161" t="s">
+        <v>194</v>
+      </c>
+      <c r="M161" t="s">
+        <v>194</v>
       </c>
       <c r="S161" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T161"/>
     </row>
@@ -4995,28 +5061,31 @@
         <v>153.0</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="E162" t="s">
+        <v>194</v>
       </c>
       <c r="G162" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I162" t="s">
-        <v>192</v>
-      </c>
-      <c r="J162" t="s">
-        <v>192</v>
-      </c>
-      <c r="L162" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N162" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>194</v>
       </c>
       <c r="S162" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T162"/>
     </row>
@@ -5025,25 +5094,25 @@
         <v>154.0</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>168</v>
-      </c>
-      <c r="E163" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="D163" t="s">
+        <v>194</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
-      </c>
-      <c r="I163" t="s">
-        <v>192</v>
-      </c>
-      <c r="O163" t="s">
-        <v>192</v>
-      </c>
-      <c r="P163" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J163" t="s">
+        <v>194</v>
+      </c>
+      <c r="M163" t="s">
+        <v>194</v>
+      </c>
+      <c r="N163" t="s">
+        <v>194</v>
       </c>
       <c r="S163" t="n">
         <v>5.0</v>
@@ -5055,31 +5124,25 @@
         <v>155.0</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>168</v>
-      </c>
-      <c r="D164" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E164" t="s">
-        <v>192</v>
-      </c>
-      <c r="H164" t="s">
-        <v>192</v>
-      </c>
-      <c r="L164" t="s">
-        <v>192</v>
-      </c>
-      <c r="P164" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G164" t="s">
+        <v>194</v>
+      </c>
+      <c r="M164" t="s">
+        <v>194</v>
+      </c>
+      <c r="R164" t="s">
+        <v>194</v>
       </c>
       <c r="S164" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T164"/>
     </row>
@@ -5088,22 +5151,22 @@
         <v>156.0</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
-      </c>
-      <c r="G165" t="s">
-        <v>192</v>
-      </c>
-      <c r="I165" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="H165" t="s">
+        <v>194</v>
+      </c>
+      <c r="J165" t="s">
+        <v>194</v>
       </c>
       <c r="S165" t="n">
         <v>2.0</v>
       </c>
       <c r="T165" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
@@ -5111,25 +5174,25 @@
         <v>157.0</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D166" t="s">
+        <v>194</v>
       </c>
       <c r="G166" t="s">
-        <v>192</v>
-      </c>
-      <c r="L166" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M166" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S166" t="n">
         <v>3.0</v>
       </c>
       <c r="T166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -5137,28 +5200,28 @@
         <v>158.0</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
-      </c>
-      <c r="F167" t="s">
-        <v>192</v>
-      </c>
-      <c r="G167" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="J167" t="s">
+        <v>194</v>
       </c>
       <c r="M167" t="s">
-        <v>192</v>
-      </c>
-      <c r="P167" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N167" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>194</v>
       </c>
       <c r="R167" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S167" t="n">
         <v>6.0</v>
@@ -5170,28 +5233,28 @@
         <v>159.0</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
-      </c>
-      <c r="D168" t="s">
-        <v>192</v>
-      </c>
-      <c r="E168" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F168" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G168" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="H168" t="s">
+        <v>194</v>
       </c>
       <c r="J168" t="s">
-        <v>192</v>
-      </c>
-      <c r="K168" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="N168" t="s">
+        <v>194</v>
+      </c>
+      <c r="R168" t="s">
+        <v>194</v>
       </c>
       <c r="S168" t="n">
         <v>6.0</v>
@@ -5203,31 +5266,25 @@
         <v>160.0</v>
       </c>
       <c r="B169" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" t="s">
         <v>182</v>
       </c>
-      <c r="C169" t="s">
-        <v>180</v>
-      </c>
-      <c r="D169" t="s">
-        <v>192</v>
+      <c r="E169" t="s">
+        <v>194</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
-      </c>
-      <c r="I169" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="G169" t="s">
+        <v>194</v>
       </c>
       <c r="J169" t="s">
-        <v>192</v>
-      </c>
-      <c r="L169" t="s">
-        <v>192</v>
-      </c>
-      <c r="P169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S169" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T169"/>
     </row>
@@ -5236,58 +5293,55 @@
         <v>161.0</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
-      </c>
-      <c r="E170" t="s">
-        <v>192</v>
-      </c>
-      <c r="F170" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="D170" t="s">
+        <v>194</v>
+      </c>
+      <c r="G170" t="s">
+        <v>194</v>
+      </c>
+      <c r="H170" t="s">
+        <v>194</v>
       </c>
       <c r="I170" t="s">
-        <v>192</v>
-      </c>
-      <c r="J170" t="s">
-        <v>192</v>
-      </c>
-      <c r="M170" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S170" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T170"/>
     </row>
     <row r="171">
       <c r="B171" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D171" t="n" s="2">
         <v>42.0</v>
       </c>
       <c r="E171" t="n" s="2">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="F171" t="n" s="2">
         <v>53.0</v>
       </c>
       <c r="G171" t="n" s="2">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="H171" t="n" s="2">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="I171" t="n" s="2">
         <v>54.0</v>
       </c>
       <c r="J171" t="n" s="2">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="K171" t="n" s="2">
         <v>4.0</v>
@@ -5308,7 +5362,7 @@
         <v>38.0</v>
       </c>
       <c r="Q171" t="n" s="2">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="R171" t="n" s="2">
         <v>32.0</v>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="195">
   <si>
     <t xml:space="preserve">Shri G. S. Institute of Technology &amp; Science Indore -452003
 UG/PG Examination April 2022
@@ -815,16 +815,16 @@
         <v>189</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>730.0</v>
+        <v>710.0</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>846.0</v>
+        <v>826.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>920.0</v>
+        <v>910.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>1006.0</v>
+        <v>986.0</v>
       </c>
       <c r="H6" t="n" s="2">
         <v>956.0</v>
@@ -860,7 +860,7 @@
         <v>560.0</v>
       </c>
       <c r="S6" t="n" s="2">
-        <v>10145.0</v>
+        <v>10075.0</v>
       </c>
     </row>
     <row r="7">
@@ -868,16 +868,16 @@
         <v>190</v>
       </c>
       <c r="D7" t="n" s="18">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E7" t="n" s="18">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="F7" t="n" s="18">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="G7" t="n" s="18">
-        <v>57.0</v>
+        <v>55.0</v>
       </c>
       <c r="H7" t="n" s="18">
         <v>53.0</v>
@@ -913,7 +913,7 @@
         <v>32.0</v>
       </c>
       <c r="S7" t="n" s="2">
-        <v>575.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="9">
@@ -934,7 +934,7 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>194</v>
       </c>
       <c r="S10" t="n">
@@ -954,7 +954,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>194</v>
       </c>
       <c r="S11" t="n">
@@ -974,7 +974,7 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="R12" t="s">
+      <c r="N12" t="s">
         <v>194</v>
       </c>
       <c r="S12" t="n">
@@ -994,7 +994,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13" t="s">
         <v>194</v>
       </c>
       <c r="S13" t="n">
@@ -1043,7 +1043,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="R15" t="s">
+      <c r="I15" t="s">
         <v>194</v>
       </c>
       <c r="S15" t="n">
@@ -1150,7 +1150,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>194</v>
       </c>
       <c r="S19" t="n">
@@ -1170,10 +1170,10 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" t="s">
         <v>194</v>
       </c>
       <c r="S20" t="n">
@@ -1196,7 +1196,7 @@
       <c r="N21" t="s">
         <v>194</v>
       </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
         <v>194</v>
       </c>
       <c r="S21" t="n">
@@ -1216,13 +1216,13 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>194</v>
-      </c>
       <c r="H22" t="s">
         <v>194</v>
       </c>
       <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="s">
         <v>194</v>
       </c>
       <c r="S22" t="n">
@@ -1242,13 +1242,13 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s">
         <v>194</v>
       </c>
       <c r="Q23" t="s">
-        <v>194</v>
-      </c>
-      <c r="R23" t="s">
         <v>194</v>
       </c>
       <c r="S23" t="n">
@@ -1268,13 +1268,13 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>194</v>
-      </c>
       <c r="F24" t="s">
         <v>194</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q24" t="s">
         <v>194</v>
       </c>
       <c r="S24" t="n">
@@ -1294,17 +1294,11 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" t="s">
-        <v>194</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="D25" t="s">
         <v>194</v>
       </c>
       <c r="S25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T25" t="s">
         <v>19</v>
@@ -1320,20 +1314,14 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" t="s">
         <v>194</v>
       </c>
       <c r="M26" t="s">
         <v>194</v>
       </c>
-      <c r="P26" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>194</v>
-      </c>
       <c r="S26" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="T26"/>
     </row>
@@ -1350,17 +1338,20 @@
       <c r="H27" t="s">
         <v>194</v>
       </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
       <c r="J27" t="s">
         <v>194</v>
       </c>
       <c r="M27" t="s">
         <v>194</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="P27" t="s">
         <v>194</v>
       </c>
       <c r="S27" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T27"/>
     </row>
@@ -1374,7 +1365,7 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>194</v>
       </c>
       <c r="J28" t="s">
@@ -1401,23 +1392,17 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" t="s">
-        <v>194</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="H29" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" t="s">
         <v>194</v>
       </c>
       <c r="P29" t="s">
         <v>194</v>
       </c>
       <c r="S29" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T29"/>
     </row>
@@ -1431,22 +1416,22 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" t="s">
         <v>194</v>
       </c>
       <c r="H30" t="s">
         <v>194</v>
       </c>
-      <c r="I30" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" t="s">
-        <v>194</v>
-      </c>
       <c r="L30" t="s">
         <v>194</v>
       </c>
       <c r="M30" t="s">
+        <v>194</v>
+      </c>
+      <c r="N30" t="s">
         <v>194</v>
       </c>
       <c r="S30" t="n">
@@ -1464,26 +1449,23 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
       <c r="E31" t="s">
         <v>194</v>
       </c>
-      <c r="F31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" t="s">
         <v>194</v>
       </c>
       <c r="M31" t="s">
         <v>194</v>
       </c>
-      <c r="N31" t="s">
-        <v>194</v>
-      </c>
       <c r="S31" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T31"/>
     </row>
@@ -1500,14 +1482,20 @@
       <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="I32" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" t="s">
         <v>194</v>
       </c>
       <c r="S32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T32"/>
     </row>
@@ -1524,9 +1512,6 @@
       <c r="E33" t="s">
         <v>194</v>
       </c>
-      <c r="F33" t="s">
-        <v>194</v>
-      </c>
       <c r="G33" t="s">
         <v>194</v>
       </c>
@@ -1537,6 +1522,9 @@
         <v>194</v>
       </c>
       <c r="P33" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" t="s">
         <v>194</v>
       </c>
       <c r="S33" t="n">
@@ -1554,22 +1542,22 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>194</v>
       </c>
       <c r="I34" t="s">
         <v>194</v>
       </c>
-      <c r="J34" t="s">
-        <v>194</v>
-      </c>
       <c r="L34" t="s">
         <v>194</v>
       </c>
       <c r="M34" t="s">
         <v>194</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="N34" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" t="s">
         <v>194</v>
       </c>
       <c r="S34" t="n">
@@ -1587,17 +1575,20 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
         <v>194</v>
       </c>
       <c r="L35" t="s">
         <v>194</v>
       </c>
       <c r="S35" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T35"/>
     </row>
@@ -1611,22 +1602,22 @@
       <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" t="s">
-        <v>194</v>
-      </c>
       <c r="E36" t="s">
         <v>194</v>
       </c>
       <c r="F36" t="s">
         <v>194</v>
       </c>
-      <c r="H36" t="s">
-        <v>194</v>
-      </c>
-      <c r="L36" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="G36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+      <c r="P36" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q36" t="s">
         <v>194</v>
       </c>
       <c r="S36" t="n">
@@ -1644,10 +1635,10 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" t="s">
         <v>194</v>
       </c>
       <c r="H37" t="s">
@@ -1656,11 +1647,14 @@
       <c r="J37" t="s">
         <v>194</v>
       </c>
+      <c r="L37" t="s">
+        <v>194</v>
+      </c>
       <c r="Q37" t="s">
         <v>194</v>
       </c>
       <c r="S37" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T37"/>
     </row>
@@ -1674,7 +1668,7 @@
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>194</v>
       </c>
       <c r="H38" t="s">
@@ -1683,13 +1677,13 @@
       <c r="I38" t="s">
         <v>194</v>
       </c>
+      <c r="J38" t="s">
+        <v>194</v>
+      </c>
       <c r="L38" t="s">
         <v>194</v>
       </c>
-      <c r="M38" t="s">
-        <v>194</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="P38" t="s">
         <v>194</v>
       </c>
       <c r="S38" t="n">
@@ -1707,26 +1701,23 @@
       <c r="C39" t="s">
         <v>24</v>
       </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
       <c r="F39" t="s">
         <v>194</v>
       </c>
-      <c r="H39" t="s">
-        <v>194</v>
-      </c>
       <c r="I39" t="s">
         <v>194</v>
       </c>
-      <c r="J39" t="s">
-        <v>194</v>
-      </c>
-      <c r="L39" t="s">
-        <v>194</v>
-      </c>
       <c r="M39" t="s">
         <v>194</v>
       </c>
       <c r="S39" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T39"/>
     </row>
@@ -1740,7 +1731,10 @@
       <c r="C40" t="s">
         <v>24</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" t="s">
         <v>194</v>
       </c>
       <c r="H40" t="s">
@@ -1749,13 +1743,10 @@
       <c r="I40" t="s">
         <v>194</v>
       </c>
-      <c r="L40" t="s">
-        <v>194</v>
-      </c>
-      <c r="M40" t="s">
-        <v>194</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R40" t="s">
         <v>194</v>
       </c>
       <c r="S40" t="n">
@@ -1773,26 +1764,14 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" t="s">
-        <v>194</v>
-      </c>
-      <c r="L41" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41" t="s">
         <v>194</v>
       </c>
       <c r="S41" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="T41"/>
     </row>
@@ -1835,7 +1814,7 @@
       <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="J43" t="s">
+      <c r="N43" t="s">
         <v>194</v>
       </c>
       <c r="S43" t="n">
@@ -1855,10 +1834,10 @@
       <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" t="s">
-        <v>194</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" t="s">
         <v>194</v>
       </c>
       <c r="S44" t="n">
@@ -1878,10 +1857,10 @@
       <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="M45" t="s">
+        <v>194</v>
+      </c>
+      <c r="R45" t="s">
         <v>194</v>
       </c>
       <c r="S45" t="n">
@@ -1901,10 +1880,10 @@
       <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="D46" t="s">
-        <v>194</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="P46" t="s">
         <v>194</v>
       </c>
       <c r="S46" t="n">
@@ -1924,10 +1903,10 @@
       <c r="C47" t="s">
         <v>41</v>
       </c>
-      <c r="G47" t="s">
-        <v>194</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="H47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" t="s">
         <v>194</v>
       </c>
       <c r="S47" t="n">
@@ -1947,13 +1926,13 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" t="s">
-        <v>194</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="F48" t="s">
         <v>194</v>
       </c>
       <c r="P48" t="s">
+        <v>194</v>
+      </c>
+      <c r="R48" t="s">
         <v>194</v>
       </c>
       <c r="S48" t="n">
@@ -1976,10 +1955,10 @@
       <c r="G49" t="s">
         <v>194</v>
       </c>
-      <c r="J49" t="s">
-        <v>194</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="H49" t="s">
+        <v>194</v>
+      </c>
+      <c r="L49" t="s">
         <v>194</v>
       </c>
       <c r="S49" t="n">
@@ -1999,20 +1978,23 @@
       <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="D50" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" t="s">
         <v>194</v>
       </c>
       <c r="I50" t="s">
         <v>194</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
+        <v>194</v>
+      </c>
+      <c r="R50" t="s">
         <v>194</v>
       </c>
       <c r="S50" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T50"/>
     </row>
@@ -2026,20 +2008,14 @@
       <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="E51" t="s">
-        <v>194</v>
-      </c>
-      <c r="M51" t="s">
-        <v>194</v>
-      </c>
-      <c r="O51" t="s">
-        <v>194</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="J51" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" t="s">
         <v>194</v>
       </c>
       <c r="S51" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="T51"/>
     </row>
@@ -2053,19 +2029,19 @@
       <c r="C52" t="s">
         <v>51</v>
       </c>
-      <c r="E52" t="s">
-        <v>194</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="D52" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" t="s">
         <v>194</v>
       </c>
       <c r="I52" t="s">
         <v>194</v>
       </c>
-      <c r="M52" t="s">
-        <v>194</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="J52" t="s">
+        <v>194</v>
+      </c>
+      <c r="L52" t="s">
         <v>194</v>
       </c>
       <c r="R52" t="s">
@@ -2086,17 +2062,23 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>194</v>
-      </c>
       <c r="F53" t="s">
         <v>194</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" t="s">
+        <v>194</v>
+      </c>
+      <c r="M53" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q53" t="s">
         <v>194</v>
       </c>
       <c r="S53" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T53"/>
     </row>
@@ -2113,23 +2095,14 @@
       <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="I54" t="s">
-        <v>194</v>
-      </c>
       <c r="J54" t="s">
         <v>194</v>
       </c>
       <c r="M54" t="s">
         <v>194</v>
       </c>
-      <c r="Q54" t="s">
-        <v>194</v>
-      </c>
-      <c r="R54" t="s">
-        <v>194</v>
-      </c>
       <c r="S54" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T54"/>
     </row>
@@ -2143,9 +2116,6 @@
       <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
       <c r="E55" t="s">
         <v>194</v>
       </c>
@@ -2156,6 +2126,9 @@
         <v>194</v>
       </c>
       <c r="H55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" t="s">
         <v>194</v>
       </c>
       <c r="R55" t="s">
@@ -2176,22 +2149,22 @@
       <c r="C56" t="s">
         <v>51</v>
       </c>
-      <c r="D56" t="s">
-        <v>194</v>
-      </c>
       <c r="E56" t="s">
         <v>194</v>
       </c>
-      <c r="H56" t="s">
+      <c r="F56" t="s">
         <v>194</v>
       </c>
       <c r="J56" t="s">
         <v>194</v>
       </c>
+      <c r="L56" t="s">
+        <v>194</v>
+      </c>
       <c r="M56" t="s">
         <v>194</v>
       </c>
-      <c r="R56" t="s">
+      <c r="Q56" t="s">
         <v>194</v>
       </c>
       <c r="S56" t="n">
@@ -2209,23 +2182,26 @@
       <c r="C57" t="s">
         <v>51</v>
       </c>
+      <c r="F57" t="s">
+        <v>194</v>
+      </c>
       <c r="G57" t="s">
         <v>194</v>
       </c>
-      <c r="H57" t="s">
-        <v>194</v>
-      </c>
       <c r="I57" t="s">
         <v>194</v>
       </c>
-      <c r="L57" t="s">
+      <c r="K57" t="s">
         <v>194</v>
       </c>
       <c r="M57" t="s">
         <v>194</v>
       </c>
+      <c r="Q57" t="s">
+        <v>194</v>
+      </c>
       <c r="S57" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T57"/>
     </row>
@@ -2239,22 +2215,22 @@
       <c r="C58" t="s">
         <v>51</v>
       </c>
-      <c r="G58" t="s">
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H58" t="s">
         <v>194</v>
       </c>
       <c r="I58" t="s">
         <v>194</v>
       </c>
-      <c r="L58" t="s">
-        <v>194</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="M58" t="s">
         <v>194</v>
       </c>
       <c r="Q58" t="s">
-        <v>194</v>
-      </c>
-      <c r="R58" t="s">
         <v>194</v>
       </c>
       <c r="S58" t="n">
@@ -2272,26 +2248,23 @@
       <c r="C59" t="s">
         <v>51</v>
       </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
+      </c>
       <c r="H59" t="s">
         <v>194</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>194</v>
       </c>
       <c r="M59" t="s">
         <v>194</v>
       </c>
-      <c r="N59" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>194</v>
-      </c>
-      <c r="R59" t="s">
-        <v>194</v>
-      </c>
       <c r="S59" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T59"/>
     </row>
@@ -2305,26 +2278,20 @@
       <c r="C60" t="s">
         <v>51</v>
       </c>
-      <c r="D60" t="s">
-        <v>194</v>
-      </c>
       <c r="F60" t="s">
         <v>194</v>
       </c>
       <c r="G60" t="s">
         <v>194</v>
       </c>
-      <c r="H60" t="s">
-        <v>194</v>
-      </c>
       <c r="I60" t="s">
         <v>194</v>
       </c>
-      <c r="R60" t="s">
+      <c r="M60" t="s">
         <v>194</v>
       </c>
       <c r="S60" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T60"/>
     </row>
@@ -2338,19 +2305,19 @@
       <c r="C61" t="s">
         <v>51</v>
       </c>
-      <c r="D61" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" t="s">
-        <v>194</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" t="s">
         <v>194</v>
       </c>
       <c r="M61" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q61" t="s">
         <v>194</v>
       </c>
       <c r="R61" t="s">
@@ -2371,26 +2338,17 @@
       <c r="C62" t="s">
         <v>64</v>
       </c>
-      <c r="G62" t="s">
-        <v>194</v>
-      </c>
-      <c r="H62" t="s">
-        <v>194</v>
-      </c>
-      <c r="L62" t="s">
-        <v>194</v>
-      </c>
-      <c r="M62" t="s">
-        <v>194</v>
-      </c>
-      <c r="N62" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" t="s">
         <v>194</v>
       </c>
       <c r="S62" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T62"/>
     </row>
@@ -2410,11 +2368,20 @@
       <c r="F63" t="s">
         <v>194</v>
       </c>
-      <c r="J63" t="s">
+      <c r="G63" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" t="s">
+        <v>194</v>
+      </c>
+      <c r="M63" t="s">
         <v>194</v>
       </c>
       <c r="S63" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T63"/>
     </row>
@@ -2428,26 +2395,23 @@
       <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
       <c r="F64" t="s">
         <v>194</v>
       </c>
-      <c r="G64" t="s">
-        <v>194</v>
-      </c>
       <c r="I64" t="s">
         <v>194</v>
       </c>
+      <c r="J64" t="s">
+        <v>194</v>
+      </c>
+      <c r="M64" t="s">
+        <v>194</v>
+      </c>
       <c r="N64" t="s">
         <v>194</v>
       </c>
-      <c r="R64" t="s">
-        <v>194</v>
-      </c>
       <c r="S64" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T64"/>
     </row>
@@ -2464,13 +2428,13 @@
       <c r="D65" t="s">
         <v>194</v>
       </c>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
       <c r="G65" t="s">
         <v>194</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
-      </c>
-      <c r="L65" t="s">
         <v>194</v>
       </c>
       <c r="M65" t="s">
@@ -2491,22 +2455,22 @@
       <c r="C66" t="s">
         <v>64</v>
       </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
       <c r="E66" t="s">
         <v>194</v>
       </c>
-      <c r="F66" t="s">
-        <v>194</v>
-      </c>
       <c r="G66" t="s">
         <v>194</v>
       </c>
-      <c r="H66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I66" t="s">
-        <v>194</v>
-      </c>
       <c r="J66" t="s">
+        <v>194</v>
+      </c>
+      <c r="M66" t="s">
+        <v>194</v>
+      </c>
+      <c r="R66" t="s">
         <v>194</v>
       </c>
       <c r="S66" t="n">
@@ -2530,16 +2494,16 @@
       <c r="F67" t="s">
         <v>194</v>
       </c>
-      <c r="H67" t="s">
-        <v>194</v>
-      </c>
       <c r="J67" t="s">
         <v>194</v>
       </c>
-      <c r="M67" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="K67" t="s">
+        <v>194</v>
+      </c>
+      <c r="P67" t="s">
+        <v>194</v>
+      </c>
+      <c r="R67" t="s">
         <v>194</v>
       </c>
       <c r="S67" t="n">
@@ -2557,14 +2521,17 @@
       <c r="C68" t="s">
         <v>71</v>
       </c>
+      <c r="D68" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" t="s">
+        <v>194</v>
+      </c>
       <c r="M68" t="s">
         <v>194</v>
       </c>
-      <c r="P68" t="s">
-        <v>194</v>
-      </c>
       <c r="S68" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T68" t="s">
         <v>19</v>
@@ -2580,13 +2547,13 @@
       <c r="C69" t="s">
         <v>71</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>194</v>
       </c>
       <c r="I69" t="s">
         <v>194</v>
       </c>
-      <c r="P69" t="s">
+      <c r="L69" t="s">
         <v>194</v>
       </c>
       <c r="S69" t="n">
@@ -2606,7 +2573,7 @@
       <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="F70" t="s">
+      <c r="D70" t="s">
         <v>194</v>
       </c>
       <c r="G70" t="s">
@@ -2615,11 +2582,17 @@
       <c r="H70" t="s">
         <v>194</v>
       </c>
-      <c r="M70" t="s">
+      <c r="I70" t="s">
+        <v>194</v>
+      </c>
+      <c r="L70" t="s">
+        <v>194</v>
+      </c>
+      <c r="P70" t="s">
         <v>194</v>
       </c>
       <c r="S70" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T70"/>
     </row>
@@ -2633,26 +2606,20 @@
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" t="s">
-        <v>194</v>
-      </c>
       <c r="F71" t="s">
         <v>194</v>
       </c>
       <c r="H71" t="s">
         <v>194</v>
       </c>
+      <c r="I71" t="s">
+        <v>194</v>
+      </c>
       <c r="J71" t="s">
         <v>194</v>
       </c>
-      <c r="M71" t="s">
-        <v>194</v>
-      </c>
-      <c r="P71" t="s">
-        <v>194</v>
-      </c>
       <c r="S71" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T71"/>
     </row>
@@ -2669,19 +2636,19 @@
       <c r="D72" t="s">
         <v>194</v>
       </c>
+      <c r="G72" t="s">
+        <v>194</v>
+      </c>
+      <c r="H72" t="s">
+        <v>194</v>
+      </c>
       <c r="I72" t="s">
         <v>194</v>
       </c>
-      <c r="L72" t="s">
-        <v>194</v>
-      </c>
       <c r="M72" t="s">
         <v>194</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q72" t="s">
         <v>194</v>
       </c>
       <c r="S72" t="n">
@@ -2699,17 +2666,23 @@
       <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>194</v>
       </c>
       <c r="G73" t="s">
         <v>194</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
+        <v>194</v>
+      </c>
+      <c r="J73" t="s">
+        <v>194</v>
+      </c>
+      <c r="M73" t="s">
         <v>194</v>
       </c>
       <c r="S73" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T73"/>
     </row>
@@ -2723,23 +2696,26 @@
       <c r="C74" t="s">
         <v>74</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>194</v>
       </c>
       <c r="F74" t="s">
         <v>194</v>
       </c>
+      <c r="G74" t="s">
+        <v>194</v>
+      </c>
       <c r="I74" t="s">
         <v>194</v>
       </c>
+      <c r="J74" t="s">
+        <v>194</v>
+      </c>
       <c r="L74" t="s">
         <v>194</v>
       </c>
-      <c r="M74" t="s">
-        <v>194</v>
-      </c>
       <c r="S74" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T74"/>
     </row>
@@ -2753,19 +2729,19 @@
       <c r="C75" t="s">
         <v>74</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>194</v>
       </c>
       <c r="G75" t="s">
         <v>194</v>
       </c>
-      <c r="H75" t="s">
-        <v>194</v>
-      </c>
       <c r="I75" t="s">
         <v>194</v>
       </c>
-      <c r="R75" t="s">
+      <c r="L75" t="s">
+        <v>194</v>
+      </c>
+      <c r="M75" t="s">
         <v>194</v>
       </c>
       <c r="S75" t="n">
@@ -2783,23 +2759,26 @@
       <c r="C76" t="s">
         <v>74</v>
       </c>
-      <c r="G76" t="s">
+      <c r="E76" t="s">
         <v>194</v>
       </c>
       <c r="H76" t="s">
         <v>194</v>
       </c>
-      <c r="L76" t="s">
+      <c r="I76" t="s">
+        <v>194</v>
+      </c>
+      <c r="J76" t="s">
+        <v>194</v>
+      </c>
+      <c r="M76" t="s">
         <v>194</v>
       </c>
       <c r="P76" t="s">
         <v>194</v>
       </c>
-      <c r="Q76" t="s">
-        <v>194</v>
-      </c>
       <c r="S76" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T76"/>
     </row>
@@ -2813,15 +2792,6 @@
       <c r="C77" t="s">
         <v>74</v>
       </c>
-      <c r="E77" t="s">
-        <v>194</v>
-      </c>
-      <c r="G77" t="s">
-        <v>194</v>
-      </c>
-      <c r="H77" t="s">
-        <v>194</v>
-      </c>
       <c r="M77" t="s">
         <v>194</v>
       </c>
@@ -2832,7 +2802,7 @@
         <v>194</v>
       </c>
       <c r="S77" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T77"/>
     </row>
@@ -2846,20 +2816,17 @@
       <c r="C78" t="s">
         <v>74</v>
       </c>
-      <c r="F78" t="s">
-        <v>194</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="E78" t="s">
+        <v>194</v>
+      </c>
+      <c r="H78" t="s">
         <v>194</v>
       </c>
       <c r="M78" t="s">
         <v>194</v>
       </c>
-      <c r="P78" t="s">
-        <v>194</v>
-      </c>
       <c r="S78" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T78"/>
     </row>
@@ -2873,7 +2840,7 @@
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="F79" t="s">
+      <c r="Q79" t="s">
         <v>194</v>
       </c>
       <c r="S79" t="n">
@@ -2893,7 +2860,7 @@
       <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>194</v>
       </c>
       <c r="S80" t="n">
@@ -2913,7 +2880,7 @@
       <c r="C81" t="s">
         <v>84</v>
       </c>
-      <c r="J81" t="s">
+      <c r="D81" t="s">
         <v>194</v>
       </c>
       <c r="S81" t="n">
@@ -2933,7 +2900,7 @@
       <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="I82" t="s">
+      <c r="E82" t="s">
         <v>194</v>
       </c>
       <c r="S82" t="n">
@@ -2953,7 +2920,7 @@
       <c r="C83" t="s">
         <v>84</v>
       </c>
-      <c r="E83" t="s">
+      <c r="P83" t="s">
         <v>194</v>
       </c>
       <c r="S83" t="n">
@@ -2993,7 +2960,7 @@
       <c r="C85" t="s">
         <v>84</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>194</v>
       </c>
       <c r="S85" t="n">
@@ -3013,10 +2980,10 @@
       <c r="C86" t="s">
         <v>84</v>
       </c>
-      <c r="G86" t="s">
-        <v>194</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="F86" t="s">
+        <v>194</v>
+      </c>
+      <c r="R86" t="s">
         <v>194</v>
       </c>
       <c r="S86" t="n">
@@ -3036,10 +3003,10 @@
       <c r="C87" t="s">
         <v>84</v>
       </c>
-      <c r="I87" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q87" t="s">
+      <c r="H87" t="s">
+        <v>194</v>
+      </c>
+      <c r="P87" t="s">
         <v>194</v>
       </c>
       <c r="S87" t="n">
@@ -3059,10 +3026,10 @@
       <c r="C88" t="s">
         <v>84</v>
       </c>
-      <c r="F88" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="H88" t="s">
+        <v>194</v>
+      </c>
+      <c r="I88" t="s">
         <v>194</v>
       </c>
       <c r="S88" t="n">
@@ -3085,7 +3052,7 @@
       <c r="D89" t="s">
         <v>194</v>
       </c>
-      <c r="M89" t="s">
+      <c r="G89" t="s">
         <v>194</v>
       </c>
       <c r="S89" t="n">
@@ -3105,13 +3072,13 @@
       <c r="C90" t="s">
         <v>84</v>
       </c>
-      <c r="E90" t="s">
-        <v>194</v>
-      </c>
-      <c r="K90" t="s">
-        <v>194</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="J90" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>194</v>
+      </c>
+      <c r="R90" t="s">
         <v>194</v>
       </c>
       <c r="S90" t="n">
@@ -3131,10 +3098,10 @@
       <c r="C91" t="s">
         <v>84</v>
       </c>
-      <c r="K91" t="s">
-        <v>194</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="H91" t="s">
+        <v>194</v>
+      </c>
+      <c r="L91" t="s">
         <v>194</v>
       </c>
       <c r="P91" t="s">
@@ -3157,13 +3124,13 @@
       <c r="C92" t="s">
         <v>84</v>
       </c>
-      <c r="G92" t="s">
-        <v>194</v>
-      </c>
-      <c r="I92" t="s">
-        <v>194</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="D92" t="s">
+        <v>194</v>
+      </c>
+      <c r="J92" t="s">
+        <v>194</v>
+      </c>
+      <c r="P92" t="s">
         <v>194</v>
       </c>
       <c r="S92" t="n">
@@ -3183,13 +3150,13 @@
       <c r="C93" t="s">
         <v>84</v>
       </c>
-      <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="N93" t="s">
-        <v>194</v>
-      </c>
-      <c r="P93" t="s">
+      <c r="E93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" t="s">
+        <v>194</v>
+      </c>
+      <c r="J93" t="s">
         <v>194</v>
       </c>
       <c r="S93" t="n">
@@ -3209,10 +3176,10 @@
       <c r="C94" t="s">
         <v>84</v>
       </c>
-      <c r="G94" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q94" t="s">
+      <c r="D94" t="s">
+        <v>194</v>
+      </c>
+      <c r="P94" t="s">
         <v>194</v>
       </c>
       <c r="R94" t="s">
@@ -3235,13 +3202,13 @@
       <c r="C95" t="s">
         <v>84</v>
       </c>
-      <c r="G95" t="s">
+      <c r="E95" t="s">
+        <v>194</v>
+      </c>
+      <c r="I95" t="s">
         <v>194</v>
       </c>
       <c r="L95" t="s">
-        <v>194</v>
-      </c>
-      <c r="M95" t="s">
         <v>194</v>
       </c>
       <c r="S95" t="n">
@@ -3261,17 +3228,14 @@
       <c r="C96" t="s">
         <v>84</v>
       </c>
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>194</v>
       </c>
       <c r="I96" t="s">
         <v>194</v>
       </c>
       <c r="S96" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T96" t="s">
         <v>19</v>
@@ -3293,7 +3257,7 @@
       <c r="H97" t="s">
         <v>194</v>
       </c>
-      <c r="J97" t="s">
+      <c r="M97" t="s">
         <v>194</v>
       </c>
       <c r="S97" t="n">
@@ -3311,26 +3275,20 @@
       <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" t="s">
-        <v>194</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
-      </c>
-      <c r="G98" t="s">
-        <v>194</v>
-      </c>
-      <c r="I98" t="s">
-        <v>194</v>
-      </c>
-      <c r="L98" t="s">
-        <v>194</v>
-      </c>
-      <c r="R98" t="s">
+      <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="M98" t="s">
+        <v>194</v>
+      </c>
+      <c r="N98" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q98" t="s">
         <v>194</v>
       </c>
       <c r="S98" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T98"/>
     </row>
@@ -3344,14 +3302,26 @@
       <c r="C99" t="s">
         <v>103</v>
       </c>
-      <c r="G99" t="s">
-        <v>194</v>
-      </c>
       <c r="H99" t="s">
         <v>194</v>
       </c>
+      <c r="J99" t="s">
+        <v>194</v>
+      </c>
+      <c r="L99" t="s">
+        <v>194</v>
+      </c>
+      <c r="M99" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>194</v>
+      </c>
+      <c r="R99" t="s">
+        <v>194</v>
+      </c>
       <c r="S99" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T99"/>
     </row>
@@ -3365,16 +3335,16 @@
       <c r="C100" t="s">
         <v>103</v>
       </c>
-      <c r="E100" t="s">
-        <v>194</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="D100" t="s">
         <v>194</v>
       </c>
       <c r="I100" t="s">
         <v>194</v>
       </c>
-      <c r="L100" t="s">
+      <c r="J100" t="s">
+        <v>194</v>
+      </c>
+      <c r="K100" t="s">
         <v>194</v>
       </c>
       <c r="M100" t="s">
@@ -3398,13 +3368,13 @@
       <c r="C101" t="s">
         <v>103</v>
       </c>
-      <c r="E101" t="s">
-        <v>194</v>
-      </c>
-      <c r="H101" t="s">
-        <v>194</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="D101" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" t="s">
+        <v>194</v>
+      </c>
+      <c r="I101" t="s">
         <v>194</v>
       </c>
       <c r="M101" t="s">
@@ -3425,13 +3395,7 @@
       <c r="C102" t="s">
         <v>109</v>
       </c>
-      <c r="D102" t="s">
-        <v>194</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s">
         <v>194</v>
       </c>
       <c r="I102" t="s">
@@ -3440,11 +3404,14 @@
       <c r="J102" t="s">
         <v>194</v>
       </c>
+      <c r="L102" t="s">
+        <v>194</v>
+      </c>
       <c r="P102" t="s">
         <v>194</v>
       </c>
       <c r="S102" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T102"/>
     </row>
@@ -3458,10 +3425,10 @@
       <c r="C103" t="s">
         <v>109</v>
       </c>
-      <c r="G103" t="s">
-        <v>194</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>194</v>
       </c>
       <c r="I103" t="s">
@@ -3470,11 +3437,14 @@
       <c r="J103" t="s">
         <v>194</v>
       </c>
+      <c r="L103" t="s">
+        <v>194</v>
+      </c>
       <c r="Q103" t="s">
         <v>194</v>
       </c>
       <c r="S103" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T103"/>
     </row>
@@ -3488,23 +3458,20 @@
       <c r="C104" t="s">
         <v>109</v>
       </c>
-      <c r="F104" t="s">
+      <c r="D104" t="s">
+        <v>194</v>
+      </c>
+      <c r="E104" t="s">
         <v>194</v>
       </c>
       <c r="G104" t="s">
         <v>194</v>
       </c>
-      <c r="I104" t="s">
-        <v>194</v>
-      </c>
-      <c r="L104" t="s">
-        <v>194</v>
-      </c>
-      <c r="R104" t="s">
+      <c r="H104" t="s">
         <v>194</v>
       </c>
       <c r="S104" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T104"/>
     </row>
@@ -3518,17 +3485,26 @@
       <c r="C105" t="s">
         <v>109</v>
       </c>
+      <c r="D105" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" t="s">
+        <v>194</v>
+      </c>
       <c r="F105" t="s">
         <v>194</v>
       </c>
       <c r="G105" t="s">
         <v>194</v>
       </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
+        <v>194</v>
+      </c>
+      <c r="M105" t="s">
         <v>194</v>
       </c>
       <c r="S105" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="T105"/>
     </row>
@@ -3542,23 +3518,26 @@
       <c r="C106" t="s">
         <v>109</v>
       </c>
-      <c r="F106" t="s">
+      <c r="D106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" t="s">
         <v>194</v>
       </c>
       <c r="H106" t="s">
         <v>194</v>
       </c>
-      <c r="I106" t="s">
-        <v>194</v>
-      </c>
       <c r="J106" t="s">
         <v>194</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="L106" t="s">
+        <v>194</v>
+      </c>
+      <c r="M106" t="s">
         <v>194</v>
       </c>
       <c r="S106" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T106"/>
     </row>
@@ -3572,26 +3551,20 @@
       <c r="C107" t="s">
         <v>109</v>
       </c>
-      <c r="D107" t="s">
-        <v>194</v>
-      </c>
-      <c r="F107" t="s">
-        <v>194</v>
-      </c>
-      <c r="M107" t="s">
-        <v>194</v>
-      </c>
-      <c r="N107" t="s">
-        <v>194</v>
-      </c>
-      <c r="P107" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q107" t="s">
+      <c r="H107" t="s">
+        <v>194</v>
+      </c>
+      <c r="J107" t="s">
+        <v>194</v>
+      </c>
+      <c r="L107" t="s">
+        <v>194</v>
+      </c>
+      <c r="R107" t="s">
         <v>194</v>
       </c>
       <c r="S107" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T107"/>
     </row>
@@ -3605,23 +3578,26 @@
       <c r="C108" t="s">
         <v>109</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" t="s">
         <v>194</v>
       </c>
       <c r="F108" t="s">
         <v>194</v>
       </c>
-      <c r="H108" t="s">
-        <v>194</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="G108" t="s">
+        <v>194</v>
+      </c>
+      <c r="J108" t="s">
         <v>194</v>
       </c>
       <c r="M108" t="s">
         <v>194</v>
       </c>
+      <c r="Q108" t="s">
+        <v>194</v>
+      </c>
       <c r="S108" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T108"/>
     </row>
@@ -3635,23 +3611,26 @@
       <c r="C109" t="s">
         <v>117</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" t="s">
         <v>194</v>
       </c>
       <c r="F109" t="s">
         <v>194</v>
       </c>
-      <c r="G109" t="s">
-        <v>194</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
+        <v>194</v>
+      </c>
+      <c r="J109" t="s">
         <v>194</v>
       </c>
       <c r="L109" t="s">
         <v>194</v>
       </c>
+      <c r="P109" t="s">
+        <v>194</v>
+      </c>
       <c r="S109" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T109"/>
     </row>
@@ -3665,22 +3644,22 @@
       <c r="C110" t="s">
         <v>117</v>
       </c>
-      <c r="E110" t="s">
-        <v>194</v>
-      </c>
       <c r="F110" t="s">
         <v>194</v>
       </c>
       <c r="G110" t="s">
         <v>194</v>
       </c>
-      <c r="H110" t="s">
-        <v>194</v>
-      </c>
-      <c r="J110" t="s">
-        <v>194</v>
-      </c>
       <c r="L110" t="s">
+        <v>194</v>
+      </c>
+      <c r="M110" t="s">
+        <v>194</v>
+      </c>
+      <c r="P110" t="s">
+        <v>194</v>
+      </c>
+      <c r="R110" t="s">
         <v>194</v>
       </c>
       <c r="S110" t="n">
@@ -3701,17 +3680,20 @@
       <c r="E111" t="s">
         <v>194</v>
       </c>
-      <c r="G111" t="s">
-        <v>194</v>
-      </c>
-      <c r="I111" t="s">
-        <v>194</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="F111" t="s">
+        <v>194</v>
+      </c>
+      <c r="H111" t="s">
+        <v>194</v>
+      </c>
+      <c r="J111" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q111" t="s">
         <v>194</v>
       </c>
       <c r="S111" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T111"/>
     </row>
@@ -3731,17 +3713,20 @@
       <c r="G112" t="s">
         <v>194</v>
       </c>
-      <c r="H112" t="s">
-        <v>194</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>194</v>
       </c>
       <c r="L112" t="s">
         <v>194</v>
       </c>
+      <c r="Q112" t="s">
+        <v>194</v>
+      </c>
+      <c r="R112" t="s">
+        <v>194</v>
+      </c>
       <c r="S112" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T112"/>
     </row>
@@ -3767,10 +3752,10 @@
       <c r="H113" t="s">
         <v>194</v>
       </c>
-      <c r="J113" t="s">
-        <v>194</v>
-      </c>
-      <c r="M113" t="s">
+      <c r="I113" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q113" t="s">
         <v>194</v>
       </c>
       <c r="S113" t="n">
@@ -3791,20 +3776,23 @@
       <c r="D114" t="s">
         <v>194</v>
       </c>
-      <c r="G114" t="s">
-        <v>194</v>
-      </c>
       <c r="I114" t="s">
         <v>194</v>
       </c>
       <c r="J114" t="s">
         <v>194</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
+        <v>194</v>
+      </c>
+      <c r="P114" t="s">
+        <v>194</v>
+      </c>
+      <c r="R114" t="s">
         <v>194</v>
       </c>
       <c r="S114" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T114"/>
     </row>
@@ -3818,23 +3806,26 @@
       <c r="C115" t="s">
         <v>117</v>
       </c>
+      <c r="E115" t="s">
+        <v>194</v>
+      </c>
       <c r="G115" t="s">
         <v>194</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>194</v>
       </c>
       <c r="L115" t="s">
         <v>194</v>
       </c>
+      <c r="M115" t="s">
+        <v>194</v>
+      </c>
       <c r="P115" t="s">
         <v>194</v>
       </c>
-      <c r="R115" t="s">
-        <v>194</v>
-      </c>
       <c r="S115" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T115"/>
     </row>
@@ -3848,6 +3839,9 @@
       <c r="C116" t="s">
         <v>125</v>
       </c>
+      <c r="D116" t="s">
+        <v>194</v>
+      </c>
       <c r="E116" t="s">
         <v>194</v>
       </c>
@@ -3857,13 +3851,10 @@
       <c r="G116" t="s">
         <v>194</v>
       </c>
-      <c r="L116" t="s">
-        <v>194</v>
-      </c>
-      <c r="M116" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q116" t="s">
+      <c r="I116" t="s">
+        <v>194</v>
+      </c>
+      <c r="P116" t="s">
         <v>194</v>
       </c>
       <c r="S116" t="n">
@@ -3884,7 +3875,7 @@
       <c r="D117" t="s">
         <v>194</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
         <v>194</v>
       </c>
       <c r="I117" t="s">
@@ -3893,10 +3884,10 @@
       <c r="J117" t="s">
         <v>194</v>
       </c>
-      <c r="M117" t="s">
-        <v>194</v>
-      </c>
-      <c r="P117" t="s">
+      <c r="N117" t="s">
+        <v>194</v>
+      </c>
+      <c r="R117" t="s">
         <v>194</v>
       </c>
       <c r="S117" t="n">
@@ -3914,7 +3905,7 @@
       <c r="C118" t="s">
         <v>128</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="E118" t="s">
         <v>194</v>
       </c>
       <c r="S118" t="n">
@@ -3934,7 +3925,7 @@
       <c r="C119" t="s">
         <v>128</v>
       </c>
-      <c r="G119" t="s">
+      <c r="D119" t="s">
         <v>194</v>
       </c>
       <c r="S119" t="n">
@@ -3954,7 +3945,7 @@
       <c r="C120" t="s">
         <v>128</v>
       </c>
-      <c r="F120" t="s">
+      <c r="D120" t="s">
         <v>194</v>
       </c>
       <c r="S120" t="n">
@@ -3974,7 +3965,7 @@
       <c r="C121" t="s">
         <v>128</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>194</v>
       </c>
       <c r="S121" t="n">
@@ -3994,13 +3985,13 @@
       <c r="C122" t="s">
         <v>128</v>
       </c>
-      <c r="D122" t="s">
-        <v>194</v>
-      </c>
-      <c r="F122" t="s">
-        <v>194</v>
-      </c>
-      <c r="L122" t="s">
+      <c r="G122" t="s">
+        <v>194</v>
+      </c>
+      <c r="J122" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q122" t="s">
         <v>194</v>
       </c>
       <c r="S122" t="n">
@@ -4020,10 +4011,10 @@
       <c r="C123" t="s">
         <v>128</v>
       </c>
-      <c r="I123" t="s">
-        <v>194</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="G123" t="s">
+        <v>194</v>
+      </c>
+      <c r="L123" t="s">
         <v>194</v>
       </c>
       <c r="P123" t="s">
@@ -4046,13 +4037,13 @@
       <c r="C124" t="s">
         <v>128</v>
       </c>
-      <c r="E124" t="s">
-        <v>194</v>
-      </c>
-      <c r="G124" t="s">
-        <v>194</v>
-      </c>
-      <c r="M124" t="s">
+      <c r="D124" t="s">
+        <v>194</v>
+      </c>
+      <c r="F124" t="s">
+        <v>194</v>
+      </c>
+      <c r="L124" t="s">
         <v>194</v>
       </c>
       <c r="S124" t="n">
@@ -4072,13 +4063,13 @@
       <c r="C125" t="s">
         <v>128</v>
       </c>
-      <c r="I125" t="s">
-        <v>194</v>
-      </c>
-      <c r="J125" t="s">
-        <v>194</v>
-      </c>
-      <c r="L125" t="s">
+      <c r="E125" t="s">
+        <v>194</v>
+      </c>
+      <c r="G125" t="s">
+        <v>194</v>
+      </c>
+      <c r="R125" t="s">
         <v>194</v>
       </c>
       <c r="S125" t="n">
@@ -4098,10 +4089,10 @@
       <c r="C126" t="s">
         <v>128</v>
       </c>
-      <c r="D126" t="s">
-        <v>194</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="M126" t="s">
+        <v>194</v>
+      </c>
+      <c r="N126" t="s">
         <v>194</v>
       </c>
       <c r="P126" t="s">
@@ -4124,13 +4115,13 @@
       <c r="C127" t="s">
         <v>128</v>
       </c>
-      <c r="E127" t="s">
-        <v>194</v>
-      </c>
-      <c r="J127" t="s">
-        <v>194</v>
-      </c>
-      <c r="R127" t="s">
+      <c r="G127" t="s">
+        <v>194</v>
+      </c>
+      <c r="H127" t="s">
+        <v>194</v>
+      </c>
+      <c r="M127" t="s">
         <v>194</v>
       </c>
       <c r="S127" t="n">
@@ -4150,13 +4141,13 @@
       <c r="C128" t="s">
         <v>128</v>
       </c>
-      <c r="I128" t="s">
-        <v>194</v>
-      </c>
-      <c r="J128" t="s">
-        <v>194</v>
-      </c>
-      <c r="M128" t="s">
+      <c r="F128" t="s">
+        <v>194</v>
+      </c>
+      <c r="G128" t="s">
+        <v>194</v>
+      </c>
+      <c r="P128" t="s">
         <v>194</v>
       </c>
       <c r="S128" t="n">
@@ -4176,13 +4167,13 @@
       <c r="C129" t="s">
         <v>128</v>
       </c>
-      <c r="F129" t="s">
-        <v>194</v>
-      </c>
-      <c r="I129" t="s">
-        <v>194</v>
-      </c>
-      <c r="R129" t="s">
+      <c r="E129" t="s">
+        <v>194</v>
+      </c>
+      <c r="N129" t="s">
+        <v>194</v>
+      </c>
+      <c r="P129" t="s">
         <v>194</v>
       </c>
       <c r="S129" t="n">
@@ -4202,13 +4193,13 @@
       <c r="C130" t="s">
         <v>128</v>
       </c>
+      <c r="E130" t="s">
+        <v>194</v>
+      </c>
       <c r="J130" t="s">
         <v>194</v>
       </c>
-      <c r="L130" t="s">
-        <v>194</v>
-      </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
         <v>194</v>
       </c>
       <c r="S130" t="n">
@@ -4228,13 +4219,13 @@
       <c r="C131" t="s">
         <v>128</v>
       </c>
-      <c r="I131" t="s">
-        <v>194</v>
-      </c>
-      <c r="M131" t="s">
-        <v>194</v>
-      </c>
-      <c r="N131" t="s">
+      <c r="H131" t="s">
+        <v>194</v>
+      </c>
+      <c r="J131" t="s">
+        <v>194</v>
+      </c>
+      <c r="R131" t="s">
         <v>194</v>
       </c>
       <c r="S131" t="n">
@@ -4257,19 +4248,19 @@
       <c r="E132" t="s">
         <v>194</v>
       </c>
-      <c r="G132" t="s">
-        <v>194</v>
-      </c>
-      <c r="I132" t="s">
-        <v>194</v>
-      </c>
-      <c r="J132" t="s">
-        <v>194</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="F132" t="s">
+        <v>194</v>
+      </c>
+      <c r="H132" t="s">
         <v>194</v>
       </c>
       <c r="M132" t="s">
+        <v>194</v>
+      </c>
+      <c r="N132" t="s">
+        <v>194</v>
+      </c>
+      <c r="R132" t="s">
         <v>194</v>
       </c>
       <c r="S132" t="n">
@@ -4290,19 +4281,19 @@
       <c r="D133" t="s">
         <v>194</v>
       </c>
-      <c r="E133" t="s">
-        <v>194</v>
-      </c>
       <c r="F133" t="s">
         <v>194</v>
       </c>
+      <c r="H133" t="s">
+        <v>194</v>
+      </c>
       <c r="J133" t="s">
         <v>194</v>
       </c>
       <c r="M133" t="s">
         <v>194</v>
       </c>
-      <c r="P133" t="s">
+      <c r="R133" t="s">
         <v>194</v>
       </c>
       <c r="S133" t="n">
@@ -4320,7 +4311,7 @@
       <c r="C134" t="s">
         <v>146</v>
       </c>
-      <c r="D134" t="s">
+      <c r="I134" t="s">
         <v>194</v>
       </c>
       <c r="S134" t="n">
@@ -4340,17 +4331,14 @@
       <c r="C135" t="s">
         <v>146</v>
       </c>
-      <c r="H135" t="s">
-        <v>194</v>
-      </c>
       <c r="L135" t="s">
         <v>194</v>
       </c>
-      <c r="M135" t="s">
+      <c r="Q135" t="s">
         <v>194</v>
       </c>
       <c r="S135" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T135" t="s">
         <v>19</v>
@@ -4366,13 +4354,13 @@
       <c r="C136" t="s">
         <v>146</v>
       </c>
-      <c r="D136" t="s">
-        <v>194</v>
-      </c>
-      <c r="F136" t="s">
-        <v>194</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="E136" t="s">
+        <v>194</v>
+      </c>
+      <c r="I136" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q136" t="s">
         <v>194</v>
       </c>
       <c r="S136" t="n">
@@ -4392,13 +4380,13 @@
       <c r="C137" t="s">
         <v>146</v>
       </c>
+      <c r="D137" t="s">
+        <v>194</v>
+      </c>
       <c r="F137" t="s">
         <v>194</v>
       </c>
-      <c r="L137" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q137" t="s">
+      <c r="P137" t="s">
         <v>194</v>
       </c>
       <c r="S137" t="n">
@@ -4418,13 +4406,13 @@
       <c r="C138" t="s">
         <v>146</v>
       </c>
+      <c r="D138" t="s">
+        <v>194</v>
+      </c>
       <c r="G138" t="s">
         <v>194</v>
       </c>
-      <c r="J138" t="s">
-        <v>194</v>
-      </c>
-      <c r="N138" t="s">
+      <c r="R138" t="s">
         <v>194</v>
       </c>
       <c r="S138" t="n">
@@ -4447,19 +4435,19 @@
       <c r="E139" t="s">
         <v>194</v>
       </c>
-      <c r="G139" t="s">
-        <v>194</v>
-      </c>
-      <c r="I139" t="s">
-        <v>194</v>
-      </c>
-      <c r="J139" t="s">
-        <v>194</v>
-      </c>
-      <c r="L139" t="s">
+      <c r="F139" t="s">
+        <v>194</v>
+      </c>
+      <c r="H139" t="s">
         <v>194</v>
       </c>
       <c r="M139" t="s">
+        <v>194</v>
+      </c>
+      <c r="N139" t="s">
+        <v>194</v>
+      </c>
+      <c r="R139" t="s">
         <v>194</v>
       </c>
       <c r="S139" t="n">
@@ -4480,19 +4468,19 @@
       <c r="D140" t="s">
         <v>194</v>
       </c>
-      <c r="E140" t="s">
-        <v>194</v>
-      </c>
       <c r="F140" t="s">
         <v>194</v>
       </c>
+      <c r="H140" t="s">
+        <v>194</v>
+      </c>
       <c r="J140" t="s">
         <v>194</v>
       </c>
       <c r="M140" t="s">
         <v>194</v>
       </c>
-      <c r="P140" t="s">
+      <c r="R140" t="s">
         <v>194</v>
       </c>
       <c r="S140" t="n">
@@ -4510,7 +4498,7 @@
       <c r="C141" t="s">
         <v>152</v>
       </c>
-      <c r="J141" t="s">
+      <c r="H141" t="s">
         <v>194</v>
       </c>
       <c r="S141" t="n">
@@ -4530,7 +4518,7 @@
       <c r="C142" t="s">
         <v>152</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>194</v>
       </c>
       <c r="S142" t="n">
@@ -4550,10 +4538,10 @@
       <c r="C143" t="s">
         <v>152</v>
       </c>
+      <c r="E143" t="s">
+        <v>194</v>
+      </c>
       <c r="I143" t="s">
-        <v>194</v>
-      </c>
-      <c r="L143" t="s">
         <v>194</v>
       </c>
       <c r="P143" t="s">
@@ -4576,10 +4564,10 @@
       <c r="C144" t="s">
         <v>152</v>
       </c>
-      <c r="E144" t="s">
-        <v>194</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="D144" t="s">
+        <v>194</v>
+      </c>
+      <c r="N144" t="s">
         <v>194</v>
       </c>
       <c r="P144" t="s">
@@ -4602,13 +4590,13 @@
       <c r="C145" t="s">
         <v>152</v>
       </c>
-      <c r="E145" t="s">
-        <v>194</v>
-      </c>
-      <c r="F145" t="s">
-        <v>194</v>
-      </c>
       <c r="J145" t="s">
+        <v>194</v>
+      </c>
+      <c r="L145" t="s">
+        <v>194</v>
+      </c>
+      <c r="M145" t="s">
         <v>194</v>
       </c>
       <c r="S145" t="n">
@@ -4628,13 +4616,13 @@
       <c r="C146" t="s">
         <v>152</v>
       </c>
+      <c r="E146" t="s">
+        <v>194</v>
+      </c>
       <c r="G146" t="s">
         <v>194</v>
       </c>
-      <c r="P146" t="s">
-        <v>194</v>
-      </c>
-      <c r="R146" t="s">
+      <c r="I146" t="s">
         <v>194</v>
       </c>
       <c r="S146" t="n">
@@ -4657,19 +4645,19 @@
       <c r="D147" t="s">
         <v>194</v>
       </c>
-      <c r="G147" t="s">
-        <v>194</v>
-      </c>
       <c r="H147" t="s">
         <v>194</v>
       </c>
+      <c r="I147" t="s">
+        <v>194</v>
+      </c>
       <c r="J147" t="s">
         <v>194</v>
       </c>
       <c r="L147" t="s">
         <v>194</v>
       </c>
-      <c r="R147" t="s">
+      <c r="Q147" t="s">
         <v>194</v>
       </c>
       <c r="S147" t="n">
@@ -4687,20 +4675,26 @@
       <c r="C148" t="s">
         <v>152</v>
       </c>
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
       <c r="F148" t="s">
         <v>194</v>
       </c>
-      <c r="H148" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>194</v>
-      </c>
-      <c r="R148" t="s">
+      <c r="G148" t="s">
+        <v>194</v>
+      </c>
+      <c r="I148" t="s">
+        <v>194</v>
+      </c>
+      <c r="J148" t="s">
+        <v>194</v>
+      </c>
+      <c r="P148" t="s">
         <v>194</v>
       </c>
       <c r="S148" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T148"/>
     </row>
@@ -4714,7 +4708,7 @@
       <c r="C149" t="s">
         <v>161</v>
       </c>
-      <c r="P149" t="s">
+      <c r="O149" t="s">
         <v>194</v>
       </c>
       <c r="S149" t="n">
@@ -4734,7 +4728,7 @@
       <c r="C150" t="s">
         <v>161</v>
       </c>
-      <c r="I150" t="s">
+      <c r="D150" t="s">
         <v>194</v>
       </c>
       <c r="S150" t="n">
@@ -4754,10 +4748,10 @@
       <c r="C151" t="s">
         <v>161</v>
       </c>
-      <c r="I151" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q151" t="s">
+      <c r="E151" t="s">
+        <v>194</v>
+      </c>
+      <c r="H151" t="s">
         <v>194</v>
       </c>
       <c r="S151" t="n">
@@ -4777,13 +4771,13 @@
       <c r="C152" t="s">
         <v>161</v>
       </c>
-      <c r="H152" t="s">
-        <v>194</v>
-      </c>
       <c r="I152" t="s">
         <v>194</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="J152" t="s">
+        <v>194</v>
+      </c>
+      <c r="L152" t="s">
         <v>194</v>
       </c>
       <c r="S152" t="n">
@@ -4803,13 +4797,13 @@
       <c r="C153" t="s">
         <v>161</v>
       </c>
+      <c r="D153" t="s">
+        <v>194</v>
+      </c>
       <c r="F153" t="s">
         <v>194</v>
       </c>
-      <c r="K153" t="s">
-        <v>194</v>
-      </c>
-      <c r="L153" t="s">
+      <c r="H153" t="s">
         <v>194</v>
       </c>
       <c r="S153" t="n">
@@ -4832,19 +4826,19 @@
       <c r="E154" t="s">
         <v>194</v>
       </c>
-      <c r="J154" t="s">
+      <c r="G154" t="s">
+        <v>194</v>
+      </c>
+      <c r="I154" t="s">
         <v>194</v>
       </c>
       <c r="M154" t="s">
         <v>194</v>
       </c>
-      <c r="N154" t="s">
-        <v>194</v>
-      </c>
-      <c r="P154" t="s">
-        <v>194</v>
-      </c>
       <c r="Q154" t="s">
+        <v>194</v>
+      </c>
+      <c r="R154" t="s">
         <v>194</v>
       </c>
       <c r="S154" t="n">
@@ -4862,23 +4856,26 @@
       <c r="C155" t="s">
         <v>161</v>
       </c>
-      <c r="G155" t="s">
-        <v>194</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="F155" t="s">
+        <v>194</v>
+      </c>
+      <c r="I155" t="s">
+        <v>194</v>
+      </c>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+      <c r="L155" t="s">
         <v>194</v>
       </c>
       <c r="M155" t="s">
         <v>194</v>
       </c>
-      <c r="P155" t="s">
-        <v>194</v>
-      </c>
-      <c r="R155" t="s">
+      <c r="O155" t="s">
         <v>194</v>
       </c>
       <c r="S155" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T155"/>
     </row>
@@ -4892,19 +4889,19 @@
       <c r="C156" t="s">
         <v>161</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
+        <v>194</v>
+      </c>
+      <c r="F156" t="s">
         <v>194</v>
       </c>
       <c r="G156" t="s">
         <v>194</v>
       </c>
-      <c r="J156" t="s">
-        <v>194</v>
-      </c>
-      <c r="L156" t="s">
-        <v>194</v>
-      </c>
-      <c r="P156" t="s">
+      <c r="N156" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q156" t="s">
         <v>194</v>
       </c>
       <c r="R156" t="s">
@@ -4925,10 +4922,10 @@
       <c r="C157" t="s">
         <v>170</v>
       </c>
-      <c r="D157" t="s">
-        <v>194</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="F157" t="s">
+        <v>194</v>
+      </c>
+      <c r="L157" t="s">
         <v>194</v>
       </c>
       <c r="S157" t="n">
@@ -4948,13 +4945,13 @@
       <c r="C158" t="s">
         <v>170</v>
       </c>
-      <c r="G158" t="s">
-        <v>194</v>
-      </c>
-      <c r="J158" t="s">
-        <v>194</v>
-      </c>
-      <c r="N158" t="s">
+      <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="H158" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q158" t="s">
         <v>194</v>
       </c>
       <c r="S158" t="n">
@@ -4974,13 +4971,13 @@
       <c r="C159" t="s">
         <v>170</v>
       </c>
-      <c r="F159" t="s">
-        <v>194</v>
-      </c>
-      <c r="J159" t="s">
-        <v>194</v>
-      </c>
-      <c r="P159" t="s">
+      <c r="E159" t="s">
+        <v>194</v>
+      </c>
+      <c r="G159" t="s">
+        <v>194</v>
+      </c>
+      <c r="R159" t="s">
         <v>194</v>
       </c>
       <c r="S159" t="n">
@@ -5000,26 +4997,23 @@
       <c r="C160" t="s">
         <v>170</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>194</v>
       </c>
       <c r="G160" t="s">
         <v>194</v>
       </c>
-      <c r="H160" t="s">
-        <v>194</v>
-      </c>
-      <c r="I160" t="s">
-        <v>194</v>
-      </c>
-      <c r="L160" t="s">
+      <c r="J160" t="s">
         <v>194</v>
       </c>
       <c r="M160" t="s">
         <v>194</v>
       </c>
+      <c r="R160" t="s">
+        <v>194</v>
+      </c>
       <c r="S160" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T160"/>
     </row>
@@ -5036,19 +5030,19 @@
       <c r="D161" t="s">
         <v>194</v>
       </c>
-      <c r="E161" t="s">
-        <v>194</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F161" t="s">
         <v>194</v>
       </c>
       <c r="H161" t="s">
         <v>194</v>
       </c>
-      <c r="L161" t="s">
+      <c r="J161" t="s">
         <v>194</v>
       </c>
       <c r="M161" t="s">
+        <v>194</v>
+      </c>
+      <c r="R161" t="s">
         <v>194</v>
       </c>
       <c r="S161" t="n">
@@ -5066,26 +5060,20 @@
       <c r="C162" t="s">
         <v>170</v>
       </c>
-      <c r="E162" t="s">
-        <v>194</v>
-      </c>
       <c r="G162" t="s">
         <v>194</v>
       </c>
-      <c r="H162" t="s">
-        <v>194</v>
-      </c>
-      <c r="I162" t="s">
-        <v>194</v>
-      </c>
-      <c r="N162" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q162" t="s">
+      <c r="J162" t="s">
+        <v>194</v>
+      </c>
+      <c r="P162" t="s">
+        <v>194</v>
+      </c>
+      <c r="R162" t="s">
         <v>194</v>
       </c>
       <c r="S162" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T162"/>
     </row>
@@ -5099,19 +5087,19 @@
       <c r="C163" t="s">
         <v>170</v>
       </c>
-      <c r="D163" t="s">
-        <v>194</v>
-      </c>
-      <c r="F163" t="s">
-        <v>194</v>
-      </c>
-      <c r="J163" t="s">
+      <c r="E163" t="s">
+        <v>194</v>
+      </c>
+      <c r="G163" t="s">
+        <v>194</v>
+      </c>
+      <c r="H163" t="s">
+        <v>194</v>
+      </c>
+      <c r="L163" t="s">
         <v>194</v>
       </c>
       <c r="M163" t="s">
-        <v>194</v>
-      </c>
-      <c r="N163" t="s">
         <v>194</v>
       </c>
       <c r="S163" t="n">
@@ -5129,20 +5117,17 @@
       <c r="C164" t="s">
         <v>170</v>
       </c>
-      <c r="E164" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" t="s">
-        <v>194</v>
-      </c>
-      <c r="M164" t="s">
-        <v>194</v>
-      </c>
-      <c r="R164" t="s">
+      <c r="F164" t="s">
+        <v>194</v>
+      </c>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+      <c r="L164" t="s">
         <v>194</v>
       </c>
       <c r="S164" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T164"/>
     </row>
@@ -5156,10 +5141,10 @@
       <c r="C165" t="s">
         <v>179</v>
       </c>
-      <c r="H165" t="s">
-        <v>194</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="G165" t="s">
+        <v>194</v>
+      </c>
+      <c r="I165" t="s">
         <v>194</v>
       </c>
       <c r="S165" t="n">
@@ -5179,13 +5164,13 @@
       <c r="C166" t="s">
         <v>179</v>
       </c>
-      <c r="D166" t="s">
-        <v>194</v>
-      </c>
-      <c r="G166" t="s">
-        <v>194</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="H166" t="s">
+        <v>194</v>
+      </c>
+      <c r="L166" t="s">
+        <v>194</v>
+      </c>
+      <c r="R166" t="s">
         <v>194</v>
       </c>
       <c r="S166" t="n">
@@ -5205,7 +5190,10 @@
       <c r="C167" t="s">
         <v>182</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H167" t="s">
         <v>194</v>
       </c>
       <c r="J167" t="s">
@@ -5214,17 +5202,11 @@
       <c r="M167" t="s">
         <v>194</v>
       </c>
-      <c r="N167" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>194</v>
-      </c>
-      <c r="R167" t="s">
+      <c r="P167" t="s">
         <v>194</v>
       </c>
       <c r="S167" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T167"/>
     </row>
@@ -5238,26 +5220,20 @@
       <c r="C168" t="s">
         <v>182</v>
       </c>
+      <c r="E168" t="s">
+        <v>194</v>
+      </c>
       <c r="F168" t="s">
         <v>194</v>
       </c>
-      <c r="G168" t="s">
-        <v>194</v>
-      </c>
-      <c r="H168" t="s">
-        <v>194</v>
-      </c>
-      <c r="J168" t="s">
-        <v>194</v>
-      </c>
-      <c r="N168" t="s">
-        <v>194</v>
-      </c>
-      <c r="R168" t="s">
+      <c r="L168" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q168" t="s">
         <v>194</v>
       </c>
       <c r="S168" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T168"/>
     </row>
@@ -5271,7 +5247,7 @@
       <c r="C169" t="s">
         <v>182</v>
       </c>
-      <c r="E169" t="s">
+      <c r="D169" t="s">
         <v>194</v>
       </c>
       <c r="F169" t="s">
@@ -5280,11 +5256,17 @@
       <c r="G169" t="s">
         <v>194</v>
       </c>
+      <c r="I169" t="s">
+        <v>194</v>
+      </c>
       <c r="J169" t="s">
         <v>194</v>
       </c>
+      <c r="Q169" t="s">
+        <v>194</v>
+      </c>
       <c r="S169" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T169"/>
     </row>
@@ -5298,7 +5280,7 @@
       <c r="C170" t="s">
         <v>182</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>194</v>
       </c>
       <c r="G170" t="s">
@@ -5310,11 +5292,14 @@
       <c r="I170" t="s">
         <v>194</v>
       </c>
-      <c r="P170" t="s">
+      <c r="J170" t="s">
+        <v>194</v>
+      </c>
+      <c r="L170" t="s">
         <v>194</v>
       </c>
       <c r="S170" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T170"/>
     </row>
@@ -5323,52 +5308,52 @@
         <v>193</v>
       </c>
       <c r="D171" t="n" s="2">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E171" t="n" s="2">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="F171" t="n" s="2">
         <v>53.0</v>
       </c>
       <c r="G171" t="n" s="2">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
       <c r="H171" t="n" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="I171" t="n" s="2">
         <v>53.0</v>
       </c>
-      <c r="I171" t="n" s="2">
-        <v>54.0</v>
-      </c>
       <c r="J171" t="n" s="2">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="K171" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="L171" t="n" s="2">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="M171" t="n" s="2">
         <v>55.0</v>
       </c>
       <c r="N171" t="n" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O171" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="P171" t="n" s="2">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q171" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="R171" t="n" s="2">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="S171" t="n" s="2">
-        <v>587.0</v>
+        <v>582.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -744,8 +744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="29.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="41.65234375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="10.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -934,7 +934,7 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
         <v>194</v>
       </c>
       <c r="S10" t="n">
@@ -954,7 +954,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
         <v>194</v>
       </c>
       <c r="S11" t="n">
@@ -974,7 +974,7 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="H12" t="s">
         <v>194</v>
       </c>
       <c r="S12" t="n">
@@ -994,7 +994,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
         <v>194</v>
       </c>
       <c r="S13" t="n">
@@ -1150,7 +1150,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="P19" t="s">
+      <c r="F19" t="s">
         <v>194</v>
       </c>
       <c r="S19" t="n">
@@ -1170,10 +1170,10 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="K20" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" t="s">
         <v>194</v>
       </c>
       <c r="S20" t="n">
@@ -1193,10 +1193,10 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
         <v>194</v>
       </c>
       <c r="S21" t="n">
@@ -1219,10 +1219,10 @@
       <c r="H22" t="s">
         <v>194</v>
       </c>
-      <c r="I22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q22" t="s">
         <v>194</v>
       </c>
       <c r="S22" t="n">
@@ -1245,10 +1245,10 @@
       <c r="E23" t="s">
         <v>194</v>
       </c>
+      <c r="H23" t="s">
+        <v>194</v>
+      </c>
       <c r="M23" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q23" t="s">
         <v>194</v>
       </c>
       <c r="S23" t="n">
@@ -1268,13 +1268,13 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="N24" t="s">
         <v>194</v>
       </c>
       <c r="S24" t="n">
@@ -1294,11 +1294,17 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>194</v>
+      </c>
+      <c r="R25" t="s">
         <v>194</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T25" t="s">
         <v>19</v>
@@ -1314,14 +1320,20 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
+      <c r="H26" t="s">
+        <v>194</v>
+      </c>
       <c r="I26" t="s">
         <v>194</v>
       </c>
-      <c r="M26" t="s">
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
         <v>194</v>
       </c>
       <c r="S26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T26"/>
     </row>
@@ -1335,23 +1347,20 @@
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="H27" t="s">
-        <v>194</v>
-      </c>
       <c r="I27" t="s">
         <v>194</v>
       </c>
       <c r="J27" t="s">
         <v>194</v>
       </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
       <c r="M27" t="s">
         <v>194</v>
       </c>
-      <c r="P27" t="s">
-        <v>194</v>
-      </c>
       <c r="S27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T27"/>
     </row>
@@ -1365,20 +1374,17 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" t="s">
-        <v>194</v>
-      </c>
-      <c r="J28" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
         <v>194</v>
       </c>
       <c r="S28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T28"/>
     </row>
@@ -1392,17 +1398,23 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="H29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" t="s">
         <v>194</v>
       </c>
       <c r="P29" t="s">
         <v>194</v>
       </c>
       <c r="S29" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T29"/>
     </row>
@@ -1416,26 +1428,20 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
-        <v>194</v>
-      </c>
       <c r="F30" t="s">
         <v>194</v>
       </c>
-      <c r="H30" t="s">
-        <v>194</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="I30" t="s">
         <v>194</v>
       </c>
       <c r="M30" t="s">
         <v>194</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>194</v>
       </c>
       <c r="S30" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T30"/>
     </row>
@@ -1452,20 +1458,23 @@
       <c r="D31" t="s">
         <v>194</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s">
         <v>194</v>
       </c>
       <c r="H31" t="s">
         <v>194</v>
       </c>
-      <c r="L31" t="s">
-        <v>194</v>
-      </c>
       <c r="M31" t="s">
         <v>194</v>
       </c>
+      <c r="P31" t="s">
+        <v>194</v>
+      </c>
       <c r="S31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T31"/>
     </row>
@@ -1479,23 +1488,17 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>194</v>
       </c>
       <c r="L32" t="s">
         <v>194</v>
       </c>
-      <c r="M32" t="s">
+      <c r="R32" t="s">
         <v>194</v>
       </c>
       <c r="S32" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T32"/>
     </row>
@@ -1512,13 +1515,13 @@
       <c r="E33" t="s">
         <v>194</v>
       </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" t="s">
         <v>194</v>
       </c>
-      <c r="I33" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>194</v>
       </c>
       <c r="P33" t="s">
@@ -1542,26 +1545,23 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s">
         <v>194</v>
       </c>
       <c r="I34" t="s">
         <v>194</v>
       </c>
-      <c r="L34" t="s">
-        <v>194</v>
-      </c>
-      <c r="M34" t="s">
-        <v>194</v>
-      </c>
-      <c r="N34" t="s">
-        <v>194</v>
-      </c>
       <c r="P34" t="s">
         <v>194</v>
       </c>
       <c r="S34" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T34"/>
     </row>
@@ -1575,20 +1575,26 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="F35" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" t="s">
         <v>194</v>
       </c>
       <c r="L35" t="s">
         <v>194</v>
       </c>
+      <c r="Q35" t="s">
+        <v>194</v>
+      </c>
+      <c r="R35" t="s">
+        <v>194</v>
+      </c>
       <c r="S35" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T35"/>
     </row>
@@ -1602,26 +1608,20 @@
       <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="E36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="D36" t="s">
         <v>194</v>
       </c>
       <c r="J36" t="s">
         <v>194</v>
       </c>
+      <c r="L36" t="s">
+        <v>194</v>
+      </c>
       <c r="P36" t="s">
         <v>194</v>
       </c>
-      <c r="Q36" t="s">
-        <v>194</v>
-      </c>
       <c r="S36" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T36"/>
     </row>
@@ -1635,10 +1635,10 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
         <v>194</v>
       </c>
       <c r="H37" t="s">
@@ -1647,7 +1647,7 @@
       <c r="J37" t="s">
         <v>194</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>194</v>
       </c>
       <c r="Q37" t="s">
@@ -1668,19 +1668,19 @@
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" t="s">
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
         <v>194</v>
       </c>
       <c r="H38" t="s">
         <v>194</v>
       </c>
-      <c r="I38" t="s">
-        <v>194</v>
-      </c>
       <c r="J38" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" t="s">
         <v>194</v>
       </c>
       <c r="P38" t="s">
@@ -1710,14 +1710,17 @@
       <c r="F39" t="s">
         <v>194</v>
       </c>
-      <c r="I39" t="s">
-        <v>194</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" t="s">
         <v>194</v>
       </c>
       <c r="S39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T39"/>
     </row>
@@ -1731,22 +1734,22 @@
       <c r="C40" t="s">
         <v>24</v>
       </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
       <c r="F40" t="s">
         <v>194</v>
       </c>
-      <c r="G40" t="s">
-        <v>194</v>
-      </c>
       <c r="H40" t="s">
         <v>194</v>
       </c>
-      <c r="I40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>194</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="J40" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" t="s">
+        <v>194</v>
+      </c>
+      <c r="P40" t="s">
         <v>194</v>
       </c>
       <c r="S40" t="n">
@@ -1764,14 +1767,26 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
       <c r="G41" t="s">
         <v>194</v>
       </c>
-      <c r="J41" t="s">
+      <c r="I41" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="P41" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q41" t="s">
         <v>194</v>
       </c>
       <c r="S41" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T41"/>
     </row>
@@ -1814,7 +1829,7 @@
       <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="N43" t="s">
+      <c r="G43" t="s">
         <v>194</v>
       </c>
       <c r="S43" t="n">
@@ -1834,10 +1849,10 @@
       <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="J44" t="s">
-        <v>194</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="N44" t="s">
         <v>194</v>
       </c>
       <c r="S44" t="n">
@@ -1857,10 +1872,10 @@
       <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="M45" t="s">
-        <v>194</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" t="s">
         <v>194</v>
       </c>
       <c r="S45" t="n">
@@ -1880,10 +1895,10 @@
       <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="H46" t="s">
-        <v>194</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
         <v>194</v>
       </c>
       <c r="S46" t="n">
@@ -1903,10 +1918,10 @@
       <c r="C47" t="s">
         <v>41</v>
       </c>
-      <c r="H47" t="s">
-        <v>194</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
+        <v>194</v>
+      </c>
+      <c r="P47" t="s">
         <v>194</v>
       </c>
       <c r="S47" t="n">
@@ -1926,10 +1941,10 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="F48" t="s">
-        <v>194</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="J48" t="s">
+        <v>194</v>
+      </c>
+      <c r="L48" t="s">
         <v>194</v>
       </c>
       <c r="R48" t="s">
@@ -1952,13 +1967,13 @@
       <c r="C49" t="s">
         <v>41</v>
       </c>
-      <c r="G49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H49" t="s">
-        <v>194</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
+      <c r="M49" t="s">
+        <v>194</v>
+      </c>
+      <c r="P49" t="s">
         <v>194</v>
       </c>
       <c r="S49" t="n">
@@ -1978,19 +1993,19 @@
       <c r="C50" t="s">
         <v>51</v>
       </c>
+      <c r="D50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>194</v>
+      </c>
       <c r="G50" t="s">
         <v>194</v>
       </c>
       <c r="H50" t="s">
         <v>194</v>
       </c>
-      <c r="I50" t="s">
-        <v>194</v>
-      </c>
-      <c r="M50" t="s">
-        <v>194</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="L50" t="s">
         <v>194</v>
       </c>
       <c r="S50" t="n">
@@ -2008,14 +2023,20 @@
       <c r="C51" t="s">
         <v>51</v>
       </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" t="s">
+        <v>194</v>
+      </c>
       <c r="J51" t="s">
         <v>194</v>
       </c>
-      <c r="L51" t="s">
-        <v>194</v>
-      </c>
       <c r="S51" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T51"/>
     </row>
@@ -2035,13 +2056,13 @@
       <c r="F52" t="s">
         <v>194</v>
       </c>
+      <c r="G52" t="s">
+        <v>194</v>
+      </c>
       <c r="I52" t="s">
         <v>194</v>
       </c>
       <c r="J52" t="s">
-        <v>194</v>
-      </c>
-      <c r="L52" t="s">
         <v>194</v>
       </c>
       <c r="R52" t="s">
@@ -2062,19 +2083,19 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
-      <c r="F53" t="s">
-        <v>194</v>
-      </c>
       <c r="G53" t="s">
         <v>194</v>
       </c>
-      <c r="L53" t="s">
-        <v>194</v>
-      </c>
-      <c r="M53" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="H53" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" t="s">
+        <v>194</v>
+      </c>
+      <c r="P53" t="s">
         <v>194</v>
       </c>
       <c r="S53" t="n">
@@ -2092,9 +2113,6 @@
       <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="F54" t="s">
-        <v>194</v>
-      </c>
       <c r="J54" t="s">
         <v>194</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>194</v>
       </c>
       <c r="S54" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T54"/>
     </row>
@@ -2116,22 +2134,22 @@
       <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>194</v>
       </c>
       <c r="F55" t="s">
         <v>194</v>
       </c>
-      <c r="G55" t="s">
-        <v>194</v>
-      </c>
-      <c r="H55" t="s">
-        <v>194</v>
-      </c>
       <c r="I55" t="s">
         <v>194</v>
       </c>
-      <c r="R55" t="s">
+      <c r="L55" t="s">
+        <v>194</v>
+      </c>
+      <c r="P55" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q55" t="s">
         <v>194</v>
       </c>
       <c r="S55" t="n">
@@ -2149,22 +2167,22 @@
       <c r="C56" t="s">
         <v>51</v>
       </c>
-      <c r="E56" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" t="s">
         <v>194</v>
       </c>
       <c r="J56" t="s">
         <v>194</v>
       </c>
-      <c r="L56" t="s">
-        <v>194</v>
-      </c>
-      <c r="M56" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="P56" t="s">
+        <v>194</v>
+      </c>
+      <c r="R56" t="s">
         <v>194</v>
       </c>
       <c r="S56" t="n">
@@ -2182,26 +2200,23 @@
       <c r="C57" t="s">
         <v>51</v>
       </c>
-      <c r="F57" t="s">
+      <c r="D57" t="s">
         <v>194</v>
       </c>
       <c r="G57" t="s">
         <v>194</v>
       </c>
-      <c r="I57" t="s">
-        <v>194</v>
-      </c>
-      <c r="K57" t="s">
-        <v>194</v>
-      </c>
-      <c r="M57" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="H57" t="s">
+        <v>194</v>
+      </c>
+      <c r="L57" t="s">
+        <v>194</v>
+      </c>
+      <c r="R57" t="s">
         <v>194</v>
       </c>
       <c r="S57" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T57"/>
     </row>
@@ -2215,13 +2230,7 @@
       <c r="C58" t="s">
         <v>51</v>
       </c>
-      <c r="E58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" t="s">
-        <v>194</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>194</v>
       </c>
       <c r="I58" t="s">
@@ -2234,7 +2243,7 @@
         <v>194</v>
       </c>
       <c r="S58" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T58"/>
     </row>
@@ -2248,23 +2257,26 @@
       <c r="C59" t="s">
         <v>51</v>
       </c>
-      <c r="E59" t="s">
-        <v>194</v>
-      </c>
       <c r="F59" t="s">
         <v>194</v>
       </c>
+      <c r="G59" t="s">
+        <v>194</v>
+      </c>
       <c r="H59" t="s">
         <v>194</v>
       </c>
       <c r="J59" t="s">
         <v>194</v>
       </c>
+      <c r="L59" t="s">
+        <v>194</v>
+      </c>
       <c r="M59" t="s">
         <v>194</v>
       </c>
       <c r="S59" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T59"/>
     </row>
@@ -2284,7 +2296,7 @@
       <c r="G60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>194</v>
       </c>
       <c r="M60" t="s">
@@ -2305,22 +2317,22 @@
       <c r="C61" t="s">
         <v>51</v>
       </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
       <c r="G61" t="s">
         <v>194</v>
       </c>
       <c r="H61" t="s">
         <v>194</v>
       </c>
-      <c r="I61" t="s">
-        <v>194</v>
-      </c>
-      <c r="L61" t="s">
-        <v>194</v>
-      </c>
-      <c r="M61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="J61" t="s">
+        <v>194</v>
+      </c>
+      <c r="N61" t="s">
         <v>194</v>
       </c>
       <c r="S61" t="n">
@@ -2338,17 +2350,20 @@
       <c r="C62" t="s">
         <v>64</v>
       </c>
-      <c r="D62" t="s">
+      <c r="H62" t="s">
         <v>194</v>
       </c>
       <c r="I62" t="s">
         <v>194</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
+        <v>194</v>
+      </c>
+      <c r="P62" t="s">
         <v>194</v>
       </c>
       <c r="S62" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T62"/>
     </row>
@@ -2362,26 +2377,23 @@
       <c r="C63" t="s">
         <v>64</v>
       </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
       <c r="E63" t="s">
         <v>194</v>
       </c>
-      <c r="F63" t="s">
-        <v>194</v>
-      </c>
-      <c r="G63" t="s">
-        <v>194</v>
-      </c>
       <c r="H63" t="s">
         <v>194</v>
       </c>
-      <c r="L63" t="s">
+      <c r="J63" t="s">
         <v>194</v>
       </c>
       <c r="M63" t="s">
         <v>194</v>
       </c>
       <c r="S63" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T63"/>
     </row>
@@ -2398,20 +2410,23 @@
       <c r="F64" t="s">
         <v>194</v>
       </c>
-      <c r="I64" t="s">
-        <v>194</v>
-      </c>
       <c r="J64" t="s">
         <v>194</v>
       </c>
+      <c r="K64" t="s">
+        <v>194</v>
+      </c>
       <c r="M64" t="s">
         <v>194</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
+        <v>194</v>
+      </c>
+      <c r="R64" t="s">
         <v>194</v>
       </c>
       <c r="S64" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T64"/>
     </row>
@@ -2428,20 +2443,17 @@
       <c r="D65" t="s">
         <v>194</v>
       </c>
-      <c r="E65" t="s">
-        <v>194</v>
-      </c>
-      <c r="G65" t="s">
-        <v>194</v>
-      </c>
       <c r="H65" t="s">
         <v>194</v>
       </c>
-      <c r="M65" t="s">
+      <c r="I65" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" t="s">
         <v>194</v>
       </c>
       <c r="S65" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T65"/>
     </row>
@@ -2455,16 +2467,16 @@
       <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" t="s">
-        <v>194</v>
-      </c>
       <c r="G66" t="s">
         <v>194</v>
       </c>
-      <c r="J66" t="s">
+      <c r="H66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66" t="s">
         <v>194</v>
       </c>
       <c r="M66" t="s">
@@ -2488,26 +2500,20 @@
       <c r="C67" t="s">
         <v>64</v>
       </c>
-      <c r="E67" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" t="s">
-        <v>194</v>
-      </c>
-      <c r="J67" t="s">
-        <v>194</v>
-      </c>
-      <c r="K67" t="s">
-        <v>194</v>
-      </c>
-      <c r="P67" t="s">
-        <v>194</v>
-      </c>
-      <c r="R67" t="s">
+      <c r="G67" t="s">
+        <v>194</v>
+      </c>
+      <c r="H67" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" t="s">
+        <v>194</v>
+      </c>
+      <c r="M67" t="s">
         <v>194</v>
       </c>
       <c r="S67" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T67"/>
     </row>
@@ -2521,13 +2527,13 @@
       <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" t="s">
-        <v>194</v>
-      </c>
       <c r="G68" t="s">
         <v>194</v>
       </c>
-      <c r="M68" t="s">
+      <c r="L68" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q68" t="s">
         <v>194</v>
       </c>
       <c r="S68" t="n">
@@ -2547,13 +2553,13 @@
       <c r="C69" t="s">
         <v>71</v>
       </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
       <c r="G69" t="s">
         <v>194</v>
       </c>
       <c r="I69" t="s">
-        <v>194</v>
-      </c>
-      <c r="L69" t="s">
         <v>194</v>
       </c>
       <c r="S69" t="n">
@@ -2573,26 +2579,23 @@
       <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" t="s">
-        <v>194</v>
-      </c>
       <c r="G70" t="s">
         <v>194</v>
       </c>
-      <c r="H70" t="s">
-        <v>194</v>
-      </c>
-      <c r="I70" t="s">
-        <v>194</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="J70" t="s">
+        <v>194</v>
+      </c>
+      <c r="M70" t="s">
         <v>194</v>
       </c>
       <c r="P70" t="s">
         <v>194</v>
       </c>
+      <c r="Q70" t="s">
+        <v>194</v>
+      </c>
       <c r="S70" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T70"/>
     </row>
@@ -2606,10 +2609,7 @@
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="F71" t="s">
-        <v>194</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="E71" t="s">
         <v>194</v>
       </c>
       <c r="I71" t="s">
@@ -2618,8 +2618,14 @@
       <c r="J71" t="s">
         <v>194</v>
       </c>
+      <c r="M71" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>194</v>
+      </c>
       <c r="S71" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T71"/>
     </row>
@@ -2633,26 +2639,11 @@
       <c r="C72" t="s">
         <v>74</v>
       </c>
-      <c r="D72" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" t="s">
-        <v>194</v>
-      </c>
-      <c r="H72" t="s">
-        <v>194</v>
-      </c>
-      <c r="I72" t="s">
-        <v>194</v>
-      </c>
-      <c r="M72" t="s">
-        <v>194</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="J72" t="s">
         <v>194</v>
       </c>
       <c r="S72" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="T72"/>
     </row>
@@ -2666,23 +2657,26 @@
       <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="F73" t="s">
-        <v>194</v>
-      </c>
       <c r="G73" t="s">
         <v>194</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>194</v>
       </c>
       <c r="J73" t="s">
         <v>194</v>
       </c>
+      <c r="L73" t="s">
+        <v>194</v>
+      </c>
       <c r="M73" t="s">
         <v>194</v>
       </c>
+      <c r="P73" t="s">
+        <v>194</v>
+      </c>
       <c r="S73" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T73"/>
     </row>
@@ -2696,22 +2690,22 @@
       <c r="C74" t="s">
         <v>74</v>
       </c>
-      <c r="E74" t="s">
-        <v>194</v>
-      </c>
       <c r="F74" t="s">
         <v>194</v>
       </c>
       <c r="G74" t="s">
         <v>194</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s">
         <v>194</v>
       </c>
       <c r="J74" t="s">
         <v>194</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q74" t="s">
         <v>194</v>
       </c>
       <c r="S74" t="n">
@@ -2729,6 +2723,9 @@
       <c r="C75" t="s">
         <v>74</v>
       </c>
+      <c r="E75" t="s">
+        <v>194</v>
+      </c>
       <c r="F75" t="s">
         <v>194</v>
       </c>
@@ -2745,7 +2742,7 @@
         <v>194</v>
       </c>
       <c r="S75" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T75"/>
     </row>
@@ -2762,16 +2759,16 @@
       <c r="E76" t="s">
         <v>194</v>
       </c>
+      <c r="F76" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" t="s">
+        <v>194</v>
+      </c>
       <c r="H76" t="s">
         <v>194</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
-      </c>
-      <c r="J76" t="s">
-        <v>194</v>
-      </c>
-      <c r="M76" t="s">
         <v>194</v>
       </c>
       <c r="P76" t="s">
@@ -2792,17 +2789,23 @@
       <c r="C77" t="s">
         <v>74</v>
       </c>
+      <c r="E77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" t="s">
+        <v>194</v>
+      </c>
+      <c r="J77" t="s">
+        <v>194</v>
+      </c>
       <c r="M77" t="s">
         <v>194</v>
       </c>
-      <c r="P77" t="s">
-        <v>194</v>
-      </c>
-      <c r="R77" t="s">
-        <v>194</v>
-      </c>
       <c r="S77" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T77"/>
     </row>
@@ -2816,17 +2819,20 @@
       <c r="C78" t="s">
         <v>74</v>
       </c>
-      <c r="E78" t="s">
-        <v>194</v>
-      </c>
-      <c r="H78" t="s">
-        <v>194</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78" t="s">
+        <v>194</v>
+      </c>
+      <c r="L78" t="s">
         <v>194</v>
       </c>
       <c r="S78" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T78"/>
     </row>
@@ -2840,7 +2846,7 @@
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="H79" t="s">
         <v>194</v>
       </c>
       <c r="S79" t="n">
@@ -2860,7 +2866,7 @@
       <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>194</v>
       </c>
       <c r="S80" t="n">
@@ -2880,7 +2886,7 @@
       <c r="C81" t="s">
         <v>84</v>
       </c>
-      <c r="D81" t="s">
+      <c r="Q81" t="s">
         <v>194</v>
       </c>
       <c r="S81" t="n">
@@ -2900,7 +2906,7 @@
       <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="E82" t="s">
+      <c r="R82" t="s">
         <v>194</v>
       </c>
       <c r="S82" t="n">
@@ -2920,7 +2926,7 @@
       <c r="C83" t="s">
         <v>84</v>
       </c>
-      <c r="P83" t="s">
+      <c r="I83" t="s">
         <v>194</v>
       </c>
       <c r="S83" t="n">
@@ -2940,7 +2946,7 @@
       <c r="C84" t="s">
         <v>84</v>
       </c>
-      <c r="O84" t="s">
+      <c r="E84" t="s">
         <v>194</v>
       </c>
       <c r="S84" t="n">
@@ -2960,7 +2966,7 @@
       <c r="C85" t="s">
         <v>84</v>
       </c>
-      <c r="I85" t="s">
+      <c r="R85" t="s">
         <v>194</v>
       </c>
       <c r="S85" t="n">
@@ -2983,7 +2989,7 @@
       <c r="F86" t="s">
         <v>194</v>
       </c>
-      <c r="R86" t="s">
+      <c r="H86" t="s">
         <v>194</v>
       </c>
       <c r="S86" t="n">
@@ -3003,10 +3009,10 @@
       <c r="C87" t="s">
         <v>84</v>
       </c>
-      <c r="H87" t="s">
-        <v>194</v>
-      </c>
       <c r="P87" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q87" t="s">
         <v>194</v>
       </c>
       <c r="S87" t="n">
@@ -3026,10 +3032,10 @@
       <c r="C88" t="s">
         <v>84</v>
       </c>
-      <c r="H88" t="s">
-        <v>194</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="D88" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" t="s">
         <v>194</v>
       </c>
       <c r="S88" t="n">
@@ -3049,10 +3055,10 @@
       <c r="C89" t="s">
         <v>84</v>
       </c>
-      <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="O89" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q89" t="s">
         <v>194</v>
       </c>
       <c r="S89" t="n">
@@ -3072,13 +3078,13 @@
       <c r="C90" t="s">
         <v>84</v>
       </c>
-      <c r="J90" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>194</v>
-      </c>
-      <c r="R90" t="s">
+      <c r="E90" t="s">
+        <v>194</v>
+      </c>
+      <c r="H90" t="s">
+        <v>194</v>
+      </c>
+      <c r="M90" t="s">
         <v>194</v>
       </c>
       <c r="S90" t="n">
@@ -3098,13 +3104,13 @@
       <c r="C91" t="s">
         <v>84</v>
       </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
       <c r="H91" t="s">
         <v>194</v>
       </c>
-      <c r="L91" t="s">
-        <v>194</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>194</v>
       </c>
       <c r="S91" t="n">
@@ -3124,13 +3130,13 @@
       <c r="C92" t="s">
         <v>84</v>
       </c>
-      <c r="D92" t="s">
-        <v>194</v>
-      </c>
-      <c r="J92" t="s">
-        <v>194</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="F92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" t="s">
+        <v>194</v>
+      </c>
+      <c r="R92" t="s">
         <v>194</v>
       </c>
       <c r="S92" t="n">
@@ -3150,13 +3156,13 @@
       <c r="C93" t="s">
         <v>84</v>
       </c>
-      <c r="E93" t="s">
-        <v>194</v>
-      </c>
-      <c r="G93" t="s">
-        <v>194</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="F93" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" t="s">
+        <v>194</v>
+      </c>
+      <c r="P93" t="s">
         <v>194</v>
       </c>
       <c r="S93" t="n">
@@ -3179,7 +3185,7 @@
       <c r="D94" t="s">
         <v>194</v>
       </c>
-      <c r="P94" t="s">
+      <c r="H94" t="s">
         <v>194</v>
       </c>
       <c r="R94" t="s">
@@ -3202,13 +3208,13 @@
       <c r="C95" t="s">
         <v>84</v>
       </c>
-      <c r="E95" t="s">
-        <v>194</v>
-      </c>
-      <c r="I95" t="s">
-        <v>194</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="G95" t="s">
+        <v>194</v>
+      </c>
+      <c r="K95" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q95" t="s">
         <v>194</v>
       </c>
       <c r="S95" t="n">
@@ -3228,14 +3234,17 @@
       <c r="C96" t="s">
         <v>84</v>
       </c>
-      <c r="G96" t="s">
-        <v>194</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
+        <v>194</v>
+      </c>
+      <c r="L96" t="s">
+        <v>194</v>
+      </c>
+      <c r="P96" t="s">
         <v>194</v>
       </c>
       <c r="S96" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T96" t="s">
         <v>19</v>
@@ -3254,14 +3263,20 @@
       <c r="E97" t="s">
         <v>194</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>194</v>
       </c>
       <c r="M97" t="s">
         <v>194</v>
       </c>
+      <c r="Q97" t="s">
+        <v>194</v>
+      </c>
+      <c r="R97" t="s">
+        <v>194</v>
+      </c>
       <c r="S97" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T97"/>
     </row>
@@ -3278,17 +3293,23 @@
       <c r="E98" t="s">
         <v>194</v>
       </c>
+      <c r="F98" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" t="s">
+        <v>194</v>
+      </c>
+      <c r="J98" t="s">
+        <v>194</v>
+      </c>
       <c r="M98" t="s">
         <v>194</v>
       </c>
-      <c r="N98" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>194</v>
       </c>
       <c r="S98" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T98"/>
     </row>
@@ -3302,22 +3323,22 @@
       <c r="C99" t="s">
         <v>103</v>
       </c>
+      <c r="G99" t="s">
+        <v>194</v>
+      </c>
       <c r="H99" t="s">
         <v>194</v>
       </c>
       <c r="J99" t="s">
         <v>194</v>
       </c>
-      <c r="L99" t="s">
-        <v>194</v>
-      </c>
       <c r="M99" t="s">
         <v>194</v>
       </c>
+      <c r="N99" t="s">
+        <v>194</v>
+      </c>
       <c r="Q99" t="s">
-        <v>194</v>
-      </c>
-      <c r="R99" t="s">
         <v>194</v>
       </c>
       <c r="S99" t="n">
@@ -3338,23 +3359,20 @@
       <c r="D100" t="s">
         <v>194</v>
       </c>
+      <c r="G100" t="s">
+        <v>194</v>
+      </c>
+      <c r="H100" t="s">
+        <v>194</v>
+      </c>
       <c r="I100" t="s">
         <v>194</v>
       </c>
       <c r="J100" t="s">
         <v>194</v>
       </c>
-      <c r="K100" t="s">
-        <v>194</v>
-      </c>
-      <c r="M100" t="s">
-        <v>194</v>
-      </c>
-      <c r="P100" t="s">
-        <v>194</v>
-      </c>
       <c r="S100" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T100"/>
     </row>
@@ -3368,20 +3386,17 @@
       <c r="C101" t="s">
         <v>103</v>
       </c>
-      <c r="D101" t="s">
-        <v>194</v>
-      </c>
-      <c r="G101" t="s">
-        <v>194</v>
-      </c>
       <c r="I101" t="s">
         <v>194</v>
       </c>
-      <c r="M101" t="s">
+      <c r="J101" t="s">
+        <v>194</v>
+      </c>
+      <c r="L101" t="s">
         <v>194</v>
       </c>
       <c r="S101" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T101"/>
     </row>
@@ -3395,23 +3410,26 @@
       <c r="C102" t="s">
         <v>109</v>
       </c>
+      <c r="D102" t="s">
+        <v>194</v>
+      </c>
+      <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
+        <v>194</v>
+      </c>
       <c r="G102" t="s">
         <v>194</v>
       </c>
-      <c r="I102" t="s">
-        <v>194</v>
-      </c>
       <c r="J102" t="s">
         <v>194</v>
       </c>
       <c r="L102" t="s">
         <v>194</v>
       </c>
-      <c r="P102" t="s">
-        <v>194</v>
-      </c>
       <c r="S102" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T102"/>
     </row>
@@ -3434,10 +3452,10 @@
       <c r="I103" t="s">
         <v>194</v>
       </c>
-      <c r="J103" t="s">
-        <v>194</v>
-      </c>
       <c r="L103" t="s">
+        <v>194</v>
+      </c>
+      <c r="M103" t="s">
         <v>194</v>
       </c>
       <c r="Q103" t="s">
@@ -3458,20 +3476,26 @@
       <c r="C104" t="s">
         <v>109</v>
       </c>
-      <c r="D104" t="s">
-        <v>194</v>
-      </c>
-      <c r="E104" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" t="s">
         <v>194</v>
       </c>
       <c r="H104" t="s">
         <v>194</v>
       </c>
+      <c r="I104" t="s">
+        <v>194</v>
+      </c>
+      <c r="J104" t="s">
+        <v>194</v>
+      </c>
+      <c r="L104" t="s">
+        <v>194</v>
+      </c>
+      <c r="N104" t="s">
+        <v>194</v>
+      </c>
       <c r="S104" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T104"/>
     </row>
@@ -3485,22 +3509,22 @@
       <c r="C105" t="s">
         <v>109</v>
       </c>
-      <c r="D105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E105" t="s">
-        <v>194</v>
-      </c>
       <c r="F105" t="s">
         <v>194</v>
       </c>
-      <c r="G105" t="s">
-        <v>194</v>
-      </c>
-      <c r="H105" t="s">
-        <v>194</v>
-      </c>
-      <c r="M105" t="s">
+      <c r="I105" t="s">
+        <v>194</v>
+      </c>
+      <c r="J105" t="s">
+        <v>194</v>
+      </c>
+      <c r="L105" t="s">
+        <v>194</v>
+      </c>
+      <c r="P105" t="s">
+        <v>194</v>
+      </c>
+      <c r="R105" t="s">
         <v>194</v>
       </c>
       <c r="S105" t="n">
@@ -3518,7 +3542,7 @@
       <c r="C106" t="s">
         <v>109</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>194</v>
       </c>
       <c r="G106" t="s">
@@ -3527,10 +3551,10 @@
       <c r="H106" t="s">
         <v>194</v>
       </c>
+      <c r="I106" t="s">
+        <v>194</v>
+      </c>
       <c r="J106" t="s">
-        <v>194</v>
-      </c>
-      <c r="L106" t="s">
         <v>194</v>
       </c>
       <c r="M106" t="s">
@@ -3551,20 +3575,17 @@
       <c r="C107" t="s">
         <v>109</v>
       </c>
-      <c r="H107" t="s">
-        <v>194</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="E107" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" t="s">
         <v>194</v>
       </c>
       <c r="L107" t="s">
         <v>194</v>
       </c>
-      <c r="R107" t="s">
-        <v>194</v>
-      </c>
       <c r="S107" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T107"/>
     </row>
@@ -3584,16 +3605,16 @@
       <c r="F108" t="s">
         <v>194</v>
       </c>
-      <c r="G108" t="s">
-        <v>194</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="I108" t="s">
+        <v>194</v>
+      </c>
+      <c r="L108" t="s">
         <v>194</v>
       </c>
       <c r="M108" t="s">
         <v>194</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>194</v>
       </c>
       <c r="S108" t="n">
@@ -3614,19 +3635,19 @@
       <c r="D109" t="s">
         <v>194</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
         <v>194</v>
       </c>
       <c r="I109" t="s">
         <v>194</v>
       </c>
-      <c r="J109" t="s">
-        <v>194</v>
-      </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>194</v>
       </c>
       <c r="P109" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q109" t="s">
         <v>194</v>
       </c>
       <c r="S109" t="n">
@@ -3644,19 +3665,19 @@
       <c r="C110" t="s">
         <v>117</v>
       </c>
+      <c r="D110" t="s">
+        <v>194</v>
+      </c>
       <c r="F110" t="s">
         <v>194</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>194</v>
+      </c>
+      <c r="J110" t="s">
         <v>194</v>
       </c>
       <c r="L110" t="s">
-        <v>194</v>
-      </c>
-      <c r="M110" t="s">
-        <v>194</v>
-      </c>
-      <c r="P110" t="s">
         <v>194</v>
       </c>
       <c r="R110" t="s">
@@ -3677,23 +3698,26 @@
       <c r="C111" t="s">
         <v>117</v>
       </c>
+      <c r="D111" t="s">
+        <v>194</v>
+      </c>
       <c r="E111" t="s">
         <v>194</v>
       </c>
-      <c r="F111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H111" t="s">
-        <v>194</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="G111" t="s">
+        <v>194</v>
+      </c>
+      <c r="I111" t="s">
+        <v>194</v>
+      </c>
+      <c r="L111" t="s">
         <v>194</v>
       </c>
       <c r="Q111" t="s">
         <v>194</v>
       </c>
       <c r="S111" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T111"/>
     </row>
@@ -3707,7 +3731,10 @@
       <c r="C112" t="s">
         <v>117</v>
       </c>
-      <c r="F112" t="s">
+      <c r="D112" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" t="s">
         <v>194</v>
       </c>
       <c r="G112" t="s">
@@ -3716,17 +3743,11 @@
       <c r="J112" t="s">
         <v>194</v>
       </c>
-      <c r="L112" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>194</v>
-      </c>
       <c r="R112" t="s">
         <v>194</v>
       </c>
       <c r="S112" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T112"/>
     </row>
@@ -3740,22 +3761,22 @@
       <c r="C113" t="s">
         <v>117</v>
       </c>
-      <c r="E113" t="s">
-        <v>194</v>
-      </c>
       <c r="F113" t="s">
         <v>194</v>
       </c>
-      <c r="G113" t="s">
-        <v>194</v>
-      </c>
-      <c r="H113" t="s">
-        <v>194</v>
-      </c>
       <c r="I113" t="s">
         <v>194</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="L113" t="s">
+        <v>194</v>
+      </c>
+      <c r="M113" t="s">
+        <v>194</v>
+      </c>
+      <c r="P113" t="s">
+        <v>194</v>
+      </c>
+      <c r="R113" t="s">
         <v>194</v>
       </c>
       <c r="S113" t="n">
@@ -3773,26 +3794,20 @@
       <c r="C114" t="s">
         <v>117</v>
       </c>
-      <c r="D114" t="s">
-        <v>194</v>
-      </c>
-      <c r="I114" t="s">
-        <v>194</v>
-      </c>
       <c r="J114" t="s">
         <v>194</v>
       </c>
+      <c r="L114" t="s">
+        <v>194</v>
+      </c>
       <c r="M114" t="s">
         <v>194</v>
       </c>
-      <c r="P114" t="s">
-        <v>194</v>
-      </c>
       <c r="R114" t="s">
         <v>194</v>
       </c>
       <c r="S114" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T114"/>
     </row>
@@ -3806,26 +3821,20 @@
       <c r="C115" t="s">
         <v>117</v>
       </c>
-      <c r="E115" t="s">
-        <v>194</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F115" t="s">
+        <v>194</v>
+      </c>
+      <c r="H115" t="s">
         <v>194</v>
       </c>
       <c r="I115" t="s">
         <v>194</v>
       </c>
-      <c r="L115" t="s">
-        <v>194</v>
-      </c>
-      <c r="M115" t="s">
-        <v>194</v>
-      </c>
-      <c r="P115" t="s">
+      <c r="J115" t="s">
         <v>194</v>
       </c>
       <c r="S115" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T115"/>
     </row>
@@ -3839,26 +3848,23 @@
       <c r="C116" t="s">
         <v>125</v>
       </c>
-      <c r="D116" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116" t="s">
-        <v>194</v>
-      </c>
-      <c r="F116" t="s">
-        <v>194</v>
-      </c>
       <c r="G116" t="s">
         <v>194</v>
       </c>
+      <c r="H116" t="s">
+        <v>194</v>
+      </c>
       <c r="I116" t="s">
         <v>194</v>
       </c>
+      <c r="M116" t="s">
+        <v>194</v>
+      </c>
       <c r="P116" t="s">
         <v>194</v>
       </c>
       <c r="S116" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T116"/>
     </row>
@@ -3872,26 +3878,17 @@
       <c r="C117" t="s">
         <v>125</v>
       </c>
-      <c r="D117" t="s">
-        <v>194</v>
-      </c>
-      <c r="H117" t="s">
-        <v>194</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="G117" t="s">
         <v>194</v>
       </c>
       <c r="J117" t="s">
         <v>194</v>
       </c>
-      <c r="N117" t="s">
-        <v>194</v>
-      </c>
-      <c r="R117" t="s">
+      <c r="M117" t="s">
         <v>194</v>
       </c>
       <c r="S117" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T117"/>
     </row>
@@ -3925,7 +3922,7 @@
       <c r="C119" t="s">
         <v>128</v>
       </c>
-      <c r="D119" t="s">
+      <c r="N119" t="s">
         <v>194</v>
       </c>
       <c r="S119" t="n">
@@ -3945,7 +3942,7 @@
       <c r="C120" t="s">
         <v>128</v>
       </c>
-      <c r="D120" t="s">
+      <c r="L120" t="s">
         <v>194</v>
       </c>
       <c r="S120" t="n">
@@ -3965,7 +3962,7 @@
       <c r="C121" t="s">
         <v>128</v>
       </c>
-      <c r="H121" t="s">
+      <c r="N121" t="s">
         <v>194</v>
       </c>
       <c r="S121" t="n">
@@ -3985,13 +3982,13 @@
       <c r="C122" t="s">
         <v>128</v>
       </c>
-      <c r="G122" t="s">
-        <v>194</v>
-      </c>
-      <c r="J122" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q122" t="s">
+      <c r="D122" t="s">
+        <v>194</v>
+      </c>
+      <c r="H122" t="s">
+        <v>194</v>
+      </c>
+      <c r="R122" t="s">
         <v>194</v>
       </c>
       <c r="S122" t="n">
@@ -4011,13 +4008,13 @@
       <c r="C123" t="s">
         <v>128</v>
       </c>
-      <c r="G123" t="s">
-        <v>194</v>
-      </c>
-      <c r="L123" t="s">
-        <v>194</v>
-      </c>
-      <c r="P123" t="s">
+      <c r="D123" t="s">
+        <v>194</v>
+      </c>
+      <c r="M123" t="s">
+        <v>194</v>
+      </c>
+      <c r="N123" t="s">
         <v>194</v>
       </c>
       <c r="S123" t="n">
@@ -4037,13 +4034,13 @@
       <c r="C124" t="s">
         <v>128</v>
       </c>
-      <c r="D124" t="s">
-        <v>194</v>
-      </c>
-      <c r="F124" t="s">
-        <v>194</v>
-      </c>
-      <c r="L124" t="s">
+      <c r="E124" t="s">
+        <v>194</v>
+      </c>
+      <c r="I124" t="s">
+        <v>194</v>
+      </c>
+      <c r="J124" t="s">
         <v>194</v>
       </c>
       <c r="S124" t="n">
@@ -4066,10 +4063,10 @@
       <c r="E125" t="s">
         <v>194</v>
       </c>
-      <c r="G125" t="s">
-        <v>194</v>
-      </c>
-      <c r="R125" t="s">
+      <c r="I125" t="s">
+        <v>194</v>
+      </c>
+      <c r="N125" t="s">
         <v>194</v>
       </c>
       <c r="S125" t="n">
@@ -4089,13 +4086,13 @@
       <c r="C126" t="s">
         <v>128</v>
       </c>
-      <c r="M126" t="s">
-        <v>194</v>
-      </c>
-      <c r="N126" t="s">
-        <v>194</v>
-      </c>
-      <c r="P126" t="s">
+      <c r="F126" t="s">
+        <v>194</v>
+      </c>
+      <c r="J126" t="s">
+        <v>194</v>
+      </c>
+      <c r="L126" t="s">
         <v>194</v>
       </c>
       <c r="S126" t="n">
@@ -4115,13 +4112,13 @@
       <c r="C127" t="s">
         <v>128</v>
       </c>
-      <c r="G127" t="s">
+      <c r="E127" t="s">
         <v>194</v>
       </c>
       <c r="H127" t="s">
         <v>194</v>
       </c>
-      <c r="M127" t="s">
+      <c r="L127" t="s">
         <v>194</v>
       </c>
       <c r="S127" t="n">
@@ -4141,13 +4138,13 @@
       <c r="C128" t="s">
         <v>128</v>
       </c>
-      <c r="F128" t="s">
-        <v>194</v>
-      </c>
-      <c r="G128" t="s">
-        <v>194</v>
-      </c>
-      <c r="P128" t="s">
+      <c r="E128" t="s">
+        <v>194</v>
+      </c>
+      <c r="I128" t="s">
+        <v>194</v>
+      </c>
+      <c r="N128" t="s">
         <v>194</v>
       </c>
       <c r="S128" t="n">
@@ -4167,10 +4164,10 @@
       <c r="C129" t="s">
         <v>128</v>
       </c>
-      <c r="E129" t="s">
-        <v>194</v>
-      </c>
-      <c r="N129" t="s">
+      <c r="L129" t="s">
+        <v>194</v>
+      </c>
+      <c r="M129" t="s">
         <v>194</v>
       </c>
       <c r="P129" t="s">
@@ -4219,13 +4216,13 @@
       <c r="C131" t="s">
         <v>128</v>
       </c>
+      <c r="F131" t="s">
+        <v>194</v>
+      </c>
       <c r="H131" t="s">
         <v>194</v>
       </c>
-      <c r="J131" t="s">
-        <v>194</v>
-      </c>
-      <c r="R131" t="s">
+      <c r="I131" t="s">
         <v>194</v>
       </c>
       <c r="S131" t="n">
@@ -4245,13 +4242,13 @@
       <c r="C132" t="s">
         <v>143</v>
       </c>
+      <c r="D132" t="s">
+        <v>194</v>
+      </c>
       <c r="E132" t="s">
         <v>194</v>
       </c>
-      <c r="F132" t="s">
-        <v>194</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="K132" t="s">
         <v>194</v>
       </c>
       <c r="M132" t="s">
@@ -4278,22 +4275,22 @@
       <c r="C133" t="s">
         <v>143</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>194</v>
       </c>
       <c r="F133" t="s">
         <v>194</v>
       </c>
+      <c r="G133" t="s">
+        <v>194</v>
+      </c>
       <c r="H133" t="s">
         <v>194</v>
       </c>
-      <c r="J133" t="s">
-        <v>194</v>
-      </c>
-      <c r="M133" t="s">
-        <v>194</v>
-      </c>
-      <c r="R133" t="s">
+      <c r="L133" t="s">
+        <v>194</v>
+      </c>
+      <c r="P133" t="s">
         <v>194</v>
       </c>
       <c r="S133" t="n">
@@ -4311,7 +4308,7 @@
       <c r="C134" t="s">
         <v>146</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>194</v>
       </c>
       <c r="S134" t="n">
@@ -4331,14 +4328,17 @@
       <c r="C135" t="s">
         <v>146</v>
       </c>
-      <c r="L135" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q135" t="s">
+      <c r="D135" t="s">
+        <v>194</v>
+      </c>
+      <c r="G135" t="s">
+        <v>194</v>
+      </c>
+      <c r="I135" t="s">
         <v>194</v>
       </c>
       <c r="S135" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T135" t="s">
         <v>19</v>
@@ -4354,13 +4354,13 @@
       <c r="C136" t="s">
         <v>146</v>
       </c>
-      <c r="E136" t="s">
-        <v>194</v>
-      </c>
-      <c r="I136" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q136" t="s">
+      <c r="H136" t="s">
+        <v>194</v>
+      </c>
+      <c r="J136" t="s">
+        <v>194</v>
+      </c>
+      <c r="M136" t="s">
         <v>194</v>
       </c>
       <c r="S136" t="n">
@@ -4380,13 +4380,13 @@
       <c r="C137" t="s">
         <v>146</v>
       </c>
-      <c r="D137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F137" t="s">
-        <v>194</v>
-      </c>
-      <c r="P137" t="s">
+      <c r="E137" t="s">
+        <v>194</v>
+      </c>
+      <c r="L137" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q137" t="s">
         <v>194</v>
       </c>
       <c r="S137" t="n">
@@ -4406,13 +4406,13 @@
       <c r="C138" t="s">
         <v>146</v>
       </c>
-      <c r="D138" t="s">
-        <v>194</v>
-      </c>
       <c r="G138" t="s">
         <v>194</v>
       </c>
-      <c r="R138" t="s">
+      <c r="J138" t="s">
+        <v>194</v>
+      </c>
+      <c r="N138" t="s">
         <v>194</v>
       </c>
       <c r="S138" t="n">
@@ -4432,13 +4432,13 @@
       <c r="C139" t="s">
         <v>143</v>
       </c>
+      <c r="D139" t="s">
+        <v>194</v>
+      </c>
       <c r="E139" t="s">
         <v>194</v>
       </c>
-      <c r="F139" t="s">
-        <v>194</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="K139" t="s">
         <v>194</v>
       </c>
       <c r="M139" t="s">
@@ -4465,22 +4465,22 @@
       <c r="C140" t="s">
         <v>143</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>194</v>
       </c>
       <c r="F140" t="s">
         <v>194</v>
       </c>
+      <c r="G140" t="s">
+        <v>194</v>
+      </c>
       <c r="H140" t="s">
         <v>194</v>
       </c>
-      <c r="J140" t="s">
-        <v>194</v>
-      </c>
-      <c r="M140" t="s">
-        <v>194</v>
-      </c>
-      <c r="R140" t="s">
+      <c r="L140" t="s">
+        <v>194</v>
+      </c>
+      <c r="P140" t="s">
         <v>194</v>
       </c>
       <c r="S140" t="n">
@@ -4498,7 +4498,7 @@
       <c r="C141" t="s">
         <v>152</v>
       </c>
-      <c r="H141" t="s">
+      <c r="E141" t="s">
         <v>194</v>
       </c>
       <c r="S141" t="n">
@@ -4518,7 +4518,7 @@
       <c r="C142" t="s">
         <v>152</v>
       </c>
-      <c r="H142" t="s">
+      <c r="Q142" t="s">
         <v>194</v>
       </c>
       <c r="S142" t="n">
@@ -4538,13 +4538,13 @@
       <c r="C143" t="s">
         <v>152</v>
       </c>
-      <c r="E143" t="s">
-        <v>194</v>
-      </c>
-      <c r="I143" t="s">
-        <v>194</v>
-      </c>
-      <c r="P143" t="s">
+      <c r="M143" t="s">
+        <v>194</v>
+      </c>
+      <c r="O143" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q143" t="s">
         <v>194</v>
       </c>
       <c r="S143" t="n">
@@ -4567,10 +4567,10 @@
       <c r="D144" t="s">
         <v>194</v>
       </c>
-      <c r="N144" t="s">
-        <v>194</v>
-      </c>
-      <c r="P144" t="s">
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+      <c r="I144" t="s">
         <v>194</v>
       </c>
       <c r="S144" t="n">
@@ -4590,13 +4590,13 @@
       <c r="C145" t="s">
         <v>152</v>
       </c>
-      <c r="J145" t="s">
-        <v>194</v>
-      </c>
-      <c r="L145" t="s">
-        <v>194</v>
-      </c>
-      <c r="M145" t="s">
+      <c r="D145" t="s">
+        <v>194</v>
+      </c>
+      <c r="I145" t="s">
+        <v>194</v>
+      </c>
+      <c r="P145" t="s">
         <v>194</v>
       </c>
       <c r="S145" t="n">
@@ -4616,13 +4616,13 @@
       <c r="C146" t="s">
         <v>152</v>
       </c>
-      <c r="E146" t="s">
-        <v>194</v>
-      </c>
       <c r="G146" t="s">
         <v>194</v>
       </c>
-      <c r="I146" t="s">
+      <c r="M146" t="s">
+        <v>194</v>
+      </c>
+      <c r="P146" t="s">
         <v>194</v>
       </c>
       <c r="S146" t="n">
@@ -4645,19 +4645,19 @@
       <c r="D147" t="s">
         <v>194</v>
       </c>
+      <c r="E147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" t="s">
+        <v>194</v>
+      </c>
       <c r="H147" t="s">
         <v>194</v>
       </c>
-      <c r="I147" t="s">
-        <v>194</v>
-      </c>
-      <c r="J147" t="s">
-        <v>194</v>
-      </c>
-      <c r="L147" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q147" t="s">
+      <c r="M147" t="s">
+        <v>194</v>
+      </c>
+      <c r="R147" t="s">
         <v>194</v>
       </c>
       <c r="S147" t="n">
@@ -4678,19 +4678,19 @@
       <c r="D148" t="s">
         <v>194</v>
       </c>
-      <c r="F148" t="s">
-        <v>194</v>
-      </c>
       <c r="G148" t="s">
         <v>194</v>
       </c>
+      <c r="H148" t="s">
+        <v>194</v>
+      </c>
       <c r="I148" t="s">
         <v>194</v>
       </c>
-      <c r="J148" t="s">
-        <v>194</v>
-      </c>
-      <c r="P148" t="s">
+      <c r="L148" t="s">
+        <v>194</v>
+      </c>
+      <c r="M148" t="s">
         <v>194</v>
       </c>
       <c r="S148" t="n">
@@ -4708,7 +4708,7 @@
       <c r="C149" t="s">
         <v>161</v>
       </c>
-      <c r="O149" t="s">
+      <c r="F149" t="s">
         <v>194</v>
       </c>
       <c r="S149" t="n">
@@ -4728,7 +4728,7 @@
       <c r="C150" t="s">
         <v>161</v>
       </c>
-      <c r="D150" t="s">
+      <c r="R150" t="s">
         <v>194</v>
       </c>
       <c r="S150" t="n">
@@ -4748,10 +4748,10 @@
       <c r="C151" t="s">
         <v>161</v>
       </c>
-      <c r="E151" t="s">
-        <v>194</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="M151" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q151" t="s">
         <v>194</v>
       </c>
       <c r="S151" t="n">
@@ -4771,13 +4771,13 @@
       <c r="C152" t="s">
         <v>161</v>
       </c>
-      <c r="I152" t="s">
-        <v>194</v>
-      </c>
-      <c r="J152" t="s">
-        <v>194</v>
-      </c>
-      <c r="L152" t="s">
+      <c r="D152" t="s">
+        <v>194</v>
+      </c>
+      <c r="P152" t="s">
+        <v>194</v>
+      </c>
+      <c r="R152" t="s">
         <v>194</v>
       </c>
       <c r="S152" t="n">
@@ -4797,13 +4797,13 @@
       <c r="C153" t="s">
         <v>161</v>
       </c>
-      <c r="D153" t="s">
-        <v>194</v>
-      </c>
-      <c r="F153" t="s">
-        <v>194</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="G153" t="s">
+        <v>194</v>
+      </c>
+      <c r="L153" t="s">
+        <v>194</v>
+      </c>
+      <c r="R153" t="s">
         <v>194</v>
       </c>
       <c r="S153" t="n">
@@ -4826,19 +4826,19 @@
       <c r="E154" t="s">
         <v>194</v>
       </c>
+      <c r="F154" t="s">
+        <v>194</v>
+      </c>
       <c r="G154" t="s">
         <v>194</v>
       </c>
+      <c r="H154" t="s">
+        <v>194</v>
+      </c>
       <c r="I154" t="s">
         <v>194</v>
       </c>
-      <c r="M154" t="s">
-        <v>194</v>
-      </c>
       <c r="Q154" t="s">
-        <v>194</v>
-      </c>
-      <c r="R154" t="s">
         <v>194</v>
       </c>
       <c r="S154" t="n">
@@ -4856,26 +4856,14 @@
       <c r="C155" t="s">
         <v>161</v>
       </c>
-      <c r="F155" t="s">
-        <v>194</v>
-      </c>
-      <c r="I155" t="s">
-        <v>194</v>
-      </c>
       <c r="J155" t="s">
         <v>194</v>
       </c>
-      <c r="L155" t="s">
-        <v>194</v>
-      </c>
-      <c r="M155" t="s">
-        <v>194</v>
-      </c>
-      <c r="O155" t="s">
+      <c r="P155" t="s">
         <v>194</v>
       </c>
       <c r="S155" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="T155"/>
     </row>
@@ -4889,22 +4877,22 @@
       <c r="C156" t="s">
         <v>161</v>
       </c>
-      <c r="E156" t="s">
-        <v>194</v>
-      </c>
       <c r="F156" t="s">
         <v>194</v>
       </c>
       <c r="G156" t="s">
         <v>194</v>
       </c>
-      <c r="N156" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>194</v>
-      </c>
-      <c r="R156" t="s">
+      <c r="H156" t="s">
+        <v>194</v>
+      </c>
+      <c r="L156" t="s">
+        <v>194</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
         <v>194</v>
       </c>
       <c r="S156" t="n">
@@ -4922,7 +4910,7 @@
       <c r="C157" t="s">
         <v>170</v>
       </c>
-      <c r="F157" t="s">
+      <c r="I157" t="s">
         <v>194</v>
       </c>
       <c r="L157" t="s">
@@ -4948,10 +4936,10 @@
       <c r="E158" t="s">
         <v>194</v>
       </c>
-      <c r="H158" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q158" t="s">
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+      <c r="M158" t="s">
         <v>194</v>
       </c>
       <c r="S158" t="n">
@@ -4974,10 +4962,10 @@
       <c r="E159" t="s">
         <v>194</v>
       </c>
-      <c r="G159" t="s">
-        <v>194</v>
-      </c>
-      <c r="R159" t="s">
+      <c r="F159" t="s">
+        <v>194</v>
+      </c>
+      <c r="L159" t="s">
         <v>194</v>
       </c>
       <c r="S159" t="n">
@@ -4997,23 +4985,26 @@
       <c r="C160" t="s">
         <v>170</v>
       </c>
+      <c r="D160" t="s">
+        <v>194</v>
+      </c>
       <c r="F160" t="s">
         <v>194</v>
       </c>
       <c r="G160" t="s">
         <v>194</v>
       </c>
-      <c r="J160" t="s">
-        <v>194</v>
-      </c>
       <c r="M160" t="s">
         <v>194</v>
       </c>
+      <c r="Q160" t="s">
+        <v>194</v>
+      </c>
       <c r="R160" t="s">
         <v>194</v>
       </c>
       <c r="S160" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T160"/>
     </row>
@@ -5027,19 +5018,19 @@
       <c r="C161" t="s">
         <v>170</v>
       </c>
-      <c r="D161" t="s">
-        <v>194</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E161" t="s">
         <v>194</v>
       </c>
       <c r="H161" t="s">
         <v>194</v>
       </c>
-      <c r="J161" t="s">
-        <v>194</v>
-      </c>
-      <c r="M161" t="s">
+      <c r="L161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q161" t="s">
         <v>194</v>
       </c>
       <c r="R161" t="s">
@@ -5060,20 +5051,23 @@
       <c r="C162" t="s">
         <v>170</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
+        <v>194</v>
+      </c>
+      <c r="I162" t="s">
         <v>194</v>
       </c>
       <c r="J162" t="s">
         <v>194</v>
       </c>
+      <c r="M162" t="s">
+        <v>194</v>
+      </c>
       <c r="P162" t="s">
         <v>194</v>
       </c>
-      <c r="R162" t="s">
-        <v>194</v>
-      </c>
       <c r="S162" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T162"/>
     </row>
@@ -5090,20 +5084,23 @@
       <c r="E163" t="s">
         <v>194</v>
       </c>
+      <c r="F163" t="s">
+        <v>194</v>
+      </c>
       <c r="G163" t="s">
         <v>194</v>
       </c>
       <c r="H163" t="s">
         <v>194</v>
       </c>
-      <c r="L163" t="s">
+      <c r="I163" t="s">
         <v>194</v>
       </c>
       <c r="M163" t="s">
         <v>194</v>
       </c>
       <c r="S163" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T163"/>
     </row>
@@ -5117,17 +5114,23 @@
       <c r="C164" t="s">
         <v>170</v>
       </c>
-      <c r="F164" t="s">
-        <v>194</v>
-      </c>
-      <c r="J164" t="s">
-        <v>194</v>
-      </c>
-      <c r="L164" t="s">
+      <c r="D164" t="s">
+        <v>194</v>
+      </c>
+      <c r="G164" t="s">
+        <v>194</v>
+      </c>
+      <c r="H164" t="s">
+        <v>194</v>
+      </c>
+      <c r="M164" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q164" t="s">
         <v>194</v>
       </c>
       <c r="S164" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T164"/>
     </row>
@@ -5141,7 +5144,7 @@
       <c r="C165" t="s">
         <v>179</v>
       </c>
-      <c r="G165" t="s">
+      <c r="F165" t="s">
         <v>194</v>
       </c>
       <c r="I165" t="s">
@@ -5164,13 +5167,13 @@
       <c r="C166" t="s">
         <v>179</v>
       </c>
-      <c r="H166" t="s">
-        <v>194</v>
-      </c>
-      <c r="L166" t="s">
-        <v>194</v>
-      </c>
-      <c r="R166" t="s">
+      <c r="E166" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" t="s">
+        <v>194</v>
+      </c>
+      <c r="M166" t="s">
         <v>194</v>
       </c>
       <c r="S166" t="n">
@@ -5190,19 +5193,19 @@
       <c r="C167" t="s">
         <v>182</v>
       </c>
+      <c r="D167" t="s">
+        <v>194</v>
+      </c>
       <c r="E167" t="s">
         <v>194</v>
       </c>
-      <c r="H167" t="s">
+      <c r="G167" t="s">
         <v>194</v>
       </c>
       <c r="J167" t="s">
         <v>194</v>
       </c>
       <c r="M167" t="s">
-        <v>194</v>
-      </c>
-      <c r="P167" t="s">
         <v>194</v>
       </c>
       <c r="S167" t="n">
@@ -5220,20 +5223,17 @@
       <c r="C168" t="s">
         <v>182</v>
       </c>
-      <c r="E168" t="s">
-        <v>194</v>
-      </c>
-      <c r="F168" t="s">
-        <v>194</v>
-      </c>
-      <c r="L168" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q168" t="s">
+      <c r="H168" t="s">
+        <v>194</v>
+      </c>
+      <c r="I168" t="s">
+        <v>194</v>
+      </c>
+      <c r="M168" t="s">
         <v>194</v>
       </c>
       <c r="S168" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T168"/>
     </row>
@@ -5247,7 +5247,7 @@
       <c r="C169" t="s">
         <v>182</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>194</v>
       </c>
       <c r="F169" t="s">
@@ -5256,13 +5256,13 @@
       <c r="G169" t="s">
         <v>194</v>
       </c>
-      <c r="I169" t="s">
-        <v>194</v>
-      </c>
-      <c r="J169" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q169" t="s">
+      <c r="H169" t="s">
+        <v>194</v>
+      </c>
+      <c r="M169" t="s">
+        <v>194</v>
+      </c>
+      <c r="N169" t="s">
         <v>194</v>
       </c>
       <c r="S169" t="n">
@@ -5283,19 +5283,19 @@
       <c r="E170" t="s">
         <v>194</v>
       </c>
+      <c r="F170" t="s">
+        <v>194</v>
+      </c>
       <c r="G170" t="s">
         <v>194</v>
       </c>
-      <c r="H170" t="s">
-        <v>194</v>
-      </c>
-      <c r="I170" t="s">
-        <v>194</v>
-      </c>
-      <c r="J170" t="s">
-        <v>194</v>
-      </c>
       <c r="L170" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>194</v>
+      </c>
+      <c r="R170" t="s">
         <v>194</v>
       </c>
       <c r="S170" t="n">
@@ -5311,31 +5311,31 @@
         <v>41.0</v>
       </c>
       <c r="E171" t="n" s="2">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="F171" t="n" s="2">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="G171" t="n" s="2">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="H171" t="n" s="2">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="I171" t="n" s="2">
         <v>53.0</v>
       </c>
       <c r="J171" t="n" s="2">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="K171" t="n" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L171" t="n" s="2">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="M171" t="n" s="2">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="N171" t="n" s="2">
         <v>17.0</v>
@@ -5344,13 +5344,13 @@
         <v>3.0</v>
       </c>
       <c r="P171" t="n" s="2">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q171" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="R171" t="n" s="2">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="S171" t="n" s="2">
         <v>582.0</v>
